--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1163.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1163.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.8091910046234552</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.04045955023117276</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.04045955023117276</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.06473528036987641</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.06274475832281941</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01274475832281941</v>
+        <v>0.01542939954576002</v>
       </c>
       <c r="B65" t="n">
-        <v>0.009575338160960368</v>
+        <v>0.01159235150082759</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001520215383350246</v>
+        <v>0.001495218700270494</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007031817865457438</v>
+        <v>0.0007844027436048575</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001549909476740351</v>
+        <v>0.004999999999999977</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0008116669638117297</v>
+        <v>0.0008510049395332952</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.002999999999999975</v>
+        <v>0.009856231693654405</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0004869639376218282</v>
+        <v>0.0007751994968348061</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.009159817823607308</v>
+        <v>0.001495218700270494</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007694970577490419</v>
+        <v>0.0007844027436048575</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.001975366014055929</v>
+        <v>0.002900752132776574</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001406363573091488</v>
+        <v>0.001568805487209715</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.00319827795123049</v>
+        <v>0.007899494897075005</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001623333927623459</v>
+        <v>0.001555550868243963</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.008520866736035915</v>
+        <v>0.02022383005485684</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001611693879940688</v>
+        <v>0.001550398993669612</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.0185189803495851</v>
+        <v>0.002900752132776574</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001538994115498084</v>
+        <v>0.001568805487209715</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.004320024836074104</v>
+        <v>0.003999999999999997</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002109545359637231</v>
+        <v>0.002103684210526314</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
+        <v>0.01221237287210861</v>
+      </c>
+      <c r="K68" s="171" t="n">
+        <v>0.002333326302365945</v>
+      </c>
+      <c r="L68" s="172" t="n">
+        <v>0.02942251947312957</v>
+      </c>
+      <c r="M68" s="170" t="n">
+        <v>0.002325598490504418</v>
+      </c>
+      <c r="N68" s="171" t="n">
         <v>0.003999999999999997</v>
       </c>
-      <c r="K68" s="171" t="n">
+      <c r="O68" s="172" t="n">
         <v>0.002103684210526314</v>
-      </c>
-      <c r="L68" s="172" t="n">
-        <v>0.01271563485429705</v>
-      </c>
-      <c r="M68" s="170" t="n">
-        <v>0.002417540819911031</v>
-      </c>
-      <c r="N68" s="171" t="n">
-        <v>0.02555799848383716</v>
-      </c>
-      <c r="O68" s="172" t="n">
-        <v>0.002308491173247126</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.005508764793361799</v>
+        <v>0.005373557842003072</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002812727146182975</v>
+        <v>0.00313761097441943</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.005394956923360977</v>
+        <v>0.01573954404107195</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003246667855246919</v>
+        <v>0.003111101736487926</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01605442373503482</v>
+        <v>0.03687202433799497</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003223387759881375</v>
+        <v>0.003100797987339224</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.03295738313226743</v>
+        <v>0.005373557842003072</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003077988230996168</v>
+        <v>0.00313761097441943</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.00319177938698679</v>
+        <v>0.002103684210526314</v>
       </c>
       <c r="B70" t="n">
-        <v>0.006068932534675907</v>
+        <v>0.003999999999999997</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.006068932534675907</v>
+        <v>0.00642737250431976</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.00319177938698679</v>
+        <v>0.003922013718024288</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.00661533253839227</v>
+        <v>0.01924707339800619</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.004058334819058648</v>
+        <v>0.003888877170609907</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.01992906738411757</v>
+        <v>0.04349206903897518</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.004029234699851719</v>
+        <v>0.003875997484174031</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.0393976452007796</v>
+        <v>0.00642737250431976</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003847485288745209</v>
+        <v>0.003922013718024288</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.005418774077361896</v>
+        <v>0.007742718850245557</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004219090719274463</v>
+        <v>0.004706416461629145</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.007575809781488467</v>
+        <v>0.02290102593695242</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004870001782870378</v>
+        <v>0.00466665260473189</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02363139980741352</v>
+        <v>0.04999999999999999</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004835081639822062</v>
+        <v>0.004824963785610815</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.04565929559527765</v>
+        <v>0.007742718850245557</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004616982346494252</v>
+        <v>0.004706416461629145</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.006256770536745698</v>
+        <v>0.008716008433500538</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.004922272505820207</v>
+        <v>0.005490819205234003</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.008584532858031547</v>
+        <v>0.0259674666519516</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005681668746682108</v>
+        <v>0.005444428038853871</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02645325501079102</v>
+        <v>0.05203827950812773</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005640928579792406</v>
+        <v>0.005426396477843642</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.05099999999999999</v>
+        <v>0.008716008433500538</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005587911184210525</v>
+        <v>0.005490819205234003</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.009035552111328907</v>
+        <v>0.009843652807804776</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.00562545429236595</v>
+        <v>0.00627522194883886</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.009749645973403498</v>
+        <v>0.02931246053704487</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006493335710493838</v>
+        <v>0.006222203472975852</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02968646700011821</v>
+        <v>0.05480511567646978</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.00644677551976275</v>
+        <v>0.006201595974678449</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.05223003779453245</v>
+        <v>0.009843652807804776</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006155976461992336</v>
+        <v>0.00627522194883886</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.007764340756466891</v>
+        <v>0.01092206352687836</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006328636078911694</v>
+        <v>0.007059624692443717</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01057929333298631</v>
+        <v>0.03150207258627316</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007305002674305568</v>
+        <v>0.006999978907097834</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03282286978126336</v>
+        <v>0.05778653213392831</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007252622459733093</v>
+        <v>0.006976795471513255</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.05535952106216319</v>
+        <v>0.01092206352687836</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006925473519741378</v>
+        <v>0.007059624692443717</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01045235842751505</v>
+        <v>0.01154765214444135</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007031817865457438</v>
+        <v>0.007844027436048576</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01138161914216194</v>
+        <v>0.03470236779367769</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.008116669638117297</v>
+        <v>0.007777754341219815</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03575429736009481</v>
+        <v>0.06034268019188449</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.008058469399703437</v>
+        <v>0.007751994968348061</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.05618103564692328</v>
+        <v>0.01154765214444135</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007694970577490419</v>
+        <v>0.007844027436048576</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01010882707982877</v>
+        <v>0.01241683021421388</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.007734999652003183</v>
+        <v>0.008628430179653432</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01246476760631242</v>
+        <v>0.03677941115329941</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008928336601929028</v>
+        <v>0.008555529775341797</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.03900961661272245</v>
+        <v>0.0625898336796849</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.009045845957547319</v>
+        <v>0.008628390881482395</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.05804831181718706</v>
+        <v>0.01241683021421388</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008464467635239462</v>
+        <v>0.008628430179653432</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01174296866876341</v>
+        <v>0.01352600928991596</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008438181438548926</v>
+        <v>0.00941283292325829</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01333688293081969</v>
+        <v>0.03900961661272245</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009740003565740757</v>
+        <v>0.009484964693350589</v>
       </c>
       <c r="L77" t="n">
-        <v>0.04014799058589077</v>
+        <v>0.06330030634307926</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009670163279644125</v>
+        <v>0.009302393962017673</v>
       </c>
       <c r="N77" t="n">
-        <v>0.06101507984132931</v>
+        <v>0.01352600928991596</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009233964692988504</v>
+        <v>0.00941283292325829</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01136400514967439</v>
+        <v>0.01427160092526772</v>
       </c>
       <c r="G78" t="n">
-        <v>0.00914136322509467</v>
+        <v>0.01019723566686315</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01400610932106576</v>
+        <v>0.03975347451217015</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01055167052955249</v>
+        <v>0.01011108064358576</v>
       </c>
       <c r="L78" t="n">
-        <v>0.04294523402804881</v>
+        <v>0.06557629477732874</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01047601021961447</v>
+        <v>0.01007759345885248</v>
       </c>
       <c r="N78" t="n">
-        <v>0.0625898336796849</v>
+        <v>0.01427160092526772</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009796818813349803</v>
+        <v>0.01019723566686315</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01274475832281941</v>
+        <v>0.0147500166739892</v>
       </c>
       <c r="G79" t="n">
-        <v>0.009575338160960368</v>
+        <v>0.01098163841046801</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01542939954576002</v>
+        <v>0.04168052335655389</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01159235150082759</v>
+        <v>0.01088885607770774</v>
       </c>
       <c r="L79" t="n">
-        <v>0.04565637137068243</v>
+        <v>0.06775923487908792</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01128185715958481</v>
+        <v>0.01085279295568728</v>
       </c>
       <c r="N79" t="n">
-        <v>0.06559770031821083</v>
+        <v>0.0147500166739892</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01077295880848659</v>
+        <v>0.01098163841046801</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.0126195716997546</v>
+        <v>0.01542939954576002</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01054772679818616</v>
+        <v>0.01159235150082759</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01608093942550926</v>
+        <v>0.0431868231486052</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01217500445717595</v>
+        <v>0.01166663151182972</v>
       </c>
       <c r="L80" t="n">
-        <v>0.04746677465473648</v>
+        <v>0.06954666210531124</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01208770409955516</v>
+        <v>0.01162799245252209</v>
       </c>
       <c r="N80" t="n">
-        <v>0.06865024975645079</v>
+        <v>0.01542939954576002</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01154245586623563</v>
+        <v>0.01159235150082759</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01427508077290399</v>
+        <v>0.01594548894252154</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0112509085847319</v>
+        <v>0.01255044389767772</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01683878687494414</v>
+        <v>0.04417163150054357</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01298667142098768</v>
+        <v>0.0124444069459517</v>
       </c>
       <c r="L81" t="n">
-        <v>0.04986181592115579</v>
+        <v>0.07133611191295325</v>
       </c>
       <c r="M81" t="n">
-        <v>0.0128935510395255</v>
+        <v>0.0124031919493569</v>
       </c>
       <c r="N81" t="n">
-        <v>0.07174190340794856</v>
+        <v>0.01594548894252154</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01231195292398467</v>
+        <v>0.01255044389767772</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01394483303294384</v>
+        <v>0.01652910013283679</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01195409037127764</v>
+        <v>0.01333484664128258</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01784312481252948</v>
+        <v>0.04593420602458859</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01379833838479941</v>
+        <v>0.01322218238007369</v>
       </c>
       <c r="L82" t="n">
-        <v>0.0525268672108852</v>
+        <v>0.07312511975896868</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01369939797949584</v>
+        <v>0.0131783914461917</v>
       </c>
       <c r="N82" t="n">
-        <v>0.07483013052936494</v>
+        <v>0.01652910013283679</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01308144998173371</v>
+        <v>0.01333484664128258</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01362442262058508</v>
+        <v>0.01710963782253468</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01265727215782339</v>
+        <v>0.01411924938488743</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01878073518715888</v>
+        <v>0.04757380433295968</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01461000534861114</v>
+        <v>0.01399995781419567</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05484730056486969</v>
+        <v>0.07531122110031196</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01450524491946619</v>
+        <v>0.01395359094302651</v>
       </c>
       <c r="N83" t="n">
-        <v>0.07727240037736061</v>
+        <v>0.01710963782253468</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01385094703948276</v>
+        <v>0.01411924938488743</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01430944367653865</v>
+        <v>0.01788647046619107</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01336045394436913</v>
+        <v>0.01490365212849229</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01983839994772593</v>
+        <v>0.04908968403787631</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01542167231242287</v>
+        <v>0.01477773324831765</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05740848802405402</v>
+        <v>0.07789195139393779</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01531109185943653</v>
+        <v>0.01472879043986132</v>
       </c>
       <c r="N84" t="n">
-        <v>0.0810261822085962</v>
+        <v>0.01788647046619107</v>
       </c>
       <c r="O84" t="n">
-        <v>0.0146204440972318</v>
+        <v>0.01490365212849229</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01699549034151547</v>
+        <v>0.01815896651838191</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01406363573091488</v>
+        <v>0.01568805487209715</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02100290104312423</v>
+        <v>0.05018110275155804</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01623333927623459</v>
+        <v>0.01555550868243963</v>
       </c>
       <c r="L85" t="n">
-        <v>0.05929580162938305</v>
+        <v>0.08006484609680059</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01611693879940687</v>
+        <v>0.01550398993669612</v>
       </c>
       <c r="N85" t="n">
-        <v>0.0855489452797325</v>
+        <v>0.01815896651838191</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01538994115498084</v>
+        <v>0.01568805487209715</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01567815675622646</v>
+        <v>0.01872649443368302</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01476681751746062</v>
+        <v>0.01647245761570201</v>
       </c>
       <c r="J86" t="n">
-        <v>0.0219610204222474</v>
+        <v>0.05174731808622438</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01704500624004632</v>
+        <v>0.01633328411656161</v>
       </c>
       <c r="L86" t="n">
-        <v>0.06119461342180169</v>
+        <v>0.08142744066585511</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01692278573937722</v>
+        <v>0.01627918943353093</v>
       </c>
       <c r="N86" t="n">
-        <v>0.08859815884743016</v>
+        <v>0.01872649443368302</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01615943821272988</v>
+        <v>0.01647245761570201</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01635303706138255</v>
+        <v>0.01958842266667028</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01546999930400637</v>
+        <v>0.01725686035930686</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02299954003398905</v>
+        <v>0.05318758765409473</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01785667320385806</v>
+        <v>0.01711105955068359</v>
       </c>
       <c r="L87" t="n">
-        <v>0.06339029544225477</v>
+        <v>0.08357727055805581</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01772863267934756</v>
+        <v>0.01705438893036573</v>
       </c>
       <c r="N87" t="n">
-        <v>0.09243129216834994</v>
+        <v>0.01958842266667028</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01692893527047892</v>
+        <v>0.01725686035930686</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01701572539769468</v>
+        <v>0.02014411967191966</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01617318109055211</v>
+        <v>0.01804126310291172</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02410524182724275</v>
+        <v>0.05420116906738867</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01866834016766978</v>
+        <v>0.01788883498480558</v>
       </c>
       <c r="L88" t="n">
-        <v>0.06486821973168713</v>
+        <v>0.08571187123035717</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01853447961931791</v>
+        <v>0.01782958842720054</v>
       </c>
       <c r="N88" t="n">
-        <v>0.09610581449915256</v>
+        <v>0.02014411967191966</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01769843232822797</v>
+        <v>0.01804126310291172</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01966181590587376</v>
+        <v>0.020392953904007</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01687636287709785</v>
+        <v>0.01882566584651658</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02496490775090213</v>
+        <v>0.05518731993832562</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01948000713148151</v>
+        <v>0.01866661041892756</v>
       </c>
       <c r="L89" t="n">
-        <v>0.0670137583310437</v>
+        <v>0.08782877813971401</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01934032655928825</v>
+        <v>0.01860478792403535</v>
       </c>
       <c r="N89" t="n">
-        <v>0.09917919509649875</v>
+        <v>0.020392953904007</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01846792938597701</v>
+        <v>0.01882566584651658</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02028690272663072</v>
+        <v>0.02103429381750815</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0175795446636436</v>
+        <v>0.01961006859012144</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02596531975386078</v>
+        <v>0.05634529787912518</v>
       </c>
       <c r="K90" t="n">
-        <v>0.02029167409529324</v>
+        <v>0.01944438585304954</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06821228328126927</v>
+        <v>0.08952552674308067</v>
       </c>
       <c r="M90" t="n">
-        <v>0.0201461734992586</v>
+        <v>0.01937998742087015</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1033089032170492</v>
+        <v>0.02103429381750815</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01923742644372605</v>
+        <v>0.01961006859012144</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.0198865800006765</v>
+        <v>0.02176750786699906</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01828272645018934</v>
+        <v>0.0203944713337263</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02699325978501232</v>
+        <v>0.05767436050200678</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02110334105910497</v>
+        <v>0.02022216128717152</v>
       </c>
       <c r="L91" t="n">
-        <v>0.07014916662330872</v>
+        <v>0.09109965249741198</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02095202043922894</v>
+        <v>0.02015518691770496</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1056524081174645</v>
+        <v>0.02176750786699906</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02000692350147509</v>
+        <v>0.0203944713337263</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.01945644186872201</v>
+        <v>0.02219196450705559</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01898590823673508</v>
+        <v>0.02117887407733115</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02763550979325033</v>
+        <v>0.05877376541918991</v>
       </c>
       <c r="K92" t="n">
-        <v>0.0219150080229167</v>
+        <v>0.0209999367212935</v>
       </c>
       <c r="L92" t="n">
-        <v>0.07140978039810694</v>
+        <v>0.09234869085966213</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02175786737919928</v>
+        <v>0.02093038641453977</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1091671790544056</v>
+        <v>0.02219196450705559</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02077642055922413</v>
+        <v>0.02117887407733115</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02099208247147818</v>
+        <v>0.02250703219225363</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01968909002328083</v>
+        <v>0.02196327682093601</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02837885172746846</v>
+        <v>0.06064277024289405</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02272667498672843</v>
+        <v>0.02177771215541548</v>
       </c>
       <c r="L93" t="n">
-        <v>0.07227949664660879</v>
+        <v>0.09507017728678602</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02256371431916962</v>
+        <v>0.02170558591137457</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1111106852845329</v>
+        <v>0.02250703219225363</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02154591761697318</v>
+        <v>0.02196327682093601</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02248909594965597</v>
+        <v>0.02301207937716905</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02039227180982657</v>
+        <v>0.02274767956454087</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02891006753656025</v>
+        <v>0.06148063258533876</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02353834195054016</v>
+        <v>0.02255548758953747</v>
       </c>
       <c r="L94" t="n">
-        <v>0.0731436874097591</v>
+        <v>0.09646164723573813</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02336956125913997</v>
+        <v>0.02248078540820938</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1133403960645075</v>
+        <v>0.02301207937716905</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02231541467472222</v>
+        <v>0.02274767956454087</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02194307644396624</v>
+        <v>0.02350647451637779</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02109545359637232</v>
+        <v>0.02353208230814573</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02931593916941932</v>
+        <v>0.06268661005874349</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02435000891435189</v>
+        <v>0.02333326302365945</v>
       </c>
       <c r="L95" t="n">
-        <v>0.07348772472850276</v>
+        <v>0.09802063616347306</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02417540819911031</v>
+        <v>0.02325598490504419</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1152137806509897</v>
+        <v>0.02350647451637779</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02308491173247126</v>
+        <v>0.02353208230814573</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02234961809511997</v>
+        <v>0.02428958606445568</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02179863538291806</v>
+        <v>0.02431648505175058</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02938324857493932</v>
+        <v>0.06385996027532773</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02516167587816362</v>
+        <v>0.02411103845778143</v>
       </c>
       <c r="L96" t="n">
-        <v>0.07399698064378465</v>
+        <v>0.1001446795269453</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02498125513908066</v>
+        <v>0.02403118440187899</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1178883083006405</v>
+        <v>0.02428958606445568</v>
       </c>
       <c r="O96" t="n">
-        <v>0.0238544087902203</v>
+        <v>0.02431648505175058</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02370431504382807</v>
+        <v>0.02466078247597862</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0225018171694638</v>
+        <v>0.02510088779535544</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02939877770201381</v>
+        <v>0.064299940847311</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02597334284197535</v>
+        <v>0.02488881389190341</v>
       </c>
       <c r="L97" t="n">
-        <v>0.07445682719654953</v>
+        <v>0.1020313127831095</v>
       </c>
       <c r="M97" t="n">
-        <v>0.025787102079051</v>
+        <v>0.0248063838987138</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1182214482701205</v>
+        <v>0.02466078247597862</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02462390584796934</v>
+        <v>0.02510088779535544</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02400276143080146</v>
+        <v>0.02501943220552252</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02320499895600955</v>
+        <v>0.0258852905389603</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02948063296976786</v>
+        <v>0.06530580938691277</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02678500980578708</v>
+        <v>0.02566658932602539</v>
       </c>
       <c r="L98" t="n">
-        <v>0.07410424362407053</v>
+        <v>0.1027780713889201</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02659294901902134</v>
+        <v>0.0255815833955486</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1185706698160904</v>
+        <v>0.02501943220552252</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02539340290571838</v>
+        <v>0.0258852905389603</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02424055139675108</v>
+        <v>0.02566490370766328</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02390818074255529</v>
+        <v>0.02666969328256516</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02929386022446044</v>
+        <v>0.06637682350635257</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02759667676959881</v>
+        <v>0.02644436476014737</v>
       </c>
       <c r="L99" t="n">
-        <v>0.07451960704564031</v>
+        <v>0.1053824908013318</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02739879595899168</v>
+        <v>0.02635678289238341</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1197032279564931</v>
+        <v>0.02566490370766328</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02616289996346742</v>
+        <v>0.02666969328256516</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02441327908238784</v>
+        <v>0.02589656543697672</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02461136252910104</v>
+        <v>0.02745409602617001</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02914802742052219</v>
+        <v>0.06791224081784986</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02840834373341054</v>
+        <v>0.02722214019426936</v>
       </c>
       <c r="L100" t="n">
-        <v>0.07421593194119566</v>
+        <v>0.1060421064772992</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02820464289896203</v>
+        <v>0.02713198238921821</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1189776881471402</v>
+        <v>0.02589656543697672</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02693239702121647</v>
+        <v>0.02745409602617001</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02351653862842271</v>
+        <v>0.02641378584803879</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02531454431564678</v>
+        <v>0.02823849876977487</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02915059683555886</v>
+        <v>0.0686113189336241</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02922001069722227</v>
+        <v>0.02799991562839134</v>
       </c>
       <c r="L101" t="n">
-        <v>0.07380543231773928</v>
+        <v>0.1081544538737768</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02901048983893237</v>
+        <v>0.02790718188605302</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1185858566517286</v>
+        <v>0.02641378584803879</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02770189407896551</v>
+        <v>0.02823849876977487</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02454627347146777</v>
+        <v>0.02681593339542535</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02601772610219252</v>
+        <v>0.02902290151337973</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02870903074717621</v>
+        <v>0.0695733154658949</v>
       </c>
       <c r="K102" t="n">
-        <v>0.030031677661034</v>
+        <v>0.02877769106251332</v>
       </c>
       <c r="L102" t="n">
-        <v>0.07290032218227385</v>
+        <v>0.1090170684477192</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02981633677890272</v>
+        <v>0.02868238138288782</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1174575882508222</v>
+        <v>0.02681593339542535</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02847139113671455</v>
+        <v>0.02902290151337973</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02353083544437097</v>
+        <v>0.02700237653371232</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02672090788873827</v>
+        <v>0.02980730425698459</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02843079143297995</v>
+        <v>0.06989748802688167</v>
       </c>
       <c r="K103" t="n">
-        <v>0.03084334462484573</v>
+        <v>0.02955546649663529</v>
       </c>
       <c r="L103" t="n">
-        <v>0.07201281554180208</v>
+        <v>0.1114274856560809</v>
       </c>
       <c r="M103" t="n">
-        <v>0.03062218371887307</v>
+        <v>0.02945758087972264</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1171227377249848</v>
+        <v>0.02700237653371232</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02924088819446359</v>
+        <v>0.02980730425698459</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02349161550364835</v>
+        <v>0.02757248371747553</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02742408967528401</v>
+        <v>0.03059170700058944</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02842334117057586</v>
+        <v>0.07118309422880389</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03165501158865746</v>
+        <v>0.03033324193075728</v>
       </c>
       <c r="L104" t="n">
-        <v>0.07195512640332671</v>
+        <v>0.1123832409558166</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03142803065884341</v>
+        <v>0.03023278037655744</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1160111598547802</v>
+        <v>0.02757248371747553</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03001038525221264</v>
+        <v>0.03059170700058944</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.0234303646062423</v>
+        <v>0.02772562340129094</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02812727146182975</v>
+        <v>0.0313761097441943</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02799414223756964</v>
+        <v>0.07162939168388113</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03246667855246919</v>
+        <v>0.03111101736487926</v>
       </c>
       <c r="L105" t="n">
-        <v>0.07123946877385037</v>
+        <v>0.1133818698038808</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03223387759881375</v>
+        <v>0.03100797987339225</v>
       </c>
       <c r="N105" t="n">
-        <v>0.115052709420772</v>
+        <v>0.02772562340129094</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03077988230996168</v>
+        <v>0.0313761097441943</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02234883370909521</v>
+        <v>0.02816116403973437</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0288304532483755</v>
+        <v>0.03216051248779916</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02755065691156708</v>
+        <v>0.07233563800433285</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03327834551628092</v>
+        <v>0.03188879279900124</v>
       </c>
       <c r="L106" t="n">
-        <v>0.06997805666037579</v>
+        <v>0.1142209076572281</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03303972453878409</v>
+        <v>0.03178317937022705</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1132772412035241</v>
+        <v>0.02816116403973437</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03154937936771072</v>
+        <v>0.03216051248779916</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02324877376914948</v>
+        <v>0.02837847408738174</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02953363503492124</v>
+        <v>0.03294491523140402</v>
       </c>
       <c r="J107" t="n">
-        <v>0.0272003474701739</v>
+        <v>0.07340109080237853</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03409001248009265</v>
+        <v>0.03266656823312322</v>
       </c>
       <c r="L107" t="n">
-        <v>0.06968310406990569</v>
+        <v>0.116397889972813</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03384557147875444</v>
+        <v>0.03255837886706186</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1118146099836002</v>
+        <v>0.02837847408738174</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03231887642545976</v>
+        <v>0.03294491523140402</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02213193574334747</v>
+        <v>0.02887692199880894</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03023681682146698</v>
+        <v>0.03372931797500887</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02695067619099584</v>
+        <v>0.07382500769023764</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03490167944390438</v>
+        <v>0.0334443436672452</v>
       </c>
       <c r="L108" t="n">
-        <v>0.06836682500944269</v>
+        <v>0.1172103522075901</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03465141841872479</v>
+        <v>0.03333357836389667</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1099946705415641</v>
+        <v>0.02887692199880894</v>
       </c>
       <c r="O108" t="n">
-        <v>0.0330883734832088</v>
+        <v>0.03372931797500887</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02200007058863157</v>
+        <v>0.02905587622859185</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03093999860801273</v>
+        <v>0.03451372071861373</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02660910535163867</v>
+        <v>0.07420664628012974</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03571334640771611</v>
+        <v>0.03422211910136719</v>
       </c>
       <c r="L109" t="n">
-        <v>0.06804143348598959</v>
+        <v>0.118155829818514</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03545726535869512</v>
+        <v>0.03410877786073147</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1087472776579795</v>
+        <v>0.02905587622859185</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03385787054095785</v>
+        <v>0.03451372071861373</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.0228549292619442</v>
+        <v>0.02941470523130636</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03164318039455847</v>
+        <v>0.03529812346221859</v>
       </c>
       <c r="J110" t="n">
-        <v>0.0260830972297081</v>
+        <v>0.07454526418427432</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03652501337152784</v>
+        <v>0.03499989453548917</v>
       </c>
       <c r="L110" t="n">
-        <v>0.06661914350654899</v>
+        <v>0.1190318582625394</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03626311229866547</v>
+        <v>0.03488397735756627</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1076022861134103</v>
+        <v>0.02941470523130636</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03462736759870689</v>
+        <v>0.03529812346221859</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02269826272022772</v>
+        <v>0.02965277746152835</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03234636218110422</v>
+        <v>0.03608252620582345</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02588011410280988</v>
+        <v>0.07534011901489082</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03733668033533957</v>
+        <v>0.03577766996961115</v>
       </c>
       <c r="L111" t="n">
-        <v>0.06581216907812368</v>
+        <v>0.1204359729966206</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03706895923863581</v>
+        <v>0.03565917685440108</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1058895506884201</v>
+        <v>0.02965277746152835</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03539686465645593</v>
+        <v>0.03608252620582345</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02353182192042452</v>
+        <v>0.02996946137383373</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03304954396764996</v>
+        <v>0.03686692894942831</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02570761824854978</v>
+        <v>0.07589046838419874</v>
       </c>
       <c r="K112" t="n">
-        <v>0.0381483472991513</v>
+        <v>0.03655544540373314</v>
       </c>
       <c r="L112" t="n">
-        <v>0.06503272420771633</v>
+        <v>0.1213657094777124</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03787480617860615</v>
+        <v>0.03643437635123589</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1036389261635728</v>
+        <v>0.02996946137383373</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03616636171420497</v>
+        <v>0.03686692894942831</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02135735781947698</v>
+        <v>0.03006412542279835</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0337527257541957</v>
+        <v>0.03765133169303316</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02537307194453352</v>
+        <v>0.07649556990441764</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03896001426296303</v>
+        <v>0.03733322083785512</v>
       </c>
       <c r="L113" t="n">
-        <v>0.06469302290232962</v>
+        <v>0.1220186031627692</v>
       </c>
       <c r="M113" t="n">
-        <v>0.0386806531185765</v>
+        <v>0.03720957584807069</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1025802673194321</v>
+        <v>0.03006412542279835</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03693585877195402</v>
+        <v>0.03765133169303316</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02317662137432751</v>
+        <v>0.03003613806299815</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03445590754074145</v>
+        <v>0.03843573443663802</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02508393746836685</v>
+        <v>0.07665468118776697</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03977168122677475</v>
+        <v>0.03811099627197709</v>
       </c>
       <c r="L114" t="n">
-        <v>0.06430527916896622</v>
+        <v>0.1222921895087457</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03948650005854684</v>
+        <v>0.0379847753449055</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1016434289365618</v>
+        <v>0.03003613806299815</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03770535582970305</v>
+        <v>0.03843573443663802</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02099136354191847</v>
+        <v>0.03048486774900896</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03515908932728719</v>
+        <v>0.03922013718024288</v>
       </c>
       <c r="J115" t="n">
-        <v>0.0250476770976555</v>
+        <v>0.07656705984646625</v>
       </c>
       <c r="K115" t="n">
-        <v>0.04058334819058649</v>
+        <v>0.03888877170609908</v>
       </c>
       <c r="L115" t="n">
-        <v>0.06338170701462889</v>
+        <v>0.1227840039725965</v>
       </c>
       <c r="M115" t="n">
-        <v>0.04029234699851719</v>
+        <v>0.03875997484174031</v>
       </c>
       <c r="N115" t="n">
-        <v>0.09995826579552552</v>
+        <v>0.03048486774900896</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03847485288745209</v>
+        <v>0.03922013718024288</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02180333527919226</v>
+        <v>0.03050968293540671</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03586227111383294</v>
+        <v>0.04000453992384773</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02517175311000525</v>
+        <v>0.07683196349273491</v>
       </c>
       <c r="K116" t="n">
-        <v>0.04139501515439822</v>
+        <v>0.03966654714022105</v>
       </c>
       <c r="L116" t="n">
-        <v>0.06303452044632032</v>
+        <v>0.123691582011276</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04109819393848753</v>
+        <v>0.03953517433857511</v>
       </c>
       <c r="N116" t="n">
-        <v>0.09985463267688727</v>
+        <v>0.03050968293540671</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03924434994520114</v>
+        <v>0.04000453992384773</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02161428754309126</v>
+        <v>0.03050995207676724</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03656545290037868</v>
+        <v>0.04078894266745259</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02496214897392682</v>
+        <v>0.07734864973879249</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04220668211820994</v>
+        <v>0.04044432257434304</v>
       </c>
       <c r="L117" t="n">
-        <v>0.06217593347104317</v>
+        <v>0.1244124590817389</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04190404087845787</v>
+        <v>0.04031037383540992</v>
       </c>
       <c r="N117" t="n">
-        <v>0.0987623843612106</v>
+        <v>0.03050995207676724</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04001384700295018</v>
+        <v>0.04078894266745259</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02042597129055787</v>
+        <v>0.03058504362766651</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03726863468692442</v>
+        <v>0.04157334541105745</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02500773614580636</v>
+        <v>0.07781637619685849</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04301834908202168</v>
+        <v>0.04122209800846502</v>
       </c>
       <c r="L118" t="n">
-        <v>0.06221816009580014</v>
+        <v>0.1246441706409398</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04270988781842822</v>
+        <v>0.04108557333224473</v>
       </c>
       <c r="N118" t="n">
-        <v>0.09831137562905945</v>
+        <v>0.03058504362766651</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04078334406069922</v>
+        <v>0.04157334541105745</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02124013747853447</v>
+        <v>0.03085879909152003</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03797181647347016</v>
+        <v>0.0423577481546623</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02500117436389747</v>
+        <v>0.07763440047915243</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04383001604583341</v>
+        <v>0.041999873442587</v>
       </c>
       <c r="L119" t="n">
-        <v>0.06157341432759394</v>
+        <v>0.1239842521458333</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04351573475839856</v>
+        <v>0.04186077282907953</v>
       </c>
       <c r="N119" t="n">
-        <v>0.09803146126099743</v>
+        <v>0.03085879909152003</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04155284111844827</v>
+        <v>0.0423577481546623</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02005853706396345</v>
+        <v>0.03065716777638466</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03867499826001591</v>
+        <v>0.04314215089826717</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02533822555717453</v>
+        <v>0.07801923322544491</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04464168300964513</v>
+        <v>0.04277764887670898</v>
       </c>
       <c r="L120" t="n">
-        <v>0.06155391017342729</v>
+        <v>0.1251796673593698</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04432158169836891</v>
+        <v>0.04263597232591434</v>
       </c>
       <c r="N120" t="n">
-        <v>0.09781057856429759</v>
+        <v>0.03065716777638466</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04232233817619731</v>
+        <v>0.04314215089826717</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02088292100378718</v>
+        <v>0.03075470917937313</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03937818004656166</v>
+        <v>0.04392655364187202</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02551465165461203</v>
+        <v>0.0780182402607783</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04545334997345687</v>
+        <v>0.04355542431083097</v>
       </c>
       <c r="L121" t="n">
-        <v>0.06178145669637464</v>
+        <v>0.1250796668205159</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04512742863833925</v>
+        <v>0.04341117182274914</v>
       </c>
       <c r="N121" t="n">
-        <v>0.09838770863335461</v>
+        <v>0.03075470917937313</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04309183523394635</v>
+        <v>0.04392655364187202</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02171504025494806</v>
+        <v>0.03053307191348002</v>
       </c>
       <c r="G122" t="n">
-        <v>0.0400813618331074</v>
+        <v>0.04471095638547688</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02552621458518436</v>
+        <v>0.0775782540810101</v>
       </c>
       <c r="K122" t="n">
-        <v>0.0462650169372686</v>
+        <v>0.04433319974495295</v>
       </c>
       <c r="L122" t="n">
-        <v>0.06159154698124286</v>
+        <v>0.1244379659418939</v>
       </c>
       <c r="M122" t="n">
-        <v>0.0459332755783096</v>
+        <v>0.04418637131958394</v>
       </c>
       <c r="N122" t="n">
-        <v>0.09934699940007291</v>
+        <v>0.03053307191348002</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04386133229169539</v>
+        <v>0.04471095638547688</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02055664577438848</v>
+        <v>0.03049369296757841</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04078454361965314</v>
+        <v>0.04549535912908174</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02606867627786595</v>
+        <v>0.07758244113603829</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04707668390108032</v>
+        <v>0.04511097517907493</v>
       </c>
       <c r="L123" t="n">
-        <v>0.06207062578231204</v>
+        <v>0.1239152228580817</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04673912251827993</v>
+        <v>0.04496157081641875</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1001731916277661</v>
+        <v>0.03049369296757841</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04463082934944444</v>
+        <v>0.04549535912908174</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02140948851905083</v>
+        <v>0.0306375444441416</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04148772540619888</v>
+        <v>0.04627976187268659</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02633779866163125</v>
+        <v>0.07723437640030972</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04788835086489205</v>
+        <v>0.04588875061319691</v>
       </c>
       <c r="L124" t="n">
-        <v>0.06280088371969519</v>
+        <v>0.124315822679874</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04754496945825028</v>
+        <v>0.04573677031325356</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1009510260797482</v>
+        <v>0.0306375444441416</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04540032640719347</v>
+        <v>0.04627976187268659</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02127531944587748</v>
+        <v>0.03066559844564287</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04219090719274463</v>
+        <v>0.04706416461629145</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02662934366545464</v>
+        <v>0.07723763484827142</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04870001782870378</v>
+        <v>0.04666652604731889</v>
       </c>
       <c r="L125" t="n">
-        <v>0.06326451141350534</v>
+        <v>0.1239441504439998</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04835081639822063</v>
+        <v>0.04651196981008837</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1016652435193327</v>
+        <v>0.03066559844564287</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04616982346494252</v>
+        <v>0.04706416461629145</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02015588951181084</v>
+        <v>0.03047882707455549</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04289408897929037</v>
+        <v>0.04784856735989631</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02693907321831059</v>
+        <v>0.07709579145437026</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04951168479251551</v>
+        <v>0.04744430148144087</v>
       </c>
       <c r="L126" t="n">
-        <v>0.06384369948385546</v>
+        <v>0.1230045911871884</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04915666333819096</v>
+        <v>0.04728716930692317</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1023005847098333</v>
+        <v>0.03047882707455549</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04693932052269156</v>
+        <v>0.04784856735989631</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02105294967379328</v>
+        <v>0.03027820243335271</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04359727076583612</v>
+        <v>0.04863297010350116</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02696274924917351</v>
+        <v>0.07651242119305321</v>
       </c>
       <c r="K127" t="n">
-        <v>0.05032335175632724</v>
+        <v>0.04822207691556285</v>
       </c>
       <c r="L127" t="n">
-        <v>0.06512063855085859</v>
+        <v>0.1237015299461687</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04996251027816132</v>
+        <v>0.04806236880375798</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1038417904145638</v>
+        <v>0.03027820243335271</v>
       </c>
       <c r="O127" t="n">
-        <v>0.0477088175804406</v>
+        <v>0.04863297010350116</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02096825088876718</v>
+        <v>0.03026469662450783</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04430045255238186</v>
+        <v>0.04941737284710603</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02749613368701782</v>
+        <v>0.07599109903876716</v>
       </c>
       <c r="K128" t="n">
-        <v>0.05113501872013897</v>
+        <v>0.04899985234968483</v>
       </c>
       <c r="L128" t="n">
-        <v>0.06627751923462774</v>
+        <v>0.1227393517576698</v>
       </c>
       <c r="M128" t="n">
-        <v>0.05076835721813165</v>
+        <v>0.04883756830059278</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1049736013968378</v>
+        <v>0.03026469662450783</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04847831463818964</v>
+        <v>0.04941737284710603</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.01990354411367494</v>
+        <v>0.03003928175049413</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0450036343389276</v>
+        <v>0.05020177559071088</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02763498846081795</v>
+        <v>0.07623539996595916</v>
       </c>
       <c r="K129" t="n">
-        <v>0.0519466856839507</v>
+        <v>0.04977762778380682</v>
       </c>
       <c r="L129" t="n">
-        <v>0.06679653215527587</v>
+        <v>0.1219224416584209</v>
       </c>
       <c r="M129" t="n">
-        <v>0.051574204158102</v>
+        <v>0.04961276779742759</v>
       </c>
       <c r="N129" t="n">
-        <v>0.105780758419969</v>
+        <v>0.03003928175049413</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04924781169593868</v>
+        <v>0.05020177559071088</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.01886058030545895</v>
+        <v>0.03010292991378485</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04570681612547335</v>
+        <v>0.05098617833431574</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02807507549954832</v>
+        <v>0.07594889894907594</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05275835264776243</v>
+        <v>0.0505554032179288</v>
       </c>
       <c r="L130" t="n">
-        <v>0.06835986793291604</v>
+        <v>0.121955184685151</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05238005109807235</v>
+        <v>0.0503879672942624</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1075480022472713</v>
+        <v>0.03010292991378485</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05001730875368773</v>
+        <v>0.05098617833431574</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.01884111042106159</v>
+        <v>0.02965661321685328</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04640999791201909</v>
+        <v>0.0517705810779206</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02841215673218338</v>
+        <v>0.07503517096256462</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05357001961157417</v>
+        <v>0.05133317865205078</v>
       </c>
       <c r="L131" t="n">
-        <v>0.0695497171876612</v>
+        <v>0.1208419658745892</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05318589803804269</v>
+        <v>0.0511631667910972</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1083600736420582</v>
+        <v>0.02965661321685328</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05078680581143677</v>
+        <v>0.0517705810779206</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.01985621591364768</v>
+        <v>0.02950130376217271</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04711317969856484</v>
+        <v>0.05255498382152545</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02874199408769752</v>
+        <v>0.07509779098087205</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05438168657538589</v>
+        <v>0.05211095408617276</v>
       </c>
       <c r="L132" t="n">
-        <v>0.0700482705396244</v>
+        <v>0.1205871702634647</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05399174497801303</v>
+        <v>0.051938366287932</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1104017133676435</v>
+        <v>0.02950130376217271</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05155630286918581</v>
+        <v>0.05255498382152545</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.0209290513700955</v>
+        <v>0.02953797365221637</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04781636148511058</v>
+        <v>0.05333938656513032</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02906034949506521</v>
+        <v>0.0740403339784452</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05519335353919762</v>
+        <v>0.05288872952029475</v>
       </c>
       <c r="L133" t="n">
-        <v>0.0713377186089186</v>
+        <v>0.1201951828885064</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05479759191798337</v>
+        <v>0.05271356578476681</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1120576621873409</v>
+        <v>0.02953797365221637</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05232579992693485</v>
+        <v>0.05333938656513032</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02005505510204233</v>
+        <v>0.02916759498945756</v>
       </c>
       <c r="G134" t="n">
-        <v>0.04851954327165633</v>
+        <v>0.05412378930873517</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02956298488326084</v>
+        <v>0.0737663749297309</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05600502050300935</v>
+        <v>0.05366650495441673</v>
       </c>
       <c r="L134" t="n">
-        <v>0.07280025201565693</v>
+        <v>0.1184703887864436</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05560343885795372</v>
+        <v>0.05348876528160162</v>
       </c>
       <c r="N134" t="n">
-        <v>0.113112660864464</v>
+        <v>0.02916759498945756</v>
       </c>
       <c r="O134" t="n">
-        <v>0.0530952969846839</v>
+        <v>0.05412378930873517</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02022815086933059</v>
+        <v>0.02899113987636956</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04922272505820207</v>
+        <v>0.05490819205234002</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02964566218125884</v>
+        <v>0.07347948880917624</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05681668746682109</v>
+        <v>0.05444428038853871</v>
       </c>
       <c r="L135" t="n">
-        <v>0.07321806137995227</v>
+        <v>0.1183171729940052</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05640928579792406</v>
+        <v>0.05426396477843642</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1149514501623266</v>
+        <v>0.02899113987636956</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05386479404243293</v>
+        <v>0.05490819205234002</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02044226243180272</v>
+        <v>0.02880958041542563</v>
       </c>
       <c r="G136" t="n">
-        <v>0.04992590684474781</v>
+        <v>0.05569259479594488</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02980414331803366</v>
+        <v>0.07248325059122804</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05762835443063281</v>
+        <v>0.05522205582266069</v>
       </c>
       <c r="L136" t="n">
-        <v>0.07467333732191767</v>
+        <v>0.1178399205479204</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05721513273789441</v>
+        <v>0.05503916427527124</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1153587708442424</v>
+        <v>0.02880958041542563</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05463429110018198</v>
+        <v>0.05569259479594488</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02069131354930116</v>
+        <v>0.02862388870909904</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05062908863129355</v>
+        <v>0.05647699753954974</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03033419022255969</v>
+        <v>0.07248123525033329</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05844002139444454</v>
+        <v>0.05599983125678267</v>
       </c>
       <c r="L137" t="n">
-        <v>0.07494827046166611</v>
+        <v>0.1169430164849182</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05802097967786474</v>
+        <v>0.05581436377210604</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1174193636735251</v>
+        <v>0.02862388870909904</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05540378815793102</v>
+        <v>0.05647699753954974</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02196922798166834</v>
+        <v>0.02863503685986306</v>
       </c>
       <c r="G138" t="n">
-        <v>0.0513322704178393</v>
+        <v>0.05726140028315461</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03033156482381139</v>
+        <v>0.07177701776093889</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05925168835825627</v>
+        <v>0.05677760669090465</v>
       </c>
       <c r="L138" t="n">
-        <v>0.07642505141931061</v>
+        <v>0.1164308458417277</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05882682661783509</v>
+        <v>0.05658956326894084</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1184179694134884</v>
+        <v>0.02863503685986306</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05617328521568006</v>
+        <v>0.05726140028315461</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.0222699294887467</v>
+        <v>0.02854399697019099</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05203545220438505</v>
+        <v>0.05804580302675946</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03059202905076315</v>
+        <v>0.0711741730974918</v>
       </c>
       <c r="K139" t="n">
-        <v>0.060063355322068</v>
+        <v>0.05755538212502664</v>
       </c>
       <c r="L139" t="n">
-        <v>0.0768858708149642</v>
+        <v>0.1154077936550781</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05963267355780544</v>
+        <v>0.05736476276577564</v>
       </c>
       <c r="N139" t="n">
-        <v>0.119239328827446</v>
+        <v>0.02854399697019099</v>
       </c>
       <c r="O139" t="n">
-        <v>0.0569427822734291</v>
+        <v>0.05804580302675946</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02258734183037868</v>
+        <v>0.02815174114255606</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05273863399093078</v>
+        <v>0.05883020577036431</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03071134483238944</v>
+        <v>0.07057627623443896</v>
       </c>
       <c r="K140" t="n">
-        <v>0.06087502228587973</v>
+        <v>0.05833315755914861</v>
       </c>
       <c r="L140" t="n">
-        <v>0.0770129192687399</v>
+        <v>0.1140782449616984</v>
       </c>
       <c r="M140" t="n">
-        <v>0.06043852049777578</v>
+        <v>0.05813996226261046</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1208681826787115</v>
+        <v>0.02815174114255606</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05771227933117815</v>
+        <v>0.05883020577036431</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.0229153887664067</v>
+        <v>0.02785924147943158</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05344181577747653</v>
+        <v>0.05961460851396918</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03085879909152003</v>
+        <v>0.07028690214622724</v>
       </c>
       <c r="K141" t="n">
-        <v>0.06168668924969146</v>
+        <v>0.05911093299327059</v>
       </c>
       <c r="L141" t="n">
-        <v>0.07801923322544491</v>
+        <v>0.1139465847983178</v>
       </c>
       <c r="M141" t="n">
-        <v>0.06124436743774613</v>
+        <v>0.05891516175944527</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1222892717305988</v>
+        <v>0.02785924147943158</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05848177638892719</v>
+        <v>0.05961460851396918</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02224799405667319</v>
+        <v>0.02786747008329081</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05414499756402228</v>
+        <v>0.06039901125757403</v>
       </c>
       <c r="J142" t="n">
-        <v>0.0306595187729347</v>
+        <v>0.06950962580730366</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06249835621350319</v>
+        <v>0.05988870842739257</v>
       </c>
       <c r="L142" t="n">
-        <v>0.07806277647064999</v>
+        <v>0.1122171982016651</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06205021437771646</v>
+        <v>0.05969036125628007</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1227873367464216</v>
+        <v>0.02786747008329081</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05925127344667622</v>
+        <v>0.06039901125757403</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.0225790814610206</v>
+        <v>0.02777739905660701</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05484817935056802</v>
+        <v>0.06118341400117888</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03082771703169714</v>
+        <v>0.06934802219211506</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06331002317731492</v>
+        <v>0.06066648386151455</v>
       </c>
       <c r="L143" t="n">
-        <v>0.07853134494429351</v>
+        <v>0.1112944702084698</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06285606131768681</v>
+        <v>0.06046556075311488</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1236471184894934</v>
+        <v>0.02777739905660701</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06002077050442528</v>
+        <v>0.06118341400117888</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02390257473929136</v>
+        <v>0.02729000050185347</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05555136113711376</v>
+        <v>0.06196781674478374</v>
       </c>
       <c r="J144" t="n">
-        <v>0.0307942554264827</v>
+        <v>0.06930566627510848</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06412169014112665</v>
+        <v>0.06144425929563654</v>
       </c>
       <c r="L144" t="n">
-        <v>0.07849490379598739</v>
+        <v>0.1110827858554606</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06366190825765716</v>
+        <v>0.06124076024994968</v>
       </c>
       <c r="N144" t="n">
-        <v>0.124753357723128</v>
+        <v>0.02729000050185347</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06079026756217432</v>
+        <v>0.06196781674478374</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02421239765132792</v>
+        <v>0.02730624652150344</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05625454292365951</v>
+        <v>0.06275221948838861</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03105902907445038</v>
+        <v>0.06868613303073076</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06493335710493837</v>
+        <v>0.06222203472975852</v>
       </c>
       <c r="L145" t="n">
-        <v>0.07905328858451208</v>
+        <v>0.1101865301793668</v>
       </c>
       <c r="M145" t="n">
-        <v>0.0644677551976275</v>
+        <v>0.06201595974678449</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1251796673593698</v>
+        <v>0.02730624652150344</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06155976461992335</v>
+        <v>0.06275221948838861</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02450247395697269</v>
+        <v>0.02722710921803023</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05695772471020526</v>
+        <v>0.06353662223199347</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03112193309275917</v>
+        <v>0.06779299743342887</v>
       </c>
       <c r="K146" t="n">
-        <v>0.0657450240687501</v>
+        <v>0.0629998101638805</v>
       </c>
       <c r="L146" t="n">
-        <v>0.07930633486864822</v>
+        <v>0.1095100882169175</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06527360213759785</v>
+        <v>0.06279115924361929</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1245963561149819</v>
+        <v>0.02722710921803023</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06232926167767239</v>
+        <v>0.06353662223199347</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02276672741606811</v>
+        <v>0.02695356069390707</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05766090649675099</v>
+        <v>0.06432102497559831</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03098286259856808</v>
+        <v>0.06752983445764979</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06655669103256184</v>
+        <v>0.06377758559800248</v>
       </c>
       <c r="L147" t="n">
-        <v>0.07895387820717631</v>
+        <v>0.1084578450048418</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06607944907756819</v>
+        <v>0.0635663587404541</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1257889276362247</v>
+        <v>0.02695356069390707</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06309875873542144</v>
+        <v>0.06432102497559831</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02299908178845662</v>
+        <v>0.02688657305160728</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05836408828329673</v>
+        <v>0.06510542771920318</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03114171270903607</v>
+        <v>0.06730021907784037</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06736835799637357</v>
+        <v>0.06455536103212446</v>
       </c>
       <c r="L148" t="n">
-        <v>0.07949575415887691</v>
+        <v>0.1081341855798686</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06688529601753852</v>
+        <v>0.0643415582372889</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1254759643665617</v>
+        <v>0.02688657305160728</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06386825579317049</v>
+        <v>0.06510542771920318</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02519346083398066</v>
+        <v>0.0265271183936041</v>
       </c>
       <c r="G149" t="n">
-        <v>0.05906727006984248</v>
+        <v>0.06588983046280804</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03139837854132217</v>
+        <v>0.06720043044491816</v>
       </c>
       <c r="K149" t="n">
-        <v>0.0681800249601853</v>
+        <v>0.06533313646624644</v>
       </c>
       <c r="L149" t="n">
-        <v>0.07933179828253054</v>
+        <v>0.1065434949787272</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06769114295750887</v>
+        <v>0.06511675773412372</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1258571874272959</v>
+        <v>0.0265271183936041</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06463775285091952</v>
+        <v>0.06588983046280804</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02534378831248266</v>
+        <v>0.02637605019934466</v>
       </c>
       <c r="G150" t="n">
-        <v>0.05977045185638823</v>
+        <v>0.06667423320641289</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03115275521258537</v>
+        <v>0.06661191055881724</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06899169192399703</v>
+        <v>0.06611091190036843</v>
       </c>
       <c r="L150" t="n">
-        <v>0.07996184613691773</v>
+        <v>0.1063693448984857</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06849698989747922</v>
+        <v>0.06589195723095852</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1262323179397303</v>
+        <v>0.02637605019934466</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06540724990866857</v>
+        <v>0.06667423320641289</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02344398798380504</v>
+        <v>0.02622714397913159</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06047363364293397</v>
+        <v>0.06745863595001775</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03150473783998466</v>
+        <v>0.06673302251415458</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06980335888780875</v>
+        <v>0.06688868733449041</v>
       </c>
       <c r="L151" t="n">
-        <v>0.080285733280819</v>
+        <v>0.1055808093992504</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06930283683744957</v>
+        <v>0.06666715672779333</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1275010770251679</v>
+        <v>0.02622714397913159</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06617674696641761</v>
+        <v>0.06745863595001775</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02548951664563881</v>
+        <v>0.0261765270490676</v>
       </c>
       <c r="G152" t="n">
-        <v>0.0611768154294797</v>
+        <v>0.06824303869362261</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03135422154067903</v>
+        <v>0.06596323877295876</v>
       </c>
       <c r="K152" t="n">
-        <v>0.07061502585162048</v>
+        <v>0.06766646276861239</v>
       </c>
       <c r="L152" t="n">
-        <v>0.08000329527301497</v>
+        <v>0.1050783962504653</v>
       </c>
       <c r="M152" t="n">
-        <v>0.0701086837774199</v>
+        <v>0.06744235622462813</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1277631858049117</v>
+        <v>0.0261765270490676</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06694624402416664</v>
+        <v>0.06824303869362261</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02348869054180222</v>
+        <v>0.02612432661376475</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06187999721602546</v>
+        <v>0.06902744143722746</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03140110143182751</v>
+        <v>0.06600203179725836</v>
       </c>
       <c r="K153" t="n">
-        <v>0.07142669281543222</v>
+        <v>0.06844423820273438</v>
       </c>
       <c r="L153" t="n">
-        <v>0.08061436767228614</v>
+        <v>0.1045630395590571</v>
       </c>
       <c r="M153" t="n">
-        <v>0.07091453071739025</v>
+        <v>0.06821755572146293</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1277183654002647</v>
+        <v>0.02612432661376475</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06771574108191569</v>
+        <v>0.06902744143722746</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02548526345351404</v>
+        <v>0.02597066987783511</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06258317900257121</v>
+        <v>0.06981184418083232</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03144527263058904</v>
+        <v>0.06574887404908197</v>
       </c>
       <c r="K154" t="n">
-        <v>0.07223835977924394</v>
+        <v>0.06922201363685636</v>
       </c>
       <c r="L154" t="n">
-        <v>0.08041878603741304</v>
+        <v>0.1036356734319526</v>
       </c>
       <c r="M154" t="n">
-        <v>0.0717203776573606</v>
+        <v>0.06899275521829774</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1278663369325298</v>
+        <v>0.02597066987783511</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06848523813966474</v>
+        <v>0.06981184418083232</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02347926498539091</v>
+        <v>0.02571568404589078</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06328636078911694</v>
+        <v>0.07059624692443718</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03138663025412268</v>
+        <v>0.06580323799045817</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07305002674305568</v>
+        <v>0.06999978907097834</v>
       </c>
       <c r="L155" t="n">
-        <v>0.08091638592717618</v>
+        <v>0.1031972319760786</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07252622459733093</v>
+        <v>0.06976795471513254</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1279068215230102</v>
+        <v>0.02571568404589078</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06925473519741378</v>
+        <v>0.07059624692443718</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02547079147513844</v>
+        <v>0.02555949632254383</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06398954257566268</v>
+        <v>0.07138064966804204</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03162506941958737</v>
+        <v>0.0655645960834155</v>
       </c>
       <c r="K156" t="n">
-        <v>0.0738616937068674</v>
+        <v>0.07077756450510032</v>
       </c>
       <c r="L156" t="n">
-        <v>0.08120700290035615</v>
+        <v>0.1020486492983617</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07333207153730129</v>
+        <v>0.07054315421196736</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1283395402930088</v>
+        <v>0.02555949632254383</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07002423225516281</v>
+        <v>0.07138064966804204</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02345993926046228</v>
+        <v>0.02530223391240634</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06469272436220844</v>
+        <v>0.07216505241164689</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03176048524414216</v>
+        <v>0.0650324207899825</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07467336067067913</v>
+        <v>0.07155533993922231</v>
       </c>
       <c r="L157" t="n">
-        <v>0.08129047251573349</v>
+        <v>0.1018908595057289</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07413791847727162</v>
+        <v>0.07131835370880216</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1295642143638285</v>
+        <v>0.02530223391240634</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07079372931291186</v>
+        <v>0.07216505241164689</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02444680467906807</v>
+        <v>0.02504402402009043</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06539590614875418</v>
+        <v>0.07294945515525175</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03159277284494598</v>
+        <v>0.06450618457218782</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07548502763449086</v>
+        <v>0.07233311537334429</v>
       </c>
       <c r="L158" t="n">
-        <v>0.08126663033208872</v>
+        <v>0.1009247967051069</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07494376541724197</v>
+        <v>0.07209355320563697</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1290805648567725</v>
+        <v>0.02504402402009043</v>
       </c>
       <c r="O158" t="n">
-        <v>0.0715632263706609</v>
+        <v>0.07294945515525175</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02543148406866141</v>
+        <v>0.02518499385020813</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06609908793529992</v>
+        <v>0.07373385789885661</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03182182733915789</v>
+        <v>0.06458535989205996</v>
       </c>
       <c r="K159" t="n">
-        <v>0.0762966945983026</v>
+        <v>0.07311089080746627</v>
       </c>
       <c r="L159" t="n">
-        <v>0.08193531190820233</v>
+        <v>0.1002513950034226</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07574961235721231</v>
+        <v>0.07286875270247177</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1292883128931437</v>
+        <v>0.02518499385020813</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07233272342840995</v>
+        <v>0.07373385789885661</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02341407376694798</v>
+        <v>0.02482527060737154</v>
       </c>
       <c r="G160" t="n">
-        <v>0.06680226972184566</v>
+        <v>0.07451826064246146</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03174754384393685</v>
+        <v>0.06406941921162757</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07710836156211431</v>
+        <v>0.07388866624158826</v>
       </c>
       <c r="L160" t="n">
-        <v>0.08219635280285498</v>
+        <v>0.0995715885076025</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07655545929718266</v>
+        <v>0.07364395219930658</v>
       </c>
       <c r="N160" t="n">
-        <v>0.129587179594245</v>
+        <v>0.02482527060737154</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07310222048615898</v>
+        <v>0.07451826064246146</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02539467011163338</v>
+        <v>0.02456498149619277</v>
       </c>
       <c r="G161" t="n">
-        <v>0.06750545150839141</v>
+        <v>0.07530266338606632</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03186981747644189</v>
+        <v>0.06415783499291919</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07792002852592605</v>
+        <v>0.07466644167571024</v>
       </c>
       <c r="L161" t="n">
-        <v>0.08224958857482709</v>
+        <v>0.09768631132457373</v>
       </c>
       <c r="M161" t="n">
-        <v>0.077361306237153</v>
+        <v>0.07441915169614138</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1298768860813796</v>
+        <v>0.02456498149619277</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07387171754390803</v>
+        <v>0.07530266338606632</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02337336944042324</v>
+        <v>0.02440425372128387</v>
       </c>
       <c r="G162" t="n">
-        <v>0.06820863329493716</v>
+        <v>0.07608706612967119</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03158854335383196</v>
+        <v>0.06415007969796338</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07873169548973778</v>
+        <v>0.07544421710983221</v>
       </c>
       <c r="L162" t="n">
-        <v>0.08219485478289926</v>
+        <v>0.09789649756126284</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07816715317712335</v>
+        <v>0.0751943511929762</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1306571534758504</v>
+        <v>0.02440425372128387</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07464121460165707</v>
+        <v>0.07608706612967119</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02535026809102321</v>
+        <v>0.02444321448725693</v>
       </c>
       <c r="G163" t="n">
-        <v>0.06891181508148289</v>
+        <v>0.07687146887327603</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03190361659326608</v>
+        <v>0.06354562578878875</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07954336245354951</v>
+        <v>0.07622199254395419</v>
       </c>
       <c r="L163" t="n">
-        <v>0.08213198698585203</v>
+        <v>0.09710308132459666</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07897300011709368</v>
+        <v>0.075969550689811</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1308277028989605</v>
+        <v>0.02444321448725693</v>
       </c>
       <c r="O163" t="n">
-        <v>0.0754107116594061</v>
+        <v>0.07687146887327603</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02532546240113892</v>
+        <v>0.02408199099872405</v>
       </c>
       <c r="G164" t="n">
-        <v>0.06961499686802863</v>
+        <v>0.07765587161688089</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03191493231190326</v>
+        <v>0.06364394572742382</v>
       </c>
       <c r="K164" t="n">
-        <v>0.08035502941736124</v>
+        <v>0.07699976797807617</v>
       </c>
       <c r="L164" t="n">
-        <v>0.0823608207424659</v>
+        <v>0.0954069967215021</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07977884705706403</v>
+        <v>0.0767447501866458</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1305882554720126</v>
+        <v>0.02408199099872405</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07618020871715515</v>
+        <v>0.07765587161688089</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02429904870847599</v>
+        <v>0.02412071046029726</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07031817865457439</v>
+        <v>0.07844027436048576</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03162238562690249</v>
+        <v>0.06324451197589714</v>
       </c>
       <c r="K165" t="n">
-        <v>0.08116669638117298</v>
+        <v>0.07777754341219816</v>
       </c>
       <c r="L165" t="n">
-        <v>0.08288119161152147</v>
+        <v>0.09520917785890576</v>
       </c>
       <c r="M165" t="n">
-        <v>0.08058469399703438</v>
+        <v>0.07751994968348061</v>
       </c>
       <c r="N165" t="n">
-        <v>0.13133853231631</v>
+        <v>0.02412071046029726</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07694970577490419</v>
+        <v>0.07844027436048576</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02427112335074008</v>
+        <v>0.02385950007658869</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07102136044112013</v>
+        <v>0.0792246771040906</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03192587165542274</v>
+        <v>0.0629467969962374</v>
       </c>
       <c r="K166" t="n">
-        <v>0.08197836334498469</v>
+        <v>0.07855531884632012</v>
       </c>
       <c r="L166" t="n">
-        <v>0.08259293515179925</v>
+        <v>0.09431055884373457</v>
       </c>
       <c r="M166" t="n">
-        <v>0.08139054093700471</v>
+        <v>0.07829514918031541</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1318782545531556</v>
+        <v>0.02385950007658869</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07771920283265324</v>
+        <v>0.0792246771040906</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02424178266563679</v>
+        <v>0.02359848705221042</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07172454222766587</v>
+        <v>0.08000907984769547</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03192349803482368</v>
+        <v>0.06295027325047306</v>
       </c>
       <c r="K167" t="n">
-        <v>0.08279003030879643</v>
+        <v>0.07933309428044211</v>
       </c>
       <c r="L167" t="n">
-        <v>0.08279588692207976</v>
+        <v>0.09311207378291525</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08219638787697506</v>
+        <v>0.07907034867715022</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1322071433038525</v>
+        <v>0.02359848705221042</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07848869989040227</v>
+        <v>0.08000907984769547</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02321112299087176</v>
+        <v>0.02373779859177451</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0724277240142116</v>
+        <v>0.08079348259130033</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03170907745513774</v>
+        <v>0.06295441320063275</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08360169727260816</v>
+        <v>0.08011086971456409</v>
       </c>
       <c r="L168" t="n">
-        <v>0.0825898824811436</v>
+        <v>0.09241465678337457</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08300223481694541</v>
+        <v>0.07984554817398502</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1315249196897034</v>
+        <v>0.02373779859177451</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07925819694815132</v>
+        <v>0.08079348259130033</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02317924066415064</v>
+        <v>0.02347756189989306</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07313090580075736</v>
+        <v>0.08157788533490519</v>
       </c>
       <c r="J169" t="n">
-        <v>0.0316825199083879</v>
+        <v>0.06245868930874504</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08441336423641989</v>
+        <v>0.08088864514868607</v>
       </c>
       <c r="L169" t="n">
-        <v>0.08327475738777121</v>
+        <v>0.09231924195203939</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08380808175691574</v>
+        <v>0.08062074767081984</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1316313048320116</v>
+        <v>0.02347756189989306</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08002769400590036</v>
+        <v>0.08157788533490519</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02414623202317905</v>
+        <v>0.02341790418117815</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0738340875873031</v>
+        <v>0.08236228807851004</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03164430717322798</v>
+        <v>0.06206257403683843</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08522503120023162</v>
+        <v>0.08166642058280806</v>
       </c>
       <c r="L170" t="n">
-        <v>0.08315034720074321</v>
+        <v>0.09052676339583643</v>
       </c>
       <c r="M170" t="n">
-        <v>0.0846139286968861</v>
+        <v>0.08139594716765464</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1328260198520801</v>
+        <v>0.02341790418117815</v>
       </c>
       <c r="O170" t="n">
-        <v>0.0807971910636494</v>
+        <v>0.08236228807851004</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02511219340566262</v>
+        <v>0.02305895264024184</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07453726937384884</v>
+        <v>0.0831466908221149</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03169492102831181</v>
+        <v>0.06246553984694161</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08603669816404336</v>
+        <v>0.08244419601693004</v>
       </c>
       <c r="L171" t="n">
-        <v>0.08271648747884014</v>
+        <v>0.08973815522169248</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08541977563685643</v>
+        <v>0.08217114666448945</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1328087858712116</v>
+        <v>0.02305895264024184</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08156668812139845</v>
+        <v>0.0831466908221149</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02407722114930698</v>
+        <v>0.02310083448169624</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07524045116039459</v>
+        <v>0.08393109356571976</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03163484325229315</v>
+        <v>0.06236705920108307</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08684836512785507</v>
+        <v>0.08322197145105202</v>
       </c>
       <c r="L172" t="n">
-        <v>0.08347301378084249</v>
+        <v>0.08915435153653428</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08622562257682678</v>
+        <v>0.08294634616132426</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1326793240107095</v>
+        <v>0.02310083448169624</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08233618517914749</v>
+        <v>0.08393109356571976</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02304141159181779</v>
+        <v>0.02294367691015341</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07594363294694033</v>
+        <v>0.08471549630932461</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03166455562382581</v>
+        <v>0.06176660456129143</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08766003209166681</v>
+        <v>0.083999746885174</v>
       </c>
       <c r="L173" t="n">
-        <v>0.08281976166553084</v>
+        <v>0.08857628644728871</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08703146951679712</v>
+        <v>0.08372154565815906</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1328373553918765</v>
+        <v>0.02294367691015341</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08310568223689653</v>
+        <v>0.08471549630932461</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02300486107090065</v>
+        <v>0.02248760713022548</v>
       </c>
       <c r="G174" t="n">
-        <v>0.07664681473348608</v>
+        <v>0.08549989905292947</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03138453992156359</v>
+        <v>0.06166364838959526</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08847169905547854</v>
+        <v>0.08477752231929599</v>
       </c>
       <c r="L174" t="n">
-        <v>0.0833565666916857</v>
+        <v>0.08850489406088258</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08783731645676747</v>
+        <v>0.08449674515499388</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1333826011360157</v>
+        <v>0.02248760713022548</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08387517929464558</v>
+        <v>0.08549989905292947</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02396766592426119</v>
+        <v>0.02253275234652447</v>
       </c>
       <c r="G175" t="n">
-        <v>0.07734999652003183</v>
+        <v>0.08628430179653433</v>
       </c>
       <c r="J175" t="n">
-        <v>0.0313952779241603</v>
+        <v>0.06105766314802308</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08928336601929027</v>
+        <v>0.08555529775341797</v>
       </c>
       <c r="L175" t="n">
-        <v>0.08338326441808766</v>
+        <v>0.0866411084842425</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08864316339673782</v>
+        <v>0.08527194465182868</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1326147823644303</v>
+        <v>0.02253275234652447</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08464467635239462</v>
+        <v>0.08628430179653433</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02392992248960508</v>
+        <v>0.02227923976366247</v>
       </c>
       <c r="G176" t="n">
-        <v>0.07805317830657756</v>
+        <v>0.08706870454013918</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03109725141026974</v>
+        <v>0.06144812129860353</v>
       </c>
       <c r="K176" t="n">
-        <v>0.09009503298310199</v>
+        <v>0.08633307318753995</v>
       </c>
       <c r="L176" t="n">
-        <v>0.08339969040351719</v>
+        <v>0.08628586382429537</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08944901033670816</v>
+        <v>0.08604714414866348</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1333336201984228</v>
+        <v>0.02227923976366247</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08541417341014365</v>
+        <v>0.08706870454013918</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02489172710463793</v>
+        <v>0.0221271965862516</v>
       </c>
       <c r="G177" t="n">
-        <v>0.07875636009312331</v>
+        <v>0.08785310728374404</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03129094215854571</v>
+        <v>0.06113449530336509</v>
       </c>
       <c r="K177" t="n">
-        <v>0.09090669994691374</v>
+        <v>0.08711084862166193</v>
       </c>
       <c r="L177" t="n">
-        <v>0.08320568020675487</v>
+        <v>0.085940094187968</v>
       </c>
       <c r="M177" t="n">
-        <v>0.09025485727667849</v>
+        <v>0.08682234364549828</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1339388357592967</v>
+        <v>0.0221271965862516</v>
       </c>
       <c r="O177" t="n">
-        <v>0.0861836704678927</v>
+        <v>0.08785310728374404</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02485317610706538</v>
+        <v>0.02207675001890394</v>
       </c>
       <c r="G178" t="n">
-        <v>0.07945954187966905</v>
+        <v>0.0886375100273489</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03107683194764201</v>
+        <v>0.06081625762433646</v>
       </c>
       <c r="K178" t="n">
-        <v>0.09171836691072545</v>
+        <v>0.08788862405578392</v>
       </c>
       <c r="L178" t="n">
-        <v>0.08323754819083873</v>
+        <v>0.08520473368218712</v>
       </c>
       <c r="M178" t="n">
-        <v>0.09106070421664884</v>
+        <v>0.08759754314233309</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1340301501683548</v>
+        <v>0.02207675001890394</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08695316752564175</v>
+        <v>0.0886375100273489</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02281436583459302</v>
+        <v>0.02192802726623154</v>
       </c>
       <c r="G179" t="n">
-        <v>0.0801627236662148</v>
+        <v>0.08942191277095377</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03095540255621243</v>
+        <v>0.06029288072354608</v>
       </c>
       <c r="K179" t="n">
-        <v>0.09253003387453719</v>
+        <v>0.0886663994899059</v>
       </c>
       <c r="L179" t="n">
-        <v>0.0828213950883018</v>
+        <v>0.08458071641387954</v>
       </c>
       <c r="M179" t="n">
-        <v>0.09186655115661919</v>
+        <v>0.08837274263916789</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1333072845469001</v>
+        <v>0.02192802726623154</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08772266458339079</v>
+        <v>0.08942191277095377</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02277539262492655</v>
+        <v>0.0218811555328465</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08086590545276054</v>
+        <v>0.09020631551455861</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03072713576291078</v>
+        <v>0.06036383706302265</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09334170083834892</v>
+        <v>0.08944417492402788</v>
       </c>
       <c r="L180" t="n">
-        <v>0.08277043307386456</v>
+        <v>0.08406897648997208</v>
       </c>
       <c r="M180" t="n">
-        <v>0.09267239809658953</v>
+        <v>0.0891479421360027</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1342699600162355</v>
+        <v>0.0218811555328465</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08849216164113982</v>
+        <v>0.09020631551455861</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02473635281577156</v>
+        <v>0.02143626202336089</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08156908723930628</v>
+        <v>0.09099071825816347</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03059251334639086</v>
+        <v>0.06032859910479466</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09415336780216065</v>
+        <v>0.09022195035814987</v>
       </c>
       <c r="L181" t="n">
-        <v>0.08209821858394592</v>
+        <v>0.08307044801739144</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09347824503655987</v>
+        <v>0.0899231416328375</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1337178976976643</v>
+        <v>0.02143626202336089</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08926165869888887</v>
+        <v>0.09099071825816347</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02469734274483368</v>
+        <v>0.02139347394238679</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08227226902585204</v>
+        <v>0.09177512100176834</v>
       </c>
       <c r="J182" t="n">
-        <v>0.0305520170853065</v>
+        <v>0.05988663931089069</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09496503476597237</v>
+        <v>0.09099972579227185</v>
       </c>
       <c r="L182" t="n">
-        <v>0.0812183080549648</v>
+        <v>0.08228606510306447</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09428409197653022</v>
+        <v>0.09069834112967232</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1332508187124892</v>
+        <v>0.02139347394238679</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09003115575663791</v>
+        <v>0.09177512100176834</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02365845874981856</v>
+        <v>0.02135291849453631</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08297545081239777</v>
+        <v>0.09255952374537318</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03020612875831147</v>
+        <v>0.05963743014333933</v>
       </c>
       <c r="K183" t="n">
-        <v>0.0957767017297841</v>
+        <v>0.09177750122639382</v>
       </c>
       <c r="L183" t="n">
-        <v>0.08124425792334009</v>
+        <v>0.0818167618539179</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09508993891650057</v>
+        <v>0.09147354062650713</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1333684441820133</v>
+        <v>0.02135291849453631</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09080065281438694</v>
+        <v>0.09255952374537318</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02261979716843185</v>
+        <v>0.02111472288442151</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08367863259894351</v>
+        <v>0.09334392648897805</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03025533014405957</v>
+        <v>0.05948044406416916</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09658836869359583</v>
+        <v>0.0925552766605158</v>
       </c>
       <c r="L184" t="n">
-        <v>0.08018962462549073</v>
+        <v>0.08096347237687862</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09589578585647091</v>
+        <v>0.09224874012334193</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1342580385009892</v>
+        <v>0.02111472288442151</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09157014987213599</v>
+        <v>0.09334392648897805</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02258145433837914</v>
+        <v>0.02107901431665449</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08438181438548926</v>
+        <v>0.09412832923258291</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03000010302120459</v>
+        <v>0.05911515353540875</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09740003565740757</v>
+        <v>0.09333305209463778</v>
       </c>
       <c r="L185" t="n">
-        <v>0.07896796459783556</v>
+        <v>0.08062713077887329</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09670163279644126</v>
+        <v>0.09302393962017674</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1330897044209386</v>
+        <v>0.02107901431665449</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09233964692988504</v>
+        <v>0.09412832923258291</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.0245435265973661</v>
+        <v>0.0208459199958473</v>
       </c>
       <c r="G186" t="n">
-        <v>0.08508499617203501</v>
+        <v>0.09491273197618776</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02974092916840039</v>
+        <v>0.05894103101908665</v>
       </c>
       <c r="K186" t="n">
-        <v>0.0982117026212193</v>
+        <v>0.09411082752875977</v>
       </c>
       <c r="L186" t="n">
-        <v>0.07829283427679354</v>
+        <v>0.07960867116682885</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09750747973641159</v>
+        <v>0.09379913911701154</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1333402900423238</v>
+        <v>0.0208459199958473</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09310914398763408</v>
+        <v>0.09491273197618776</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02450611028309833</v>
+        <v>0.02061556712661204</v>
       </c>
       <c r="G187" t="n">
-        <v>0.08578817795858075</v>
+        <v>0.09569713471979262</v>
       </c>
       <c r="J187" t="n">
-        <v>0.0296782903643007</v>
+        <v>0.05845754897723146</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09902336958503102</v>
+        <v>0.09488860296288175</v>
       </c>
       <c r="L187" t="n">
-        <v>0.07767779009878359</v>
+        <v>0.07850902764767187</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09831332667638193</v>
+        <v>0.09457433861384634</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1330240703860424</v>
+        <v>0.02061556712661204</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09387864104538311</v>
+        <v>0.09569713471979262</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02446916593912976</v>
+        <v>0.0204880829135608</v>
       </c>
       <c r="G188" t="n">
-        <v>0.08649135974512649</v>
+        <v>0.09648153746339748</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02951266838755935</v>
+        <v>0.05836417987187173</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09983503654884275</v>
+        <v>0.09566637839700372</v>
       </c>
       <c r="L188" t="n">
-        <v>0.07693638850022466</v>
+        <v>0.07852913432832925</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09911917361635228</v>
+        <v>0.09534953811068114</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1316553204729918</v>
+        <v>0.0204880829135608</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09464813810313216</v>
+        <v>0.09648153746339748</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02343225963307266</v>
+        <v>0.02036359456130567</v>
       </c>
       <c r="G189" t="n">
-        <v>0.08719454153167223</v>
+        <v>0.09726594020700233</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02954454501683015</v>
+        <v>0.05776039616503609</v>
       </c>
       <c r="K189" t="n">
-        <v>0.1006467035126545</v>
+        <v>0.0964441538311257</v>
       </c>
       <c r="L189" t="n">
-        <v>0.07568218591753559</v>
+        <v>0.07816992531572775</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09992502055632263</v>
+        <v>0.09612473760751596</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1318483153240697</v>
+        <v>0.02036359456130567</v>
       </c>
       <c r="O189" t="n">
-        <v>0.0954176351608812</v>
+        <v>0.09726594020700233</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02439527136078604</v>
+        <v>0.02054251379334467</v>
       </c>
       <c r="G190" t="n">
-        <v>0.08789772331821799</v>
+        <v>0.09805034295060719</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02927440203076689</v>
+        <v>0.05754567031875299</v>
       </c>
       <c r="K190" t="n">
-        <v>0.1014583704764662</v>
+        <v>0.09722192926524768</v>
       </c>
       <c r="L190" t="n">
-        <v>0.07462873878713527</v>
+        <v>0.07673233104969973</v>
       </c>
       <c r="M190" t="n">
-        <v>0.100730867496293</v>
+        <v>0.09689993710435076</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1307173299601737</v>
+        <v>0.02054251379334467</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09618713221863025</v>
+        <v>0.09805034295060719</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.0233581122817202</v>
+        <v>0.02012501182135998</v>
       </c>
       <c r="G191" t="n">
-        <v>0.08860090510476372</v>
+        <v>0.09883474569421205</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02900272120802339</v>
+        <v>0.05711947479505114</v>
       </c>
       <c r="K191" t="n">
-        <v>0.1022700374402779</v>
+        <v>0.09799970469936967</v>
       </c>
       <c r="L191" t="n">
-        <v>0.07408960354544267</v>
+        <v>0.07650995065237415</v>
       </c>
       <c r="M191" t="n">
-        <v>0.1015367144362633</v>
+        <v>0.09767513660118557</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1293766394022011</v>
+        <v>0.02012501182135998</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09695662927637928</v>
+        <v>0.09883474569421205</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.0223206935553255</v>
+        <v>0.02031083644685683</v>
       </c>
       <c r="G192" t="n">
-        <v>0.08930408689130946</v>
+        <v>0.09961914843781691</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02902998432725343</v>
+        <v>0.05688128205595902</v>
       </c>
       <c r="K192" t="n">
-        <v>0.1030817044040897</v>
+        <v>0.09877748013349165</v>
       </c>
       <c r="L192" t="n">
-        <v>0.07247833662887671</v>
+        <v>0.07649622438390341</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1023425613762337</v>
+        <v>0.09845033609802037</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1275405186710497</v>
+        <v>0.02031083644685683</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09772612633412833</v>
+        <v>0.09961914843781691</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02228292634105222</v>
+        <v>0.01999973544359761</v>
       </c>
       <c r="G193" t="n">
-        <v>0.0900072686778552</v>
+        <v>0.1004035511814218</v>
       </c>
       <c r="J193" t="n">
-        <v>0.0285566731671108</v>
+        <v>0.05623056456350525</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1038933713679014</v>
+        <v>0.09955525556761363</v>
       </c>
       <c r="L193" t="n">
-        <v>0.07210849447385623</v>
+        <v>0.07539091526509839</v>
       </c>
       <c r="M193" t="n">
-        <v>0.103148408316204</v>
+        <v>0.09922553559485518</v>
       </c>
       <c r="N193" t="n">
-        <v>0.127523242787617</v>
+        <v>0.01999973544359761</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09849562339187737</v>
+        <v>0.1004035511814218</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02424472179835073</v>
+        <v>0.0197914565853447</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09071045046440096</v>
+        <v>0.1011879539250266</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02838326950624934</v>
+        <v>0.05626679477971841</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1047050383317131</v>
+        <v>0.1003330310017356</v>
       </c>
       <c r="L194" t="n">
-        <v>0.07129363351680021</v>
+        <v>0.07539378631677002</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1039542552561743</v>
+        <v>0.10000073509169</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1259390867728005</v>
+        <v>0.0197914565853447</v>
       </c>
       <c r="O194" t="n">
-        <v>0.0992651204496264</v>
+        <v>0.1011879539250266</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02220599108667133</v>
+        <v>0.01988574764586043</v>
       </c>
       <c r="G195" t="n">
-        <v>0.0914136322509467</v>
+        <v>0.1019723566686315</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02831025512332282</v>
+        <v>0.05606867922043324</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1055167052955249</v>
+        <v>0.1011108064358576</v>
       </c>
       <c r="L195" t="n">
-        <v>0.07004731019412755</v>
+        <v>0.07500460055972935</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1047601021961447</v>
+        <v>0.1007759345885248</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1237023256474978</v>
+        <v>0.01988574764586043</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1000346175073755</v>
+        <v>0.1019723566686315</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02416664536546437</v>
+        <v>0.01958235639890719</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09211681403749243</v>
+        <v>0.1027567594122363</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02803811179698505</v>
+        <v>0.05511667066814699</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1063283722593366</v>
+        <v>0.1018885818699796</v>
       </c>
       <c r="L196" t="n">
-        <v>0.06988308094225712</v>
+        <v>0.07452312101478731</v>
       </c>
       <c r="M196" t="n">
-        <v>0.105565949136115</v>
+        <v>0.1015511340853596</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1233272344326065</v>
+        <v>0.01958235639890719</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1008041145651245</v>
+        <v>0.1027567594122363</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02312659579418012</v>
+        <v>0.01958103061824731</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09281999582403819</v>
+        <v>0.1035411621558412</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02796732130588983</v>
+        <v>0.05501432672422971</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1071400392231483</v>
+        <v>0.1026663573041016</v>
       </c>
       <c r="L197" t="n">
-        <v>0.06901450219760788</v>
+        <v>0.07424911070275492</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1063717960760854</v>
+        <v>0.1023263335821944</v>
       </c>
       <c r="N197" t="n">
-        <v>0.121628088149024</v>
+        <v>0.01958103061824731</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1015736116228735</v>
+        <v>0.1035411621558412</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02308575353226895</v>
+        <v>0.01958151807764322</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09352317761058393</v>
+        <v>0.1043255648994461</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02799836542869098</v>
+        <v>0.05396520776829808</v>
       </c>
       <c r="K198" t="n">
-        <v>0.10795170618696</v>
+        <v>0.1034441327382235</v>
       </c>
       <c r="L198" t="n">
-        <v>0.06905513039659872</v>
+        <v>0.07318233264444302</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1071776430160557</v>
+        <v>0.1031015330790292</v>
       </c>
       <c r="N198" t="n">
-        <v>0.120119161817648</v>
+        <v>0.01958151807764322</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1023431086806226</v>
+        <v>0.1043255648994461</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.0240440297391812</v>
+        <v>0.01928356655085724</v>
       </c>
       <c r="G199" t="n">
-        <v>0.09422635939712967</v>
+        <v>0.1051099676430509</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02763172594404226</v>
+        <v>0.05357287417996884</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1087633731507718</v>
+        <v>0.1042219081723455</v>
       </c>
       <c r="L199" t="n">
-        <v>0.06871852197564857</v>
+        <v>0.0730225498606627</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1079834899560261</v>
+        <v>0.103876732575864</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1188147304593759</v>
+        <v>0.01928356655085724</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1031126057383716</v>
+        <v>0.1051099676430509</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02300133557436713</v>
+        <v>0.01938692381165173</v>
       </c>
       <c r="G200" t="n">
-        <v>0.09492954118367541</v>
+        <v>0.1058943703866558</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02756788463059751</v>
+        <v>0.05314088633885858</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1095750401145835</v>
+        <v>0.1049996836064675</v>
       </c>
       <c r="L200" t="n">
-        <v>0.06821823337117627</v>
+        <v>0.07266952537222493</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1087893368959964</v>
+        <v>0.1046519320726988</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1169290690951055</v>
+        <v>0.01938692381165173</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1038821027961207</v>
+        <v>0.1058943703866558</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02395758219727714</v>
+        <v>0.0192913376337891</v>
       </c>
       <c r="G201" t="n">
-        <v>0.09563272297022116</v>
+        <v>0.1066787731302606</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02730732326701051</v>
+        <v>0.05257280462458411</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1103867070783952</v>
+        <v>0.1057774590405895</v>
       </c>
       <c r="L201" t="n">
-        <v>0.06846522738184208</v>
+        <v>0.07152302219994067</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1095951838359667</v>
+        <v>0.1054271315695336</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1162764527457341</v>
+        <v>0.0192913376337891</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1046515998538697</v>
+        <v>0.1066787731302606</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.0229126807673615</v>
+        <v>0.01909655579103169</v>
       </c>
       <c r="G202" t="n">
-        <v>0.09633590475676691</v>
+        <v>0.1074631758738655</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02734871676503171</v>
+        <v>0.05197218941676202</v>
       </c>
       <c r="K202" t="n">
-        <v>0.111198374042207</v>
+        <v>0.1065552344747115</v>
       </c>
       <c r="L202" t="n">
-        <v>0.06786523550421861</v>
+        <v>0.07208280336462086</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1104010307759371</v>
+        <v>0.1062023310663684</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1150711564321595</v>
+        <v>0.01909655579103169</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1054210969116188</v>
+        <v>0.1074631758738655</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02286654244407056</v>
+        <v>0.01910232605714185</v>
       </c>
       <c r="G203" t="n">
-        <v>0.09703908654331266</v>
+        <v>0.1082475786174703</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02718816279078096</v>
+        <v>0.05084260109500904</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1120100410060187</v>
+        <v>0.1073330099088335</v>
       </c>
       <c r="L203" t="n">
-        <v>0.06846527880667203</v>
+        <v>0.07084863188707646</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1112068777159074</v>
+        <v>0.1069775305632032</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1136274551752791</v>
+        <v>0.01910232605714185</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1061905939693678</v>
+        <v>0.1082475786174703</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02181907838685465</v>
+        <v>0.018808396205882</v>
       </c>
       <c r="G204" t="n">
-        <v>0.09774226832985838</v>
+        <v>0.1090319813610752</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02672550808206554</v>
+        <v>0.05048760003894184</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1128217079698304</v>
+        <v>0.1081107853429554</v>
       </c>
       <c r="L204" t="n">
-        <v>0.06836538712696408</v>
+        <v>0.07042027078811852</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1120127246558778</v>
+        <v>0.1077527300600381</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1118596239959904</v>
+        <v>0.018808396205882</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1069600910271168</v>
+        <v>0.1090319813610752</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02377019975516408</v>
+        <v>0.01871451401101444</v>
       </c>
       <c r="G205" t="n">
-        <v>0.09844545011640414</v>
+        <v>0.10981638410468</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02666075744189648</v>
+        <v>0.04931074662817714</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1136333749336422</v>
+        <v>0.1088885607770774</v>
       </c>
       <c r="L205" t="n">
-        <v>0.0679655903028564</v>
+        <v>0.07079748308855793</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1128185715958481</v>
+        <v>0.1085279295568728</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1105819379151912</v>
+        <v>0.01871451401101444</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1077295880848659</v>
+        <v>0.10981638410468</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02271981770844918</v>
+        <v>0.01882042724630156</v>
       </c>
       <c r="G206" t="n">
-        <v>0.09914863190294988</v>
+        <v>0.1106007868482849</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02669391567328483</v>
+        <v>0.04901560124233162</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1144450418974539</v>
+        <v>0.1096663362111994</v>
       </c>
       <c r="L206" t="n">
-        <v>0.06836591817211074</v>
+        <v>0.06988003180920577</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1136244185358185</v>
+        <v>0.1093031290537077</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1096086719537788</v>
+        <v>0.01882042724630156</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1084990851426149</v>
+        <v>0.1106007868482849</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02366784340616025</v>
+        <v>0.01872588368550573</v>
       </c>
       <c r="G207" t="n">
-        <v>0.09985181368949562</v>
+        <v>0.1113851895918898</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02642498757924158</v>
+        <v>0.047805724261022</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1152567088612656</v>
+        <v>0.1104441116453214</v>
       </c>
       <c r="L207" t="n">
-        <v>0.06806640057248872</v>
+        <v>0.06986767997087284</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1144302654757888</v>
+        <v>0.1100783285505425</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1096541011326508</v>
+        <v>0.01872588368550573</v>
       </c>
       <c r="O207" t="n">
-        <v>0.109268582200364</v>
+        <v>0.1113851895918898</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02361418800774769</v>
+        <v>0.01843063110238938</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1005549954760414</v>
+        <v>0.1121695923354946</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02615397796277773</v>
+        <v>0.04678467606386491</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1160683758250774</v>
+        <v>0.1112218870794434</v>
       </c>
       <c r="L208" t="n">
-        <v>0.06846706734175206</v>
+        <v>0.06936019059437021</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1152361124157592</v>
+        <v>0.1108535280473773</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1082244142506312</v>
+        <v>0.01843063110238938</v>
       </c>
       <c r="O208" t="n">
-        <v>0.110038079258113</v>
+        <v>0.1121695923354946</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02255876267266174</v>
+        <v>0.01863441727071474</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1012581772625871</v>
+        <v>0.1129539950790995</v>
       </c>
       <c r="J209" t="n">
-        <v>0.0260808916269043</v>
+        <v>0.04585601703047704</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1168800427888891</v>
+        <v>0.1119996625135653</v>
       </c>
       <c r="L209" t="n">
-        <v>0.06826794831766242</v>
+        <v>0.06835732670050892</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1160419593557295</v>
+        <v>0.1116287275442121</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1085264718960724</v>
+        <v>0.01863441727071474</v>
       </c>
       <c r="O209" t="n">
-        <v>0.110807576315862</v>
+        <v>0.1129539950790995</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02350147856035276</v>
+        <v>0.01833698996424429</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1019613590491329</v>
+        <v>0.1137383978227043</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02580573337463234</v>
+        <v>0.04562330754047517</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1176917097527008</v>
+        <v>0.1127774379476873</v>
       </c>
       <c r="L210" t="n">
-        <v>0.06796907333798152</v>
+        <v>0.06885885131009983</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1168478062956998</v>
+        <v>0.1124039270410469</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1068302072871037</v>
+        <v>0.01833698996424429</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1115770733736111</v>
+        <v>0.1137383978227043</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02144224683027107</v>
+        <v>0.01833809695674037</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1026645408356786</v>
+        <v>0.1145228005663092</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02562850800897282</v>
+        <v>0.04479010797347588</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1185033767165125</v>
+        <v>0.1135552133818093</v>
       </c>
       <c r="L211" t="n">
-        <v>0.06797047224047101</v>
+        <v>0.067264527443954</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1176536532356702</v>
+        <v>0.1131791265378817</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1068359495379088</v>
+        <v>0.01833809695674037</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1123465704313601</v>
+        <v>0.1145228005663092</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02238097864186701</v>
+        <v>0.01813748602196531</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1033677226222243</v>
+        <v>0.115307203309914</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02554922033293676</v>
+        <v>0.04395997870909593</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1193150436803243</v>
+        <v>0.1143329888159313</v>
       </c>
       <c r="L212" t="n">
-        <v>0.0678721748628926</v>
+        <v>0.06747411812288229</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1184595001756405</v>
+        <v>0.1139543260347165</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1055440277626717</v>
+        <v>0.01813748602196531</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1131160674891092</v>
+        <v>0.115307203309914</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02131758515459091</v>
+        <v>0.01823490493368152</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1040709044087701</v>
+        <v>0.1160916060535189</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02516787514953518</v>
+        <v>0.04303648012695196</v>
       </c>
       <c r="K213" t="n">
-        <v>0.120126710644136</v>
+        <v>0.1151107642500533</v>
       </c>
       <c r="L213" t="n">
-        <v>0.06847421104300794</v>
+        <v>0.06678738636769577</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1192653471156109</v>
+        <v>0.1147295255315513</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1048547710755762</v>
+        <v>0.01823490493368152</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1138855645468582</v>
+        <v>0.1160916060535189</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02325197752789306</v>
+        <v>0.01813010146565136</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1047740861953158</v>
+        <v>0.1168760087971238</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02518447726177911</v>
+        <v>0.04192317260666073</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1209383776079477</v>
+        <v>0.1158885396841753</v>
       </c>
       <c r="L214" t="n">
-        <v>0.06797661061857876</v>
+        <v>0.06640409519920537</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1200711940555812</v>
+        <v>0.1155047250283861</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1038685085908061</v>
+        <v>0.01813010146565136</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1146550616046073</v>
+        <v>0.1168760087971238</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02118406692122382</v>
+        <v>0.01802282339163716</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1054772679818616</v>
+        <v>0.1176604115407286</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02509903147267954</v>
+        <v>0.04142361652783891</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1217500445717595</v>
+        <v>0.1166663151182972</v>
       </c>
       <c r="L215" t="n">
-        <v>0.06807940342736668</v>
+        <v>0.06572400763822217</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1208770409955516</v>
+        <v>0.1162799245252209</v>
       </c>
       <c r="N215" t="n">
-        <v>0.104285569422545</v>
+        <v>0.01802282339163716</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1154245586623563</v>
+        <v>0.1176604115407286</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02111376449403349</v>
+        <v>0.01771281848540132</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1061804497684073</v>
+        <v>0.1184448142843335</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02471154258524749</v>
+        <v>0.04054137227010315</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1225617115355712</v>
+        <v>0.1174440905524192</v>
       </c>
       <c r="L216" t="n">
-        <v>0.06838261930713346</v>
+        <v>0.06554688670555692</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1216828879355219</v>
+        <v>0.1170551240220557</v>
       </c>
       <c r="N216" t="n">
-        <v>0.103606282684977</v>
+        <v>0.01771281848540132</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1161940557201053</v>
+        <v>0.1184448142843335</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02204098140577239</v>
+        <v>0.01749983452070621</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1068836315549531</v>
+        <v>0.1192292170279384</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02472201540249398</v>
+        <v>0.03998000021307016</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1233733784993829</v>
+        <v>0.1182218659865412</v>
       </c>
       <c r="L217" t="n">
-        <v>0.06848628809564072</v>
+        <v>0.0651724954220208</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1224887348754923</v>
+        <v>0.1178303235188905</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1018309774922856</v>
+        <v>0.01749983452070621</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1169635527778544</v>
+        <v>0.1192292170279384</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02296562881589088</v>
+        <v>0.01768361927131418</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1075868133414988</v>
+        <v>0.1200136197715432</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02453045472743004</v>
+        <v>0.03864306073635659</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1241850454631946</v>
+        <v>0.1189996414206632</v>
       </c>
       <c r="L218" t="n">
-        <v>0.06829043963065018</v>
+        <v>0.06490059680842469</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1232945818154626</v>
+        <v>0.1186055230157253</v>
       </c>
       <c r="N218" t="n">
-        <v>0.101159982958655</v>
+        <v>0.01768361927131418</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1177330498356034</v>
+        <v>0.1200136197715432</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02188761788383926</v>
+        <v>0.01746392051098759</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1082899951280446</v>
+        <v>0.1207980225151481</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02413686536306664</v>
+        <v>0.03863411421957924</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1249967124270064</v>
+        <v>0.1197774168547851</v>
       </c>
       <c r="L219" t="n">
-        <v>0.06839510374992352</v>
+        <v>0.06443095388557951</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1241004287554329</v>
+        <v>0.1193807225125601</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1012936281982686</v>
+        <v>0.01746392051098759</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1185025468933524</v>
+        <v>0.1207980225151481</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02080685976906786</v>
+        <v>0.01724048601348882</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1089931769145903</v>
+        <v>0.1215824252587529</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02384125211241483</v>
+        <v>0.03765672104235471</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1258083793908181</v>
+        <v>0.1205551922889071</v>
       </c>
       <c r="L220" t="n">
-        <v>0.06820031029122239</v>
+        <v>0.06496332967429636</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1249062756954033</v>
+        <v>0.120155922009395</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1008322423253105</v>
+        <v>0.01724048601348882</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1192720439511015</v>
+        <v>0.1215824252587529</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02172326088613249</v>
+        <v>0.01711313292828852</v>
       </c>
       <c r="G221" t="n">
-        <v>0.109696358701136</v>
+        <v>0.1223668280023578</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02374361977848562</v>
+        <v>0.03711444158429972</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1266200463546298</v>
+        <v>0.1213329677230291</v>
       </c>
       <c r="L221" t="n">
-        <v>0.06820608909230852</v>
+        <v>0.06369748719538609</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1257121226353736</v>
+        <v>0.1209311215062298</v>
       </c>
       <c r="N221" t="n">
-        <v>0.09967615445396449</v>
+        <v>0.01711313292828852</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1200415410088506</v>
+        <v>0.1223668280023578</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02163267423613434</v>
+        <v>0.01698304862127889</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1103995404876818</v>
+        <v>0.1231512307459626</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02344397316429002</v>
+        <v>0.0360108362250309</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1274317133184416</v>
+        <v>0.1221107431571511</v>
       </c>
       <c r="L222" t="n">
-        <v>0.06831246999094359</v>
+        <v>0.06333318946965982</v>
       </c>
       <c r="M222" t="n">
-        <v>0.126517969575344</v>
+        <v>0.1217063210030646</v>
       </c>
       <c r="N222" t="n">
-        <v>0.09972569369841428</v>
+        <v>0.01698304862127889</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1208110380665996</v>
+        <v>0.1231512307459626</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02153166123855751</v>
+        <v>0.01705075506988274</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1111027222742275</v>
+        <v>0.1239356334895675</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02324231707283902</v>
+        <v>0.03614946534416505</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1282433802822533</v>
+        <v>0.1228885185912731</v>
       </c>
       <c r="L223" t="n">
-        <v>0.06821948282488927</v>
+        <v>0.06347019951792837</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1273238165153143</v>
+        <v>0.1224815204998994</v>
       </c>
       <c r="N223" t="n">
-        <v>0.09898118917284376</v>
+        <v>0.01705075506988274</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1215805351243486</v>
+        <v>0.1239356334895675</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02042040663765138</v>
+        <v>0.01671626716140261</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1118059040607733</v>
+        <v>0.1247200362331724</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02303865630714368</v>
+        <v>0.03553388932131879</v>
       </c>
       <c r="K224" t="n">
-        <v>0.129055047246065</v>
+        <v>0.1236662940253951</v>
       </c>
       <c r="L224" t="n">
-        <v>0.06852715743190721</v>
+        <v>0.06280828036100278</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1281296634552846</v>
+        <v>0.1232567199967342</v>
       </c>
       <c r="N224" t="n">
-        <v>0.09724296999143672</v>
+        <v>0.01671626716140261</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1223500321820977</v>
+        <v>0.1247200362331724</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02129909517766546</v>
+        <v>0.0166795997831411</v>
       </c>
       <c r="G225" t="n">
-        <v>0.112509085847319</v>
+        <v>0.1255044389767772</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02303299567021497</v>
+        <v>0.03506766853610888</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1298667142098767</v>
+        <v>0.124444069459517</v>
       </c>
       <c r="L225" t="n">
-        <v>0.06843552364975916</v>
+        <v>0.06264719501969396</v>
       </c>
       <c r="M225" t="n">
-        <v>0.128935510395255</v>
+        <v>0.124031919493569</v>
       </c>
       <c r="N225" t="n">
-        <v>0.09691136526837685</v>
+        <v>0.0166795997831411</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1231195292398467</v>
+        <v>0.1255044389767772</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02016791160284913</v>
+        <v>0.01634076782240076</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1132122676338648</v>
+        <v>0.1262888417203821</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02262533996506394</v>
+        <v>0.03434813537459458</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1306783811736885</v>
+        <v>0.125221844893639</v>
       </c>
       <c r="L226" t="n">
-        <v>0.06824461131620674</v>
+        <v>0.06218670651481306</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1297413573352253</v>
+        <v>0.1248071189904038</v>
       </c>
       <c r="N226" t="n">
-        <v>0.09658670411784814</v>
+        <v>0.01634076782240076</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1238890262975958</v>
+        <v>0.1262888417203821</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02102704065745189</v>
+        <v>0.01629978616648417</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1139154494204105</v>
+        <v>0.1270732444639869</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02271569399470157</v>
+        <v>0.03403735696265536</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1314900481375002</v>
+        <v>0.125999620327761</v>
       </c>
       <c r="L227" t="n">
-        <v>0.06805445026901169</v>
+        <v>0.06212657786717091</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1305472042751957</v>
+        <v>0.1255823184872386</v>
       </c>
       <c r="N227" t="n">
-        <v>0.09626931565403435</v>
+        <v>0.01629978616648417</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1246585233553448</v>
+        <v>0.1270732444639869</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02187666708572315</v>
+        <v>0.01605666970269394</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1146186312069562</v>
+        <v>0.1278576472075918</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02250406256213888</v>
+        <v>0.03322861905250052</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1323017151013119</v>
+        <v>0.126777395761883</v>
       </c>
       <c r="L228" t="n">
-        <v>0.06856507034593567</v>
+        <v>0.06106679902871498</v>
       </c>
       <c r="M228" t="n">
-        <v>0.131353051215166</v>
+        <v>0.1263575179840734</v>
       </c>
       <c r="N228" t="n">
-        <v>0.09585952899111927</v>
+        <v>0.01605666970269394</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1254280204130938</v>
+        <v>0.1278576472075918</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02071697563191235</v>
+        <v>0.01611143331833259</v>
       </c>
       <c r="G229" t="n">
-        <v>0.115321812993502</v>
+        <v>0.1286420499511966</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02229045047038693</v>
+        <v>0.03292230642755981</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1331133820651237</v>
+        <v>0.127555171196005</v>
       </c>
       <c r="L229" t="n">
-        <v>0.06787650138474036</v>
+        <v>0.06090874481189662</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1321588981551364</v>
+        <v>0.1271327174809082</v>
       </c>
       <c r="N229" t="n">
-        <v>0.09515767324328678</v>
+        <v>0.01611143331833259</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1261975174708429</v>
+        <v>0.1286420499511966</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02054815104026894</v>
+        <v>0.01586409190070275</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1160249947800477</v>
+        <v>0.1294264526948015</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02197486252245667</v>
+        <v>0.03241880387126272</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1339250490289354</v>
+        <v>0.128332946630127</v>
       </c>
       <c r="L230" t="n">
-        <v>0.06808877322318743</v>
+        <v>0.06125271060036513</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1329647450951067</v>
+        <v>0.127907916977743</v>
       </c>
       <c r="N230" t="n">
-        <v>0.0946640775247205</v>
+        <v>0.01586409190070275</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1269670145285919</v>
+        <v>0.1294264526948015</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02037037805504238</v>
+        <v>0.01581466033710695</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1167281765665935</v>
+        <v>0.1302108554384064</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02175730352135914</v>
+        <v>0.03241849616703904</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1347367159927471</v>
+        <v>0.1291107220642489</v>
       </c>
       <c r="L231" t="n">
-        <v>0.06840191569903858</v>
+        <v>0.05989872364493287</v>
       </c>
       <c r="M231" t="n">
-        <v>0.133770592035077</v>
+        <v>0.1286831164745778</v>
       </c>
       <c r="N231" t="n">
-        <v>0.09307907094960449</v>
+        <v>0.01581466033710695</v>
       </c>
       <c r="O231" t="n">
-        <v>0.127736511586341</v>
+        <v>0.1302108554384064</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02118384142048208</v>
+        <v>0.01566315351484779</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1174313583531392</v>
+        <v>0.1309952581820112</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02163777827010539</v>
+        <v>0.0318217680983183</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1355483829565589</v>
+        <v>0.1298884974983709</v>
       </c>
       <c r="L232" t="n">
-        <v>0.06861595865005554</v>
+        <v>0.0602468111964124</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1345764389750474</v>
+        <v>0.1294583159714126</v>
       </c>
       <c r="N232" t="n">
-        <v>0.09240298263212238</v>
+        <v>0.01566315351484779</v>
       </c>
       <c r="O232" t="n">
-        <v>0.12850600864409</v>
+        <v>0.1309952581820112</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01998872588083749</v>
+        <v>0.01540958632122784</v>
       </c>
       <c r="G233" t="n">
-        <v>0.118134540139685</v>
+        <v>0.1317796609256161</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02131629157170636</v>
+        <v>0.03142900444853014</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1363600499203706</v>
+        <v>0.1306662729324929</v>
       </c>
       <c r="L233" t="n">
-        <v>0.06813093191399991</v>
+        <v>0.05969700050561633</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1353822859150177</v>
+        <v>0.1302335154682474</v>
       </c>
       <c r="N233" t="n">
-        <v>0.09293614168645808</v>
+        <v>0.01540958632122784</v>
       </c>
       <c r="O233" t="n">
-        <v>0.129275505701839</v>
+        <v>0.1317796609256161</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02078521618035807</v>
+        <v>0.01545397364354968</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1188377219262307</v>
+        <v>0.1325640636692209</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02089284822917313</v>
+        <v>0.03144059000110427</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1371717168841823</v>
+        <v>0.1314440483666149</v>
       </c>
       <c r="L234" t="n">
-        <v>0.06834686532863343</v>
+        <v>0.05984931882335692</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1361881328549881</v>
+        <v>0.1310087149650822</v>
       </c>
       <c r="N234" t="n">
-        <v>0.09157887722679531</v>
+        <v>0.01545397364354968</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1300450027595881</v>
+        <v>0.1325640636692209</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01857349706329325</v>
+        <v>0.01509633036911588</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1195409037127765</v>
+        <v>0.1333484664128258</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02096745304551668</v>
+        <v>0.03045690953947022</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1379833838479941</v>
+        <v>0.1322218238007369</v>
       </c>
       <c r="L235" t="n">
-        <v>0.06796378873171777</v>
+        <v>0.05880379340044689</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1369939797949584</v>
+        <v>0.131783914461917</v>
       </c>
       <c r="N235" t="n">
-        <v>0.09163151836731792</v>
+        <v>0.01509633036911588</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1308144998173371</v>
+        <v>0.1333484664128258</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02035375327389249</v>
+        <v>0.015036671385229</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1202440854993222</v>
+        <v>0.1341328691564306</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02074011082374803</v>
+        <v>0.03057834784705774</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1387950508118058</v>
+        <v>0.1329995992348589</v>
       </c>
       <c r="L236" t="n">
-        <v>0.06828173196101459</v>
+        <v>0.05876045148769882</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1377998267349288</v>
+        <v>0.1325591139587518</v>
       </c>
       <c r="N236" t="n">
-        <v>0.09129439422220986</v>
+        <v>0.015036671385229</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1315839968750862</v>
+        <v>0.1341328691564306</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02012616955640521</v>
+        <v>0.01487501157919165</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1209472672858679</v>
+        <v>0.1349172719000355</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02031082636687818</v>
+        <v>0.02990528970729636</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1396067177756175</v>
+        <v>0.1337773746689808</v>
       </c>
       <c r="L237" t="n">
-        <v>0.06820072485428563</v>
+        <v>0.05791932033592501</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1386056736748991</v>
+        <v>0.1333343134555867</v>
       </c>
       <c r="N237" t="n">
-        <v>0.08976783390565485</v>
+        <v>0.01487501157919165</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1323534939328352</v>
+        <v>0.1349172719000355</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01889093065508085</v>
+        <v>0.01461136583830636</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1216504490724137</v>
+        <v>0.1357016746436404</v>
       </c>
       <c r="J238" t="n">
-        <v>0.0199796044779182</v>
+        <v>0.02983811990361576</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1404183847394292</v>
+        <v>0.1345551501031028</v>
       </c>
       <c r="L238" t="n">
-        <v>0.0682207972492925</v>
+        <v>0.05838042719593811</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1394115206148695</v>
+        <v>0.1341095129524215</v>
       </c>
       <c r="N238" t="n">
-        <v>0.08995216653183657</v>
+        <v>0.01461136583830636</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1331229909905843</v>
+        <v>0.1357016746436404</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01964822131416887</v>
+        <v>0.01454574904987575</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1223536308589594</v>
+        <v>0.1364860773872452</v>
       </c>
       <c r="J239" t="n">
-        <v>0.01984644995987901</v>
+        <v>0.02907722321944561</v>
       </c>
       <c r="K239" t="n">
-        <v>0.141230051703241</v>
+        <v>0.1353329255372248</v>
       </c>
       <c r="L239" t="n">
-        <v>0.06874197898379697</v>
+        <v>0.05764379931855068</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1402173675548398</v>
+        <v>0.1348847124492563</v>
       </c>
       <c r="N239" t="n">
-        <v>0.089347721214939</v>
+        <v>0.01454574904987575</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1338924880483333</v>
+        <v>0.1364860773872452</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01939822627791871</v>
+        <v>0.01447817610120238</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1230568126455052</v>
+        <v>0.1372704801308501</v>
       </c>
       <c r="J240" t="n">
-        <v>0.01951136761577173</v>
+        <v>0.02882298443821546</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1420417186670527</v>
+        <v>0.1361107009713468</v>
       </c>
       <c r="L240" t="n">
-        <v>0.06806429989556065</v>
+        <v>0.05760946395457506</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1410232144948101</v>
+        <v>0.1356599119460911</v>
       </c>
       <c r="N240" t="n">
-        <v>0.0881548270691459</v>
+        <v>0.01447817610120238</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1346619851060823</v>
+        <v>0.1372704801308501</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.0191411302905798</v>
+        <v>0.0143086618795888</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1237599944320509</v>
+        <v>0.1380548828744549</v>
       </c>
       <c r="J241" t="n">
-        <v>0.01927436224860729</v>
+        <v>0.02847578834335501</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1428533856308644</v>
+        <v>0.1368884764054688</v>
       </c>
       <c r="L241" t="n">
-        <v>0.06848778982234524</v>
+        <v>0.05747744835482393</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1418290614347805</v>
+        <v>0.1364351114429259</v>
       </c>
       <c r="N241" t="n">
-        <v>0.08887381320864107</v>
+        <v>0.0143086618795888</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1354314821638314</v>
+        <v>0.1380548828744549</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.0188771180964016</v>
+        <v>0.01393722127233761</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1244631762185967</v>
+        <v>0.1388392856180598</v>
       </c>
       <c r="J242" t="n">
-        <v>0.01913543866139673</v>
+        <v>0.02793601971829388</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1436650525946762</v>
+        <v>0.1376662518395907</v>
       </c>
       <c r="L242" t="n">
-        <v>0.06821247860191246</v>
+        <v>0.05634777977010968</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1426349083747508</v>
+        <v>0.1372103109397607</v>
       </c>
       <c r="N242" t="n">
-        <v>0.08760500874760824</v>
+        <v>0.01393722127233761</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1362009792215804</v>
+        <v>0.1388392856180598</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01860637443963353</v>
+        <v>0.01386386916675139</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1251663580051424</v>
+        <v>0.1396236883616646</v>
       </c>
       <c r="J243" t="n">
-        <v>0.01889460165715108</v>
+        <v>0.02800406334646174</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1444767195584879</v>
+        <v>0.1384440272737127</v>
       </c>
       <c r="L243" t="n">
-        <v>0.06853839607202397</v>
+        <v>0.0564204854512449</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1434407553147212</v>
+        <v>0.1379855104365955</v>
       </c>
       <c r="N243" t="n">
-        <v>0.08774874280023143</v>
+        <v>0.01386386916675139</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1369704762793295</v>
+        <v>0.1396236883616646</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01632908406452506</v>
+        <v>0.0135886204501327</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1258695397916881</v>
+        <v>0.1404080911052695</v>
       </c>
       <c r="J244" t="n">
-        <v>0.01875185603888134</v>
+        <v>0.02728030401128811</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1452883865222996</v>
+        <v>0.1392218027078347</v>
       </c>
       <c r="L244" t="n">
-        <v>0.06826557207044143</v>
+        <v>0.05569559264904211</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1442466022546915</v>
+        <v>0.1387607099334303</v>
       </c>
       <c r="N244" t="n">
-        <v>0.08690534448069426</v>
+        <v>0.0135886204501327</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1377399733370785</v>
+        <v>0.1404080911052695</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01804543171532561</v>
+        <v>0.01341149000978413</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1265727215782339</v>
+        <v>0.1411924938488744</v>
       </c>
       <c r="J245" t="n">
-        <v>0.01840720660959853</v>
+        <v>0.02696512649620275</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1461000534861114</v>
+        <v>0.1399995781419567</v>
       </c>
       <c r="L245" t="n">
-        <v>0.06829403643492657</v>
+        <v>0.05607312861431374</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1450524491946619</v>
+        <v>0.1395359094302651</v>
       </c>
       <c r="N245" t="n">
-        <v>0.08627514290318067</v>
+        <v>0.01341149000978413</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1385094703948276</v>
+        <v>0.1411924938488744</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01575560213628462</v>
+        <v>0.01323249273300824</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1272759033647796</v>
+        <v>0.1419768965924792</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01836065817231368</v>
+        <v>0.02735891558463521</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1469117204499231</v>
+        <v>0.1407773535760787</v>
       </c>
       <c r="L246" t="n">
-        <v>0.068523819003241</v>
+        <v>0.05505312059787248</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1458582961346322</v>
+        <v>0.1403111089270999</v>
       </c>
       <c r="N246" t="n">
-        <v>0.0863584671818744</v>
+        <v>0.01323249273300824</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1392789674525766</v>
+        <v>0.1419768965924792</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01545978007165157</v>
+        <v>0.01305164350710761</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1279790851513254</v>
+        <v>0.1427612993360841</v>
       </c>
       <c r="J247" t="n">
-        <v>0.01791221553003776</v>
+        <v>0.02686205606001524</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1477233874137348</v>
+        <v>0.1415551290102006</v>
       </c>
       <c r="L247" t="n">
-        <v>0.06885494961314653</v>
+        <v>0.05483559585053061</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1466641430746026</v>
+        <v>0.1410863084239347</v>
       </c>
       <c r="N247" t="n">
-        <v>0.08605564643095931</v>
+        <v>0.01305164350710761</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1400484645103256</v>
+        <v>0.1427612993360841</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01515815026567584</v>
+        <v>0.01276895721938484</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1286822669378711</v>
+        <v>0.1435457020796889</v>
       </c>
       <c r="J248" t="n">
-        <v>0.0178618834857818</v>
+        <v>0.02667493270577231</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1485350543775465</v>
+        <v>0.1423329044443226</v>
       </c>
       <c r="L248" t="n">
-        <v>0.06878745810240472</v>
+        <v>0.0551205816231008</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1474699900145729</v>
+        <v>0.1418615079207695</v>
       </c>
       <c r="N248" t="n">
-        <v>0.08526700976461921</v>
+        <v>0.01276895721938484</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1408179615680747</v>
+        <v>0.1435457020796889</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01485089746260693</v>
+        <v>0.01278444875714244</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1293854487244169</v>
+        <v>0.1443301048232938</v>
       </c>
       <c r="J249" t="n">
-        <v>0.01740966684255683</v>
+        <v>0.02619793030533615</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1493467213413583</v>
+        <v>0.1431106798784446</v>
       </c>
       <c r="L249" t="n">
-        <v>0.06892137430877734</v>
+        <v>0.05510810516639558</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1482758369545432</v>
+        <v>0.1426367074176043</v>
       </c>
       <c r="N249" t="n">
-        <v>0.08469288629703769</v>
+        <v>0.01278444875714244</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1415874586258237</v>
+        <v>0.1443301048232938</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01553820640669426</v>
+        <v>0.01239813300768305</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1300886305109626</v>
+        <v>0.1451145075668986</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01735557040337388</v>
+        <v>0.02573143364213643</v>
       </c>
       <c r="K250" t="n">
-        <v>0.15015838830517</v>
+        <v>0.1438884553125666</v>
       </c>
       <c r="L250" t="n">
-        <v>0.06885672807002602</v>
+        <v>0.05409819373122737</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1490816838945136</v>
+        <v>0.1434119069144391</v>
       </c>
       <c r="N250" t="n">
-        <v>0.08503360514239894</v>
+        <v>0.01239813300768305</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1423569556835728</v>
+        <v>0.1451145075668986</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01422026184218726</v>
+        <v>0.01251002485830921</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1307918122975084</v>
+        <v>0.1458989103105035</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01679959897124392</v>
+        <v>0.02557582749960266</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1509700552689817</v>
+        <v>0.1446662307466886</v>
       </c>
       <c r="L251" t="n">
-        <v>0.06909354922391245</v>
+        <v>0.05439087456840874</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1498875308344839</v>
+        <v>0.1441871064112739</v>
       </c>
       <c r="N251" t="n">
-        <v>0.08438949541488655</v>
+        <v>0.01251002485830921</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1431264527413218</v>
+        <v>0.1458989103105035</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.0148972485133354</v>
+        <v>0.01202013919632351</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1314949940840541</v>
+        <v>0.1466833130541084</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01654175734917798</v>
+        <v>0.02573149666116464</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1517817222327935</v>
+        <v>0.1454440061808105</v>
       </c>
       <c r="L252" t="n">
-        <v>0.06893186760819833</v>
+        <v>0.05408617492875217</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1506933777744543</v>
+        <v>0.1449623059081087</v>
       </c>
       <c r="N252" t="n">
-        <v>0.08336088622868437</v>
+        <v>0.01202013919632351</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1438959497990708</v>
+        <v>0.1466833130541084</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.0155693511643881</v>
+        <v>0.01192849090902854</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1321981758705998</v>
+        <v>0.1474677157977132</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01658205034018707</v>
+        <v>0.02509882591025184</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1525933891966052</v>
+        <v>0.1462217816149325</v>
       </c>
       <c r="L253" t="n">
-        <v>0.06877171306064533</v>
+        <v>0.05308412206307017</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1514992247144246</v>
+        <v>0.1457375054049435</v>
       </c>
       <c r="N253" t="n">
-        <v>0.08304810669797624</v>
+        <v>0.01192849090902854</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1446654468568199</v>
+        <v>0.1474677157977132</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.0132367545395948</v>
+        <v>0.01183509488372683</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1329013576571456</v>
+        <v>0.1482521185413181</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01622048274728223</v>
+        <v>0.02527820003029405</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1534050561604169</v>
+        <v>0.1469995570490545</v>
       </c>
       <c r="L254" t="n">
-        <v>0.06891311541901518</v>
+        <v>0.05288474322217535</v>
       </c>
       <c r="M254" t="n">
-        <v>0.152305071654395</v>
+        <v>0.1465127049017783</v>
       </c>
       <c r="N254" t="n">
-        <v>0.08355148593694595</v>
+        <v>0.01183509488372683</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1454349439145689</v>
+        <v>0.1482521185413181</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01489964338320498</v>
+        <v>0.011439966007721</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1336045394436913</v>
+        <v>0.1490365212849229</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01585705937347445</v>
+        <v>0.02467000380472079</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1542167231242286</v>
+        <v>0.1477773324831765</v>
       </c>
       <c r="L255" t="n">
-        <v>0.06925610452106951</v>
+        <v>0.05288806565688015</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1531109185943653</v>
+        <v>0.1472879043986132</v>
       </c>
       <c r="N255" t="n">
-        <v>0.08307135305977731</v>
+        <v>0.011439966007721</v>
       </c>
       <c r="O255" t="n">
-        <v>0.146204440972318</v>
+        <v>0.1490365212849229</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01255820243946804</v>
+        <v>0.0115431191683136</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1343077212302371</v>
+        <v>0.1498209240285278</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01559178502177475</v>
+        <v>0.02487462201696172</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1550283900880404</v>
+        <v>0.1485551079172985</v>
       </c>
       <c r="L256" t="n">
-        <v>0.06890071020457</v>
+        <v>0.05209411661799701</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1539167655343357</v>
+        <v>0.148063103895448</v>
       </c>
       <c r="N256" t="n">
-        <v>0.08260803718065407</v>
+        <v>0.0115431191683136</v>
       </c>
       <c r="O256" t="n">
-        <v>0.146973938030067</v>
+        <v>0.1498209240285278</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01321261645263343</v>
+        <v>0.01104456925280722</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1350109030167828</v>
+        <v>0.1506053267721326</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01542466449519414</v>
+        <v>0.02399243945044649</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1558400570518521</v>
+        <v>0.1493328833514205</v>
       </c>
       <c r="L257" t="n">
-        <v>0.06934696230727838</v>
+        <v>0.05180292335633857</v>
       </c>
       <c r="M257" t="n">
-        <v>0.154722612474306</v>
+        <v>0.1488383033922828</v>
       </c>
       <c r="N257" t="n">
-        <v>0.08206186741376009</v>
+        <v>0.01104456925280722</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1477434350878161</v>
+        <v>0.1506053267721326</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.0128630701669506</v>
+        <v>0.01084433114850443</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1357140848033286</v>
+        <v>0.1513897295157375</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01495570259674364</v>
+        <v>0.02452384088860474</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1566517240156639</v>
+        <v>0.1501106587855424</v>
       </c>
       <c r="L258" t="n">
-        <v>0.0691948906669563</v>
+        <v>0.05241451312271722</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1555284594142763</v>
+        <v>0.1496135028891176</v>
       </c>
       <c r="N258" t="n">
-        <v>0.08243317287327928</v>
+        <v>0.01084433114850443</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1485129321455651</v>
+        <v>0.1513897295157375</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.011509748326669</v>
+        <v>0.01084241974270778</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1364172665898743</v>
+        <v>0.1521741322593424</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01468490412943427</v>
+        <v>0.02396921111486611</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1574633909794756</v>
+        <v>0.1508884342196644</v>
       </c>
       <c r="L259" t="n">
-        <v>0.06894452512136548</v>
+        <v>0.05152891316794572</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1563343063542467</v>
+        <v>0.1503887023859524</v>
       </c>
       <c r="N259" t="n">
-        <v>0.08222228267339537</v>
+        <v>0.01084241974270778</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1492824292033141</v>
+        <v>0.1521741322593424</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01315283567603807</v>
+        <v>0.01053884992271989</v>
       </c>
       <c r="G260" t="n">
-        <v>0.13712044837642</v>
+        <v>0.1529585350029472</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01461227389627699</v>
+        <v>0.0242289349126602</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1582750579432873</v>
+        <v>0.1516662096537864</v>
       </c>
       <c r="L260" t="n">
-        <v>0.06929589550826754</v>
+        <v>0.05104615074283625</v>
       </c>
       <c r="M260" t="n">
-        <v>0.157140153294217</v>
+        <v>0.1511639018827872</v>
       </c>
       <c r="N260" t="n">
-        <v>0.08242952592829211</v>
+        <v>0.01053884992271989</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1500519262610632</v>
+        <v>0.1529585350029472</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01179251695930724</v>
+        <v>0.01023363657584331</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1378236301629658</v>
+        <v>0.1537429377465521</v>
       </c>
       <c r="J261" t="n">
-        <v>0.0143378167002829</v>
+        <v>0.02370339706541666</v>
       </c>
       <c r="K261" t="n">
-        <v>0.159086724907099</v>
+        <v>0.1524439850879084</v>
       </c>
       <c r="L261" t="n">
-        <v>0.06904903166542423</v>
+        <v>0.05126625309820149</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1579460002341874</v>
+        <v>0.151939101379622</v>
       </c>
       <c r="N261" t="n">
-        <v>0.08135523175215342</v>
+        <v>0.01023363657584331</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1508214233188122</v>
+        <v>0.1537429377465521</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01042897692072595</v>
+        <v>0.01012679458938062</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1385268119495116</v>
+        <v>0.1545273404901569</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01416153734446297</v>
+        <v>0.02399298235656511</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1598983918709108</v>
+        <v>0.1532217605220303</v>
       </c>
       <c r="L262" t="n">
-        <v>0.06920396343059718</v>
+        <v>0.05018924748485409</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1587518471741577</v>
+        <v>0.1527143008764568</v>
       </c>
       <c r="N262" t="n">
-        <v>0.08159972925916309</v>
+        <v>0.01012679458938062</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1515909203765612</v>
+        <v>0.1545273404901569</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01206240030454368</v>
+        <v>0.01001833885063438</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1392299937360573</v>
+        <v>0.1553117432337618</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01388344063182824</v>
+        <v>0.02369807556953527</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1607100588347225</v>
+        <v>0.1539995359561523</v>
       </c>
       <c r="L263" t="n">
-        <v>0.06966072064154813</v>
+        <v>0.05091516115360634</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1595576941141281</v>
+        <v>0.1534895003732916</v>
       </c>
       <c r="N263" t="n">
-        <v>0.08076334756350489</v>
+        <v>0.01001833885063438</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1523604174343103</v>
+        <v>0.1553117432337618</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.009692971855009822</v>
+        <v>0.00980828424690719</v>
       </c>
       <c r="G264" t="n">
-        <v>0.139933175522603</v>
+        <v>0.1560961459773667</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01360353136538964</v>
+        <v>0.02381906148775664</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1615217257985342</v>
+        <v>0.1547773113902743</v>
       </c>
       <c r="L264" t="n">
-        <v>0.06931933313603869</v>
+        <v>0.04984402135527083</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1603635410540984</v>
+        <v>0.1542646998701264</v>
       </c>
       <c r="N264" t="n">
-        <v>0.08124641577936259</v>
+        <v>0.00980828424690719</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1531299144920593</v>
+        <v>0.1560961459773667</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1163.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1163.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.8091910046234552</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.04045955023117276</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.04045955023117276</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.06473528036987641</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.08527573013870365</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01542939954576002</v>
+        <v>0.03527573013870365</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01159235150082759</v>
+        <v>0.01738384336131565</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001495218700270494</v>
+        <v>0.0009086629344627548</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007844027436048575</v>
+        <v>0.0005793317511244005</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.004999999999999977</v>
+        <v>0.001630727228373222</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0008510049395332952</v>
+        <v>0.0007844027436048575</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.009856231693654405</v>
+        <v>0.005334247915255191</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007751994968348061</v>
+        <v>0.000778963829338115</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.001495218700270494</v>
+        <v>0.009431964547816973</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007844027436048575</v>
+        <v>0.0007756633798005084</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002900752132776574</v>
+        <v>0.001840541976082515</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001568805487209715</v>
+        <v>0.001158663502248801</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.007899494897075005</v>
+        <v>0.003380608791824405</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001555550868243963</v>
+        <v>0.001568805487209715</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.02022383005485684</v>
+        <v>0.01056842147930565</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001550398993669612</v>
+        <v>0.00155792765867623</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.002900752132776574</v>
+        <v>0.01974246051855644</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001568805487209715</v>
+        <v>0.001551326759601017</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.003999999999999997</v>
+        <v>0.002794906773195292</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002103684210526314</v>
+        <v>0.001737995253373202</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01221237287210861</v>
+        <v>0.005025357424536338</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002333326302365945</v>
+        <v>0.002353208230814573</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02942251947312957</v>
+        <v>0.01480924723240484</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002325598490504418</v>
+        <v>0.002336891488014345</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.003999999999999997</v>
+        <v>0.02775580989247595</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002103684210526314</v>
+        <v>0.002326990139401525</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.005373557842003072</v>
+        <v>0.003771026974137101</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.00313761097441943</v>
+        <v>0.002317327004497602</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01573954404107195</v>
+        <v>0.006640685860691768</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003111101736487926</v>
+        <v>0.00313761097441943</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.03687202433799497</v>
+        <v>0.01936345171480613</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003100797987339224</v>
+        <v>0.00311585531735246</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.005373557842003072</v>
+        <v>0.03569633464983363</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.00313761097441943</v>
+        <v>0.003102653519202034</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.002103684210526314</v>
+        <v>0.01276711754794717</v>
       </c>
       <c r="B70" t="n">
-        <v>0.003999999999999997</v>
+        <v>0.02427573013870366</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.00642737250431976</v>
+        <v>0.004768172227243961</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003922013718024288</v>
+        <v>0.002896658755622002</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01924707339800619</v>
+        <v>0.00790230683447346</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003888877170609907</v>
+        <v>0.003922013718024288</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.04349206903897518</v>
+        <v>0.02313776146676302</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003875997484174031</v>
+        <v>0.003894819146690575</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.00642737250431976</v>
+        <v>0.04248835677088697</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003922013718024288</v>
+        <v>0.003878316899002542</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.007742718850245557</v>
+        <v>0.005785612180851878</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004706416461629145</v>
+        <v>0.003475990506746404</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02290102593695242</v>
+        <v>0.008985933080064151</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.00466665260473189</v>
+        <v>0.004706416461629145</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.04999999999999999</v>
+        <v>0.02599999999999997</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004824963785610815</v>
+        <v>0.004604022682970045</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.007742718850245557</v>
+        <v>0.04799999999999999</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004706416461629145</v>
+        <v>0.004718544023610427</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.008716008433500538</v>
+        <v>0.006822616483296864</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005490819205234003</v>
+        <v>0.004055322257870804</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.0259674666519516</v>
+        <v>0.009999999999999995</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005444428038853871</v>
+        <v>0.005259210526315786</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.05203827950812773</v>
+        <v>0.02817755247647694</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005426396477843642</v>
+        <v>0.005452746805366805</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.008716008433500538</v>
+        <v>0.05124762673828115</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005490819205234003</v>
+        <v>0.005429643658603558</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.009843652807804776</v>
+        <v>0.007878454782914948</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.00627522194883886</v>
+        <v>0.004634654008995204</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02931246053704487</v>
+        <v>0.01114038252659851</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006222203472975852</v>
+        <v>0.00627522194883886</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.05480511567646978</v>
+        <v>0.03065365749636342</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006201595974678449</v>
+        <v>0.00623171063470492</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.009843652807804776</v>
+        <v>0.05434793127487186</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.00627522194883886</v>
+        <v>0.006205307038404067</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01092206352687836</v>
+        <v>0.008952396728042128</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007059624692443717</v>
+        <v>0.005213985760119604</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.03150207258627316</v>
+        <v>0.01162782949993304</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006999978907097834</v>
+        <v>0.007059624692443717</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.05778653213392831</v>
+        <v>0.0326955975499362</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006976795471513255</v>
+        <v>0.007010674464043035</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.01092206352687836</v>
+        <v>0.05677894359513458</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007059624692443717</v>
+        <v>0.006980970418204575</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01154765214444135</v>
+        <v>0.01004371196701442</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007844027436048576</v>
+        <v>0.005793317511244005</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.03470236779367769</v>
+        <v>0.01234547200646192</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007777754341219815</v>
+        <v>0.007844027436048576</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.06034268019188449</v>
+        <v>0.03442985872632132</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007751994968348061</v>
+        <v>0.007789638293381151</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.01154765214444135</v>
+        <v>0.05955934463910656</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007844027436048576</v>
+        <v>0.007756633798005085</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01241683021421388</v>
+        <v>0.01115167014816785</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008628430179653432</v>
+        <v>0.006372649262368406</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.03677941115329941</v>
+        <v>0.01310351595272459</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008555529775341797</v>
+        <v>0.008628430179653432</v>
       </c>
       <c r="L76" s="172" t="n">
+        <v>0.0359829271146449</v>
+      </c>
+      <c r="M76" s="170" t="n">
+        <v>0.008568602122719265</v>
+      </c>
+      <c r="N76" s="171" t="n">
         <v>0.0625898336796849</v>
       </c>
-      <c r="M76" s="170" t="n">
-        <v>0.008628390881482395</v>
-      </c>
-      <c r="N76" s="171" t="n">
-        <v>0.01241683021421388</v>
-      </c>
       <c r="O76" s="172" t="n">
-        <v>0.008628430179653432</v>
+        <v>0.008789669215715713</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01352600928991596</v>
+        <v>0.01227554091983842</v>
       </c>
       <c r="G77" t="n">
+        <v>0.006951981013492807</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.01391216724526051</v>
+      </c>
+      <c r="K77" t="n">
         <v>0.00941283292325829</v>
       </c>
-      <c r="J77" t="n">
-        <v>0.03900961661272245</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.009484964693350589</v>
-      </c>
       <c r="L77" t="n">
-        <v>0.06330030634307926</v>
+        <v>0.03738128880403294</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009302393962017673</v>
+        <v>0.00934756595205738</v>
       </c>
       <c r="N77" t="n">
-        <v>0.01352600928991596</v>
+        <v>0.06305475678870209</v>
       </c>
       <c r="O77" t="n">
-        <v>0.00941283292325829</v>
+        <v>0.009307960557606099</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01427160092526772</v>
+        <v>0.01341459393036214</v>
       </c>
       <c r="G78" t="n">
+        <v>0.007531312764617206</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.01448163179060913</v>
+      </c>
+      <c r="K78" t="n">
         <v>0.01019723566686315</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.03975347451217015</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.01011108064358576</v>
-      </c>
       <c r="L78" t="n">
-        <v>0.06557629477732874</v>
+        <v>0.03900961661272245</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01007759345885248</v>
+        <v>0.00986819559005162</v>
       </c>
       <c r="N78" t="n">
-        <v>0.01427160092526772</v>
+        <v>0.06520062843381097</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01019723566686315</v>
+        <v>0.01008362393740661</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.0147500166739892</v>
+        <v>0.01456809882807503</v>
       </c>
       <c r="G79" t="n">
+        <v>0.008110644515741608</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.01482211549530986</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.01098163841046801</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.04168052335655389</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.01088885607770774</v>
-      </c>
       <c r="L79" t="n">
-        <v>0.06775923487908792</v>
+        <v>0.04020753135081964</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01085279295568728</v>
+        <v>0.01090549361073361</v>
       </c>
       <c r="N79" t="n">
-        <v>0.0147500166739892</v>
+        <v>0.06714824177546497</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01098163841046801</v>
+        <v>0.01085928731720712</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
+        <v>0.0157353252613131</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.008689976266866007</v>
+      </c>
+      <c r="J80" t="n">
         <v>0.01542939954576002</v>
       </c>
-      <c r="G80" t="n">
+      <c r="K80" t="n">
         <v>0.01159235150082759</v>
       </c>
-      <c r="J80" t="n">
-        <v>0.0431868231486052</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.01166663151182972</v>
-      </c>
       <c r="L80" t="n">
-        <v>0.06954666210531124</v>
+        <v>0.04205650128949548</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01162799245252209</v>
+        <v>0.01168445744007172</v>
       </c>
       <c r="N80" t="n">
-        <v>0.01542939954576002</v>
+        <v>0.06939529832899294</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01159235150082759</v>
+        <v>0.01163495069700763</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01594548894252154</v>
+        <v>0.01691554287841238</v>
       </c>
       <c r="G81" t="n">
+        <v>0.009269308017990408</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.01586554470275765</v>
+      </c>
+      <c r="K81" t="n">
         <v>0.01255044389767772</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.04417163150054357</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.0124444069459517</v>
-      </c>
       <c r="L81" t="n">
-        <v>0.07133611191295325</v>
+        <v>0.04310279819571863</v>
       </c>
       <c r="M81" t="n">
-        <v>0.0124031919493569</v>
+        <v>0.01246342126940984</v>
       </c>
       <c r="N81" t="n">
-        <v>0.01594548894252154</v>
+        <v>0.07193949960972396</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01255044389767772</v>
+        <v>0.01241061407680813</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01652910013283679</v>
+        <v>0.01810802132770887</v>
       </c>
       <c r="G82" t="n">
+        <v>0.009848639769114809</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.01629100116019599</v>
+      </c>
+      <c r="K82" t="n">
         <v>0.01333484664128258</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.04593420602458859</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.01322218238007369</v>
-      </c>
       <c r="L82" t="n">
-        <v>0.07312511975896868</v>
+        <v>0.04484492853039412</v>
       </c>
       <c r="M82" t="n">
-        <v>0.0131783914461917</v>
+        <v>0.01324238509874795</v>
       </c>
       <c r="N82" t="n">
-        <v>0.01652910013283679</v>
+        <v>0.07377854713298693</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01333484664128258</v>
+        <v>0.01318627745660864</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01710963782253468</v>
+        <v>0.01931203025753857</v>
       </c>
       <c r="G83" t="n">
+        <v>0.01042797152023921</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.01691968106446769</v>
+      </c>
+      <c r="K83" t="n">
         <v>0.01411924938488743</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.04757380433295968</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.01399995781419567</v>
-      </c>
       <c r="L83" t="n">
-        <v>0.07531122110031196</v>
+        <v>0.04558139875442679</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01395359094302651</v>
+        <v>0.01402134892808607</v>
       </c>
       <c r="N83" t="n">
-        <v>0.01710963782253468</v>
+        <v>0.07601014241411103</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01411924938488743</v>
+        <v>0.01396194083640915</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01788647046619107</v>
+        <v>0.02052683931623752</v>
       </c>
       <c r="G84" t="n">
+        <v>0.01100730327136361</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.01745069920310896</v>
+      </c>
+      <c r="K84" t="n">
         <v>0.01490365212849229</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.04908968403787631</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.01477773324831765</v>
-      </c>
       <c r="L84" t="n">
-        <v>0.07789195139393779</v>
+        <v>0.04741071532872149</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01472879043986132</v>
+        <v>0.01480031275742418</v>
       </c>
       <c r="N84" t="n">
-        <v>0.01788647046619107</v>
+        <v>0.07703198696842523</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01490365212849229</v>
+        <v>0.01473760421620966</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01815896651838191</v>
+        <v>0.02175171815214172</v>
       </c>
       <c r="G85" t="n">
+        <v>0.01158663502248801</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.01808317036365606</v>
+      </c>
+      <c r="K85" t="n">
         <v>0.01568805487209715</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.05018110275155804</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.01555550868243963</v>
-      </c>
       <c r="L85" t="n">
-        <v>0.08006484609680059</v>
+        <v>0.04823138471418312</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01550398993669612</v>
+        <v>0.0155792765867623</v>
       </c>
       <c r="N85" t="n">
-        <v>0.01815896651838191</v>
+        <v>0.08024178231125845</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01568805487209715</v>
+        <v>0.01551326759601017</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01872649443368302</v>
+        <v>0.02298593641358718</v>
       </c>
       <c r="G86" t="n">
+        <v>0.01216596677361241</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.01871620933364516</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.01647245761570201</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.05174731808622438</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.01633328411656161</v>
-      </c>
       <c r="L86" t="n">
-        <v>0.08142744066585511</v>
+        <v>0.05014191337171661</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01627918943353093</v>
+        <v>0.01635824041610041</v>
       </c>
       <c r="N86" t="n">
-        <v>0.01872649443368302</v>
+        <v>0.08213722995793982</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01647245761570201</v>
+        <v>0.01628893097581068</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01958842266667028</v>
+        <v>0.02427573013870366</v>
       </c>
       <c r="G87" t="n">
+        <v>0.01276711754794717</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.01924893090061251</v>
+      </c>
+      <c r="K87" t="n">
         <v>0.01725686035930686</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.05318758765409473</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.01711105955068359</v>
-      </c>
       <c r="L87" t="n">
-        <v>0.08357727055805581</v>
+        <v>0.05144080776222687</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01705438893036573</v>
+        <v>0.01713720424543853</v>
       </c>
       <c r="N87" t="n">
-        <v>0.01958842266667028</v>
+        <v>0.08351603142379838</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01725686035930686</v>
+        <v>0.01706459435561119</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02014411967191966</v>
+        <v>0.02555864374435243</v>
       </c>
       <c r="G88" t="n">
+        <v>0.01332463027586121</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.01968044985209431</v>
+      </c>
+      <c r="K88" t="n">
         <v>0.01804126310291172</v>
       </c>
-      <c r="J88" t="n">
-        <v>0.05420116906738867</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.01788883498480558</v>
-      </c>
       <c r="L88" t="n">
-        <v>0.08571187123035717</v>
+        <v>0.0522265743466187</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01782958842720054</v>
+        <v>0.01791616807477665</v>
       </c>
       <c r="N88" t="n">
-        <v>0.02014411967191966</v>
+        <v>0.08537588822416298</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01804126310291172</v>
+        <v>0.01784025773541169</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.020392953904007</v>
+        <v>0.02702710910659217</v>
       </c>
       <c r="G89" t="n">
+        <v>0.01390396202698561</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.02030988097562679</v>
+      </c>
+      <c r="K89" t="n">
         <v>0.01882566584651658</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.05518731993832562</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.01866661041892756</v>
-      </c>
       <c r="L89" t="n">
-        <v>0.08782877813971401</v>
+        <v>0.05329771958579704</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01860478792403535</v>
+        <v>0.01869513190411476</v>
       </c>
       <c r="N89" t="n">
-        <v>0.020392953904007</v>
+        <v>0.08741450187436284</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01882566584651658</v>
+        <v>0.0186159211152122</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02103429381750815</v>
+        <v>0.02857213369579603</v>
       </c>
       <c r="G90" t="n">
+        <v>0.01448329377811002</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.02073633905874614</v>
+      </c>
+      <c r="K90" t="n">
         <v>0.01961006859012144</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.05634529787912518</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.01944438585304954</v>
-      </c>
       <c r="L90" t="n">
-        <v>0.08952552674308067</v>
+        <v>0.05495274994066679</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01937998742087015</v>
+        <v>0.01947409573345288</v>
       </c>
       <c r="N90" t="n">
-        <v>0.02103429381750815</v>
+        <v>0.08912957388972675</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01961006859012144</v>
+        <v>0.01939158449501271</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02176750786699906</v>
+        <v>0.03013155558194891</v>
       </c>
       <c r="G91" t="n">
+        <v>0.01506262552923441</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.02115893888898861</v>
+      </c>
+      <c r="K91" t="n">
         <v>0.0203944713337263</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.05767436050200678</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.02022216128717152</v>
-      </c>
       <c r="L91" t="n">
-        <v>0.09109965249741198</v>
+        <v>0.05639017187213283</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02015518691770496</v>
+        <v>0.02025305956279099</v>
       </c>
       <c r="N91" t="n">
-        <v>0.02176750786699906</v>
+        <v>0.09081880578558393</v>
       </c>
       <c r="O91" t="n">
-        <v>0.0203944713337263</v>
+        <v>0.02016724787481322</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02219196450705559</v>
+        <v>0.03164321283503574</v>
       </c>
       <c r="G92" t="n">
+        <v>0.01564195728035881</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.02167679525389039</v>
+      </c>
+      <c r="K92" t="n">
         <v>0.02117887407733115</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.05877376541918991</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.0209999367212935</v>
-      </c>
       <c r="L92" t="n">
-        <v>0.09234869085966213</v>
+        <v>0.05770849184110005</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02093038641453977</v>
+        <v>0.02103202339212911</v>
       </c>
       <c r="N92" t="n">
-        <v>0.02219196450705559</v>
+        <v>0.09347989907726323</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02117887407733115</v>
+        <v>0.02094291125461373</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02250703219225363</v>
+        <v>0.03304494352504149</v>
       </c>
       <c r="G93" t="n">
+        <v>0.01622128903148322</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.02228902294098774</v>
+      </c>
+      <c r="K93" t="n">
         <v>0.02196327682093601</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.06064277024289405</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.02177771215541548</v>
-      </c>
       <c r="L93" t="n">
-        <v>0.09507017728678602</v>
+        <v>0.05860621630847332</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02170558591137457</v>
+        <v>0.02181098722146722</v>
       </c>
       <c r="N93" t="n">
-        <v>0.02250703219225363</v>
+        <v>0.09501055528009378</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02196327682093601</v>
+        <v>0.02171857463441423</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02301207937716905</v>
+        <v>0.03427458572195108</v>
       </c>
       <c r="G94" t="n">
+        <v>0.01680062078260762</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.02289473673781683</v>
+      </c>
+      <c r="K94" t="n">
         <v>0.02274767956454087</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.06148063258533876</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.02255548758953747</v>
-      </c>
       <c r="L94" t="n">
-        <v>0.09646164723573813</v>
+        <v>0.05958185173515762</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02248078540820938</v>
+        <v>0.02258995105080534</v>
       </c>
       <c r="N94" t="n">
-        <v>0.02301207937716905</v>
+        <v>0.0969084759094046</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02274767956454087</v>
+        <v>0.02249423801421474</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02350647451637779</v>
+        <v>0.03527573013870365</v>
       </c>
       <c r="G95" t="n">
+        <v>0.01738384336131565</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.0231930514319139</v>
+      </c>
+      <c r="K95" t="n">
         <v>0.02353208230814573</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.06268661005874349</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.02333326302365945</v>
-      </c>
       <c r="L95" t="n">
-        <v>0.09802063616347306</v>
+        <v>0.06093390458205769</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02325598490504419</v>
+        <v>0.02336891488014345</v>
       </c>
       <c r="N95" t="n">
-        <v>0.02350647451637779</v>
+        <v>0.09837136248052464</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02353208230814573</v>
+        <v>0.02326990139401525</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02428958606445568</v>
+        <v>0.03611230383727451</v>
       </c>
       <c r="G96" t="n">
+        <v>0.01795928428485642</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.02358308181081518</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.02431648505175058</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.06385996027532773</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.02411103845778143</v>
-      </c>
       <c r="L96" t="n">
-        <v>0.1001446795269453</v>
+        <v>0.06226088131007854</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02403118440187899</v>
+        <v>0.02414787870948157</v>
       </c>
       <c r="N96" t="n">
-        <v>0.02428958606445568</v>
+        <v>0.1006969165087829</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02431648505175058</v>
+        <v>0.02404556477381576</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02466078247597862</v>
+        <v>0.03692733581542022</v>
       </c>
       <c r="G97" t="n">
+        <v>0.01853861603598082</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.02416394266205683</v>
+      </c>
+      <c r="K97" t="n">
         <v>0.02510088779535544</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.064299940847311</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.02488881389190341</v>
-      </c>
       <c r="L97" t="n">
-        <v>0.1020313127831095</v>
+        <v>0.063161288380125</v>
       </c>
       <c r="M97" t="n">
-        <v>0.0248063838987138</v>
+        <v>0.02492684253881968</v>
       </c>
       <c r="N97" t="n">
-        <v>0.02466078247597862</v>
+        <v>0.1019828395095084</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02510088779535544</v>
+        <v>0.02482122815361627</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02501943220552252</v>
+        <v>0.03771438357768168</v>
       </c>
       <c r="G98" t="n">
+        <v>0.01911794778710522</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.02473474877317515</v>
+      </c>
+      <c r="K98" t="n">
         <v>0.0258852905389603</v>
       </c>
-      <c r="J98" t="n">
-        <v>0.06530580938691277</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.02566658932602539</v>
-      </c>
       <c r="L98" t="n">
-        <v>0.1027780713889201</v>
+        <v>0.06403363225310199</v>
       </c>
       <c r="M98" t="n">
-        <v>0.0255815833955486</v>
+        <v>0.02570580636815779</v>
       </c>
       <c r="N98" t="n">
-        <v>0.02501943220552252</v>
+        <v>0.1030268329980303</v>
       </c>
       <c r="O98" t="n">
-        <v>0.0258852905389603</v>
+        <v>0.02559689153341678</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02566490370766328</v>
+        <v>0.03847275118016651</v>
       </c>
       <c r="G99" t="n">
+        <v>0.01969727953822962</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.02499461493170632</v>
+      </c>
+      <c r="K99" t="n">
         <v>0.02666969328256516</v>
       </c>
-      <c r="J99" t="n">
-        <v>0.06637682350635257</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.02644436476014737</v>
-      </c>
       <c r="L99" t="n">
-        <v>0.1053824908013318</v>
+        <v>0.06517641938991439</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02635678289238341</v>
+        <v>0.02648477019749591</v>
       </c>
       <c r="N99" t="n">
-        <v>0.02566490370766328</v>
+        <v>0.1055265984896774</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02666969328256516</v>
+        <v>0.02637255491321729</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02589656543697672</v>
+        <v>0.03920174267898226</v>
       </c>
       <c r="G100" t="n">
+        <v>0.02027661128935402</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.02574265592518653</v>
+      </c>
+      <c r="K100" t="n">
         <v>0.02745409602617001</v>
       </c>
-      <c r="J100" t="n">
-        <v>0.06791224081784986</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.02722214019426936</v>
-      </c>
       <c r="L100" t="n">
-        <v>0.1060421064772992</v>
+        <v>0.06588815625146707</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02713198238921821</v>
+        <v>0.02726373402683403</v>
       </c>
       <c r="N100" t="n">
-        <v>0.02589656543697672</v>
+        <v>0.1063798374997789</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02745409602617001</v>
+        <v>0.02714821829301779</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02641378584803879</v>
+        <v>0.03990066213023653</v>
       </c>
       <c r="G101" t="n">
+        <v>0.02085594304047842</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.02617798654115204</v>
+      </c>
+      <c r="K101" t="n">
         <v>0.02823849876977487</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.0686113189336241</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.02799991562839134</v>
-      </c>
       <c r="L101" t="n">
-        <v>0.1081544538737768</v>
+        <v>0.06726734929866499</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02790718188605302</v>
+        <v>0.02804269785617214</v>
       </c>
       <c r="N101" t="n">
-        <v>0.02641378584803879</v>
+        <v>0.1085842515436636</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02823849876977487</v>
+        <v>0.0279238816728183</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02681593339542535</v>
+        <v>0.04056881359003695</v>
       </c>
       <c r="G102" t="n">
+        <v>0.02143527479160282</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.02649972156713902</v>
+      </c>
+      <c r="K102" t="n">
         <v>0.02902290151337973</v>
       </c>
-      <c r="J102" t="n">
-        <v>0.0695733154658949</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.02877769106251332</v>
-      </c>
       <c r="L102" t="n">
-        <v>0.1090170684477192</v>
+        <v>0.06791250499241297</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02868238138288782</v>
+        <v>0.02882166168551026</v>
       </c>
       <c r="N102" t="n">
-        <v>0.02681593339542535</v>
+        <v>0.1091375421366608</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02902290151337973</v>
+        <v>0.02869954505261881</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02700237653371232</v>
+        <v>0.04120550111449107</v>
       </c>
       <c r="G103" t="n">
+        <v>0.02201460654272722</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.02690697579068374</v>
+      </c>
+      <c r="K103" t="n">
         <v>0.02980730425698459</v>
       </c>
-      <c r="J103" t="n">
-        <v>0.06989748802688167</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.02955546649663529</v>
-      </c>
       <c r="L103" t="n">
-        <v>0.1114274856560809</v>
+        <v>0.0691221297936159</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02945758087972264</v>
+        <v>0.02960062551484837</v>
       </c>
       <c r="N103" t="n">
-        <v>0.02700237653371232</v>
+        <v>0.1114374107940992</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02980730425698459</v>
+        <v>0.02947520843241932</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02757248371747553</v>
+        <v>0.04181002875970648</v>
       </c>
       <c r="G104" t="n">
+        <v>0.02259393829385162</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.02719886399932238</v>
+      </c>
+      <c r="K104" t="n">
         <v>0.03059170700058944</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.07118309422880389</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.03033324193075728</v>
-      </c>
       <c r="L104" t="n">
-        <v>0.1123832409558166</v>
+        <v>0.06959473016317869</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03023278037655744</v>
+        <v>0.03037958934418649</v>
       </c>
       <c r="N104" t="n">
-        <v>0.02757248371747553</v>
+        <v>0.112481559031308</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03059170700058944</v>
+        <v>0.03025087181221982</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02772562340129094</v>
+        <v>0.0423817005817908</v>
       </c>
       <c r="G105" t="n">
+        <v>0.02317327004497602</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.0274745009805912</v>
+      </c>
+      <c r="K105" t="n">
         <v>0.0313761097441943</v>
       </c>
-      <c r="J105" t="n">
-        <v>0.07162939168388113</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.03111101736487926</v>
-      </c>
       <c r="L105" t="n">
-        <v>0.1133818698038808</v>
+        <v>0.07072881256200625</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03100797987339225</v>
+        <v>0.0311585531735246</v>
       </c>
       <c r="N105" t="n">
-        <v>0.02772562340129094</v>
+        <v>0.1134676883636163</v>
       </c>
       <c r="O105" t="n">
-        <v>0.0313761097441943</v>
+        <v>0.03102653519202034</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02816116403973437</v>
+        <v>0.0429198206368516</v>
       </c>
       <c r="G106" t="n">
+        <v>0.02375260179610042</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.02813300152202636</v>
+      </c>
+      <c r="K106" t="n">
         <v>0.03216051248779916</v>
       </c>
-      <c r="J106" t="n">
-        <v>0.07233563800433285</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.03188879279900124</v>
-      </c>
       <c r="L106" t="n">
-        <v>0.1142209076572281</v>
+        <v>0.07132288345100349</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03178317937022705</v>
+        <v>0.03193751700286272</v>
       </c>
       <c r="N106" t="n">
-        <v>0.02816116403973437</v>
+        <v>0.1152935003063528</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03216051248779916</v>
+        <v>0.03180219857182084</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02837847408738174</v>
+        <v>0.04342369298099648</v>
       </c>
       <c r="G107" t="n">
+        <v>0.02433193354722482</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.02827348041116412</v>
+      </c>
+      <c r="K107" t="n">
         <v>0.03294491523140402</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.07340109080237853</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.03266656823312322</v>
-      </c>
       <c r="L107" t="n">
-        <v>0.116397889972813</v>
+        <v>0.07247544929107522</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03255837886706186</v>
+        <v>0.03271648083220083</v>
       </c>
       <c r="N107" t="n">
-        <v>0.02837847408738174</v>
+        <v>0.1162566963748468</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03294491523140402</v>
+        <v>0.03257786195162135</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02887692199880894</v>
+        <v>0.043892621670333</v>
       </c>
       <c r="G108" t="n">
+        <v>0.02491126529834922</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.02879505243554067</v>
+      </c>
+      <c r="K108" t="n">
         <v>0.03372931797500887</v>
       </c>
-      <c r="J108" t="n">
-        <v>0.07382500769023764</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.0334443436672452</v>
-      </c>
       <c r="L108" t="n">
-        <v>0.1172103522075901</v>
+        <v>0.07268501654312637</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03333357836389667</v>
+        <v>0.03349544466153895</v>
       </c>
       <c r="N108" t="n">
-        <v>0.02887692199880894</v>
+        <v>0.1171549780844274</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03372931797500887</v>
+        <v>0.03335352533142186</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02905587622859185</v>
+        <v>0.0443259107609688</v>
       </c>
       <c r="G109" t="n">
+        <v>0.02549059704947362</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.02899683238269225</v>
+      </c>
+      <c r="K109" t="n">
         <v>0.03451372071861373</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.07420664628012974</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.03422211910136719</v>
-      </c>
       <c r="L109" t="n">
-        <v>0.118155829818514</v>
+        <v>0.07355009166806184</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03410877786073147</v>
+        <v>0.03427440849087706</v>
       </c>
       <c r="N109" t="n">
-        <v>0.02905587622859185</v>
+        <v>0.1177860469504232</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03451372071861373</v>
+        <v>0.03412918871122237</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02941470523130636</v>
+        <v>0.04472286430901143</v>
       </c>
       <c r="G110" t="n">
+        <v>0.02606992880059802</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.02917793504015506</v>
+      </c>
+      <c r="K110" t="n">
         <v>0.03529812346221859</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.07454526418427432</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.03499989453548917</v>
-      </c>
       <c r="L110" t="n">
-        <v>0.1190318582625394</v>
+        <v>0.07466918112678653</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03488397735756627</v>
+        <v>0.03505337232021517</v>
       </c>
       <c r="N110" t="n">
-        <v>0.02941470523130636</v>
+        <v>0.1195476044881635</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03529812346221859</v>
+        <v>0.03490485209102288</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02965277746152835</v>
+        <v>0.04508278637056849</v>
       </c>
       <c r="G111" t="n">
+        <v>0.02664926055172243</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.02933747519546535</v>
+      </c>
+      <c r="K111" t="n">
         <v>0.03608252620582345</v>
       </c>
-      <c r="J111" t="n">
-        <v>0.07534011901489082</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.03577766996961115</v>
-      </c>
       <c r="L111" t="n">
-        <v>0.1204359729966206</v>
+        <v>0.07454079138020531</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03565917685440108</v>
+        <v>0.03583233614955329</v>
       </c>
       <c r="N111" t="n">
-        <v>0.02965277746152835</v>
+        <v>0.1198373522129774</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03608252620582345</v>
+        <v>0.03568051547082338</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02996946137383373</v>
+        <v>0.04540498100174759</v>
       </c>
       <c r="G112" t="n">
+        <v>0.02722859230284682</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.0298745676361593</v>
+      </c>
+      <c r="K112" t="n">
         <v>0.03686692894942831</v>
       </c>
-      <c r="J112" t="n">
-        <v>0.07589046838419874</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.03655544540373314</v>
-      </c>
       <c r="L112" t="n">
-        <v>0.1213657094777124</v>
+        <v>0.07516342888922312</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03643437635123589</v>
+        <v>0.03661129997889141</v>
       </c>
       <c r="N112" t="n">
-        <v>0.02996946137383373</v>
+        <v>0.1203529916401937</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03686692894942831</v>
+        <v>0.03645617885062389</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.03006412542279835</v>
+        <v>0.0456887522586563</v>
       </c>
       <c r="G113" t="n">
+        <v>0.02780792405397123</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.02998832714977315</v>
+      </c>
+      <c r="K113" t="n">
         <v>0.03765133169303316</v>
       </c>
-      <c r="J113" t="n">
-        <v>0.07649556990441764</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.03733322083785512</v>
-      </c>
       <c r="L113" t="n">
-        <v>0.1220186031627692</v>
+        <v>0.07593560011474471</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03720957584807069</v>
+        <v>0.03739026380822952</v>
       </c>
       <c r="N113" t="n">
-        <v>0.03006412542279835</v>
+        <v>0.1211922242851415</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03765133169303316</v>
+        <v>0.0372318422304244</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.03003613806299815</v>
+        <v>0.04594047271283666</v>
       </c>
       <c r="G114" t="n">
+        <v>0.02838725580509563</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.03027786852384308</v>
+      </c>
+      <c r="K114" t="n">
         <v>0.03843573443663802</v>
       </c>
-      <c r="J114" t="n">
-        <v>0.07665468118776697</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.03811099627197709</v>
-      </c>
       <c r="L114" t="n">
-        <v>0.1222921895087457</v>
+        <v>0.07595581151767511</v>
       </c>
       <c r="M114" t="n">
-        <v>0.0379847753449055</v>
+        <v>0.03816922763756764</v>
       </c>
       <c r="N114" t="n">
-        <v>0.03003613806299815</v>
+        <v>0.1229527516631498</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03843573443663802</v>
+        <v>0.03800750561022491</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.03048486774900896</v>
+        <v>0.04618653464303757</v>
       </c>
       <c r="G115" t="n">
+        <v>0.02896658755622003</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.03024230654590535</v>
+      </c>
+      <c r="K115" t="n">
         <v>0.03922013718024288</v>
       </c>
-      <c r="J115" t="n">
-        <v>0.07656705984646625</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.03888877170609908</v>
-      </c>
       <c r="L115" t="n">
-        <v>0.1227840039725965</v>
+        <v>0.07692256955891916</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03875997484174031</v>
+        <v>0.03894819146690575</v>
       </c>
       <c r="N115" t="n">
-        <v>0.03048486774900896</v>
+        <v>0.1233322752895477</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03922013718024288</v>
+        <v>0.03878316899002542</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.03050968293540671</v>
+        <v>0.04642944802184718</v>
       </c>
       <c r="G116" t="n">
+        <v>0.02954591930734443</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.03028075600349617</v>
+      </c>
+      <c r="K116" t="n">
         <v>0.04000453992384773</v>
       </c>
-      <c r="J116" t="n">
-        <v>0.07683196349273491</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.03966654714022105</v>
-      </c>
       <c r="L116" t="n">
-        <v>0.123691582011276</v>
+        <v>0.07733438069938173</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03953517433857511</v>
+        <v>0.03972715529624387</v>
       </c>
       <c r="N116" t="n">
-        <v>0.03050968293540671</v>
+        <v>0.123528496679664</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04000453992384773</v>
+        <v>0.03955883236982593</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.03050995207676724</v>
+        <v>0.04666913769627773</v>
       </c>
       <c r="G117" t="n">
+        <v>0.03012525105846883</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.03059233168415172</v>
+      </c>
+      <c r="K117" t="n">
         <v>0.04078894266745259</v>
       </c>
-      <c r="J117" t="n">
-        <v>0.07734864973879249</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.04044432257434304</v>
-      </c>
       <c r="L117" t="n">
-        <v>0.1244124590817389</v>
+        <v>0.07708975139996777</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04031037383540992</v>
+        <v>0.04050611912558198</v>
       </c>
       <c r="N117" t="n">
-        <v>0.03050995207676724</v>
+        <v>0.124139117348828</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04078894266745259</v>
+        <v>0.04033449574962644</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.03058504362766651</v>
+        <v>0.04690552851334139</v>
       </c>
       <c r="G118" t="n">
+        <v>0.03070458280959323</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.03077614837540829</v>
+      </c>
+      <c r="K118" t="n">
         <v>0.04157334541105745</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.07781637619685849</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.04122209800846502</v>
-      </c>
       <c r="L118" t="n">
-        <v>0.1246441706409398</v>
+        <v>0.07748718812158215</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04108557333224473</v>
+        <v>0.0412850829549201</v>
       </c>
       <c r="N118" t="n">
-        <v>0.03058504362766651</v>
+        <v>0.1247618388123685</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04157334541105745</v>
+        <v>0.04111015912942694</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
+        <v>0.04713854532005039</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.03128391456071763</v>
+      </c>
+      <c r="J119" t="n">
         <v>0.03085879909152003</v>
       </c>
-      <c r="G119" t="n">
+      <c r="K119" t="n">
         <v>0.0423577481546623</v>
       </c>
-      <c r="J119" t="n">
-        <v>0.07763440047915243</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.041999873442587</v>
-      </c>
       <c r="L119" t="n">
-        <v>0.1239842521458333</v>
+        <v>0.07762519732512971</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04186077282907953</v>
+        <v>0.04206404678425821</v>
       </c>
       <c r="N119" t="n">
-        <v>0.03085879909152003</v>
+        <v>0.1239943625856146</v>
       </c>
       <c r="O119" t="n">
-        <v>0.0423577481546623</v>
+        <v>0.04188582250922745</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.03065716777638466</v>
+        <v>0.04736811296341698</v>
       </c>
       <c r="G120" t="n">
+        <v>0.03186324631184203</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.03065696393986919</v>
+      </c>
+      <c r="K120" t="n">
         <v>0.04314215089826717</v>
       </c>
-      <c r="J120" t="n">
+      <c r="L120" t="n">
         <v>0.07801923322544491</v>
       </c>
-      <c r="K120" t="n">
-        <v>0.04277764887670898</v>
-      </c>
-      <c r="L120" t="n">
+      <c r="M120" t="n">
+        <v>0.04284301061359633</v>
+      </c>
+      <c r="N120" t="n">
         <v>0.1251796673593698</v>
       </c>
-      <c r="M120" t="n">
-        <v>0.04263597232591434</v>
-      </c>
-      <c r="N120" t="n">
-        <v>0.03065716777638466</v>
-      </c>
       <c r="O120" t="n">
-        <v>0.04314215089826717</v>
+        <v>0.04266148588902796</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.03075470917937313</v>
+        <v>0.04759415629045338</v>
       </c>
       <c r="G121" t="n">
+        <v>0.03244257806296643</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.03055639660223206</v>
+      </c>
+      <c r="K121" t="n">
         <v>0.04392655364187202</v>
       </c>
-      <c r="J121" t="n">
-        <v>0.0780182402607783</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.04355542431083097</v>
-      </c>
       <c r="L121" t="n">
-        <v>0.1250796668205159</v>
+        <v>0.07761815350155779</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04341117182274914</v>
+        <v>0.04362197444293444</v>
       </c>
       <c r="N121" t="n">
-        <v>0.03075470917937313</v>
+        <v>0.1244796365092499</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04392655364187202</v>
+        <v>0.04343714926882847</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.03053307191348002</v>
+        <v>0.04781660014817178</v>
       </c>
       <c r="G122" t="n">
+        <v>0.03302190981409083</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.03074362240149135</v>
+      </c>
+      <c r="K122" t="n">
         <v>0.04471095638547688</v>
       </c>
-      <c r="J122" t="n">
-        <v>0.0775782540810101</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.04433319974495295</v>
-      </c>
       <c r="L122" t="n">
-        <v>0.1244379659418939</v>
+        <v>0.07769527803480958</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04418637131958394</v>
+        <v>0.04440093827227256</v>
       </c>
       <c r="N122" t="n">
-        <v>0.03053307191348002</v>
+        <v>0.1244442705303492</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04471095638547688</v>
+        <v>0.04421281264862898</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.03049369296757841</v>
+        <v>0.04803536938358445</v>
       </c>
       <c r="G123" t="n">
+        <v>0.03360124156521523</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.03082022457996629</v>
+      </c>
+      <c r="K123" t="n">
         <v>0.04549535912908174</v>
       </c>
-      <c r="J123" t="n">
-        <v>0.07758244113603829</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.04511097517907493</v>
-      </c>
       <c r="L123" t="n">
-        <v>0.1239152228580817</v>
+        <v>0.07784355095176285</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04496157081641875</v>
+        <v>0.04517990210161067</v>
       </c>
       <c r="N123" t="n">
-        <v>0.03049369296757841</v>
+        <v>0.1249442073763748</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04549535912908174</v>
+        <v>0.04498847602842949</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.0306375444441416</v>
+        <v>0.04825038884370354</v>
       </c>
       <c r="G124" t="n">
+        <v>0.03418057331633963</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.0304866336016251</v>
+      </c>
+      <c r="K124" t="n">
         <v>0.04627976187268659</v>
       </c>
-      <c r="J124" t="n">
-        <v>0.07723437640030972</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.04588875061319691</v>
-      </c>
       <c r="L124" t="n">
-        <v>0.124315822679874</v>
+        <v>0.07736412965243253</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04573677031325356</v>
+        <v>0.04595886593094878</v>
       </c>
       <c r="N124" t="n">
-        <v>0.0306375444441416</v>
+        <v>0.1236823701103353</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04627976187268659</v>
+        <v>0.04576413940822999</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.03066559844564287</v>
+        <v>0.04846158337554131</v>
       </c>
       <c r="G125" t="n">
+        <v>0.03475990506746403</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.03054327993043596</v>
+      </c>
+      <c r="K125" t="n">
         <v>0.04706416461629145</v>
       </c>
-      <c r="J125" t="n">
-        <v>0.07723763484827142</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.04666652604731889</v>
-      </c>
       <c r="L125" t="n">
-        <v>0.1239441504439998</v>
+        <v>0.07735817153683341</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04651196981008837</v>
+        <v>0.0467378297602869</v>
       </c>
       <c r="N125" t="n">
-        <v>0.03066559844564287</v>
+        <v>0.1245616817952389</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04706416461629145</v>
+        <v>0.04653980278803051</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.03047882707455549</v>
+        <v>0.04866887782611</v>
       </c>
       <c r="G126" t="n">
+        <v>0.03533923681858844</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.03049059403036708</v>
+      </c>
+      <c r="K126" t="n">
         <v>0.04784856735989631</v>
       </c>
-      <c r="J126" t="n">
-        <v>0.07709579145437026</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.04744430148144087</v>
-      </c>
       <c r="L126" t="n">
-        <v>0.1230045911871884</v>
+        <v>0.0775268340049805</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04728716930692317</v>
+        <v>0.04751679358962502</v>
       </c>
       <c r="N126" t="n">
-        <v>0.03047882707455549</v>
+        <v>0.1235850654940944</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04784856735989631</v>
+        <v>0.04731546616783101</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.03027820243335271</v>
+        <v>0.04887219704242182</v>
       </c>
       <c r="G127" t="n">
+        <v>0.03591856856971283</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.03032900636538668</v>
+      </c>
+      <c r="K127" t="n">
         <v>0.04863297010350116</v>
       </c>
-      <c r="J127" t="n">
-        <v>0.07651242119305321</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.04822207691556285</v>
-      </c>
       <c r="L127" t="n">
-        <v>0.1237015299461687</v>
+        <v>0.0773712744568886</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04806236880375798</v>
+        <v>0.04829575741896314</v>
       </c>
       <c r="N127" t="n">
-        <v>0.03027820243335271</v>
+        <v>0.1231554442699102</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04863297010350116</v>
+        <v>0.04809112954763152</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.03026469662450783</v>
+        <v>0.04907146587148896</v>
       </c>
       <c r="G128" t="n">
+        <v>0.03649790032083724</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.03055894739946292</v>
+      </c>
+      <c r="K128" t="n">
         <v>0.04941737284710603</v>
       </c>
-      <c r="J128" t="n">
-        <v>0.07599109903876716</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.04899985234968483</v>
-      </c>
       <c r="L128" t="n">
-        <v>0.1227393517576698</v>
+        <v>0.07679265029257257</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04883756830059278</v>
+        <v>0.04907472124830124</v>
       </c>
       <c r="N128" t="n">
-        <v>0.03026469662450783</v>
+        <v>0.1228757411856947</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04941737284710603</v>
+        <v>0.04886679292743203</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.03003928175049413</v>
+        <v>0.04926660916032366</v>
       </c>
       <c r="G129" t="n">
+        <v>0.03707723207196163</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.03018084759656407</v>
+      </c>
+      <c r="K129" t="n">
         <v>0.05020177559071088</v>
       </c>
-      <c r="J129" t="n">
-        <v>0.07623539996595916</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.04977762778380682</v>
-      </c>
       <c r="L129" t="n">
-        <v>0.1219224416584209</v>
+        <v>0.07649211891204732</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04961276779742759</v>
+        <v>0.04985368507763936</v>
       </c>
       <c r="N129" t="n">
-        <v>0.03003928175049413</v>
+        <v>0.1230488793044567</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05020177559071088</v>
+        <v>0.04964245630723254</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.03010292991378485</v>
+        <v>0.04945755175593815</v>
       </c>
       <c r="G130" t="n">
+        <v>0.03765656382308603</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.03039513742065827</v>
+      </c>
+      <c r="K130" t="n">
         <v>0.05098617833431574</v>
       </c>
-      <c r="J130" t="n">
-        <v>0.07594889894907594</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.0505554032179288</v>
-      </c>
       <c r="L130" t="n">
-        <v>0.121955184685151</v>
+        <v>0.07637083771532771</v>
       </c>
       <c r="M130" t="n">
-        <v>0.0503879672942624</v>
+        <v>0.05063264890697747</v>
       </c>
       <c r="N130" t="n">
-        <v>0.03010292991378485</v>
+        <v>0.1218777816892044</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05098617833431574</v>
+        <v>0.05041811968703305</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02965661321685328</v>
+        <v>0.04964421850534464</v>
       </c>
       <c r="G131" t="n">
+        <v>0.03823589557421044</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.03010224733571375</v>
+      </c>
+      <c r="K131" t="n">
         <v>0.0517705810779206</v>
       </c>
-      <c r="J131" t="n">
-        <v>0.07503517096256462</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.05133317865205078</v>
-      </c>
       <c r="L131" t="n">
-        <v>0.1208419658745892</v>
+        <v>0.07612996410242862</v>
       </c>
       <c r="M131" t="n">
-        <v>0.0511631667910972</v>
+        <v>0.05141161273631559</v>
       </c>
       <c r="N131" t="n">
-        <v>0.02965661321685328</v>
+        <v>0.1219653714029465</v>
       </c>
       <c r="O131" t="n">
-        <v>0.0517705810779206</v>
+        <v>0.05119378306683355</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02950130376217271</v>
+        <v>0.04982653425555535</v>
       </c>
       <c r="G132" t="n">
+        <v>0.03881522732533484</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.02990260780569873</v>
+      </c>
+      <c r="K132" t="n">
         <v>0.05255498382152545</v>
       </c>
-      <c r="J132" t="n">
-        <v>0.07509779098087205</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.05211095408617276</v>
-      </c>
       <c r="L132" t="n">
-        <v>0.1205871702634647</v>
+        <v>0.07587065547336494</v>
       </c>
       <c r="M132" t="n">
-        <v>0.051938366287932</v>
+        <v>0.05219057656565371</v>
       </c>
       <c r="N132" t="n">
-        <v>0.02950130376217271</v>
+        <v>0.1205145715086914</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05255498382152545</v>
+        <v>0.05196944644663406</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02953797365221637</v>
+        <v>0.05000442385358249</v>
       </c>
       <c r="G133" t="n">
+        <v>0.03939455907645924</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.02989664929458136</v>
+      </c>
+      <c r="K133" t="n">
         <v>0.05333938656513032</v>
       </c>
-      <c r="J133" t="n">
-        <v>0.0740403339784452</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.05288872952029475</v>
-      </c>
       <c r="L133" t="n">
-        <v>0.1201951828885064</v>
+        <v>0.07589406922815153</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05271356578476681</v>
+        <v>0.05296954039499182</v>
       </c>
       <c r="N133" t="n">
-        <v>0.02953797365221637</v>
+        <v>0.1199283050694477</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05333938656513032</v>
+        <v>0.05274510982643457</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02916759498945756</v>
+        <v>0.05017781214643832</v>
       </c>
       <c r="G134" t="n">
+        <v>0.03997389082758364</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.0298848022663299</v>
+      </c>
+      <c r="K134" t="n">
         <v>0.05412378930873517</v>
       </c>
-      <c r="J134" t="n">
-        <v>0.0737663749297309</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.05366650495441673</v>
-      </c>
       <c r="L134" t="n">
-        <v>0.1184703887864436</v>
+        <v>0.07540136276680326</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05348876528160162</v>
+        <v>0.05374850422432994</v>
       </c>
       <c r="N134" t="n">
-        <v>0.02916759498945756</v>
+        <v>0.119409495148224</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05412378930873517</v>
+        <v>0.05352077320623507</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02899113987636956</v>
+        <v>0.05034662398113503</v>
       </c>
       <c r="G135" t="n">
+        <v>0.04055322257870803</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.02966749718491253</v>
+      </c>
+      <c r="K135" t="n">
         <v>0.05490819205234002</v>
       </c>
-      <c r="J135" t="n">
-        <v>0.07347948880917624</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.05444428038853871</v>
-      </c>
       <c r="L135" t="n">
-        <v>0.1183171729940052</v>
+        <v>0.07539369348933508</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05426396477843642</v>
+        <v>0.05452746805366805</v>
       </c>
       <c r="N135" t="n">
-        <v>0.02899113987636956</v>
+        <v>0.1189610648080285</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05490819205234002</v>
+        <v>0.05429643658603558</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02880958041542563</v>
+        <v>0.05051078420468483</v>
       </c>
       <c r="G136" t="n">
+        <v>0.04113255432983244</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.02964516451429747</v>
+      </c>
+      <c r="K136" t="n">
         <v>0.05569259479594488</v>
       </c>
-      <c r="J136" t="n">
-        <v>0.07248325059122804</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.05522205582266069</v>
-      </c>
       <c r="L136" t="n">
-        <v>0.1178399205479204</v>
+        <v>0.07487221879576172</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05503916427527124</v>
+        <v>0.05530643188300617</v>
       </c>
       <c r="N136" t="n">
-        <v>0.02880958041542563</v>
+        <v>0.11818593711187</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05569259479594488</v>
+        <v>0.0550720999658361</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02862388870909904</v>
+        <v>0.05067021766409997</v>
       </c>
       <c r="G137" t="n">
+        <v>0.04171188608095684</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.0295182347184529</v>
+      </c>
+      <c r="K137" t="n">
         <v>0.05647699753954974</v>
       </c>
-      <c r="J137" t="n">
-        <v>0.07248123525033329</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.05599983125678267</v>
-      </c>
       <c r="L137" t="n">
-        <v>0.1169430164849182</v>
+        <v>0.07423809608609819</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05581436377210604</v>
+        <v>0.05608539571234428</v>
       </c>
       <c r="N137" t="n">
-        <v>0.02862388870909904</v>
+        <v>0.1172870351227569</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05647699753954974</v>
+        <v>0.0558477633456366</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02863503685986306</v>
+        <v>0.05082484920639264</v>
       </c>
       <c r="G138" t="n">
+        <v>0.04229121783208124</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.02928713826134702</v>
+      </c>
+      <c r="K138" t="n">
         <v>0.05726140028315461</v>
       </c>
-      <c r="J138" t="n">
-        <v>0.07177701776093889</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.05677760669090465</v>
-      </c>
       <c r="L138" t="n">
-        <v>0.1164308458417277</v>
+        <v>0.07429248276035927</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05658956326894084</v>
+        <v>0.0568643595416824</v>
       </c>
       <c r="N138" t="n">
-        <v>0.02863503685986306</v>
+        <v>0.1166672819036977</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05726140028315461</v>
+        <v>0.05662342672543711</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02854399697019099</v>
+        <v>0.05097460367857509</v>
       </c>
       <c r="G139" t="n">
+        <v>0.04287054958320564</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.02935230560694804</v>
+      </c>
+      <c r="K139" t="n">
         <v>0.05804580302675946</v>
       </c>
-      <c r="J139" t="n">
-        <v>0.0711741730974918</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.05755538212502664</v>
-      </c>
       <c r="L139" t="n">
-        <v>0.1154077936550781</v>
+        <v>0.07383653621855996</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05736476276577564</v>
+        <v>0.05764332337102052</v>
       </c>
       <c r="N139" t="n">
-        <v>0.02854399697019099</v>
+        <v>0.1160296005177009</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05804580302675946</v>
+        <v>0.05739909010523762</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02815174114255606</v>
+        <v>0.05111940592765953</v>
       </c>
       <c r="G140" t="n">
+        <v>0.04344988133433004</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.02911416721922419</v>
+      </c>
+      <c r="K140" t="n">
         <v>0.05883020577036431</v>
       </c>
-      <c r="J140" t="n">
-        <v>0.07057627623443896</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.05833315755914861</v>
-      </c>
       <c r="L140" t="n">
-        <v>0.1140782449616984</v>
+        <v>0.07377141386071501</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05813996226261046</v>
+        <v>0.05842228720035863</v>
       </c>
       <c r="N140" t="n">
-        <v>0.02815174114255606</v>
+        <v>0.1151769140277752</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05883020577036431</v>
+        <v>0.05817475348503812</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02785924147943158</v>
+        <v>0.05125918080065817</v>
       </c>
       <c r="G141" t="n">
+        <v>0.04402921308545444</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.02907315356214364</v>
+      </c>
+      <c r="K141" t="n">
         <v>0.05961460851396918</v>
       </c>
-      <c r="J141" t="n">
-        <v>0.07028690214622724</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.05911093299327059</v>
-      </c>
       <c r="L141" t="n">
-        <v>0.1139465847983178</v>
+        <v>0.07279827308683934</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05891516175944527</v>
+        <v>0.05920125102969673</v>
       </c>
       <c r="N141" t="n">
-        <v>0.02785924147943158</v>
+        <v>0.1152121454969288</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05961460851396918</v>
+        <v>0.05895041686483864</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02786747008329081</v>
+        <v>0.05139385314458324</v>
       </c>
       <c r="G142" t="n">
+        <v>0.04460854483657884</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.02892969509967459</v>
+      </c>
+      <c r="K142" t="n">
         <v>0.06039901125757403</v>
       </c>
-      <c r="J142" t="n">
-        <v>0.06950962580730366</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.05988870842739257</v>
-      </c>
       <c r="L142" t="n">
-        <v>0.1122171982016651</v>
+        <v>0.07281827129694785</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05969036125628007</v>
+        <v>0.05998021485903486</v>
       </c>
       <c r="N142" t="n">
-        <v>0.02786747008329081</v>
+        <v>0.1140382179881704</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06039901125757403</v>
+        <v>0.05972608024463915</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02777739905660701</v>
+        <v>0.05152334780644695</v>
       </c>
       <c r="G143" t="n">
+        <v>0.04518787658770324</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.02858422229578526</v>
+      </c>
+      <c r="K143" t="n">
         <v>0.06118341400117888</v>
       </c>
-      <c r="J143" t="n">
-        <v>0.06934802219211506</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.06066648386151455</v>
-      </c>
       <c r="L143" t="n">
-        <v>0.1112944702084698</v>
+        <v>0.07233256589105541</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06046556075311488</v>
+        <v>0.06075917868837297</v>
       </c>
       <c r="N143" t="n">
-        <v>0.02777739905660701</v>
+        <v>0.1129580545645085</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06118341400117888</v>
+        <v>0.06050174362443965</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02729000050185347</v>
+        <v>0.05164758963326153</v>
       </c>
       <c r="G144" t="n">
+        <v>0.04576720833882764</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.02863716561444386</v>
+      </c>
+      <c r="K144" t="n">
         <v>0.06196781674478374</v>
       </c>
-      <c r="J144" t="n">
-        <v>0.06930566627510848</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.06144425929563654</v>
-      </c>
       <c r="L144" t="n">
-        <v>0.1110827858554606</v>
+        <v>0.07184231426917684</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06124076024994968</v>
+        <v>0.06153814251771108</v>
       </c>
       <c r="N144" t="n">
-        <v>0.02729000050185347</v>
+        <v>0.1131745782889516</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06196781674478374</v>
+        <v>0.06127740700424016</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02730624652150344</v>
+        <v>0.05176650347203922</v>
       </c>
       <c r="G145" t="n">
+        <v>0.04634654008995204</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.02838895551961859</v>
+      </c>
+      <c r="K145" t="n">
         <v>0.06275221948838861</v>
       </c>
-      <c r="J145" t="n">
-        <v>0.06868613303073076</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.06222203472975852</v>
-      </c>
       <c r="L145" t="n">
-        <v>0.1101865301793668</v>
+        <v>0.07164867383132709</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06201595974678449</v>
+        <v>0.06231710634704921</v>
       </c>
       <c r="N145" t="n">
-        <v>0.02730624652150344</v>
+        <v>0.1118907122245082</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06275221948838861</v>
+        <v>0.06205307038404068</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02722710921803023</v>
+        <v>0.05188001416979221</v>
       </c>
       <c r="G146" t="n">
+        <v>0.04692587184107645</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.02824002247527764</v>
+      </c>
+      <c r="K146" t="n">
         <v>0.06353662223199347</v>
       </c>
-      <c r="J146" t="n">
-        <v>0.06779299743342887</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.0629998101638805</v>
-      </c>
       <c r="L146" t="n">
-        <v>0.1095100882169175</v>
+        <v>0.07105280197752101</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06279115924361929</v>
+        <v>0.06309607017638731</v>
       </c>
       <c r="N146" t="n">
-        <v>0.02722710921803023</v>
+        <v>0.1104093794341868</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06353662223199347</v>
+        <v>0.06282873376384117</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02695356069390707</v>
+        <v>0.05198804657353273</v>
       </c>
       <c r="G147" t="n">
+        <v>0.04750520359220084</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.02809079694538921</v>
+      </c>
+      <c r="K147" t="n">
         <v>0.06432102497559831</v>
       </c>
-      <c r="J147" t="n">
-        <v>0.06752983445764979</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.06377758559800248</v>
-      </c>
       <c r="L147" t="n">
-        <v>0.1084578450048418</v>
+        <v>0.07105585610777346</v>
       </c>
       <c r="M147" t="n">
-        <v>0.0635663587404541</v>
+        <v>0.06387503400572543</v>
       </c>
       <c r="N147" t="n">
-        <v>0.02695356069390707</v>
+        <v>0.1105335029809959</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06432102497559831</v>
+        <v>0.06360439714364169</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02688657305160728</v>
+        <v>0.05209052553027299</v>
       </c>
       <c r="G148" t="n">
+        <v>0.04808453534332524</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.02784170939392153</v>
+      </c>
+      <c r="K148" t="n">
         <v>0.06510542771920318</v>
       </c>
-      <c r="J148" t="n">
-        <v>0.06730021907784037</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.06455536103212446</v>
-      </c>
       <c r="L148" t="n">
-        <v>0.1081341855798686</v>
+        <v>0.07055899362209936</v>
       </c>
       <c r="M148" t="n">
-        <v>0.0643415582372889</v>
+        <v>0.06465399783506355</v>
       </c>
       <c r="N148" t="n">
-        <v>0.02688657305160728</v>
+        <v>0.109666005927944</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06510542771920318</v>
+        <v>0.0643800605234422</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.0265271183936041</v>
+        <v>0.05218737588702524</v>
       </c>
       <c r="G149" t="n">
+        <v>0.04866386709444964</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.02789319028484279</v>
+      </c>
+      <c r="K149" t="n">
         <v>0.06588983046280804</v>
       </c>
-      <c r="J149" t="n">
-        <v>0.06720043044491816</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.06533313646624644</v>
-      </c>
       <c r="L149" t="n">
-        <v>0.1065434949787272</v>
+        <v>0.06966337192051353</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06511675773412372</v>
+        <v>0.06543296166440166</v>
       </c>
       <c r="N149" t="n">
-        <v>0.0265271183936041</v>
+        <v>0.1081098113380398</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06588983046280804</v>
+        <v>0.0651557239032427</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02637605019934466</v>
+        <v>0.05227852249080167</v>
       </c>
       <c r="G150" t="n">
+        <v>0.04924319884557404</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.02754567008212117</v>
+      </c>
+      <c r="K150" t="n">
         <v>0.06667423320641289</v>
       </c>
-      <c r="J150" t="n">
-        <v>0.06661191055881724</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.06611091190036843</v>
-      </c>
       <c r="L150" t="n">
-        <v>0.1063693448984857</v>
+        <v>0.06937014840303088</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06589195723095852</v>
+        <v>0.06621192549373978</v>
       </c>
       <c r="N150" t="n">
-        <v>0.02637605019934466</v>
+        <v>0.1074678422742915</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06667423320641289</v>
+        <v>0.06593138728304321</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02622714397913159</v>
+        <v>0.05236389018861452</v>
       </c>
       <c r="G151" t="n">
+        <v>0.04982253059669844</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.0273995792497249</v>
+      </c>
+      <c r="K151" t="n">
         <v>0.06745863595001775</v>
       </c>
-      <c r="J151" t="n">
-        <v>0.06673302251415458</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.06688868733449041</v>
-      </c>
       <c r="L151" t="n">
-        <v>0.1055808093992504</v>
+        <v>0.06898048046966629</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06666715672779333</v>
+        <v>0.0669908893230779</v>
       </c>
       <c r="N151" t="n">
-        <v>0.02622714397913159</v>
+        <v>0.1071430217997079</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06745863595001775</v>
+        <v>0.06670705066284373</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.0261765270490676</v>
+        <v>0.052443403827476</v>
       </c>
       <c r="G152" t="n">
+        <v>0.05040186234782285</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.02745534825162217</v>
+      </c>
+      <c r="K152" t="n">
         <v>0.06824303869362261</v>
       </c>
-      <c r="J152" t="n">
-        <v>0.06596323877295876</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.06766646276861239</v>
-      </c>
       <c r="L152" t="n">
-        <v>0.1050783962504653</v>
+        <v>0.06879552552043458</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06744235622462813</v>
+        <v>0.067769853152416</v>
       </c>
       <c r="N152" t="n">
-        <v>0.0261765270490676</v>
+        <v>0.1070382729772972</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06824303869362261</v>
+        <v>0.06748271404264422</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02612432661376475</v>
+        <v>0.05251698825439832</v>
       </c>
       <c r="G153" t="n">
+        <v>0.05098119409894725</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.02701340755178121</v>
+      </c>
+      <c r="K153" t="n">
         <v>0.06902744143722746</v>
       </c>
-      <c r="J153" t="n">
-        <v>0.06600203179725836</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.06844423820273438</v>
-      </c>
       <c r="L153" t="n">
-        <v>0.1045630395590571</v>
+        <v>0.06861644095535072</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06821755572146293</v>
+        <v>0.06854881698175412</v>
       </c>
       <c r="N153" t="n">
-        <v>0.02612432661376475</v>
+        <v>0.1057565188700683</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06902744143722746</v>
+        <v>0.06825837742244474</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02597066987783511</v>
+        <v>0.05258456831639373</v>
       </c>
       <c r="G154" t="n">
+        <v>0.05156052585007165</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.02687418761417018</v>
+      </c>
+      <c r="K154" t="n">
         <v>0.06981184418083232</v>
       </c>
-      <c r="J154" t="n">
-        <v>0.06574887404908197</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.06922201363685636</v>
-      </c>
       <c r="L154" t="n">
-        <v>0.1036356734319526</v>
+        <v>0.0679443841744295</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06899275521829774</v>
+        <v>0.06932778081109224</v>
       </c>
       <c r="N154" t="n">
-        <v>0.02597066987783511</v>
+        <v>0.1048006825410293</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06981184418083232</v>
+        <v>0.06903404080224525</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02571568404589078</v>
+        <v>0.05264606886047445</v>
       </c>
       <c r="G155" t="n">
+        <v>0.05213985760119605</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.02693811890275731</v>
+      </c>
+      <c r="K155" t="n">
         <v>0.07059624692443718</v>
       </c>
-      <c r="J155" t="n">
-        <v>0.06580323799045817</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.06999978907097834</v>
-      </c>
       <c r="L155" t="n">
-        <v>0.1031972319760786</v>
+        <v>0.06798051257768589</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06976795471513254</v>
+        <v>0.07010674464043035</v>
       </c>
       <c r="N155" t="n">
-        <v>0.02571568404589078</v>
+        <v>0.104373687053189</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07059624692443718</v>
+        <v>0.06980970418204575</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02555949632254383</v>
+        <v>0.05270141473365267</v>
       </c>
       <c r="G156" t="n">
+        <v>0.05271918935232045</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.02680563188151081</v>
+      </c>
+      <c r="K156" t="n">
         <v>0.07138064966804204</v>
       </c>
-      <c r="J156" t="n">
-        <v>0.0655645960834155</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.07077756450510032</v>
-      </c>
       <c r="L156" t="n">
-        <v>0.1020486492983617</v>
+        <v>0.06762598356513469</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07054315421196736</v>
+        <v>0.07088570846976847</v>
       </c>
       <c r="N156" t="n">
-        <v>0.02555949632254383</v>
+        <v>0.1040784554695558</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07138064966804204</v>
+        <v>0.07058536756184626</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02530223391240634</v>
+        <v>0.05275053078294062</v>
       </c>
       <c r="G157" t="n">
+        <v>0.05329852110344485</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.02677715701439887</v>
+      </c>
+      <c r="K157" t="n">
         <v>0.07216505241164689</v>
       </c>
-      <c r="J157" t="n">
-        <v>0.0650324207899825</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.07155533993922231</v>
-      </c>
       <c r="L157" t="n">
-        <v>0.1018908595057289</v>
+        <v>0.06658195453679075</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07131835370880216</v>
+        <v>0.07166467229910659</v>
       </c>
       <c r="N157" t="n">
-        <v>0.02530223391240634</v>
+        <v>0.1040179108531383</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07216505241164689</v>
+        <v>0.07136103094164677</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02504402402009043</v>
+        <v>0.05279334185535055</v>
       </c>
       <c r="G158" t="n">
+        <v>0.05387785285456925</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.0265513473313686</v>
+      </c>
+      <c r="K158" t="n">
         <v>0.07294945515525175</v>
       </c>
-      <c r="J158" t="n">
-        <v>0.06450618457218782</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.07233311537334429</v>
-      </c>
       <c r="L158" t="n">
-        <v>0.1009247967051069</v>
+        <v>0.06694330785537703</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07209355320563697</v>
+        <v>0.07244363612844469</v>
       </c>
       <c r="N158" t="n">
-        <v>0.02504402402009043</v>
+        <v>0.1033854247987412</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07294945515525175</v>
+        <v>0.07213669432144727</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02518499385020813</v>
+        <v>0.05282977279789464</v>
       </c>
       <c r="G159" t="n">
+        <v>0.05445718460569365</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.02642534007240947</v>
+      </c>
+      <c r="K159" t="n">
         <v>0.07373385789885661</v>
       </c>
-      <c r="J159" t="n">
-        <v>0.06458535989205996</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.07311089080746627</v>
-      </c>
       <c r="L159" t="n">
-        <v>0.1002513950034226</v>
+        <v>0.06650001980868439</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07286875270247177</v>
+        <v>0.07322259995778281</v>
       </c>
       <c r="N159" t="n">
-        <v>0.02518499385020813</v>
+        <v>0.1017658694758031</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07373385789885661</v>
+        <v>0.07291235770124778</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02482527060737154</v>
+        <v>0.05285974845758512</v>
       </c>
       <c r="G160" t="n">
+        <v>0.05503651635681805</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.02609901470512389</v>
+      </c>
+      <c r="K160" t="n">
         <v>0.07451826064246146</v>
       </c>
-      <c r="J160" t="n">
-        <v>0.06406941921162757</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.07388866624158826</v>
-      </c>
       <c r="L160" t="n">
-        <v>0.0995715885076025</v>
+        <v>0.06625208845545294</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07364395219930658</v>
+        <v>0.07400156378712093</v>
       </c>
       <c r="N160" t="n">
-        <v>0.02482527060737154</v>
+        <v>0.1021580627970107</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07451826064246146</v>
+        <v>0.0736880210810483</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02456498149619277</v>
+        <v>0.05288319368143424</v>
       </c>
       <c r="G161" t="n">
+        <v>0.05561584810794246</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.02607229772452316</v>
+      </c>
+      <c r="K161" t="n">
         <v>0.07530266338606632</v>
       </c>
-      <c r="J161" t="n">
-        <v>0.06415783499291919</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.07466644167571024</v>
-      </c>
       <c r="L161" t="n">
-        <v>0.09768631132457373</v>
+        <v>0.06589968120751863</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07441915169614138</v>
+        <v>0.07478052761645904</v>
       </c>
       <c r="N161" t="n">
-        <v>0.02456498149619277</v>
+        <v>0.1012610475062771</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07530266338606632</v>
+        <v>0.07446368446084879</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02440425372128387</v>
+        <v>0.05290003331645418</v>
       </c>
       <c r="G162" t="n">
+        <v>0.05619517985906685</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.02614511562561864</v>
+      </c>
+      <c r="K162" t="n">
         <v>0.07608706612967119</v>
       </c>
-      <c r="J162" t="n">
-        <v>0.06415007969796338</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.07544421710983221</v>
-      </c>
       <c r="L162" t="n">
-        <v>0.09789649756126284</v>
+        <v>0.06484296547671747</v>
       </c>
       <c r="M162" t="n">
-        <v>0.0751943511929762</v>
+        <v>0.07555949144579716</v>
       </c>
       <c r="N162" t="n">
-        <v>0.02440425372128387</v>
+        <v>0.1009738663475148</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07608706612967119</v>
+        <v>0.07523934784064931</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02444321448725693</v>
+        <v>0.05291019220965719</v>
       </c>
       <c r="G163" t="n">
+        <v>0.05677451161019125</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.0260173949034216</v>
+      </c>
+      <c r="K163" t="n">
         <v>0.07687146887327603</v>
       </c>
-      <c r="J163" t="n">
-        <v>0.06354562578878875</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.07622199254395419</v>
-      </c>
       <c r="L163" t="n">
-        <v>0.09710308132459666</v>
+        <v>0.06468210867488552</v>
       </c>
       <c r="M163" t="n">
-        <v>0.075969550689811</v>
+        <v>0.07633845527513528</v>
       </c>
       <c r="N163" t="n">
-        <v>0.02444321448725693</v>
+        <v>0.1004955620646368</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07687146887327603</v>
+        <v>0.07601501122044982</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02408199099872405</v>
+        <v>0.05291359520805546</v>
       </c>
       <c r="G164" t="n">
+        <v>0.05735384336131565</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.02558906205294335</v>
+      </c>
+      <c r="K164" t="n">
         <v>0.07765587161688089</v>
       </c>
-      <c r="J164" t="n">
-        <v>0.06364394572742382</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.07699976797807617</v>
-      </c>
       <c r="L164" t="n">
-        <v>0.0954069967215021</v>
+        <v>0.06441727821385873</v>
       </c>
       <c r="M164" t="n">
-        <v>0.0767447501866458</v>
+        <v>0.07711741910447339</v>
       </c>
       <c r="N164" t="n">
-        <v>0.02408199099872405</v>
+        <v>0.09972517740155584</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07765587161688089</v>
+        <v>0.07679067460025034</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02412071046029726</v>
+        <v>0.05291359520805547</v>
       </c>
       <c r="G165" t="n">
+        <v>0.05735384336131565</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.02576004356919523</v>
+      </c>
+      <c r="K165" t="n">
         <v>0.07844027436048576</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.06324451197589714</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.07777754341219816</v>
-      </c>
       <c r="L165" t="n">
-        <v>0.09520917785890576</v>
+        <v>0.06394864150547314</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07751994968348061</v>
+        <v>0.0778963829338115</v>
       </c>
       <c r="N165" t="n">
-        <v>0.02412071046029726</v>
+        <v>0.09896175510218475</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07844027436048576</v>
+        <v>0.07756633798005083</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02385950007658869</v>
+        <v>0.05202380009505235</v>
       </c>
       <c r="G166" t="n">
+        <v>0.05735357483285163</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.02563026594718849</v>
+      </c>
+      <c r="K166" t="n">
         <v>0.0792246771040906</v>
       </c>
-      <c r="J166" t="n">
-        <v>0.0629467969962374</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.07855531884632012</v>
-      </c>
       <c r="L166" t="n">
-        <v>0.09431055884373457</v>
+        <v>0.06337636596156473</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07829514918031541</v>
+        <v>0.07867534676314962</v>
       </c>
       <c r="N166" t="n">
-        <v>0.02385950007658869</v>
+        <v>0.09860433791043627</v>
       </c>
       <c r="O166" t="n">
-        <v>0.0792246771040906</v>
+        <v>0.07834200135985135</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02359848705221042</v>
+        <v>0.05114393555581809</v>
       </c>
       <c r="G167" t="n">
+        <v>0.05735330630438762</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.02519965568193451</v>
+      </c>
+      <c r="K167" t="n">
         <v>0.08000907984769547</v>
       </c>
-      <c r="J167" t="n">
-        <v>0.06295027325047306</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.07933309428044211</v>
-      </c>
       <c r="L167" t="n">
-        <v>0.09311207378291525</v>
+        <v>0.0637006189939695</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07907034867715022</v>
+        <v>0.07945431059248774</v>
       </c>
       <c r="N167" t="n">
-        <v>0.02359848705221042</v>
+        <v>0.09825196857022317</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08000907984769547</v>
+        <v>0.07911766473965186</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02373779859177451</v>
+        <v>0.05027446154930705</v>
       </c>
       <c r="G168" t="n">
+        <v>0.05735303777592359</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.02526813926844457</v>
+      </c>
+      <c r="K168" t="n">
         <v>0.08079348259130033</v>
       </c>
-      <c r="J168" t="n">
-        <v>0.06295441320063275</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.08011086971456409</v>
-      </c>
       <c r="L168" t="n">
-        <v>0.09241465678337457</v>
+        <v>0.06332156801452343</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07984554817398502</v>
+        <v>0.08023327442182585</v>
       </c>
       <c r="N168" t="n">
-        <v>0.02373779859177451</v>
+        <v>0.09870368982545841</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08079348259130033</v>
+        <v>0.07989332811945236</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02347756189989306</v>
+        <v>0.04941583803458693</v>
       </c>
       <c r="G169" t="n">
+        <v>0.05735276924745958</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.02493564320172997</v>
+      </c>
+      <c r="K169" t="n">
         <v>0.08157788533490519</v>
       </c>
-      <c r="J169" t="n">
-        <v>0.06245868930874504</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.08088864514868607</v>
-      </c>
       <c r="L169" t="n">
-        <v>0.09231924195203939</v>
+        <v>0.06243938043506259</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08062074767081984</v>
+        <v>0.08101223825116395</v>
       </c>
       <c r="N169" t="n">
-        <v>0.02347756189989306</v>
+        <v>0.09795854442005453</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08157788533490519</v>
+        <v>0.08066899149925287</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02341790418117815</v>
+        <v>0.04856852497061168</v>
       </c>
       <c r="G170" t="n">
+        <v>0.05735250071899557</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.02480209397680205</v>
+      </c>
+      <c r="K170" t="n">
         <v>0.08236228807851004</v>
       </c>
-      <c r="J170" t="n">
-        <v>0.06206257403683843</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.08166642058280806</v>
-      </c>
       <c r="L170" t="n">
-        <v>0.09052676339583643</v>
+        <v>0.06215422366742293</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08139594716765464</v>
+        <v>0.08179120208050208</v>
       </c>
       <c r="N170" t="n">
-        <v>0.02341790418117815</v>
+        <v>0.09691557509792459</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08236228807851004</v>
+        <v>0.08144465487905339</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02305895264024184</v>
+        <v>0.04773298231637321</v>
       </c>
       <c r="G171" t="n">
+        <v>0.05735223219053155</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.02466741808867209</v>
+      </c>
+      <c r="K171" t="n">
         <v>0.0831466908221149</v>
       </c>
-      <c r="J171" t="n">
-        <v>0.06246553984694161</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.08244419601693004</v>
-      </c>
       <c r="L171" t="n">
-        <v>0.08973815522169248</v>
+        <v>0.06146626512344047</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08217114666448945</v>
+        <v>0.08257016590984019</v>
       </c>
       <c r="N171" t="n">
-        <v>0.02305895264024184</v>
+        <v>0.09637382460298122</v>
       </c>
       <c r="O171" t="n">
-        <v>0.0831466908221149</v>
+        <v>0.08222031825885388</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02310083448169624</v>
+        <v>0.04690967003082802</v>
       </c>
       <c r="G172" t="n">
+        <v>0.05735196366206752</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.02463154203235141</v>
+      </c>
+      <c r="K172" t="n">
         <v>0.08393109356571976</v>
       </c>
-      <c r="J172" t="n">
-        <v>0.06236705920108307</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.08322197145105202</v>
-      </c>
       <c r="L172" t="n">
-        <v>0.08915435153653428</v>
+        <v>0.06137567221495124</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08294634616132426</v>
+        <v>0.0833491297391783</v>
       </c>
       <c r="N172" t="n">
-        <v>0.02310083448169624</v>
+        <v>0.09693233567913734</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08393109356571976</v>
+        <v>0.0829959816386544</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02294367691015341</v>
+        <v>0.04609904807303976</v>
       </c>
       <c r="G173" t="n">
+        <v>0.05735169513360351</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.02459439230285133</v>
+      </c>
+      <c r="K173" t="n">
         <v>0.08471549630932461</v>
       </c>
-      <c r="J173" t="n">
-        <v>0.06176660456129143</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.083999746885174</v>
-      </c>
       <c r="L173" t="n">
-        <v>0.08857628644728871</v>
+        <v>0.06108261235379117</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08372154565815906</v>
+        <v>0.08412809356851643</v>
       </c>
       <c r="N173" t="n">
-        <v>0.02294367691015341</v>
+        <v>0.09549015107030567</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08471549630932461</v>
+        <v>0.08377164501845491</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02248760713022548</v>
+        <v>0.04530157640196433</v>
       </c>
       <c r="G174" t="n">
+        <v>0.0573514266051395</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.02455589539518314</v>
+      </c>
+      <c r="K174" t="n">
         <v>0.08549989905292947</v>
       </c>
-      <c r="J174" t="n">
-        <v>0.06166364838959526</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.08477752231929599</v>
-      </c>
       <c r="L174" t="n">
-        <v>0.08850489406088258</v>
+        <v>0.06038725295179634</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08449674515499388</v>
+        <v>0.08490705739785454</v>
       </c>
       <c r="N174" t="n">
-        <v>0.02248760713022548</v>
+        <v>0.09524631352039897</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08549989905292947</v>
+        <v>0.08454730839825542</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02253275234652447</v>
+        <v>0.04451771497659369</v>
       </c>
       <c r="G175" t="n">
+        <v>0.05735115807667548</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.0241159778043582</v>
+      </c>
+      <c r="K175" t="n">
         <v>0.08628430179653433</v>
       </c>
-      <c r="J175" t="n">
-        <v>0.06105766314802308</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.08555529775341797</v>
-      </c>
       <c r="L175" t="n">
-        <v>0.0866411084842425</v>
+        <v>0.0604897614208027</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08527194465182868</v>
+        <v>0.08568602122719265</v>
       </c>
       <c r="N175" t="n">
-        <v>0.02253275234652447</v>
+        <v>0.09539986577333021</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08628430179653433</v>
+        <v>0.08532297177805592</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02227923976366247</v>
+        <v>0.04374792375588667</v>
       </c>
       <c r="G176" t="n">
+        <v>0.05735088954821146</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.02417456602538774</v>
+      </c>
+      <c r="K176" t="n">
         <v>0.08706870454013918</v>
       </c>
-      <c r="J176" t="n">
-        <v>0.06144812129860353</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.08633307318753995</v>
-      </c>
       <c r="L176" t="n">
-        <v>0.08628586382429537</v>
+        <v>0.06019030517264626</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08604714414866348</v>
+        <v>0.08646498505653077</v>
       </c>
       <c r="N176" t="n">
-        <v>0.02227923976366247</v>
+        <v>0.09444985057301197</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08706870454013918</v>
+        <v>0.08609863515785643</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.0221271965862516</v>
+        <v>0.04299266269890224</v>
       </c>
       <c r="G177" t="n">
+        <v>0.05735062101974744</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.02393158655328315</v>
+      </c>
+      <c r="K177" t="n">
         <v>0.08785310728374404</v>
       </c>
-      <c r="J177" t="n">
-        <v>0.06113449530336509</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.08711084862166193</v>
-      </c>
       <c r="L177" t="n">
-        <v>0.085940094187968</v>
+        <v>0.05948905161916304</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08682234364549828</v>
+        <v>0.08724394888586888</v>
       </c>
       <c r="N177" t="n">
-        <v>0.0221271965862516</v>
+        <v>0.09419531066335718</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08785310728374404</v>
+        <v>0.08687429853765694</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02207675001890394</v>
+        <v>0.04225239176459863</v>
       </c>
       <c r="G178" t="n">
+        <v>0.05735035249128342</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.02398696588305568</v>
+      </c>
+      <c r="K178" t="n">
         <v>0.0886375100273489</v>
       </c>
-      <c r="J178" t="n">
-        <v>0.06081625762433646</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.08788862405578392</v>
-      </c>
       <c r="L178" t="n">
-        <v>0.08520473368218712</v>
+        <v>0.05868616817218902</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08759754314233309</v>
+        <v>0.088022912715207</v>
       </c>
       <c r="N178" t="n">
-        <v>0.02207675001890394</v>
+        <v>0.09343528878827856</v>
       </c>
       <c r="O178" t="n">
-        <v>0.0886375100273489</v>
+        <v>0.08764996191745744</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02192802726623154</v>
+        <v>0.04152757091196781</v>
       </c>
       <c r="G179" t="n">
+        <v>0.05735008396281941</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.02384063050971669</v>
+      </c>
+      <c r="K179" t="n">
         <v>0.08942191277095377</v>
       </c>
-      <c r="J179" t="n">
-        <v>0.06029288072354608</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.0886663994899059</v>
-      </c>
       <c r="L179" t="n">
-        <v>0.08458071641387954</v>
+        <v>0.05888182224356028</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08837274263916789</v>
+        <v>0.08880187654454512</v>
       </c>
       <c r="N179" t="n">
-        <v>0.02192802726623154</v>
+        <v>0.09326882769168904</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08942191277095377</v>
+        <v>0.08842562529725796</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.0218811555328465</v>
+        <v>0.04081866009997125</v>
       </c>
       <c r="G180" t="n">
+        <v>0.05734981543435538</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.02359250692827744</v>
+      </c>
+      <c r="K180" t="n">
         <v>0.09020631551455861</v>
       </c>
-      <c r="J180" t="n">
-        <v>0.06036383706302265</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.08944417492402788</v>
-      </c>
       <c r="L180" t="n">
-        <v>0.08406897648997208</v>
+        <v>0.05847618124511272</v>
       </c>
       <c r="M180" t="n">
-        <v>0.0891479421360027</v>
+        <v>0.08958084037388322</v>
       </c>
       <c r="N180" t="n">
-        <v>0.0218811555328465</v>
+        <v>0.09219497011750127</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09020631551455861</v>
+        <v>0.08920128867705845</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02143626202336089</v>
+        <v>0.04012611928766267</v>
       </c>
       <c r="G181" t="n">
+        <v>0.05734954690589137</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.02344252163374927</v>
+      </c>
+      <c r="K181" t="n">
         <v>0.09099071825816347</v>
       </c>
-      <c r="J181" t="n">
-        <v>0.06032859910479466</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.09022195035814987</v>
-      </c>
       <c r="L181" t="n">
-        <v>0.08307044801739144</v>
+        <v>0.05816941258868238</v>
       </c>
       <c r="M181" t="n">
-        <v>0.0899231416328375</v>
+        <v>0.09035980420322134</v>
       </c>
       <c r="N181" t="n">
-        <v>0.02143626202336089</v>
+        <v>0.09251275880962812</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09099071825816347</v>
+        <v>0.08997695205685897</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02139347394238679</v>
+        <v>0.03945040843400287</v>
       </c>
       <c r="G182" t="n">
+        <v>0.05734927837742736</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.02329060112114352</v>
+      </c>
+      <c r="K182" t="n">
         <v>0.09177512100176834</v>
       </c>
-      <c r="J182" t="n">
-        <v>0.05988663931089069</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.09099972579227185</v>
-      </c>
       <c r="L182" t="n">
-        <v>0.08228606510306447</v>
+        <v>0.05726168368610529</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09069834112967232</v>
+        <v>0.09113876803255945</v>
       </c>
       <c r="N182" t="n">
-        <v>0.02139347394238679</v>
+        <v>0.09142123651198242</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09177512100176834</v>
+        <v>0.09075261543665948</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02135291849453631</v>
+        <v>0.03879198749798383</v>
       </c>
       <c r="G183" t="n">
+        <v>0.05734900984896334</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.02323667188547143</v>
+      </c>
+      <c r="K183" t="n">
         <v>0.09255952374537318</v>
       </c>
-      <c r="J183" t="n">
-        <v>0.05963743014333933</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.09177750122639382</v>
-      </c>
       <c r="L183" t="n">
-        <v>0.0818167618539179</v>
+        <v>0.05705316194921742</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09147354062650713</v>
+        <v>0.09191773186189757</v>
       </c>
       <c r="N183" t="n">
-        <v>0.02135291849453631</v>
+        <v>0.09071944596847697</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09255952374537318</v>
+        <v>0.09152827881645999</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02111472288442151</v>
+        <v>0.03815131643857005</v>
       </c>
       <c r="G184" t="n">
+        <v>0.05734874132049932</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.02288066042174436</v>
+      </c>
+      <c r="K184" t="n">
         <v>0.09334392648897805</v>
       </c>
-      <c r="J184" t="n">
-        <v>0.05948044406416916</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.0925552766605158</v>
-      </c>
       <c r="L184" t="n">
-        <v>0.08096347237687862</v>
+        <v>0.05684401478985479</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09224874012334193</v>
+        <v>0.09269669569123569</v>
       </c>
       <c r="N184" t="n">
-        <v>0.02111472288442151</v>
+        <v>0.09120642992302447</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09334392648897805</v>
+        <v>0.09230394219626049</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02107901431665449</v>
+        <v>0.03752885521480932</v>
       </c>
       <c r="G185" t="n">
+        <v>0.0573484727920353</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.02272249322497362</v>
+      </c>
+      <c r="K185" t="n">
         <v>0.09412832923258291</v>
       </c>
-      <c r="J185" t="n">
-        <v>0.05911515353540875</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.09333305209463778</v>
-      </c>
       <c r="L185" t="n">
-        <v>0.08062713077887329</v>
+        <v>0.05593440961985338</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09302393962017674</v>
+        <v>0.0934756595205738</v>
       </c>
       <c r="N185" t="n">
-        <v>0.02107901431665449</v>
+        <v>0.0906812311195378</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09412832923258291</v>
+        <v>0.09307960557606101</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.0208459199958473</v>
+        <v>0.03692506378566533</v>
       </c>
       <c r="G186" t="n">
+        <v>0.05734820426357129</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.02256209679017049</v>
+      </c>
+      <c r="K186" t="n">
         <v>0.09491273197618776</v>
       </c>
-      <c r="J186" t="n">
-        <v>0.05894103101908665</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.09411082752875977</v>
-      </c>
       <c r="L186" t="n">
-        <v>0.07960867116682885</v>
+        <v>0.05592451385104918</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09379913911701154</v>
+        <v>0.09425462334991191</v>
       </c>
       <c r="N186" t="n">
-        <v>0.0208459199958473</v>
+        <v>0.0899428923019297</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09491273197618776</v>
+        <v>0.09385526895586151</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02061556712661204</v>
+        <v>0.03634040211013008</v>
       </c>
       <c r="G187" t="n">
+        <v>0.05734793573510727</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.02229939761234631</v>
+      </c>
+      <c r="K187" t="n">
         <v>0.09569713471979262</v>
       </c>
-      <c r="J187" t="n">
-        <v>0.05845754897723146</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.09488860296288175</v>
-      </c>
       <c r="L187" t="n">
-        <v>0.07850902764767187</v>
+        <v>0.05511449489527828</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09457433861384634</v>
+        <v>0.09503358717925003</v>
       </c>
       <c r="N187" t="n">
-        <v>0.02061556712661204</v>
+        <v>0.08969045621411303</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09569713471979262</v>
+        <v>0.09463093233566203</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.0204880829135608</v>
+        <v>0.03577533014717139</v>
       </c>
       <c r="G188" t="n">
+        <v>0.05734766720664325</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.02223432218651238</v>
+      </c>
+      <c r="K188" t="n">
         <v>0.09648153746339748</v>
       </c>
-      <c r="J188" t="n">
-        <v>0.05836417987187173</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.09566637839700372</v>
-      </c>
       <c r="L188" t="n">
-        <v>0.07852913432832925</v>
+        <v>0.05480452016437659</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09534953811068114</v>
+        <v>0.09581255100858814</v>
       </c>
       <c r="N188" t="n">
-        <v>0.0204880829135608</v>
+        <v>0.08852296560000061</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09648153746339748</v>
+        <v>0.09540659571546253</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02036359456130567</v>
+        <v>0.03523030785583046</v>
       </c>
       <c r="G189" t="n">
+        <v>0.05734739867817923</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.02216679700768001</v>
+      </c>
+      <c r="K189" t="n">
         <v>0.09726594020700233</v>
       </c>
-      <c r="J189" t="n">
-        <v>0.05776039616503609</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.0964441538311257</v>
-      </c>
       <c r="L189" t="n">
-        <v>0.07816992531572775</v>
+        <v>0.05489475707018018</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09612473760751596</v>
+        <v>0.09659151483792627</v>
       </c>
       <c r="N189" t="n">
-        <v>0.02036359456130567</v>
+        <v>0.08743946320350515</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09726594020700233</v>
+        <v>0.09618225909526304</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02054251379334467</v>
+        <v>0.03470391702919047</v>
       </c>
       <c r="G190" t="n">
+        <v>0.05734713014971522</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.02179674857086052</v>
+      </c>
+      <c r="K190" t="n">
         <v>0.09805034295060719</v>
       </c>
-      <c r="J190" t="n">
-        <v>0.05754567031875299</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.09722192926524768</v>
-      </c>
       <c r="L190" t="n">
-        <v>0.07673233104969973</v>
+        <v>0.053985373024525</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09689993710435076</v>
+        <v>0.09737047866726438</v>
       </c>
       <c r="N190" t="n">
-        <v>0.02054251379334467</v>
+        <v>0.08703899176853952</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09805034295060719</v>
+        <v>0.09695792247506355</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02012501182135998</v>
+        <v>0.03418534863093947</v>
       </c>
       <c r="G191" t="n">
+        <v>0.0573468616212512</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.02192410337106521</v>
+      </c>
+      <c r="K191" t="n">
         <v>0.09883474569421205</v>
       </c>
-      <c r="J191" t="n">
-        <v>0.05711947479505114</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.09799970469936967</v>
-      </c>
       <c r="L191" t="n">
-        <v>0.07650995065237415</v>
+        <v>0.05357653543924706</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09767513660118557</v>
+        <v>0.09814944249660248</v>
       </c>
       <c r="N191" t="n">
-        <v>0.02012501182135998</v>
+        <v>0.08712059403901645</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09883474569421205</v>
+        <v>0.09773358585486407</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02031083644685683</v>
+        <v>0.03367318445416322</v>
       </c>
       <c r="G192" t="n">
+        <v>0.05734659309278718</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.02154878790330536</v>
+      </c>
+      <c r="K192" t="n">
         <v>0.09961914843781691</v>
       </c>
-      <c r="J192" t="n">
-        <v>0.05688128205595902</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.09877748013349165</v>
-      </c>
       <c r="L192" t="n">
-        <v>0.07649622438390341</v>
+        <v>0.05316841172618239</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09845033609802037</v>
+        <v>0.09892840632594062</v>
       </c>
       <c r="N192" t="n">
-        <v>0.02031083644685683</v>
+        <v>0.08638331275884875</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09961914843781691</v>
+        <v>0.09850924923466456</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.01999973544359761</v>
+        <v>0.03316788445789826</v>
       </c>
       <c r="G193" t="n">
+        <v>0.05734632456432316</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.02146558672839027</v>
+      </c>
+      <c r="K193" t="n">
         <v>0.1004035511814218</v>
       </c>
-      <c r="J193" t="n">
-        <v>0.05623056456350525</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.09955525556761363</v>
-      </c>
       <c r="L193" t="n">
-        <v>0.07539091526509839</v>
+        <v>0.052657806286736</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09922553559485518</v>
+        <v>0.09970737015527872</v>
       </c>
       <c r="N193" t="n">
-        <v>0.01999973544359761</v>
+        <v>0.08571424849850651</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1004035511814218</v>
+        <v>0.09928491261446508</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.0197914565853447</v>
+        <v>0.03266990860111417</v>
       </c>
       <c r="G194" t="n">
+        <v>0.05734605603585915</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.02136855047909139</v>
+      </c>
+      <c r="K194" t="n">
         <v>0.1011879539250266</v>
       </c>
-      <c r="J194" t="n">
-        <v>0.05626679477971841</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.1003330310017356</v>
-      </c>
       <c r="L194" t="n">
-        <v>0.07539378631677002</v>
+        <v>0.05254083100131587</v>
       </c>
       <c r="M194" t="n">
-        <v>0.10000073509169</v>
+        <v>0.1004863339846168</v>
       </c>
       <c r="N194" t="n">
-        <v>0.0197914565853447</v>
+        <v>0.08409996217077731</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1011879539250266</v>
+        <v>0.1000605759942656</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.01988574764586043</v>
+        <v>0.03217971684280294</v>
       </c>
       <c r="G195" t="n">
+        <v>0.05734578750739514</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.02085859630519772</v>
+      </c>
+      <c r="K195" t="n">
         <v>0.1019723566686315</v>
       </c>
-      <c r="J195" t="n">
-        <v>0.05606867922043324</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.1011108064358576</v>
-      </c>
       <c r="L195" t="n">
-        <v>0.07500460055972935</v>
+        <v>0.05201792446689929</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1007759345885248</v>
+        <v>0.1012652978139549</v>
       </c>
       <c r="N195" t="n">
-        <v>0.01988574764586043</v>
+        <v>0.084042931778813</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1019723566686315</v>
+        <v>0.1008362393740661</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.01958235639890719</v>
+        <v>0.0316977691419358</v>
       </c>
       <c r="G196" t="n">
+        <v>0.05734551897893111</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.0208366640341618</v>
+      </c>
+      <c r="K196" t="n">
         <v>0.1027567594122363</v>
       </c>
-      <c r="J196" t="n">
-        <v>0.05511667066814699</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.1018885818699796</v>
-      </c>
       <c r="L196" t="n">
-        <v>0.07452312101478731</v>
+        <v>0.05158953912122155</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1015511340853596</v>
+        <v>0.1020442616432931</v>
       </c>
       <c r="N196" t="n">
-        <v>0.01958235639890719</v>
+        <v>0.08374567502235797</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1027567594122363</v>
+        <v>0.1016119027538666</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.01958103061824731</v>
+        <v>0.03122452545754664</v>
       </c>
       <c r="G197" t="n">
+        <v>0.05734525045046709</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.02070369349343613</v>
+      </c>
+      <c r="K197" t="n">
         <v>0.1035411621558412</v>
       </c>
-      <c r="J197" t="n">
-        <v>0.05501432672422971</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.1026663573041016</v>
-      </c>
       <c r="L197" t="n">
-        <v>0.07424911070275492</v>
+        <v>0.05095612740201791</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1023263335821944</v>
+        <v>0.1028232254726312</v>
       </c>
       <c r="N197" t="n">
-        <v>0.01958103061824731</v>
+        <v>0.08281070960115661</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1035411621558412</v>
+        <v>0.1023875661336671</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.01958151807764322</v>
+        <v>0.03076044574860635</v>
       </c>
       <c r="G198" t="n">
+        <v>0.05734498192200308</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.02036062451047327</v>
+      </c>
+      <c r="K198" t="n">
         <v>0.1043255648994461</v>
       </c>
-      <c r="J198" t="n">
-        <v>0.05396520776829808</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.1034441327382235</v>
-      </c>
       <c r="L198" t="n">
-        <v>0.07318233264444302</v>
+        <v>0.05061814174702356</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1031015330790292</v>
+        <v>0.1036021893019693</v>
       </c>
       <c r="N198" t="n">
-        <v>0.01958151807764322</v>
+        <v>0.08194055321495325</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1043255648994461</v>
+        <v>0.1031632295134676</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.01928356655085724</v>
+        <v>0.03030598997410693</v>
       </c>
       <c r="G199" t="n">
+        <v>0.05734471339353906</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.02010839691272567</v>
+      </c>
+      <c r="K199" t="n">
         <v>0.1051099676430509</v>
       </c>
-      <c r="J199" t="n">
-        <v>0.05357287417996884</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.1042219081723455</v>
-      </c>
       <c r="L199" t="n">
-        <v>0.0730225498606627</v>
+        <v>0.05047603459397387</v>
       </c>
       <c r="M199" t="n">
-        <v>0.103876732575864</v>
+        <v>0.1043811531313074</v>
       </c>
       <c r="N199" t="n">
-        <v>0.01928356655085724</v>
+        <v>0.07993772356349227</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1051099676430509</v>
+        <v>0.1039388928932681</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.01938692381165173</v>
+        <v>0.02986161809302121</v>
       </c>
       <c r="G200" t="n">
+        <v>0.05734444486507504</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.0197479505276459</v>
+      </c>
+      <c r="K200" t="n">
         <v>0.1058943703866558</v>
       </c>
-      <c r="J200" t="n">
-        <v>0.05314088633885858</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.1049996836064675</v>
-      </c>
       <c r="L200" t="n">
-        <v>0.07266952537222493</v>
+        <v>0.04963025838060406</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1046519320726988</v>
+        <v>0.1051601169606455</v>
       </c>
       <c r="N200" t="n">
-        <v>0.01938692381165173</v>
+        <v>0.07930473834651797</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1058943703866558</v>
+        <v>0.1047145562730686</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.0192913376337891</v>
+        <v>0.02942779006437989</v>
       </c>
       <c r="G201" t="n">
+        <v>0.05734417633661102</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.01948022518268647</v>
+      </c>
+      <c r="K201" t="n">
         <v>0.1066787731302606</v>
       </c>
-      <c r="J201" t="n">
-        <v>0.05257280462458411</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.1057774590405895</v>
-      </c>
       <c r="L201" t="n">
-        <v>0.07152302219994067</v>
+        <v>0.04938126554464936</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1054271315695336</v>
+        <v>0.1059390807899836</v>
       </c>
       <c r="N201" t="n">
-        <v>0.0192913376337891</v>
+        <v>0.07804411526377492</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1066787731302606</v>
+        <v>0.1054902196528691</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.01909655579103169</v>
+        <v>0.02900496584715542</v>
       </c>
       <c r="G202" t="n">
+        <v>0.05734390780814701</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.01920616070529992</v>
+      </c>
+      <c r="K202" t="n">
         <v>0.1074631758738655</v>
       </c>
-      <c r="J202" t="n">
-        <v>0.05197218941676202</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.1065552344747115</v>
-      </c>
       <c r="L202" t="n">
-        <v>0.07208280336462086</v>
+        <v>0.04872950852384511</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1062023310663684</v>
+        <v>0.1067180446193218</v>
       </c>
       <c r="N202" t="n">
-        <v>0.01909655579103169</v>
+        <v>0.07745837201500733</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1074631758738655</v>
+        <v>0.1062658830326697</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.01910232605714185</v>
+        <v>0.02859360540033978</v>
       </c>
       <c r="G203" t="n">
+        <v>0.05734363927968299</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.0188266969229387</v>
+      </c>
+      <c r="K203" t="n">
         <v>0.1082475786174703</v>
       </c>
-      <c r="J203" t="n">
-        <v>0.05084260109500904</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.1073330099088335</v>
-      </c>
       <c r="L203" t="n">
-        <v>0.07084863188707646</v>
+        <v>0.04887543975592648</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1069775305632032</v>
+        <v>0.1074970084486599</v>
       </c>
       <c r="N203" t="n">
-        <v>0.01910232605714185</v>
+        <v>0.07645002629995967</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1082475786174703</v>
+        <v>0.1070415464124701</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.018808396205882</v>
+        <v>0.02819416868290785</v>
       </c>
       <c r="G204" t="n">
+        <v>0.05734337075121897</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.01864277366305539</v>
+      </c>
+      <c r="K204" t="n">
         <v>0.1090319813610752</v>
       </c>
-      <c r="J204" t="n">
-        <v>0.05048760003894184</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.1081107853429554</v>
-      </c>
       <c r="L204" t="n">
-        <v>0.07042027078811852</v>
+        <v>0.04811951167862882</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1077527300600381</v>
+        <v>0.108275972277998</v>
       </c>
       <c r="N204" t="n">
-        <v>0.018808396205882</v>
+        <v>0.07592159581837626</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1090319813610752</v>
+        <v>0.1078172097922707</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.01871451401101444</v>
+        <v>0.02780711565388638</v>
       </c>
       <c r="G205" t="n">
+        <v>0.05734310222275495</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.01845533075310249</v>
+      </c>
+      <c r="K205" t="n">
         <v>0.10981638410468</v>
       </c>
-      <c r="J205" t="n">
-        <v>0.04931074662817714</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.1088885607770774</v>
-      </c>
       <c r="L205" t="n">
-        <v>0.07079748308855793</v>
+        <v>0.04786217672968737</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1085279295568728</v>
+        <v>0.1090549361073361</v>
       </c>
       <c r="N205" t="n">
-        <v>0.01871451401101444</v>
+        <v>0.07427559827000141</v>
       </c>
       <c r="O205" t="n">
-        <v>0.10981638410468</v>
+        <v>0.1085928731720712</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.01882042724630156</v>
+        <v>0.02743290627224974</v>
       </c>
       <c r="G206" t="n">
+        <v>0.05734283369429094</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.01796530802053251</v>
+      </c>
+      <c r="K206" t="n">
         <v>0.1106007868482849</v>
       </c>
-      <c r="J206" t="n">
-        <v>0.04901560124233162</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.1096663362111994</v>
-      </c>
       <c r="L206" t="n">
-        <v>0.06988003180920577</v>
+        <v>0.04720388734683739</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1093031290537077</v>
+        <v>0.1098338999366742</v>
       </c>
       <c r="N206" t="n">
-        <v>0.01882042724630156</v>
+        <v>0.07331455135457959</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1106007868482849</v>
+        <v>0.1093685365518717</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.01872588368550573</v>
+        <v>0.02707200049698992</v>
       </c>
       <c r="G207" t="n">
+        <v>0.05734256516582693</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.01767364529279797</v>
+      </c>
+      <c r="K207" t="n">
         <v>0.1113851895918898</v>
       </c>
-      <c r="J207" t="n">
-        <v>0.047805724261022</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0.1104441116453214</v>
-      </c>
       <c r="L207" t="n">
-        <v>0.06986767997087284</v>
+        <v>0.04694509596781413</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1100783285505425</v>
+        <v>0.1106128637660123</v>
       </c>
       <c r="N207" t="n">
-        <v>0.01872588368550573</v>
+        <v>0.07304097277185523</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1113851895918898</v>
+        <v>0.1101441999316722</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.01843063110238938</v>
+        <v>0.0267248582870841</v>
       </c>
       <c r="G208" t="n">
+        <v>0.0573422966373629</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.01738128239735141</v>
+      </c>
+      <c r="K208" t="n">
         <v>0.1121695923354946</v>
       </c>
-      <c r="J208" t="n">
-        <v>0.04678467606386491</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.1112218870794434</v>
-      </c>
       <c r="L208" t="n">
-        <v>0.06936019059437021</v>
+        <v>0.04618625503035287</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1108535280473773</v>
+        <v>0.1113918275953504</v>
       </c>
       <c r="N208" t="n">
-        <v>0.01843063110238938</v>
+        <v>0.07125738022157257</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1121695923354946</v>
+        <v>0.1109198633114727</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01863441727071474</v>
+        <v>0.0263919396015545</v>
       </c>
       <c r="G209" t="n">
+        <v>0.05734202810889889</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.0173891591616453</v>
+      </c>
+      <c r="K209" t="n">
         <v>0.1129539950790995</v>
       </c>
-      <c r="J209" t="n">
-        <v>0.04585601703047704</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.1119996625135653</v>
-      </c>
       <c r="L209" t="n">
-        <v>0.06835732670050892</v>
+        <v>0.04542781697218884</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1116287275442121</v>
+        <v>0.1121707914246886</v>
       </c>
       <c r="N209" t="n">
-        <v>0.01863441727071474</v>
+        <v>0.07006629140347598</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1129539950790995</v>
+        <v>0.1116955266912732</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.01833698996424429</v>
+        <v>0.02607370439937771</v>
       </c>
       <c r="G210" t="n">
+        <v>0.05734175958043487</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.01699821541313221</v>
+      </c>
+      <c r="K210" t="n">
         <v>0.1137383978227043</v>
       </c>
-      <c r="J210" t="n">
-        <v>0.04562330754047517</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.1127774379476873</v>
-      </c>
       <c r="L210" t="n">
-        <v>0.06885885131009983</v>
+        <v>0.04497023423105742</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1124039270410469</v>
+        <v>0.1129497552540267</v>
       </c>
       <c r="N210" t="n">
-        <v>0.01833698996424429</v>
+        <v>0.06937022401730997</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1137383978227043</v>
+        <v>0.1124711900710737</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.01833809695674037</v>
+        <v>0.02577061263954572</v>
       </c>
       <c r="G211" t="n">
+        <v>0.05734149105197086</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.01670939097926463</v>
+      </c>
+      <c r="K211" t="n">
         <v>0.1145228005663092</v>
       </c>
-      <c r="J211" t="n">
-        <v>0.04479010797347588</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.1135552133818093</v>
-      </c>
       <c r="L211" t="n">
-        <v>0.067264527443954</v>
+        <v>0.04521395924469374</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1131791265378817</v>
+        <v>0.1137287190833648</v>
       </c>
       <c r="N211" t="n">
-        <v>0.01833809695674037</v>
+        <v>0.06767169576281878</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1145228005663092</v>
+        <v>0.1132468534508742</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.01813748602196531</v>
+        <v>0.02548312428103837</v>
       </c>
       <c r="G212" t="n">
+        <v>0.05734122252350683</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.01642362568749509</v>
+      </c>
+      <c r="K212" t="n">
         <v>0.115307203309914</v>
       </c>
-      <c r="J212" t="n">
-        <v>0.04395997870909593</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.1143329888159313</v>
-      </c>
       <c r="L212" t="n">
-        <v>0.06747411812288229</v>
+        <v>0.04405944445083315</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1139543260347165</v>
+        <v>0.1145076829127029</v>
       </c>
       <c r="N212" t="n">
-        <v>0.01813748602196531</v>
+        <v>0.06707322433974688</v>
       </c>
       <c r="O212" t="n">
-        <v>0.115307203309914</v>
+        <v>0.1140225168306747</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.01823490493368152</v>
+        <v>0.02521169928287266</v>
       </c>
       <c r="G213" t="n">
+        <v>0.05734095399504282</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.0159418593652761</v>
+      </c>
+      <c r="K213" t="n">
         <v>0.1160916060535189</v>
       </c>
-      <c r="J213" t="n">
-        <v>0.04303648012695196</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.1151107642500533</v>
-      </c>
       <c r="L213" t="n">
-        <v>0.06678738636769577</v>
+        <v>0.04360714228721083</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1147295255315513</v>
+        <v>0.115286646742041</v>
       </c>
       <c r="N213" t="n">
-        <v>0.01823490493368152</v>
+        <v>0.06607732744783851</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1160916060535189</v>
+        <v>0.1147981802104752</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01813010146565136</v>
+        <v>0.02495679760402773</v>
       </c>
       <c r="G214" t="n">
+        <v>0.0573406854665788</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.01596503184006019</v>
+      </c>
+      <c r="K214" t="n">
         <v>0.1168760087971238</v>
       </c>
-      <c r="J214" t="n">
-        <v>0.04192317260666073</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.1158885396841753</v>
-      </c>
       <c r="L214" t="n">
-        <v>0.06640409519920537</v>
+        <v>0.04355750519156212</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1155047250283861</v>
+        <v>0.1160656105713791</v>
       </c>
       <c r="N214" t="n">
-        <v>0.01813010146565136</v>
+        <v>0.06438652278683821</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1168760087971238</v>
+        <v>0.1155738435902758</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01802282339163716</v>
+        <v>0.02495679760402773</v>
       </c>
       <c r="G215" t="n">
+        <v>0.0573406854665788</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.01549408293929987</v>
+      </c>
+      <c r="K215" t="n">
         <v>0.1176604115407286</v>
       </c>
-      <c r="J215" t="n">
-        <v>0.04142361652783891</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.1166663151182972</v>
-      </c>
       <c r="L215" t="n">
-        <v>0.06572400763822217</v>
+        <v>0.04291098560162229</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1162799245252209</v>
+        <v>0.1168445744007173</v>
       </c>
       <c r="N215" t="n">
-        <v>0.01802282339163716</v>
+        <v>0.06410332805649033</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1176604115407286</v>
+        <v>0.1163495069700762</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01771281848540132</v>
+        <v>0.02432662613478903</v>
       </c>
       <c r="G216" t="n">
+        <v>0.0572423951120962</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.01532995249044765</v>
+      </c>
+      <c r="K216" t="n">
         <v>0.1184448142843335</v>
       </c>
-      <c r="J216" t="n">
-        <v>0.04054137227010315</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.1174440905524192</v>
-      </c>
       <c r="L216" t="n">
-        <v>0.06554688670555692</v>
+        <v>0.04286803595512656</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1170551240220557</v>
+        <v>0.1176235382300554</v>
       </c>
       <c r="N216" t="n">
-        <v>0.01771281848540132</v>
+        <v>0.06313026095653906</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1184448142843335</v>
+        <v>0.1171251703498768</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01749983452070621</v>
+        <v>0.02370343901843315</v>
       </c>
       <c r="G217" t="n">
+        <v>0.0571441047576136</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.01507358032095604</v>
+      </c>
+      <c r="K217" t="n">
         <v>0.1192292170279384</v>
       </c>
-      <c r="J217" t="n">
-        <v>0.03998000021307016</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.1182218659865412</v>
-      </c>
       <c r="L217" t="n">
-        <v>0.0651724954220208</v>
+        <v>0.04222910868981022</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1178303235188905</v>
+        <v>0.1184025020593935</v>
       </c>
       <c r="N217" t="n">
-        <v>0.01749983452070621</v>
+        <v>0.06096983918672894</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1192292170279384</v>
+        <v>0.1179008337296773</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01768361927131418</v>
+        <v>0.02308755041175575</v>
       </c>
       <c r="G218" t="n">
+        <v>0.057045814403131</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.01462590625827762</v>
+      </c>
+      <c r="K218" t="n">
         <v>0.1200136197715432</v>
       </c>
-      <c r="J218" t="n">
-        <v>0.03864306073635659</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.1189996414206632</v>
-      </c>
       <c r="L218" t="n">
-        <v>0.06490059680842469</v>
+        <v>0.04199465624340853</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1186055230157253</v>
+        <v>0.1191814658887316</v>
       </c>
       <c r="N218" t="n">
-        <v>0.01768361927131418</v>
+        <v>0.0601245804468043</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1200136197715432</v>
+        <v>0.1186764971094778</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01746392051098759</v>
+        <v>0.02247927447155244</v>
       </c>
       <c r="G219" t="n">
+        <v>0.0569475240486484</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.01438787012986484</v>
+      </c>
+      <c r="K219" t="n">
         <v>0.1207980225151481</v>
       </c>
-      <c r="J219" t="n">
-        <v>0.03863411421957924</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.1197774168547851</v>
-      </c>
       <c r="L219" t="n">
-        <v>0.06443095388557951</v>
+        <v>0.04126513105365673</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1193807225125601</v>
+        <v>0.1199604297180697</v>
       </c>
       <c r="N219" t="n">
-        <v>0.01746392051098759</v>
+        <v>0.06009700243650951</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1207980225151481</v>
+        <v>0.1194521604892783</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01724048601348882</v>
+        <v>0.0218789253546188</v>
       </c>
       <c r="G220" t="n">
+        <v>0.05684923369416581</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.01416041176317022</v>
+      </c>
+      <c r="K220" t="n">
         <v>0.1215824252587529</v>
       </c>
-      <c r="J220" t="n">
-        <v>0.03765672104235471</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.1205551922889071</v>
-      </c>
       <c r="L220" t="n">
-        <v>0.06496332967429636</v>
+        <v>0.04064098555829018</v>
       </c>
       <c r="M220" t="n">
-        <v>0.120155922009395</v>
+        <v>0.1207393935474078</v>
       </c>
       <c r="N220" t="n">
-        <v>0.01724048601348882</v>
+        <v>0.05838962285558891</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1215824252587529</v>
+        <v>0.1202278238690788</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01711313292828852</v>
+        <v>0.02128681721775054</v>
       </c>
       <c r="G221" t="n">
+        <v>0.05675094333968322</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.01414447098564631</v>
+      </c>
+      <c r="K221" t="n">
         <v>0.1223668280023578</v>
       </c>
-      <c r="J221" t="n">
-        <v>0.03711444158429972</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0.1213329677230291</v>
-      </c>
       <c r="L221" t="n">
-        <v>0.06369748719538609</v>
+        <v>0.04052267219504396</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1209311215062298</v>
+        <v>0.1215183573767459</v>
       </c>
       <c r="N221" t="n">
-        <v>0.01711313292828852</v>
+        <v>0.05790495940378698</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1223668280023578</v>
+        <v>0.1210034872488793</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01698304862127889</v>
+        <v>0.02070326421774311</v>
       </c>
       <c r="G222" t="n">
+        <v>0.05665265298520062</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.01394098762474562</v>
+      </c>
+      <c r="K222" t="n">
         <v>0.1231512307459626</v>
       </c>
-      <c r="J222" t="n">
-        <v>0.0360108362250309</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.1221107431571511</v>
-      </c>
       <c r="L222" t="n">
-        <v>0.06333318946965982</v>
+        <v>0.03971064340165353</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1217063210030646</v>
+        <v>0.1222973212060841</v>
       </c>
       <c r="N222" t="n">
-        <v>0.01698304862127889</v>
+        <v>0.05654552978084798</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1231512307459626</v>
+        <v>0.1217791506286798</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01705075506988274</v>
+        <v>0.02012858051139221</v>
       </c>
       <c r="G223" t="n">
+        <v>0.05655436263071802</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.01365090150792067</v>
+      </c>
+      <c r="K223" t="n">
         <v>0.1239356334895675</v>
       </c>
-      <c r="J223" t="n">
-        <v>0.03614946534416505</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.1228885185912731</v>
-      </c>
       <c r="L223" t="n">
-        <v>0.06347019951792837</v>
+        <v>0.03960535161585407</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1224815204998994</v>
+        <v>0.1230762850354222</v>
       </c>
       <c r="N223" t="n">
-        <v>0.01705075506988274</v>
+        <v>0.05561385168651634</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1239356334895675</v>
+        <v>0.1225548140084803</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01671626716140261</v>
+        <v>0.01956308025549343</v>
       </c>
       <c r="G224" t="n">
+        <v>0.05645607227623542</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.01347515246262396</v>
+      </c>
+      <c r="K224" t="n">
         <v>0.1247200362331724</v>
       </c>
-      <c r="J224" t="n">
-        <v>0.03553388932131879</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0.1236662940253951</v>
-      </c>
       <c r="L224" t="n">
-        <v>0.06280828036100278</v>
+        <v>0.03950724927538082</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1232567199967342</v>
+        <v>0.1238552488647603</v>
       </c>
       <c r="N224" t="n">
-        <v>0.01671626716140261</v>
+        <v>0.05521244282053644</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1247200362331724</v>
+        <v>0.1233304773882808</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.0166795997831411</v>
+        <v>0.0190070776068424</v>
       </c>
       <c r="G225" t="n">
+        <v>0.05635778192175282</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.01341468031630803</v>
+      </c>
+      <c r="K225" t="n">
         <v>0.1255044389767772</v>
       </c>
-      <c r="J225" t="n">
-        <v>0.03506766853610888</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.124444069459517</v>
-      </c>
       <c r="L225" t="n">
-        <v>0.06264719501969396</v>
+        <v>0.03851678881796911</v>
       </c>
       <c r="M225" t="n">
-        <v>0.124031919493569</v>
+        <v>0.1246342126940984</v>
       </c>
       <c r="N225" t="n">
-        <v>0.0166795997831411</v>
+        <v>0.05434382088265255</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1255044389767772</v>
+        <v>0.1241061407680814</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01634076782240076</v>
+        <v>0.01846088672223471</v>
       </c>
       <c r="G226" t="n">
+        <v>0.05625949156727023</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.01317042489642538</v>
+      </c>
+      <c r="K226" t="n">
         <v>0.1262888417203821</v>
       </c>
-      <c r="J226" t="n">
-        <v>0.03434813537459458</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.125221844893639</v>
-      </c>
       <c r="L226" t="n">
-        <v>0.06218670651481306</v>
+        <v>0.03843442268135414</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1248071189904038</v>
+        <v>0.1254131765234365</v>
       </c>
       <c r="N226" t="n">
-        <v>0.01634076782240076</v>
+        <v>0.05301050357260922</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1262888417203821</v>
+        <v>0.1248818041478819</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01629978616648417</v>
+        <v>0.01792482175846599</v>
       </c>
       <c r="G227" t="n">
+        <v>0.05616120121278762</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.01294332603042857</v>
+      </c>
+      <c r="K227" t="n">
         <v>0.1270732444639869</v>
       </c>
-      <c r="J227" t="n">
-        <v>0.03403735696265536</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.125999620327761</v>
-      </c>
       <c r="L227" t="n">
-        <v>0.06212657786717091</v>
+        <v>0.03836060330327123</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1255823184872386</v>
+        <v>0.1261921403527746</v>
       </c>
       <c r="N227" t="n">
-        <v>0.01629978616648417</v>
+        <v>0.05261500859015072</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1270732444639869</v>
+        <v>0.1256574675276823</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01605666970269394</v>
+        <v>0.01739919687233184</v>
       </c>
       <c r="G228" t="n">
+        <v>0.05606291085830502</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.01313432354577006</v>
+      </c>
+      <c r="K228" t="n">
         <v>0.1278576472075918</v>
       </c>
-      <c r="J228" t="n">
-        <v>0.03322861905250052</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0.126777395761883</v>
-      </c>
       <c r="L228" t="n">
-        <v>0.06106679902871498</v>
+        <v>0.03759578312145562</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1263575179840734</v>
+        <v>0.1269711041821127</v>
       </c>
       <c r="N228" t="n">
-        <v>0.01605666970269394</v>
+        <v>0.05095985363502142</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1278576472075918</v>
+        <v>0.1264331309074829</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01611143331833259</v>
+        <v>0.01688432622062788</v>
       </c>
       <c r="G229" t="n">
+        <v>0.05596462050382243</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.0130443572699024</v>
+      </c>
+      <c r="K229" t="n">
         <v>0.1286420499511966</v>
       </c>
-      <c r="J229" t="n">
-        <v>0.03292230642755981</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.127555171196005</v>
-      </c>
       <c r="L229" t="n">
-        <v>0.06090874481189662</v>
+        <v>0.03714041457364259</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1271327174809082</v>
+        <v>0.1277500680114509</v>
       </c>
       <c r="N229" t="n">
-        <v>0.01611143331833259</v>
+        <v>0.0508475564069657</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1286420499511966</v>
+        <v>0.1272087942872834</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01586409190070275</v>
+        <v>0.01638052396014971</v>
       </c>
       <c r="G230" t="n">
+        <v>0.05586633014933982</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.01287425118126952</v>
+      </c>
+      <c r="K230" t="n">
         <v>0.1294264526948015</v>
       </c>
-      <c r="J230" t="n">
-        <v>0.03241880387126272</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0.128332946630127</v>
-      </c>
       <c r="L230" t="n">
-        <v>0.06125271060036513</v>
+        <v>0.03719490492094812</v>
       </c>
       <c r="M230" t="n">
-        <v>0.127907916977743</v>
+        <v>0.128529031840789</v>
       </c>
       <c r="N230" t="n">
-        <v>0.01586409190070275</v>
+        <v>0.0504804299420078</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1294264526948015</v>
+        <v>0.1279844576670839</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01581466033710695</v>
+        <v>0.01588810424769295</v>
       </c>
       <c r="G231" t="n">
+        <v>0.05576803979485723</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.01291286340847449</v>
+      </c>
+      <c r="K231" t="n">
         <v>0.1302108554384064</v>
       </c>
-      <c r="J231" t="n">
-        <v>0.03241849616703904</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0.1291107220642489</v>
-      </c>
       <c r="L231" t="n">
-        <v>0.05989872364493287</v>
+        <v>0.03705501641169856</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1286831164745778</v>
+        <v>0.1293079956701271</v>
       </c>
       <c r="N231" t="n">
-        <v>0.01581466033710695</v>
+        <v>0.04973554983985723</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1302108554384064</v>
+        <v>0.1287601210468844</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01566315351484779</v>
+        <v>0.01540738124005326</v>
       </c>
       <c r="G232" t="n">
+        <v>0.05566974944037464</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.01265241925726647</v>
+      </c>
+      <c r="K232" t="n">
         <v>0.1309952581820112</v>
       </c>
-      <c r="J232" t="n">
-        <v>0.0318217680983183</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0.1298884974983709</v>
-      </c>
       <c r="L232" t="n">
-        <v>0.0602468111964124</v>
+        <v>0.03651778766425109</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1294583159714126</v>
+        <v>0.1300869594994652</v>
       </c>
       <c r="N232" t="n">
-        <v>0.01566315351484779</v>
+        <v>0.04829626143305488</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1309952581820112</v>
+        <v>0.1295357844266849</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01540958632122784</v>
+        <v>0.01493866909402614</v>
       </c>
       <c r="G233" t="n">
+        <v>0.05557145908589204</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.01249297343024743</v>
+      </c>
+      <c r="K233" t="n">
         <v>0.1317796609256161</v>
       </c>
-      <c r="J233" t="n">
-        <v>0.03142900444853014</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.1306662729324929</v>
-      </c>
       <c r="L233" t="n">
-        <v>0.05969700050561633</v>
+        <v>0.03578327960214772</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1302335154682474</v>
+        <v>0.1308659233288033</v>
       </c>
       <c r="N233" t="n">
-        <v>0.01540958632122784</v>
+        <v>0.04876288757768293</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1317796609256161</v>
+        <v>0.1303114478064854</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01545397364354968</v>
+        <v>0.01448228196640725</v>
       </c>
       <c r="G234" t="n">
+        <v>0.05547316873140944</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.01273458063001923</v>
+      </c>
+      <c r="K234" t="n">
         <v>0.1325640636692209</v>
       </c>
-      <c r="J234" t="n">
-        <v>0.03144059000110427</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.1314440483666149</v>
-      </c>
       <c r="L234" t="n">
-        <v>0.05984931882335692</v>
+        <v>0.03585155314893032</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1310087149650822</v>
+        <v>0.1316448871581414</v>
       </c>
       <c r="N234" t="n">
-        <v>0.01545397364354968</v>
+        <v>0.04713575112982421</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1325640636692209</v>
+        <v>0.1310871111862859</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01509633036911588</v>
+        <v>0.01403853401399222</v>
       </c>
       <c r="G235" t="n">
+        <v>0.05537487837692684</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.01257729555918373</v>
+      </c>
+      <c r="K235" t="n">
         <v>0.1333484664128258</v>
       </c>
-      <c r="J235" t="n">
-        <v>0.03045690953947022</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0.1322218238007369</v>
-      </c>
       <c r="L235" t="n">
-        <v>0.05880379340044689</v>
+        <v>0.03562266922814097</v>
       </c>
       <c r="M235" t="n">
-        <v>0.131783914461917</v>
+        <v>0.1324238509874796</v>
       </c>
       <c r="N235" t="n">
-        <v>0.01509633036911588</v>
+        <v>0.04701517494556129</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1333484664128258</v>
+        <v>0.1318627745660864</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.015036671385229</v>
+        <v>0.01360773939357664</v>
       </c>
       <c r="G236" t="n">
+        <v>0.05527658802244424</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.01262117292034286</v>
+      </c>
+      <c r="K236" t="n">
         <v>0.1341328691564306</v>
       </c>
-      <c r="J236" t="n">
-        <v>0.03057834784705774</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0.1329995992348589</v>
-      </c>
       <c r="L236" t="n">
-        <v>0.05876045148769882</v>
+        <v>0.03499668876332157</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1325591139587518</v>
+        <v>0.1332028148168177</v>
       </c>
       <c r="N236" t="n">
-        <v>0.015036671385229</v>
+        <v>0.04640148188097681</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1341328691564306</v>
+        <v>0.1326384379458869</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01487501157919165</v>
+        <v>0.01319021226195615</v>
       </c>
       <c r="G237" t="n">
+        <v>0.05517829766796165</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.0123662674160985</v>
+      </c>
+      <c r="K237" t="n">
         <v>0.1349172719000355</v>
       </c>
-      <c r="J237" t="n">
-        <v>0.02990528970729636</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0.1337773746689808</v>
-      </c>
       <c r="L237" t="n">
-        <v>0.05791932033592501</v>
+        <v>0.03467367267801411</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1333343134555867</v>
+        <v>0.1339817786461558</v>
       </c>
       <c r="N237" t="n">
-        <v>0.01487501157919165</v>
+        <v>0.04629499479215321</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1349172719000355</v>
+        <v>0.1334141013256875</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01461136583830636</v>
+        <v>0.01278626677592632</v>
       </c>
       <c r="G238" t="n">
+        <v>0.05508000731347904</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.01241263374905252</v>
+      </c>
+      <c r="K238" t="n">
         <v>0.1357016746436404</v>
       </c>
-      <c r="J238" t="n">
-        <v>0.02983811990361576</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.1345551501031028</v>
-      </c>
       <c r="L238" t="n">
-        <v>0.05838042719593811</v>
+        <v>0.03475368189576059</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1341095129524215</v>
+        <v>0.1347607424754939</v>
       </c>
       <c r="N238" t="n">
-        <v>0.01461136583830636</v>
+        <v>0.04539603653517321</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1357016746436404</v>
+        <v>0.134189764705488</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01454574904987575</v>
+        <v>0.01239621709228279</v>
       </c>
       <c r="G239" t="n">
+        <v>0.05498171695899644</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.01216032662180683</v>
+      </c>
+      <c r="K239" t="n">
         <v>0.1364860773872452</v>
       </c>
-      <c r="J239" t="n">
-        <v>0.02907722321944561</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0.1353329255372248</v>
-      </c>
       <c r="L239" t="n">
-        <v>0.05764379931855068</v>
+        <v>0.03383677734010299</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1348847124492563</v>
+        <v>0.135539706304832</v>
       </c>
       <c r="N239" t="n">
-        <v>0.01454574904987575</v>
+        <v>0.04470492996611947</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1364860773872452</v>
+        <v>0.1349654280852884</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01447817610120238</v>
+        <v>0.01201909456090575</v>
       </c>
       <c r="G240" t="n">
+        <v>0.05488342660451385</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.01220940073696332</v>
+      </c>
+      <c r="K240" t="n">
         <v>0.1372704801308501</v>
       </c>
-      <c r="J240" t="n">
-        <v>0.02882298443821546</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.1361107009713468</v>
-      </c>
       <c r="L240" t="n">
-        <v>0.05760946395457506</v>
+        <v>0.03362301993458319</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1356599119460911</v>
+        <v>0.1363186701341701</v>
       </c>
       <c r="N240" t="n">
-        <v>0.01447817610120238</v>
+        <v>0.04442199794107438</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1372704801308501</v>
+        <v>0.1357410914650889</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.0143086618795888</v>
+        <v>0.01164751649709835</v>
       </c>
       <c r="G241" t="n">
+        <v>0.05478513625003125</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.01205991079712387</v>
+      </c>
+      <c r="K241" t="n">
         <v>0.1380548828744549</v>
       </c>
-      <c r="J241" t="n">
-        <v>0.02847578834335501</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0.1368884764054688</v>
-      </c>
       <c r="L241" t="n">
-        <v>0.05747744835482393</v>
+        <v>0.03341247060274319</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1364351114429259</v>
+        <v>0.1370976339635082</v>
       </c>
       <c r="N241" t="n">
-        <v>0.0143086618795888</v>
+        <v>0.0435475633161207</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1380548828744549</v>
+        <v>0.1365167548448895</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01393722127233761</v>
+        <v>0.01128051425074079</v>
       </c>
       <c r="G242" t="n">
+        <v>0.05468684589554865</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.01231191150489037</v>
+      </c>
+      <c r="K242" t="n">
         <v>0.1388392856180598</v>
       </c>
-      <c r="J242" t="n">
-        <v>0.02793601971829388</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.1376662518395907</v>
-      </c>
       <c r="L242" t="n">
-        <v>0.05634777977010968</v>
+        <v>0.03330519026812506</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1372103109397607</v>
+        <v>0.1378765977928464</v>
       </c>
       <c r="N242" t="n">
-        <v>0.01393722127233761</v>
+        <v>0.04298194894734092</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1388392856180598</v>
+        <v>0.13729241822469</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01386386916675139</v>
+        <v>0.01091840197862872</v>
       </c>
       <c r="G243" t="n">
+        <v>0.05458855554106606</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.01216545756286471</v>
+      </c>
+      <c r="K243" t="n">
         <v>0.1396236883616646</v>
       </c>
-      <c r="J243" t="n">
-        <v>0.02800406334646174</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.1384440272737127</v>
-      </c>
       <c r="L243" t="n">
-        <v>0.0564204854512449</v>
+        <v>0.03260123985427069</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1379855104365955</v>
+        <v>0.1386555616221845</v>
       </c>
       <c r="N243" t="n">
-        <v>0.01386386916675139</v>
+        <v>0.04192547769081767</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1396236883616646</v>
+        <v>0.1380680816044905</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.0135886204501327</v>
+        <v>0.01056149383755766</v>
       </c>
       <c r="G244" t="n">
+        <v>0.05449026518658346</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.01202060367364881</v>
+      </c>
+      <c r="K244" t="n">
         <v>0.1404080911052695</v>
       </c>
-      <c r="J244" t="n">
-        <v>0.02728030401128811</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0.1392218027078347</v>
-      </c>
       <c r="L244" t="n">
-        <v>0.05569559264904211</v>
+        <v>0.03230068028472199</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1387607099334303</v>
+        <v>0.1394345254515226</v>
       </c>
       <c r="N244" t="n">
-        <v>0.0135886204501327</v>
+        <v>0.04117847240263361</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1404080911052695</v>
+        <v>0.138843744984291</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01341149000978413</v>
+        <v>0.01021010398432328</v>
       </c>
       <c r="G245" t="n">
+        <v>0.05439197483210086</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.01187740453984451</v>
+      </c>
+      <c r="K245" t="n">
         <v>0.1411924938488744</v>
       </c>
-      <c r="J245" t="n">
-        <v>0.02696512649620275</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0.1399995781419567</v>
-      </c>
       <c r="L245" t="n">
-        <v>0.05607312861431374</v>
+        <v>0.03230357248302104</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1395359094302651</v>
+        <v>0.1402134892808607</v>
       </c>
       <c r="N245" t="n">
-        <v>0.01341149000978413</v>
+        <v>0.04164125593887125</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1411924938488744</v>
+        <v>0.1396194083640915</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01323249273300824</v>
+        <v>0.009864546575721181</v>
       </c>
       <c r="G246" t="n">
+        <v>0.05429368447761827</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.01203591486405371</v>
+      </c>
+      <c r="K246" t="n">
         <v>0.1419768965924792</v>
       </c>
-      <c r="J246" t="n">
-        <v>0.02735891558463521</v>
-      </c>
-      <c r="K246" t="n">
-        <v>0.1407773535760787</v>
-      </c>
       <c r="L246" t="n">
-        <v>0.05505312059787248</v>
+        <v>0.03170997737270981</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1403111089270999</v>
+        <v>0.1409924531101988</v>
       </c>
       <c r="N246" t="n">
-        <v>0.01323249273300824</v>
+        <v>0.0405141511556133</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1419768965924792</v>
+        <v>0.140395071743892</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01305164350710761</v>
+        <v>0.00952513576854698</v>
       </c>
       <c r="G247" t="n">
+        <v>0.05419539412313566</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.01179618934887833</v>
+      </c>
+      <c r="K247" t="n">
         <v>0.1427612993360841</v>
       </c>
-      <c r="J247" t="n">
-        <v>0.02686205606001524</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.1415551290102006</v>
-      </c>
       <c r="L247" t="n">
-        <v>0.05483559585053061</v>
+        <v>0.03171995587733017</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1410863084239347</v>
+        <v>0.1417714169395369</v>
       </c>
       <c r="N247" t="n">
-        <v>0.01305164350710761</v>
+        <v>0.0401974809089421</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1427612993360841</v>
+        <v>0.1411707351236925</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01276895721938484</v>
+        <v>0.009192185719596284</v>
       </c>
       <c r="G248" t="n">
+        <v>0.05409710376865307</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.01185828269692026</v>
+      </c>
+      <c r="K248" t="n">
         <v>0.1435457020796889</v>
       </c>
-      <c r="J248" t="n">
-        <v>0.02667493270577231</v>
-      </c>
-      <c r="K248" t="n">
-        <v>0.1423329044443226</v>
-      </c>
       <c r="L248" t="n">
-        <v>0.0551205816231008</v>
+        <v>0.03123356892042417</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1418615079207695</v>
+        <v>0.1425503807688751</v>
       </c>
       <c r="N248" t="n">
-        <v>0.01276895721938484</v>
+        <v>0.0391915680549404</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1435457020796889</v>
+        <v>0.141946398503493</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01278444875714244</v>
+        <v>0.008866010585664691</v>
       </c>
       <c r="G249" t="n">
+        <v>0.05399881341417047</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.01202224961078135</v>
+      </c>
+      <c r="K249" t="n">
         <v>0.1443301048232938</v>
       </c>
-      <c r="J249" t="n">
-        <v>0.02619793030533615</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.1431106798784446</v>
-      </c>
       <c r="L249" t="n">
-        <v>0.05510810516639558</v>
+        <v>0.03125087742553381</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1426367074176043</v>
+        <v>0.1433293445982132</v>
       </c>
       <c r="N249" t="n">
-        <v>0.01278444875714244</v>
+        <v>0.03969673544969093</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1443301048232938</v>
+        <v>0.1427220618832935</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01239813300768305</v>
+        <v>0.008546924523547828</v>
       </c>
       <c r="G250" t="n">
+        <v>0.05390052305968786</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.0116881447930635</v>
+      </c>
+      <c r="K250" t="n">
         <v>0.1451145075668986</v>
       </c>
-      <c r="J250" t="n">
-        <v>0.02573143364213643</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.1438884553125666</v>
-      </c>
       <c r="L250" t="n">
-        <v>0.05409819373122737</v>
+        <v>0.03067194231620096</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1434119069144391</v>
+        <v>0.1441083084275513</v>
       </c>
       <c r="N250" t="n">
-        <v>0.01239813300768305</v>
+        <v>0.0380133059492761</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1451145075668986</v>
+        <v>0.1434977252630941</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01251002485830921</v>
+        <v>0.008235241690041306</v>
       </c>
       <c r="G251" t="n">
+        <v>0.05380223270520527</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.01195602294636864</v>
+      </c>
+      <c r="K251" t="n">
         <v>0.1458989103105035</v>
       </c>
-      <c r="J251" t="n">
-        <v>0.02557582749960266</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0.1446662307466886</v>
-      </c>
       <c r="L251" t="n">
-        <v>0.05439087456840874</v>
+        <v>0.03079682451596769</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1441871064112739</v>
+        <v>0.1448872722568894</v>
       </c>
       <c r="N251" t="n">
-        <v>0.01251002485830921</v>
+        <v>0.03874160240977853</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1458989103105035</v>
+        <v>0.1442733886428945</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01202013919632351</v>
+        <v>0.007931276241940732</v>
       </c>
       <c r="G252" t="n">
+        <v>0.05370394235072267</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.01192593877329862</v>
+      </c>
+      <c r="K252" t="n">
         <v>0.1466833130541084</v>
       </c>
-      <c r="J252" t="n">
-        <v>0.02573149666116464</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0.1454440061808105</v>
-      </c>
       <c r="L252" t="n">
-        <v>0.05408617492875217</v>
+        <v>0.03062558494837586</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1449623059081087</v>
+        <v>0.1456662360862275</v>
       </c>
       <c r="N252" t="n">
-        <v>0.01202013919632351</v>
+        <v>0.03708194768728085</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1466833130541084</v>
+        <v>0.1450490520226951</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01192849090902854</v>
+        <v>0.007635342336041712</v>
       </c>
       <c r="G253" t="n">
+        <v>0.05360565199624007</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.01159794697645533</v>
+      </c>
+      <c r="K253" t="n">
         <v>0.1474677157977132</v>
       </c>
-      <c r="J253" t="n">
-        <v>0.02509882591025184</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0.1462217816149325</v>
-      </c>
       <c r="L253" t="n">
-        <v>0.05308412206307017</v>
+        <v>0.02995828453696756</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1457375054049435</v>
+        <v>0.1464451999155656</v>
       </c>
       <c r="N253" t="n">
-        <v>0.01192849090902854</v>
+        <v>0.03723466463786562</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1474677157977132</v>
+        <v>0.1458247154024956</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01183509488372683</v>
+        <v>0.007347754129139884</v>
       </c>
       <c r="G254" t="n">
+        <v>0.05350736164175748</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.0116721022584407</v>
+      </c>
+      <c r="K254" t="n">
         <v>0.1482521185413181</v>
       </c>
-      <c r="J254" t="n">
-        <v>0.02527820003029405</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0.1469995570490545</v>
-      </c>
       <c r="L254" t="n">
-        <v>0.05288474322217535</v>
+        <v>0.02989498420528469</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1465127049017783</v>
+        <v>0.1472241637449037</v>
       </c>
       <c r="N254" t="n">
-        <v>0.01183509488372683</v>
+        <v>0.03670007611761555</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1482521185413181</v>
+        <v>0.1466003787822961</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.011439966007721</v>
+        <v>0.007068825778030821</v>
       </c>
       <c r="G255" t="n">
+        <v>0.05340907128727488</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.01164845932185656</v>
+      </c>
+      <c r="K255" t="n">
         <v>0.1490365212849229</v>
       </c>
-      <c r="J255" t="n">
-        <v>0.02467000380472079</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0.1477773324831765</v>
-      </c>
       <c r="L255" t="n">
-        <v>0.05288806565688015</v>
+        <v>0.02923574487686928</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1472879043986132</v>
+        <v>0.1480031275742419</v>
       </c>
       <c r="N255" t="n">
-        <v>0.011439966007721</v>
+        <v>0.03627850498261304</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1490365212849229</v>
+        <v>0.1473760421620966</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.0115431191683136</v>
+        <v>0.006798871439510142</v>
       </c>
       <c r="G256" t="n">
+        <v>0.05331078093279228</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.01182707286930485</v>
+      </c>
+      <c r="K256" t="n">
         <v>0.1498209240285278</v>
       </c>
-      <c r="J256" t="n">
-        <v>0.02487462201696172</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0.1485551079172985</v>
-      </c>
       <c r="L256" t="n">
-        <v>0.05209411661799701</v>
+        <v>0.0294806274752632</v>
       </c>
       <c r="M256" t="n">
-        <v>0.148063103895448</v>
+        <v>0.14878209140358</v>
       </c>
       <c r="N256" t="n">
-        <v>0.0115431191683136</v>
+        <v>0.03637027408894083</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1498209240285278</v>
+        <v>0.1481517055418971</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01104456925280722</v>
+        <v>0.006538205270373444</v>
       </c>
       <c r="G257" t="n">
+        <v>0.05321249057830969</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.01160799760338743</v>
+      </c>
+      <c r="K257" t="n">
         <v>0.1506053267721326</v>
       </c>
-      <c r="J257" t="n">
-        <v>0.02399243945044649</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.1493328833514205</v>
-      </c>
       <c r="L257" t="n">
-        <v>0.05180292335633857</v>
+        <v>0.02912969292400852</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1488383033922828</v>
+        <v>0.1495610552329181</v>
       </c>
       <c r="N257" t="n">
-        <v>0.01104456925280722</v>
+        <v>0.0357757062926814</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1506053267721326</v>
+        <v>0.1489273689216976</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01084433114850443</v>
+        <v>0.006287141427416376</v>
       </c>
       <c r="G258" t="n">
+        <v>0.05311420022382709</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.01179128822670621</v>
+      </c>
+      <c r="K258" t="n">
         <v>0.1513897295157375</v>
       </c>
-      <c r="J258" t="n">
-        <v>0.02452384088860474</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0.1501106587855424</v>
-      </c>
       <c r="L258" t="n">
-        <v>0.05241451312271722</v>
+        <v>0.02908300214664711</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1496135028891176</v>
+        <v>0.1503400190622562</v>
       </c>
       <c r="N258" t="n">
-        <v>0.01084433114850443</v>
+        <v>0.0357951244499175</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1513897295157375</v>
+        <v>0.1497030323014981</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01084241974270778</v>
+        <v>0.006045994067434522</v>
       </c>
       <c r="G259" t="n">
+        <v>0.05301590986934449</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.01167699944186307</v>
+      </c>
+      <c r="K259" t="n">
         <v>0.1521741322593424</v>
       </c>
-      <c r="J259" t="n">
-        <v>0.02396921111486611</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0.1508884342196644</v>
-      </c>
       <c r="L259" t="n">
-        <v>0.05152891316794572</v>
+        <v>0.02834061606672109</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1503887023859524</v>
+        <v>0.1511189828915943</v>
       </c>
       <c r="N259" t="n">
-        <v>0.01084241974270778</v>
+        <v>0.03422885141673154</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1521741322593424</v>
+        <v>0.1504786956812986</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01053884992271989</v>
+        <v>0.005815077347223509</v>
       </c>
       <c r="G260" t="n">
+        <v>0.05291761951486189</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.01166518595145989</v>
+      </c>
+      <c r="K260" t="n">
         <v>0.1529585350029472</v>
       </c>
-      <c r="J260" t="n">
-        <v>0.0242289349126602</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0.1516662096537864</v>
-      </c>
       <c r="L260" t="n">
-        <v>0.05104615074283625</v>
+        <v>0.02830259560777229</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1511639018827872</v>
+        <v>0.1518979467209324</v>
       </c>
       <c r="N260" t="n">
-        <v>0.01053884992271989</v>
+        <v>0.03397721004920629</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1529585350029472</v>
+        <v>0.1512543590610991</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01023363657584331</v>
+        <v>0.005594705423578941</v>
       </c>
       <c r="G261" t="n">
+        <v>0.05281932916037929</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.01175590245809858</v>
+      </c>
+      <c r="K261" t="n">
         <v>0.1537429377465521</v>
       </c>
-      <c r="J261" t="n">
-        <v>0.02370339706541666</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0.1524439850879084</v>
-      </c>
       <c r="L261" t="n">
-        <v>0.05126625309820149</v>
+        <v>0.02806900169334273</v>
       </c>
       <c r="M261" t="n">
-        <v>0.151939101379622</v>
+        <v>0.1526769105502706</v>
       </c>
       <c r="N261" t="n">
-        <v>0.01023363657584331</v>
+        <v>0.03354052320342421</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1537429377465521</v>
+        <v>0.1520300224408996</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01012679458938062</v>
+        <v>0.005385192453296418</v>
       </c>
       <c r="G262" t="n">
+        <v>0.05272103880589669</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.01154920366438102</v>
+      </c>
+      <c r="K262" t="n">
         <v>0.1545273404901569</v>
       </c>
-      <c r="J262" t="n">
-        <v>0.02399298235656511</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0.1532217605220303</v>
-      </c>
       <c r="L262" t="n">
-        <v>0.05018924748485409</v>
+        <v>0.02793989524697435</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1527143008764568</v>
+        <v>0.1534558743796086</v>
       </c>
       <c r="N262" t="n">
-        <v>0.01012679458938062</v>
+        <v>0.03411911373546794</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1545273404901569</v>
+        <v>0.1528056858207002</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01001833885063438</v>
+        <v>0.005186852593171573</v>
       </c>
       <c r="G263" t="n">
+        <v>0.0526227484514141</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.0117451442729091</v>
+      </c>
+      <c r="K263" t="n">
         <v>0.1553117432337618</v>
       </c>
-      <c r="J263" t="n">
-        <v>0.02369807556953527</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0.1539995359561523</v>
-      </c>
       <c r="L263" t="n">
-        <v>0.05091516115360634</v>
+        <v>0.02751533719220922</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1534895003732916</v>
+        <v>0.1542348382089468</v>
       </c>
       <c r="N263" t="n">
-        <v>0.01001833885063438</v>
+        <v>0.03301330450142009</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1553117432337618</v>
+        <v>0.1535813492005007</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.00980828424690719</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
+        <v>0.05252445809693149</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.0115437789862847</v>
+      </c>
+      <c r="K264" t="n">
         <v>0.1560961459773667</v>
       </c>
-      <c r="J264" t="n">
-        <v>0.02381906148775664</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0.1547773113902743</v>
-      </c>
       <c r="L264" t="n">
-        <v>0.04984402135527083</v>
+        <v>0.02759538845258924</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1542646998701264</v>
+        <v>0.1550138020382849</v>
       </c>
       <c r="N264" t="n">
-        <v>0.00980828424690719</v>
+        <v>0.03292341835736323</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1560961459773667</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1543570125803012</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05251130020219465</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005665769546866588</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05251156873065867</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006327873811434133</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05251183725912269</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.006986271547545116</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05251210578758671</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.007640921509099508</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05251237431605073</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.008291782449940138</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05251264284451474</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.008938813123966639</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05251291137297876</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.009581972285022181</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05251317990144277</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01022121868700605</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05251344842990679</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01085651108376175</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05251371695837081</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01148780822918825</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05251398548683483</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01211506887712937</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05251425401529884</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01273825178148373</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05251452254376286</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01335731569609552</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05251479107222688</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01397221937486302</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.0525150596006909</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01458292157163077</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05251532812915492</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01518938104029664</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05251559665761894</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01579155653470558</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05251586518608295</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01638940680874214</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05251613371454696</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01698289061629049</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05251640224301098</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01757196671119613</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.052516670771475</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.018156593847356</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05251693929993902</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01873673077861598</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05251720782840303</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01931233625887263</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05251747635686705</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01988336904197221</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05251774488533106</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.02044995630350303</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05251801341379508</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.02101306732746454</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.0525182819422591</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02157282928944469</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05251855047072312</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.02212920094329043</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05251881899918714</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.0226821410428973</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05251908752765116</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02323160834211253</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05251935605611517</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02377756159483135</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05251962458457919</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02431995955490134</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.0525198931130432</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02485876097620569</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05252016164150722</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02539392461262736</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05252043016997124</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.02592540921801438</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05252069869843525</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.02645317354626113</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05252096722689927</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.02697717635121603</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05252123575536329</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.02749737638677317</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05252150428382731</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.02801373240678121</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05252177281229133</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.02852620316513396</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05252204134075535</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.02903474741568041</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05252230986921936</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.02953932391231402</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05252257839768338</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.03003989140888416</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05252284692614739</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.03053640865928389</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05252311545461141</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.03102883441736295</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05252338398307543</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.03151712743701407</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05252365251153945</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.0320012464720873</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.05252392104000346</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.03248115027647507</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05252418956846748</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03295679760402774</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05252445809693149</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.03295679760402774</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05251130020219465</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.03345552286334028</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05261012761360529</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.03394964178989118</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05270895502501592</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.03443903098425377</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05280778243642655</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.03492356704700146</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05290660984783719</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.03540312657870744</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05300543725924782</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.03587758617994512</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05310426467065845</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.03634682245128786</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05320309208206909</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.03681071199330889</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05330191949347971</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.03726913140658163</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05340074690489034</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.03772195729167943</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.05349957431630098</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.03816906624917552</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05359840172771161</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.0386103348796433</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05369722913912225</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.03904563978365605</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05379605655053288</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.03947485756178713</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05389488396194351</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.0398978648146099</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05399371137335415</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.04031453814269763</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05409253878476478</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.04072475414662372</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05419136619617541</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.04112838942696141</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05429019360758604</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.04152532058428406</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05438902101899667</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.04191542421916507</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05448784843040731</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.04229857693217766</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05458667584181794</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.04267465532389526</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05468550325322857</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.04304353599489112</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.0547843306646392</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.04340509554573861</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05488315807604983</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.04375971445800332</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05498198548746047</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.04411029261821194</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.0550808128988711</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.04445721050793007</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05517964031028173</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.04480034472773108</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05527846772169237</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.04513957187818823</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05537729513310299</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.04547476855987494</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05547612254451364</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.04580581137336441</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05557494995592426</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.04613257691923008</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05567377736733489</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.04645494179804524</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05577260477874553</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.0467727826103832</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.05587143219015616</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.04708597595681735</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.0559702596015668</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.04739439843792094</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05606908701297743</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.04769792665426736</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05616791442438805</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.04799643720642993</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.0562667418357987</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.04828980669498194</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05636556924720932</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.04857791172049679</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.05646439665861996</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.04886062888354774</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05656322407003059</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.04913783478470812</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.05666205148144122</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.04940940602455134</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.05676087889285186</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.04967521920365064</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.05685970630426249</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.0499351509225794</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.05695853371567311</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.05018907778191094</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05705736112708375</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.05043687638221857</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05715618853849438</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.05067842332407566</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05725501594990502</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.05091359520805547</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05735384336131565</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.04627573013870365</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05735384336131565</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.05113002781257139</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.05896245821848665</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.0513302541745029</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.06057107307565763</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.05151490496521914</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06217968793282863</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.05168461085608922</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.06378830278999963</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.05184000251848227</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.06539691764717062</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.05198171062376744</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.0670055325043416</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.05211036584331386</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06861414736151261</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.05222659884849064</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.07022276221868361</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.05233104031066692</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.07183137707585459</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.05242432090121182</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.07343999193302558</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.05250707129149451</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.07504860679019658</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.0525799221528841</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.07665722164736757</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.0526435041567497</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.07826583650453857</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.05269844797446047</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.07987445136170956</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.05274538427738551</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.08148306621888055</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.05278494373689399</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.08309168107605154</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.05281775702435504</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.08470029593322255</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.05284445481113775</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.08630891079039353</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.05286566776861128</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.08791752564756453</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.05288202656814475</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.08952614050473552</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.05289416188110729</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.09113475536190652</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.05290270437886807</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.09274337021907751</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.05290828473279616</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.09435198507624851</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.05291153361426074</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.09596059993341949</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.0529130816946309</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.09756921479059048</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.05291355964527582</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.09917782964776149</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.05290939137175425</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1007864445049325</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.05283777046567655</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1023950593621035</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.05268250717616887</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1040036742192745</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.05245010745187408</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1056122890764454</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.0521470772414349</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1072209039336165</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.05177992249349417</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1088295187907874</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.05135514915669469</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1104381336479585</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.05087926317967925</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1120467485051294</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.05035877051109067</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1136553633623004</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.04980017709957173</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1152639782194714</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.04920998889376522</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1168725930766424</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.04859471184231397</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1184812079338134</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.04796085189386073</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1200898227909844</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.04731491499704839</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1216984376481554</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.04666340710051965</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1233070525053264</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.0460128341529174</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1249156673624974</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.04536970210288437</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1265242822196684</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.04474051689906339</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1281328970768394</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.04413178449009723</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1297415119340104</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.04355001082462875</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1313501267911814</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.04300170185130071</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1329587416483523</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.04249336351875592</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1345673565055233</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.04203150177563716</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1361759713626944</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.04162262257058726</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1377845862198653</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.041256360499331</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1393932010770363</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.04088439338395093</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1410018159342073</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.04050494261507274</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1426104307913783</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.04011994803458419</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1442190456485493</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.03973134948437296</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1458276605057203</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.03934108680632686</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1474362753628913</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.03895109984233359</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1490448902200623</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.03856332843428086</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.03817971242405643</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1522621199344043</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.03780219165354803</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1538707347915753</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.03743270596464339</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1554793496487463</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.03707319519923023</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1570879645059173</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.03672559919919631</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1586965793630883</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.03639185780642937</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1603051942202592</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.0360739108628171</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1619138090774302</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.03577369821024726</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1635224239346012</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.03549315969060758</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1651310387917722</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.0352342351457858</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1667396536489432</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.03499886441766965</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1683482685061142</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.03478898734814685</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1699568833632852</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.03460654377910516</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1715654982204562</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.03445347355243229</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1731741130776272</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.03433171651001599</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1747827279347982</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.03424321249374397</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1763913427919692</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.03418990134550398</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1779999576491402</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.03417360494310057</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1796085725063112</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.0341736705508935</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1812171873634822</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.03417407514506758</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1828258022206532</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.03417513323840948</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1844344170778242</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.03417715934370584</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1860430319349952</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.03418046797374331</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1876516467921661</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.03418537364130857</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1892602616493371</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.03419219085918823</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1908688765065081</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.03420123414016897</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1924774913636791</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.03421281799703745</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1940861062208501</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.0342272569425803</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1956947210780211</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.03424486548958419</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1973033359351921</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.03426595815083576</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1989119507923631</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.03429084943912168</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.2005205656495341</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.03431985386722858</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.2021291805067051</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.03435328594794312</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2037377953638761</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.03439146019405198</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2053464102210471</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.03443469111834177</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2069550250782181</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.03448329323359917</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.208563639935389</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.03453758105261082</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.21017225479256</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.03459786908816338</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2117808696497311</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.0346644718530435</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.213389484506902</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.03473770386003784</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.214998099364073</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.03481787962193304</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.216606714221244</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1163.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1163.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF464"/>
+  <dimension ref="A1:BF264"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8811,7 +8811,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.08527573013870365</v>
+        <v>0.06274475832281941</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.03527573013870365</v>
+        <v>0.01274475832281941</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01738384336131565</v>
+        <v>0.009575338160960368</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.0009086629344627548</v>
+        <v>0.001417822472536523</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0005793317511244005</v>
+        <v>0.001630339430543773</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001630727228373222</v>
+        <v>0.00340397683701333</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007844027436048575</v>
+        <v>0.001641685588952065</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.005334247915255191</v>
+        <v>0.01072598437268635</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.000778963829338115</v>
+        <v>0.001642899128454087</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.009431964547816973</v>
+        <v>0.01913506485442112</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007756633798005084</v>
+        <v>0.001639398533736717</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.001840541976082515</v>
+        <v>0.006068932534675907</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001158663502248801</v>
+        <v>0.00319177938698679</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.003380608791824405</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001568805487209715</v>
+        <v>0.00394440789473684</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01056842147930565</v>
+        <v>0.02249999999999999</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.00155792765867623</v>
+        <v>0.004024906015037593</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01974246051855644</v>
+        <v>0.03749999999999998</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001551326759601017</v>
+        <v>0.003792699898785423</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.002794906773195292</v>
+        <v>0.008279546162406892</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.001737995253373202</v>
+        <v>0.004891018291631319</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.005025357424536338</v>
+        <v>0.008479662650319811</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002353208230814573</v>
+        <v>0.004925056766856195</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01480924723240484</v>
+        <v>0.02517358915404921</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002336891488014345</v>
+        <v>0.00492869738536226</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02775580989247595</v>
+        <v>0.04267671751107521</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002326990139401525</v>
+        <v>0.004918195601210152</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.003771026974137101</v>
+        <v>0.01010349898284717</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002317327004497602</v>
+        <v>0.006521357722175092</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.006640685860691768</v>
+        <v>0.01039324789202264</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.00313761097441943</v>
+        <v>0.006566742355808261</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01936345171480613</v>
+        <v>0.02901511685087504</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.00311585531735246</v>
+        <v>0.006571596513816347</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.03569633464983363</v>
+        <v>0.04892821155865396</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003102653519202034</v>
+        <v>0.00655759413494687</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.01276711754794717</v>
+        <v>0.00319177938698679</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02427573013870366</v>
+        <v>0.006068932534675907</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.004768172227243961</v>
+        <v>0.009638702716803962</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.002896658755622002</v>
+        <v>0.008151697152718865</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.00790230683447346</v>
+        <v>0.01236295352977446</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003922013718024288</v>
+        <v>0.008208427944760326</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02313776146676302</v>
+        <v>0.03178280926857213</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003894819146690575</v>
+        <v>0.008214495642270433</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.04248835677088697</v>
+        <v>0.0537006775096045</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003878316899002542</v>
+        <v>0.008196992668683588</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.005785612180851878</v>
+        <v>0.01274475832281941</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.003475990506746404</v>
+        <v>0.009575338160960368</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.008985933080064151</v>
+        <v>0.01363779651267988</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004706416461629145</v>
+        <v>0.009850113533712391</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02599999999999997</v>
+        <v>0.03480864188673372</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004604022682970045</v>
+        <v>0.009857394770724519</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.04799999999999999</v>
+        <v>0.05775845899207177</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004718544023610427</v>
+        <v>0.009836391202420304</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.006822616483296864</v>
+        <v>0.01200458201120343</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.004055322257870804</v>
+        <v>0.01141237601380641</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.009999999999999995</v>
+        <v>0.01542939954576002</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005259210526315786</v>
+        <v>0.01183322368421052</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02817755247647694</v>
+        <v>0.03900961661272245</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005452746805366805</v>
+        <v>0.01207471804511278</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.05124762673828115</v>
+        <v>0.0625898336796849</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005429643658603558</v>
+        <v>0.01137809969635627</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.007878454782914948</v>
+        <v>0.0150746835516551</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.004634654008995204</v>
+        <v>0.01304271544435018</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01114038252659851</v>
+        <v>0.01621904153074927</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.00627522194883886</v>
+        <v>0.01313348471161652</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03065365749636342</v>
+        <v>0.04089037137996576</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.00623171063470492</v>
+        <v>0.01314319302763269</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.05434793127487186</v>
+        <v>0.06643111115461992</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006205307038404067</v>
+        <v>0.01311518826989374</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.008952396728042128</v>
+        <v>0.0150958599775702</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.005213985760119604</v>
+        <v>0.01467305487489396</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01162782949993304</v>
+        <v>0.01755473613900602</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007059624692443717</v>
+        <v>0.01477517030056859</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.0326955975499362</v>
+        <v>0.04362267666257602</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007010674464043035</v>
+        <v>0.01478609215608678</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.05677894359513458</v>
+        <v>0.07175431269145849</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006980970418204575</v>
+        <v>0.01475458680363046</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01004371196701442</v>
+        <v>0.01506445148949923</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.005793317511244005</v>
+        <v>0.01630339430543773</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01234547200646192</v>
+        <v>0.01886608360488569</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007844027436048576</v>
+        <v>0.01641685588952065</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03442985872632132</v>
+        <v>0.04677273941488561</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007789638293381151</v>
+        <v>0.01642899128454087</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.05955934463910656</v>
+        <v>0.07607875927307506</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007756633798005085</v>
+        <v>0.01639398533736718</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01115167014816785</v>
+        <v>0.01797679828799262</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.006372649262368406</v>
+        <v>0.0179337337359815</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01310351595272459</v>
+        <v>0.01974348291441511</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008628430179653432</v>
+        <v>0.01805854147847272</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.0359829271146449</v>
+        <v>0.04970519301943344</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008568602122719265</v>
+        <v>0.01807189041299495</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.0625898336796849</v>
+        <v>0.08104872270431152</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008789669215715713</v>
+        <v>0.01803338387110389</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01227554091983842</v>
+        <v>0.01782924057360086</v>
       </c>
       <c r="G77" t="n">
-        <v>0.006951981013492807</v>
+        <v>0.01956407316652528</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01391216724526051</v>
+        <v>0.02097733305362104</v>
       </c>
       <c r="K77" t="n">
-        <v>0.00941283292325829</v>
+        <v>0.01970022706742478</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03738128880403294</v>
+        <v>0.05228467085875838</v>
       </c>
       <c r="M77" t="n">
-        <v>0.00934756595205738</v>
+        <v>0.01971478954144904</v>
       </c>
       <c r="N77" t="n">
-        <v>0.06305475678870209</v>
+        <v>0.08540847479001012</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009307960557606099</v>
+        <v>0.01967278240484061</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01341459393036214</v>
+        <v>0.0186181185468744</v>
       </c>
       <c r="G78" t="n">
-        <v>0.007531312764617206</v>
+        <v>0.02119441259706905</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01448163179060913</v>
+        <v>0.02205803300853026</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01019723566686315</v>
+        <v>0.02134191265637685</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03900961661272245</v>
+        <v>0.05467580631539926</v>
       </c>
       <c r="M78" t="n">
-        <v>0.00986819559005162</v>
+        <v>0.02135768866990313</v>
       </c>
       <c r="N78" t="n">
-        <v>0.06520062843381097</v>
+        <v>0.08980228733501294</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01008362393740661</v>
+        <v>0.02131218093857733</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01456809882807503</v>
+        <v>0.01833977240836371</v>
       </c>
       <c r="G79" t="n">
-        <v>0.008110644515741608</v>
+        <v>0.02282475202761282</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01482211549530986</v>
+        <v>0.02297598176516963</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01098163841046801</v>
+        <v>0.02298359824532891</v>
       </c>
       <c r="L79" t="n">
-        <v>0.04020753135081964</v>
+        <v>0.05794323277189503</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01090549361073361</v>
+        <v>0.02300058779835721</v>
       </c>
       <c r="N79" t="n">
-        <v>0.06714824177546497</v>
+        <v>0.09477443214416198</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01085928731720712</v>
+        <v>0.02295157947231404</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.0157353252613131</v>
+        <v>0.02099054235861925</v>
       </c>
       <c r="G80" t="n">
-        <v>0.008689976266866007</v>
+        <v>0.02445509145815659</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01542939954576002</v>
+        <v>0.02402157830956585</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01159235150082759</v>
+        <v>0.02462528383428098</v>
       </c>
       <c r="L80" t="n">
-        <v>0.04205650128949548</v>
+        <v>0.05995158361078451</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01168445744007172</v>
+        <v>0.0246434869268113</v>
       </c>
       <c r="N80" t="n">
-        <v>0.06939529832899294</v>
+        <v>0.09846918102229946</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01163495069700763</v>
+        <v>0.02459097800605076</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01691554287841238</v>
+        <v>0.02156676859819149</v>
       </c>
       <c r="G81" t="n">
-        <v>0.009269308017990408</v>
+        <v>0.02608543088870037</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01586554470275765</v>
+        <v>0.02478522162774577</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01255044389767772</v>
+        <v>0.02626696942323304</v>
       </c>
       <c r="L81" t="n">
-        <v>0.04310279819571863</v>
+        <v>0.06276549221460659</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01246342126940984</v>
+        <v>0.02628638605526539</v>
       </c>
       <c r="N81" t="n">
-        <v>0.07193949960972396</v>
+        <v>0.1021308057742673</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01241061407680813</v>
+        <v>0.02623037653978748</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01810802132770887</v>
+        <v>0.02006479132763089</v>
       </c>
       <c r="G82" t="n">
-        <v>0.009848639769114809</v>
+        <v>0.02771577031924414</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01629100116019599</v>
+        <v>0.02575731070573616</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01333484664128258</v>
+        <v>0.02790865501218511</v>
       </c>
       <c r="L82" t="n">
-        <v>0.04484492853039412</v>
+        <v>0.06424959196590008</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01324238509874795</v>
+        <v>0.02792928518371948</v>
       </c>
       <c r="N82" t="n">
-        <v>0.07377854713298693</v>
+        <v>0.1054035782049076</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01318627745660864</v>
+        <v>0.0278697750735242</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01931203025753857</v>
+        <v>0.0214809507474879</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01042797152023921</v>
+        <v>0.02934610974978791</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01691968106446769</v>
+        <v>0.02622824452956381</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01411924938488743</v>
+        <v>0.02955034060113717</v>
       </c>
       <c r="L83" t="n">
-        <v>0.04558139875442679</v>
+        <v>0.06656851624720397</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01402134892808607</v>
+        <v>0.02957218431217356</v>
       </c>
       <c r="N83" t="n">
-        <v>0.07601014241411103</v>
+        <v>0.1075317701190628</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01396194083640915</v>
+        <v>0.02950917360726091</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02052683931623752</v>
+        <v>0.02081369031746776</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01100730327136361</v>
+        <v>0.03097644918033169</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01745069920310896</v>
+        <v>0.02698842208525551</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01490365212849229</v>
+        <v>0.03119202619008923</v>
       </c>
       <c r="L84" t="n">
-        <v>0.04741071532872149</v>
+        <v>0.06788689844105703</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01480031275742418</v>
+        <v>0.03121508344062765</v>
       </c>
       <c r="N84" t="n">
-        <v>0.07703198696842523</v>
+        <v>0.1103596533215745</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01473760421620966</v>
+        <v>0.03114857214099763</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02175171815214172</v>
+        <v>0.02311501627312432</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01158663502248801</v>
+        <v>0.03260678861087546</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01808317036365606</v>
+        <v>0.02752824235883809</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01568805487209715</v>
+        <v>0.03283371177904131</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04823138471418312</v>
+        <v>0.06916937192999822</v>
       </c>
       <c r="M85" t="n">
-        <v>0.0155792765867623</v>
+        <v>0.03285798256908173</v>
       </c>
       <c r="N85" t="n">
-        <v>0.08024178231125845</v>
+        <v>0.1110466693289134</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01551326759601017</v>
+        <v>0.03278797067473435</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02298593641358718</v>
+        <v>0.02140724337288551</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01216596677361241</v>
+        <v>0.03423712804141923</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01871620933364516</v>
+        <v>0.0275979264036514</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01647245761570201</v>
+        <v>0.03447539736799337</v>
       </c>
       <c r="L86" t="n">
-        <v>0.05014191337171661</v>
+        <v>0.07011178505990404</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01635824041610041</v>
+        <v>0.03450088169753582</v>
       </c>
       <c r="N86" t="n">
-        <v>0.08213722995793982</v>
+        <v>0.11283438005903</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01628893097581068</v>
+        <v>0.03442736920847106</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02427573013870366</v>
+        <v>0.0236884020084812</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01276711754794717</v>
+        <v>0.035867467471963</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01924893090061251</v>
+        <v>0.02795699679148732</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01725686035930686</v>
+        <v>0.03611708295694543</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05144080776222687</v>
+        <v>0.07092414837253211</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01713720424543853</v>
+        <v>0.03614378082598991</v>
       </c>
       <c r="N87" t="n">
-        <v>0.08351603142379838</v>
+        <v>0.1146768012092698</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01706459435561119</v>
+        <v>0.03606676774220778</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02555864374435243</v>
+        <v>0.02295652257164126</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01332463027586121</v>
+        <v>0.03749780690250678</v>
       </c>
       <c r="J88" t="n">
-        <v>0.01968044985209431</v>
+        <v>0.02860304049294471</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01804126310291172</v>
+        <v>0.03775876854589749</v>
       </c>
       <c r="L88" t="n">
-        <v>0.0522265743466187</v>
+        <v>0.07150433461239811</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01791616807477665</v>
+        <v>0.03778667995444399</v>
       </c>
       <c r="N88" t="n">
-        <v>0.08537588822416298</v>
+        <v>0.1161640978426328</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01784025773541169</v>
+        <v>0.0377061662759445</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,6180 +10193,4780 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02702710910659217</v>
+        <v>0.02220963545409556</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01390396202698561</v>
+        <v>0.03912814633305055</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02030988097562679</v>
+        <v>0.02893362287706169</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01882566584651658</v>
+        <v>0.03940045413484956</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05329771958579704</v>
+        <v>0.07264617472598808</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01869513190411476</v>
+        <v>0.03942957908289808</v>
       </c>
       <c r="N89" t="n">
-        <v>0.08741450187436284</v>
+        <v>0.1165864350221186</v>
       </c>
       <c r="O89" t="n">
-        <v>0.0186159211152122</v>
+        <v>0.03934556480968122</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02857213369579603</v>
+        <v>0.02444577104757394</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01448329377811002</v>
+        <v>0.04075848576359433</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02073633905874614</v>
+        <v>0.02904630931287647</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01961006859012144</v>
+        <v>0.04104213972380163</v>
       </c>
       <c r="L90" t="n">
-        <v>0.05495274994066679</v>
+        <v>0.07384349965978818</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01947409573345288</v>
+        <v>0.04107247821135216</v>
       </c>
       <c r="N90" t="n">
-        <v>0.08912957388972675</v>
+        <v>0.1181339778107268</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01939158449501271</v>
+        <v>0.04098496334341793</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.03013155558194891</v>
+        <v>0.02266295974380628</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01506262552923441</v>
+        <v>0.04238882519413809</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02115893888898861</v>
+        <v>0.02923866516942721</v>
       </c>
       <c r="K91" t="n">
-        <v>0.0203944713337263</v>
+        <v>0.04268382531275369</v>
       </c>
       <c r="L91" t="n">
-        <v>0.05639017187213283</v>
+        <v>0.07419014036028443</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02025305956279099</v>
+        <v>0.04271537733980626</v>
       </c>
       <c r="N91" t="n">
-        <v>0.09081880578558393</v>
+        <v>0.1190968912714573</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02016724787481322</v>
+        <v>0.04262436187715465</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03164321283503574</v>
+        <v>0.02485923193452244</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01564195728035881</v>
+        <v>0.04401916462468187</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02167679525389039</v>
+        <v>0.029808255815752</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02117887407733115</v>
+        <v>0.04432551090170576</v>
       </c>
       <c r="L92" t="n">
-        <v>0.05770849184110005</v>
+        <v>0.07487992777396288</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02103202339212911</v>
+        <v>0.04435827646826034</v>
       </c>
       <c r="N92" t="n">
-        <v>0.09347989907726323</v>
+        <v>0.1204653404673099</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02094291125461373</v>
+        <v>0.04426376041089137</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03304494352504149</v>
+        <v>0.02403261801145228</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01622128903148322</v>
+        <v>0.04564950405522564</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02228902294098774</v>
+        <v>0.03005264662088909</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02196327682093601</v>
+        <v>0.04596719649065782</v>
       </c>
       <c r="L93" t="n">
-        <v>0.05860621630847332</v>
+        <v>0.07540669284730966</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02181098722146722</v>
+        <v>0.04600117559671443</v>
       </c>
       <c r="N93" t="n">
-        <v>0.09501055528009378</v>
+        <v>0.1209294904612842</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02171857463441423</v>
+        <v>0.04590315894462808</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03427458572195108</v>
+        <v>0.02418114836632565</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01680062078260762</v>
+        <v>0.04727984348576942</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02289473673781683</v>
+        <v>0.0302694029538766</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02274767956454087</v>
+        <v>0.04760888207960989</v>
       </c>
       <c r="L94" t="n">
-        <v>0.05958185173515762</v>
+        <v>0.07606426652681081</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02258995105080534</v>
+        <v>0.04764407472516851</v>
       </c>
       <c r="N94" t="n">
-        <v>0.0969084759094046</v>
+        <v>0.1219795063163799</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02249423801421474</v>
+        <v>0.0475425574783648</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03527573013870365</v>
+        <v>0.02330285339087242</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01738384336131565</v>
+        <v>0.04891018291631319</v>
       </c>
       <c r="J95" t="n">
-        <v>0.0231930514319139</v>
+        <v>0.0301560901837527</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02353208230814573</v>
+        <v>0.04925056766856195</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06093390458205769</v>
+        <v>0.07674647975895246</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02336891488014345</v>
+        <v>0.0492869738536226</v>
       </c>
       <c r="N95" t="n">
-        <v>0.09837136248052464</v>
+        <v>0.1227055530955968</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02326990139401525</v>
+        <v>0.04918195601210152</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03611230383727451</v>
+        <v>0.02339576347682246</v>
       </c>
       <c r="G96" t="n">
-        <v>0.01795928428485642</v>
+        <v>0.05054052234685696</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02358308181081518</v>
+        <v>0.03061027367955553</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02431648505175058</v>
+        <v>0.05089225325751402</v>
       </c>
       <c r="L96" t="n">
-        <v>0.06226088131007854</v>
+        <v>0.07714716349022066</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02414787870948157</v>
+        <v>0.05092987298207668</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1006969165087829</v>
+        <v>0.1240977958619347</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02404556477381576</v>
+        <v>0.05082135454583823</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03692733581542022</v>
+        <v>0.02548951664563881</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01853861603598082</v>
+        <v>0.05217086177740073</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02416394266205683</v>
+        <v>0.03042951881032328</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02510088779535544</v>
+        <v>0.05253393884646609</v>
       </c>
       <c r="L97" t="n">
-        <v>0.063161288380125</v>
+        <v>0.07726014866710143</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02492684253881968</v>
+        <v>0.05257277211053078</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1019828395095084</v>
+        <v>0.1243463996783931</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02482122815361627</v>
+        <v>0.05246075307957496</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03771438357768168</v>
+        <v>0.02348732039985177</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01911794778710522</v>
+        <v>0.0538012012079445</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02473474877317515</v>
+        <v>0.03081139094509409</v>
       </c>
       <c r="K98" t="n">
-        <v>0.0258852905389603</v>
+        <v>0.05417562443541814</v>
       </c>
       <c r="L98" t="n">
-        <v>0.06403363225310199</v>
+        <v>0.07727926623608097</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02570580636815779</v>
+        <v>0.05421567123898486</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1030268329980303</v>
+        <v>0.1251796673593698</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02559689153341678</v>
+        <v>0.05410015161331167</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03847275118016651</v>
+        <v>0.02448593648926967</v>
       </c>
       <c r="G99" t="n">
-        <v>0.01969727953822962</v>
+        <v>0.05543154063848828</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02499461493170632</v>
+        <v>0.03085879909152003</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02666969328256516</v>
+        <v>0.05581731002437022</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06517641938991439</v>
+        <v>0.07801923322544491</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02648477019749591</v>
+        <v>0.05585857036743895</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1055265984896774</v>
+        <v>0.1239733507136709</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02637255491321729</v>
+        <v>0.05573955014704839</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03920174267898226</v>
+        <v>0.02446676809670421</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02027661128935402</v>
+        <v>0.05706188006903205</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02574265592518653</v>
+        <v>0.03085614501793957</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02745409602617001</v>
+        <v>0.05745899561332227</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06588815625146707</v>
+        <v>0.0779153643274503</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02726373402683403</v>
+        <v>0.05750146949589303</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1063798374997789</v>
+        <v>0.1246569697268947</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02714821829301779</v>
+        <v>0.05737894868078511</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.03990066213023653</v>
+        <v>0.02343195831835147</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02085594304047842</v>
+        <v>0.05869221949957583</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02617798654115204</v>
+        <v>0.03083550605258063</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02823849876977487</v>
+        <v>0.05910068120227435</v>
       </c>
       <c r="L101" t="n">
-        <v>0.06726734929866499</v>
+        <v>0.07786928883190691</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02804269785617214</v>
+        <v>0.05914436862434712</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1085842515436636</v>
+        <v>0.1243550318519618</v>
       </c>
       <c r="O101" t="n">
-        <v>0.0279238816728183</v>
+        <v>0.05901834721452183</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.04056881359003695</v>
+        <v>0.02338254519457017</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02143527479160282</v>
+        <v>0.0603225589301196</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02649972156713902</v>
+        <v>0.03069549517600903</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02902290151337973</v>
+        <v>0.06074236679122641</v>
       </c>
       <c r="L102" t="n">
-        <v>0.06791250499241297</v>
+        <v>0.07787377211230884</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02882166168551026</v>
+        <v>0.06078726775280121</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1091375421366608</v>
+        <v>0.1237759086727168</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02869954505261881</v>
+        <v>0.06065774574825854</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.04120550111449107</v>
+        <v>0.02531956676571903</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02201460654272722</v>
+        <v>0.06195289836066337</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02690697579068374</v>
+        <v>0.03053739550895249</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02980730425698459</v>
+        <v>0.06238405238017847</v>
       </c>
       <c r="L103" t="n">
-        <v>0.0691221297936159</v>
+        <v>0.0775320654377637</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02960062551484837</v>
+        <v>0.06243016688125529</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1114374107940992</v>
+        <v>0.124024783484583</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02947520843241932</v>
+        <v>0.06229714428199527</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04181002875970648</v>
+        <v>0.02324406107215674</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02259393829385162</v>
+        <v>0.06358323779120716</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02719886399932238</v>
+        <v>0.03036249017213878</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03059170700058944</v>
+        <v>0.06402573796913054</v>
       </c>
       <c r="L104" t="n">
-        <v>0.06959473016317869</v>
+        <v>0.0774474200773789</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03037958934418649</v>
+        <v>0.06407306600970938</v>
       </c>
       <c r="N104" t="n">
-        <v>0.112481559031308</v>
+        <v>0.1236068395829831</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03025087181221982</v>
+        <v>0.06393654281573198</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.0423817005817908</v>
+        <v>0.02515706615424203</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02317327004497602</v>
+        <v>0.06521357722175092</v>
       </c>
       <c r="J105" t="n">
-        <v>0.0274745009805912</v>
+        <v>0.03057206228629565</v>
       </c>
       <c r="K105" t="n">
-        <v>0.0313761097441943</v>
+        <v>0.06566742355808261</v>
       </c>
       <c r="L105" t="n">
-        <v>0.07072881256200625</v>
+        <v>0.07662308730026188</v>
       </c>
       <c r="M105" t="n">
-        <v>0.0311585531735246</v>
+        <v>0.06571596513816347</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1134676883636163</v>
+        <v>0.1234272602633402</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03102653519202034</v>
+        <v>0.0655759413494687</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.0429198206368516</v>
+        <v>0.02305962005233364</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02375260179610042</v>
+        <v>0.06684391665229469</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02813300152202636</v>
+        <v>0.03046739497215084</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03216051248779916</v>
+        <v>0.06730910914703467</v>
       </c>
       <c r="L106" t="n">
-        <v>0.07132288345100349</v>
+        <v>0.07706231837552022</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03193751700286272</v>
+        <v>0.06735886426661755</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1152935003063528</v>
+        <v>0.1229912288210774</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03180219857182084</v>
+        <v>0.06721533988320541</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.04342369298099648</v>
+        <v>0.02395276080679026</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02433193354722482</v>
+        <v>0.06847425608283846</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02827348041116412</v>
+        <v>0.03034977135043214</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03294491523140402</v>
+        <v>0.06895079473598674</v>
       </c>
       <c r="L107" t="n">
-        <v>0.07247544929107522</v>
+        <v>0.07636836457226126</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03271648083220083</v>
+        <v>0.06900176339507165</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1162566963748468</v>
+        <v>0.1229039285516176</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03257786195162135</v>
+        <v>0.06885473841694212</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.043892621670333</v>
+        <v>0.0228375264579706</v>
       </c>
       <c r="G108" t="n">
-        <v>0.02491126529834922</v>
+        <v>0.07010459551338223</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02879505243554067</v>
+        <v>0.03002047454186726</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03372931797500887</v>
+        <v>0.07059248032493881</v>
       </c>
       <c r="L108" t="n">
-        <v>0.07268501654312637</v>
+        <v>0.0759444771595926</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03349544466153895</v>
+        <v>0.07064466252352572</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1171549780844274</v>
+        <v>0.1223705427503839</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03335352533142186</v>
+        <v>0.07049413695067884</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.0443259107609688</v>
+        <v>0.0227149550462334</v>
       </c>
       <c r="G109" t="n">
-        <v>0.02549059704947362</v>
+        <v>0.07173493494392601</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02899683238269225</v>
+        <v>0.02998078766718397</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03451372071861373</v>
+        <v>0.07223416591389087</v>
       </c>
       <c r="L109" t="n">
-        <v>0.07355009166806184</v>
+        <v>0.07609390740662164</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03427440849087706</v>
+        <v>0.07228756165197982</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1177860469504232</v>
+        <v>0.1215962547127991</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03412918871122237</v>
+        <v>0.07213353548441556</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.04472286430901143</v>
+        <v>0.02358608461193737</v>
       </c>
       <c r="G110" t="n">
-        <v>0.02606992880059802</v>
+        <v>0.07336527437446978</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02917793504015506</v>
+        <v>0.02963199384711004</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03529812346221859</v>
+        <v>0.07387585150284293</v>
       </c>
       <c r="L110" t="n">
-        <v>0.07466918112678653</v>
+        <v>0.07531990658245588</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03505337232021517</v>
+        <v>0.0739304607804339</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1195476044881635</v>
+        <v>0.1205862477342864</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03490485209102288</v>
+        <v>0.07377293401815228</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.04508278637056849</v>
+        <v>0.02445195319544122</v>
       </c>
       <c r="G111" t="n">
-        <v>0.02664926055172243</v>
+        <v>0.07499561380501356</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02933747519546535</v>
+        <v>0.02947537620237321</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03608252620582345</v>
+        <v>0.07551753709179498</v>
       </c>
       <c r="L111" t="n">
-        <v>0.07454079138020531</v>
+        <v>0.07512572595620284</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03583233614955329</v>
+        <v>0.07557335990888799</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1198373522129774</v>
+        <v>0.1199457051102688</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03568051547082338</v>
+        <v>0.07541233255188899</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.04540498100174759</v>
+        <v>0.02231359883710365</v>
       </c>
       <c r="G112" t="n">
-        <v>0.02722859230284682</v>
+        <v>0.07662595323555733</v>
       </c>
       <c r="J112" t="n">
-        <v>0.0298745676361593</v>
+        <v>0.02931221785370122</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03686692894942831</v>
+        <v>0.07715922268074706</v>
       </c>
       <c r="L112" t="n">
-        <v>0.07516342888922312</v>
+        <v>0.07441461679696995</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03661129997889141</v>
+        <v>0.07721625903734208</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1203529916401937</v>
+        <v>0.1187798101361691</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03645617885062389</v>
+        <v>0.07705173108562571</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.0456887522586563</v>
+        <v>0.02317205957728342</v>
       </c>
       <c r="G113" t="n">
-        <v>0.02780792405397123</v>
+        <v>0.07825629266610111</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02998832714977315</v>
+        <v>0.02934380192182183</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03765133169303316</v>
+        <v>0.07880090826969913</v>
       </c>
       <c r="L113" t="n">
-        <v>0.07593560011474471</v>
+        <v>0.07428983037386469</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03739026380822952</v>
+        <v>0.07885915816579615</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1211922242851415</v>
+        <v>0.1185937461074105</v>
       </c>
       <c r="O113" t="n">
-        <v>0.0372318422304244</v>
+        <v>0.07869112961936243</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.04594047271283666</v>
+        <v>0.02402837345633921</v>
       </c>
       <c r="G114" t="n">
-        <v>0.02838725580509563</v>
+        <v>0.07988663209664489</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03027786852384308</v>
+        <v>0.02897141152746281</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03843573443663802</v>
+        <v>0.08044259385865118</v>
       </c>
       <c r="L114" t="n">
-        <v>0.07595581151767511</v>
+        <v>0.07335461795599452</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03816922763756764</v>
+        <v>0.08050205729425025</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1229527516631498</v>
+        <v>0.1179926963194159</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03800750561022491</v>
+        <v>0.08033052815309916</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.04618653464303757</v>
+        <v>0.02188357851462974</v>
       </c>
       <c r="G115" t="n">
-        <v>0.02896658755622003</v>
+        <v>0.08151697152718866</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03024230654590535</v>
+        <v>0.02909632979135189</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03922013718024288</v>
+        <v>0.08208427944760326</v>
       </c>
       <c r="L115" t="n">
-        <v>0.07692256955891916</v>
+        <v>0.07341223081246695</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03894819146690575</v>
+        <v>0.08214495642270432</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1233322752895477</v>
+        <v>0.1178818440676084</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03878316899002542</v>
+        <v>0.08196992668683586</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.04642944802184718</v>
+        <v>0.02273871279251374</v>
       </c>
       <c r="G116" t="n">
-        <v>0.02954591930734443</v>
+        <v>0.08314731095773242</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03028075600349617</v>
+        <v>0.02871983983421685</v>
       </c>
       <c r="K116" t="n">
-        <v>0.04000453992384773</v>
+        <v>0.08372596503655533</v>
       </c>
       <c r="L116" t="n">
-        <v>0.07733438069938173</v>
+        <v>0.07296592021238946</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03972715529624387</v>
+        <v>0.08378785555115842</v>
       </c>
       <c r="N116" t="n">
-        <v>0.123528496679664</v>
+        <v>0.1168663726474108</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03955883236982593</v>
+        <v>0.08360932522057259</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.04666913769627773</v>
+        <v>0.02159481433034993</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03012525105846883</v>
+        <v>0.08477765038827619</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03059233168415172</v>
+        <v>0.02854322477678541</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04078894266745259</v>
+        <v>0.08536765062550739</v>
       </c>
       <c r="L117" t="n">
-        <v>0.07708975139996777</v>
+        <v>0.0726189374248695</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04050611912558198</v>
+        <v>0.08543075467961252</v>
       </c>
       <c r="N117" t="n">
-        <v>0.124139117348828</v>
+        <v>0.1155514653542463</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04033449574962644</v>
+        <v>0.08524872375430931</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.04690552851334139</v>
+        <v>0.02345135890410352</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03070458280959323</v>
+        <v>0.08640798981881996</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03077614837540829</v>
+        <v>0.02846776773978536</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04157334541105745</v>
+        <v>0.08700933621445946</v>
       </c>
       <c r="L118" t="n">
-        <v>0.07748718812158215</v>
+        <v>0.07207453371901454</v>
       </c>
       <c r="M118" t="n">
-        <v>0.0412850829549201</v>
+        <v>0.08707365380806659</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1247618388123685</v>
+        <v>0.1149423054835378</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04111015912942694</v>
+        <v>0.08688812228804603</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.04713854532005039</v>
+        <v>0.02229085075938177</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03128391456071763</v>
+        <v>0.08803832924936374</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03085879909152003</v>
+        <v>0.0282929590844239</v>
       </c>
       <c r="K119" t="n">
-        <v>0.0423577481546623</v>
+        <v>0.08865102180341151</v>
       </c>
       <c r="L119" t="n">
-        <v>0.07762519732512971</v>
+        <v>0.07113387645642114</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04206404678425821</v>
+        <v>0.08871655293652068</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1239943625856146</v>
+        <v>0.1147253673010867</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04188582250922745</v>
+        <v>0.08852752082178274</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.04736811296341698</v>
+        <v>0.02111078390901105</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03186324631184203</v>
+        <v>0.08966866867990751</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03065696393986919</v>
+        <v>0.02809743642718997</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04314215089826717</v>
+        <v>0.09029270739236357</v>
       </c>
       <c r="L120" t="n">
-        <v>0.07801923322544491</v>
+        <v>0.07134629488333036</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04284301061359633</v>
+        <v>0.09035945206497477</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1251796673593698</v>
+        <v>0.1138123791460302</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04266148588902796</v>
+        <v>0.09016691935551946</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.04759415629045338</v>
+        <v>0.02291454041256244</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03244257806296643</v>
+        <v>0.09129900811045129</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03055639660223206</v>
+        <v>0.02767789543111221</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04392655364187202</v>
+        <v>0.09193439298131564</v>
       </c>
       <c r="L121" t="n">
-        <v>0.07761815350155779</v>
+        <v>0.07039677202227645</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04362197444293444</v>
+        <v>0.09200235119342885</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1244796365092499</v>
+        <v>0.1124056236974946</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04343714926882847</v>
+        <v>0.09180631788925617</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.04781660014817178</v>
+        <v>0.02170550232960702</v>
       </c>
       <c r="G122" t="n">
-        <v>0.03302190981409083</v>
+        <v>0.09292934754099506</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03074362240149135</v>
+        <v>0.02773851665689976</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04471095638547688</v>
+        <v>0.09357607857026772</v>
       </c>
       <c r="L122" t="n">
-        <v>0.07769527803480958</v>
+        <v>0.07009590089665285</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04440093827227256</v>
+        <v>0.09364525032188294</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1244442705303492</v>
+        <v>0.1112219887515545</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04421281264862898</v>
+        <v>0.09344571642299289</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.04803536938358445</v>
+        <v>0.02248705171971591</v>
       </c>
       <c r="G123" t="n">
-        <v>0.03360124156521523</v>
+        <v>0.09455968697153884</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03082022457996629</v>
+        <v>0.02718348066526174</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04549535912908174</v>
+        <v>0.09521776415921977</v>
       </c>
       <c r="L123" t="n">
-        <v>0.07784355095176285</v>
+        <v>0.06915427452985282</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04517990210161067</v>
+        <v>0.09528814945033702</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1249442073763748</v>
+        <v>0.1106783621042844</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04498847602842949</v>
+        <v>0.0950851149567296</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.04825038884370354</v>
+        <v>0.02026257064246015</v>
       </c>
       <c r="G124" t="n">
-        <v>0.03418057331633963</v>
+        <v>0.09619002640208262</v>
       </c>
       <c r="J124" t="n">
-        <v>0.0304866336016251</v>
+        <v>0.02721696801690736</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04627976187268659</v>
+        <v>0.09685944974817184</v>
       </c>
       <c r="L124" t="n">
-        <v>0.07736412965243253</v>
+        <v>0.06828248594526978</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04595886593094878</v>
+        <v>0.09693104857879112</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1236823701103353</v>
+        <v>0.1092916315517588</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04576413940822999</v>
+        <v>0.09672451349046632</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.04846158337554131</v>
+        <v>0.02103544115741085</v>
       </c>
       <c r="G125" t="n">
-        <v>0.03475990506746403</v>
+        <v>0.09782036583262638</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03054327993043596</v>
+        <v>0.02694315927254569</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04706416461629145</v>
+        <v>0.0985011353371239</v>
       </c>
       <c r="L125" t="n">
-        <v>0.07735817153683341</v>
+        <v>0.067891128166297</v>
       </c>
       <c r="M125" t="n">
-        <v>0.0467378297602869</v>
+        <v>0.0985739477072452</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1245616817952389</v>
+        <v>0.1086786848900522</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04653980278803051</v>
+        <v>0.09836391202420304</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.04866887782611</v>
+        <v>0.02180904532413909</v>
       </c>
       <c r="G126" t="n">
-        <v>0.03533923681858844</v>
+        <v>0.09945070526317015</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03049059403036708</v>
+        <v>0.02656623499288591</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04784856735989631</v>
+        <v>0.100142820926076</v>
       </c>
       <c r="L126" t="n">
-        <v>0.0775268340049805</v>
+        <v>0.06689079421632788</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04751679358962502</v>
+        <v>0.1002168468356993</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1235850654940944</v>
+        <v>0.1074564099152391</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04731546616783101</v>
+        <v>0.1000033105579398</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.04887219704242182</v>
+        <v>0.01958676520221592</v>
       </c>
       <c r="G127" t="n">
-        <v>0.03591856856971283</v>
+        <v>0.1010810446937139</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03032900636538668</v>
+        <v>0.02619037573863714</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04863297010350116</v>
+        <v>0.101784506515028</v>
       </c>
       <c r="L127" t="n">
-        <v>0.0773712744568886</v>
+        <v>0.06679207711875568</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04829575741896314</v>
+        <v>0.1018597459641534</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1231554442699102</v>
+        <v>0.106241694423394</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04809112954763152</v>
+        <v>0.1016427090916765</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.04907146587148896</v>
+        <v>0.02037198285121249</v>
       </c>
       <c r="G128" t="n">
-        <v>0.03649790032083724</v>
+        <v>0.1027113841242577</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03055894739946292</v>
+        <v>0.0258197620705086</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04941737284710603</v>
+        <v>0.1034261921039801</v>
       </c>
       <c r="L128" t="n">
-        <v>0.07679265029257257</v>
+        <v>0.06590556989697383</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04907472124830124</v>
+        <v>0.1035026450926075</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1228757411856947</v>
+        <v>0.1050514262105916</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04886679292743203</v>
+        <v>0.1032821076254132</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.04926660916032366</v>
+        <v>0.0211670448995163</v>
       </c>
       <c r="G129" t="n">
-        <v>0.03707723207196163</v>
+        <v>0.1043417235548015</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03018084759656407</v>
+        <v>0.02585857454920931</v>
       </c>
       <c r="K129" t="n">
-        <v>0.05020177559071088</v>
+        <v>0.1050678776929322</v>
       </c>
       <c r="L129" t="n">
-        <v>0.07649211891204732</v>
+        <v>0.06494186557437559</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04985368507763936</v>
+        <v>0.1051455442210616</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1230488793044567</v>
+        <v>0.1041024930729061</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04964245630723254</v>
+        <v>0.1049215061591499</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.04945755175593815</v>
+        <v>0.02095029640830723</v>
       </c>
       <c r="G130" t="n">
-        <v>0.03765656382308603</v>
+        <v>0.1059720629853452</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03039513742065827</v>
+        <v>0.02530892091275229</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05098617833431574</v>
+        <v>0.1067095632818842</v>
       </c>
       <c r="L130" t="n">
-        <v>0.07637083771532771</v>
+        <v>0.06410919690376604</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05063264890697747</v>
+        <v>0.1067884433495156</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1218777816892044</v>
+        <v>0.1032897515287983</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05041811968703305</v>
+        <v>0.1065609046928866</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.04964421850534464</v>
+        <v>0.02071551506600956</v>
       </c>
       <c r="G131" t="n">
-        <v>0.03823589557421044</v>
+        <v>0.107602402415889</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03010224733571375</v>
+        <v>0.02514293876305394</v>
       </c>
       <c r="K131" t="n">
-        <v>0.0517705810779206</v>
+        <v>0.1083512488708363</v>
       </c>
       <c r="L131" t="n">
-        <v>0.07612996410242862</v>
+        <v>0.06384246478039268</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05141161273631559</v>
+        <v>0.1084313424779697</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1219653714029465</v>
+        <v>0.1014941079557321</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05119378306683355</v>
+        <v>0.1082003032266233</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.04982653425555535</v>
+        <v>0.01846754229189007</v>
       </c>
       <c r="G132" t="n">
-        <v>0.03881522732533484</v>
+        <v>0.1092327418464328</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02990260780569873</v>
+        <v>0.02495526245703146</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05255498382152545</v>
+        <v>0.1099929344597883</v>
       </c>
       <c r="L132" t="n">
-        <v>0.07587065547336494</v>
+        <v>0.06331931322953532</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05219057656565371</v>
+        <v>0.1100742416064238</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1205145715086914</v>
+        <v>0.1002151918683155</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05196944644663406</v>
+        <v>0.1098397017603601</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.05000442385358249</v>
+        <v>0.01921121950521557</v>
       </c>
       <c r="G133" t="n">
-        <v>0.03939455907645924</v>
+        <v>0.1108630812769766</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02989664929458136</v>
+        <v>0.02475187646856464</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05333938656513032</v>
+        <v>0.1116346200487404</v>
       </c>
       <c r="L133" t="n">
-        <v>0.07589406922815153</v>
+        <v>0.06205490616728476</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05296954039499182</v>
+        <v>0.1117171407348779</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1199283050694477</v>
+        <v>0.09967717815157651</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05274510982643457</v>
+        <v>0.1114791002940968</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.05017781214643832</v>
+        <v>0.01995138812525283</v>
       </c>
       <c r="G134" t="n">
-        <v>0.03997389082758364</v>
+        <v>0.1124934207075203</v>
       </c>
       <c r="J134" t="n">
-        <v>0.0298848022663299</v>
+        <v>0.0241387652715333</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05412378930873517</v>
+        <v>0.1132763056376925</v>
       </c>
       <c r="L134" t="n">
-        <v>0.07540136276680326</v>
+        <v>0.06116440750973176</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05374850422432994</v>
+        <v>0.113360039863332</v>
       </c>
       <c r="N134" t="n">
-        <v>0.119409495148224</v>
+        <v>0.09880424169054319</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05352077320623507</v>
+        <v>0.1131184988278335</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.05034662398113503</v>
+        <v>0.01769288957126863</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04055322257870803</v>
+        <v>0.1141237601380641</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02966749718491253</v>
+        <v>0.02382191333981734</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05490819205234002</v>
+        <v>0.1149179912266445</v>
       </c>
       <c r="L135" t="n">
-        <v>0.07539369348933508</v>
+        <v>0.06036298117296718</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05452746805366805</v>
+        <v>0.1150029389917861</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1189610648080285</v>
+        <v>0.09742055737024347</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05429643658603558</v>
+        <v>0.1147578973615702</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.05051078420468483</v>
+        <v>0.01944056526252976</v>
       </c>
       <c r="G136" t="n">
-        <v>0.04113255432983244</v>
+        <v>0.1157540995686079</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02964516451429747</v>
+        <v>0.02380730514729655</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05569259479594488</v>
+        <v>0.1165596768155966</v>
       </c>
       <c r="L136" t="n">
-        <v>0.07487221879576172</v>
+        <v>0.05956579107308185</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05530643188300617</v>
+        <v>0.1166458381202402</v>
       </c>
       <c r="N136" t="n">
-        <v>0.11818593711187</v>
+        <v>0.09545030007570521</v>
       </c>
       <c r="O136" t="n">
-        <v>0.0550720999658361</v>
+        <v>0.1163972958953069</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.05067021766409997</v>
+        <v>0.01919925661830301</v>
       </c>
       <c r="G137" t="n">
-        <v>0.04171188608095684</v>
+        <v>0.1173844389991517</v>
       </c>
       <c r="J137" t="n">
-        <v>0.0295182347184529</v>
+        <v>0.02340092516785081</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05647699753954974</v>
+        <v>0.1182013624045487</v>
       </c>
       <c r="L137" t="n">
-        <v>0.07423809608609819</v>
+        <v>0.05948800112616653</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05608539571234428</v>
+        <v>0.1182887372486942</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1172870351227569</v>
+        <v>0.09491764469195657</v>
       </c>
       <c r="O137" t="n">
-        <v>0.0558477633456366</v>
+        <v>0.1180366944290437</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.05082484920639264</v>
+        <v>0.01797380505785516</v>
       </c>
       <c r="G138" t="n">
-        <v>0.04229121783208124</v>
+        <v>0.1190147784296954</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02928713826134702</v>
+        <v>0.02300875787535993</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05726140028315461</v>
+        <v>0.1198430479935007</v>
       </c>
       <c r="L138" t="n">
-        <v>0.07429248276035927</v>
+        <v>0.05834477524831205</v>
       </c>
       <c r="M138" t="n">
-        <v>0.0568643595416824</v>
+        <v>0.1199316363771483</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1166672819036977</v>
+        <v>0.09344676610402536</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05662342672543711</v>
+        <v>0.1196760929627804</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.05097460367857509</v>
+        <v>0.01676905200045301</v>
       </c>
       <c r="G139" t="n">
-        <v>0.04287054958320564</v>
+        <v>0.1206451178602392</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02935230560694804</v>
+        <v>0.02283678774370376</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05804580302675946</v>
+        <v>0.1214847335824528</v>
       </c>
       <c r="L139" t="n">
-        <v>0.07383653621855996</v>
+        <v>0.0577512773556092</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05764332337102052</v>
+        <v>0.1215745355056024</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1160296005177009</v>
+        <v>0.09186183919693969</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05739909010523762</v>
+        <v>0.1213154914965171</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.05111940592765953</v>
+        <v>0.01758983886536333</v>
       </c>
       <c r="G140" t="n">
-        <v>0.04344988133433004</v>
+        <v>0.122275457290783</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02911416721922419</v>
+        <v>0.02269099924676214</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05883020577036431</v>
+        <v>0.1231264191714049</v>
       </c>
       <c r="L140" t="n">
-        <v>0.07377141386071501</v>
+        <v>0.05672267136414882</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05842228720035863</v>
+        <v>0.1232174346340565</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1151769140277752</v>
+        <v>0.09178703885572742</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05817475348503812</v>
+        <v>0.1229548900302538</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.05125918080065817</v>
+        <v>0.01644100707185292</v>
       </c>
       <c r="G141" t="n">
-        <v>0.04402921308545444</v>
+        <v>0.1239057967213267</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02907315356214364</v>
+        <v>0.0222773768584149</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05961460851396918</v>
+        <v>0.1247681047603569</v>
       </c>
       <c r="L141" t="n">
-        <v>0.07279827308683934</v>
+        <v>0.0567741211900217</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05920125102969673</v>
+        <v>0.1248603337625106</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1152121454969288</v>
+        <v>0.09004653996541656</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05895041686483864</v>
+        <v>0.1245942885639905</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.05139385314458324</v>
+        <v>0.01632739803918854</v>
       </c>
       <c r="G142" t="n">
-        <v>0.04460854483657884</v>
+        <v>0.1255361361518705</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02892969509967459</v>
+        <v>0.02230190505254191</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06039901125757403</v>
+        <v>0.126409790349309</v>
       </c>
       <c r="L142" t="n">
-        <v>0.07281827129694785</v>
+        <v>0.05582079074931864</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05998021485903486</v>
+        <v>0.1265032328909647</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1140382179881704</v>
+        <v>0.08986451741103507</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05972608024463915</v>
+        <v>0.1262336870977273</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.05152334780644695</v>
+        <v>0.018253853186637</v>
       </c>
       <c r="G143" t="n">
-        <v>0.04518787658770324</v>
+        <v>0.1271664755824143</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02858422229578526</v>
+        <v>0.02207056830302298</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06118341400117888</v>
+        <v>0.1280514759382611</v>
       </c>
       <c r="L143" t="n">
-        <v>0.07233256589105541</v>
+        <v>0.05557784395813045</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06075917868837297</v>
+        <v>0.1281461320194188</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1129580545645085</v>
+        <v>0.089665146077611</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06050174362443965</v>
+        <v>0.127873085631464</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.05164758963326153</v>
+        <v>0.01722521393346509</v>
       </c>
       <c r="G144" t="n">
-        <v>0.04576720833882764</v>
+        <v>0.1287968150129581</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02863716561444386</v>
+        <v>0.02178935108373796</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06196781674478374</v>
+        <v>0.1296931615272131</v>
       </c>
       <c r="L144" t="n">
-        <v>0.07184231426917684</v>
+        <v>0.05576044473254796</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06153814251771108</v>
+        <v>0.1297890311478729</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1131745782889516</v>
+        <v>0.08937260085017223</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06127740700424016</v>
+        <v>0.1295124841652007</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.05176650347203922</v>
+        <v>0.01822798019381407</v>
       </c>
       <c r="G145" t="n">
-        <v>0.04634654008995204</v>
+        <v>0.1304271544435018</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02838895551961859</v>
+        <v>0.02176406989557955</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06275221948838861</v>
+        <v>0.1313348471161652</v>
       </c>
       <c r="L145" t="n">
-        <v>0.07164867383132709</v>
+        <v>0.05578375698866195</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06231710634704921</v>
+        <v>0.1314319302763269</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1118907122245082</v>
+        <v>0.08860455644412146</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06205307038404068</v>
+        <v>0.1311518826989374</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.05188001416979221</v>
+        <v>0.01823792079082884</v>
       </c>
       <c r="G146" t="n">
-        <v>0.04692587184107645</v>
+        <v>0.1320574938740456</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02824002247527764</v>
+        <v>0.02196918635709318</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06353662223199347</v>
+        <v>0.1329765327051173</v>
       </c>
       <c r="L146" t="n">
-        <v>0.07105280197752101</v>
+        <v>0.05539475888731221</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06309607017638731</v>
+        <v>0.133074829404781</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1104093794341868</v>
+        <v>0.08913109603999825</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06282873376384117</v>
+        <v>0.1327912812326741</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.05198804657353273</v>
+        <v>0.01725450113636651</v>
       </c>
       <c r="G147" t="n">
-        <v>0.04750520359220084</v>
+        <v>0.1336878333045894</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02809079694538921</v>
+        <v>0.02188281210146509</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06432102497559831</v>
+        <v>0.1346182182940693</v>
       </c>
       <c r="L147" t="n">
-        <v>0.07105585610777346</v>
+        <v>0.05562740791694948</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06387503400572543</v>
+        <v>0.1347177285332351</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1105335029809959</v>
+        <v>0.08869176527597872</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06360439714364169</v>
+        <v>0.1344306797664108</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.05209052553027299</v>
+        <v>0.01627736548470293</v>
       </c>
       <c r="G148" t="n">
-        <v>0.04808453534332524</v>
+        <v>0.1353181727351332</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02784170939392153</v>
+        <v>0.02210450739173452</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06510542771920318</v>
+        <v>0.1362599038830214</v>
       </c>
       <c r="L148" t="n">
-        <v>0.07055899362209936</v>
+        <v>0.05518058536937459</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06465399783506355</v>
+        <v>0.1363606276616892</v>
       </c>
       <c r="N148" t="n">
-        <v>0.109666005927944</v>
+        <v>0.08898478779031715</v>
       </c>
       <c r="O148" t="n">
-        <v>0.0643800605234422</v>
+        <v>0.1360700783001475</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.05218737588702524</v>
+        <v>0.01730615809011394</v>
       </c>
       <c r="G149" t="n">
-        <v>0.04866386709444964</v>
+        <v>0.1369485121656769</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02789319028484279</v>
+        <v>0.02213383249094074</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06588983046280804</v>
+        <v>0.1379015894719735</v>
       </c>
       <c r="L149" t="n">
-        <v>0.06966337192051353</v>
+        <v>0.05525317700555685</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06543296166440166</v>
+        <v>0.1380035267901433</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1081098113380398</v>
+        <v>0.08870838722126778</v>
       </c>
       <c r="O149" t="n">
-        <v>0.0651557239032427</v>
+        <v>0.1377094768338842</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.05227852249080167</v>
+        <v>0.01734052320687541</v>
       </c>
       <c r="G150" t="n">
-        <v>0.04924319884557404</v>
+        <v>0.1385788515962207</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02754567008212117</v>
+        <v>0.02187034766212301</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06667423320641289</v>
+        <v>0.1395432750609255</v>
       </c>
       <c r="L150" t="n">
-        <v>0.06937014840303088</v>
+        <v>0.05584406858646568</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06621192549373978</v>
+        <v>0.1396464259185974</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1074678422742915</v>
+        <v>0.08896078720708489</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06593138728304321</v>
+        <v>0.139348875367621</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.05236389018861452</v>
+        <v>0.01638010508926317</v>
       </c>
       <c r="G151" t="n">
-        <v>0.04982253059669844</v>
+        <v>0.1402091910267645</v>
       </c>
       <c r="J151" t="n">
-        <v>0.0273995792497249</v>
+        <v>0.02201361316832058</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06745863595001775</v>
+        <v>0.1411849606498776</v>
       </c>
       <c r="L151" t="n">
-        <v>0.06898048046966629</v>
+        <v>0.05545214587307046</v>
       </c>
       <c r="M151" t="n">
-        <v>0.0669908893230779</v>
+        <v>0.1412893250470514</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1071430217997079</v>
+        <v>0.08904021138602292</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06670705066284373</v>
+        <v>0.1409882739013577</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.052443403827476</v>
+        <v>0.01642454799155309</v>
       </c>
       <c r="G152" t="n">
-        <v>0.05040186234782285</v>
+        <v>0.1418395304573083</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02745534825162217</v>
+        <v>0.02216318927257274</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06824303869362261</v>
+        <v>0.1428266462388297</v>
       </c>
       <c r="L152" t="n">
-        <v>0.06879552552043458</v>
+        <v>0.05567629462634052</v>
       </c>
       <c r="M152" t="n">
-        <v>0.067769853152416</v>
+        <v>0.1429322241755056</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1070382729772972</v>
+        <v>0.09034488339633601</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06748271404264422</v>
+        <v>0.1426276724350944</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.05251698825439832</v>
+        <v>0.01847349616802102</v>
       </c>
       <c r="G153" t="n">
-        <v>0.05098119409894725</v>
+        <v>0.143469869887852</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02701340755178121</v>
+        <v>0.02231863623791873</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06902744143722746</v>
+        <v>0.1444683318277817</v>
       </c>
       <c r="L153" t="n">
-        <v>0.06861644095535072</v>
+        <v>0.05621540060724528</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06854881698175412</v>
+        <v>0.1445751233039596</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1057565188700683</v>
+        <v>0.08937302687627852</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06825837742244474</v>
+        <v>0.1442670709688311</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.05258456831639373</v>
+        <v>0.0175265938729428</v>
       </c>
       <c r="G154" t="n">
-        <v>0.05156052585007165</v>
+        <v>0.1451002093183958</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02687418761417018</v>
+        <v>0.02237951432739783</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06981184418083232</v>
+        <v>0.1461100174167338</v>
       </c>
       <c r="L154" t="n">
-        <v>0.0679443841744295</v>
+        <v>0.05636834957675413</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06932778081109224</v>
+        <v>0.1462180224324137</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1048006825410293</v>
+        <v>0.0900228654641046</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06903404080224525</v>
+        <v>0.1459064695025678</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.05264606886047445</v>
+        <v>0.01758348536059429</v>
       </c>
       <c r="G155" t="n">
-        <v>0.05213985760119605</v>
+        <v>0.1467305487489396</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02693811890275731</v>
+        <v>0.02224538380404927</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07059624692443718</v>
+        <v>0.1477517030056859</v>
       </c>
       <c r="L155" t="n">
-        <v>0.06798051257768589</v>
+        <v>0.05643402729583641</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07010674464043035</v>
+        <v>0.1478609215608678</v>
       </c>
       <c r="N155" t="n">
-        <v>0.104373687053189</v>
+        <v>0.09029262279806871</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06980970418204575</v>
+        <v>0.1475458680363046</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.05270141473365267</v>
+        <v>0.01664381488525133</v>
       </c>
       <c r="G156" t="n">
-        <v>0.05271918935232045</v>
+        <v>0.1483608881794833</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02680563188151081</v>
+        <v>0.02251580493091235</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07138064966804204</v>
+        <v>0.1493933885946379</v>
       </c>
       <c r="L156" t="n">
-        <v>0.06762598356513469</v>
+        <v>0.05691131952546152</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07088570846976847</v>
+        <v>0.1495038206893219</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1040784554695558</v>
+        <v>0.09138052251642503</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07058536756184626</v>
+        <v>0.1491852665700413</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.05275053078294062</v>
+        <v>0.01872910673794018</v>
       </c>
       <c r="G157" t="n">
-        <v>0.05329852110344485</v>
+        <v>0.1499912276100271</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02677715701439887</v>
+        <v>0.02249075203561859</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07216505241164689</v>
+        <v>0.15103507418359</v>
       </c>
       <c r="L157" t="n">
-        <v>0.06658195453679075</v>
+        <v>0.05689916937022896</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07166467229910659</v>
+        <v>0.151146719817776</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1040179108531383</v>
+        <v>0.09119474283694395</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07136103094164677</v>
+        <v>0.150824665103778</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.05279334185535055</v>
+        <v>0.01687128701210414</v>
       </c>
       <c r="G158" t="n">
-        <v>0.05387785285456925</v>
+        <v>0.1516215670405709</v>
       </c>
       <c r="J158" t="n">
-        <v>0.0265513473313686</v>
+        <v>0.02261326142875233</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07294945515525175</v>
+        <v>0.1526767597725421</v>
       </c>
       <c r="L158" t="n">
-        <v>0.06694330785537703</v>
+        <v>0.05679430522461068</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07244363612844469</v>
+        <v>0.1527896189462301</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1033854247987412</v>
+        <v>0.09163485338703253</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07213669432144727</v>
+        <v>0.1524640636375147</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.05282977279789464</v>
+        <v>0.01906035310575718</v>
       </c>
       <c r="G159" t="n">
-        <v>0.05445718460569365</v>
+        <v>0.1532519064711147</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02642534007240947</v>
+        <v>0.02270305071389624</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07373385789885661</v>
+        <v>0.1543184453614941</v>
       </c>
       <c r="L159" t="n">
-        <v>0.06650001980868439</v>
+        <v>0.05716242770770347</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07322259995778281</v>
+        <v>0.1544325180746842</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1017658694758031</v>
+        <v>0.0922391972732779</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07291235770124778</v>
+        <v>0.1541034621712514</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.05285974845758512</v>
+        <v>0.01928556591411016</v>
       </c>
       <c r="G160" t="n">
-        <v>0.05503651635681805</v>
+        <v>0.1548822459016584</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02609901470512389</v>
+        <v>0.02314684529354862</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07451826064246146</v>
+        <v>0.1559601309504462</v>
       </c>
       <c r="L160" t="n">
-        <v>0.06625208845545294</v>
+        <v>0.05816990063248473</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07400156378712093</v>
+        <v>0.1560754172031382</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1021580627970107</v>
+        <v>0.09325415042197888</v>
       </c>
       <c r="O160" t="n">
-        <v>0.0736880210810483</v>
+        <v>0.1557428607049881</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.05288319368143424</v>
+        <v>0.01953618633237396</v>
       </c>
       <c r="G161" t="n">
-        <v>0.05561584810794246</v>
+        <v>0.1565125853322022</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02607229772452316</v>
+        <v>0.02343137057020775</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07530266338606632</v>
+        <v>0.1576018165393983</v>
       </c>
       <c r="L161" t="n">
-        <v>0.06589968120751863</v>
+        <v>0.05908308781193175</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07478052761645904</v>
+        <v>0.1577183163315923</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1012610475062771</v>
+        <v>0.09432608875943427</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07446368446084879</v>
+        <v>0.1573822592387249</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.05290003331645418</v>
+        <v>0.01980147525575943</v>
       </c>
       <c r="G162" t="n">
-        <v>0.05619517985906685</v>
+        <v>0.158142924762746</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02614511562561864</v>
+        <v>0.023643351946372</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07608706612967119</v>
+        <v>0.1592435021283503</v>
       </c>
       <c r="L162" t="n">
-        <v>0.06484296547671747</v>
+        <v>0.05976835305902184</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07555949144579716</v>
+        <v>0.1593612154600464</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1009738663475148</v>
+        <v>0.09650138821194282</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07523934784064931</v>
+        <v>0.1590216577724616</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.05291019220965719</v>
+        <v>0.01807069357947741</v>
       </c>
       <c r="G163" t="n">
-        <v>0.05677451161019125</v>
+        <v>0.1597732641932898</v>
       </c>
       <c r="J163" t="n">
-        <v>0.0260173949034216</v>
+        <v>0.0240695148245397</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07687146887327603</v>
+        <v>0.1608851877173024</v>
       </c>
       <c r="L163" t="n">
-        <v>0.06468210867488552</v>
+        <v>0.06029206018673228</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07633845527513528</v>
+        <v>0.1610041145885005</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1004955620646368</v>
+        <v>0.09722642470580323</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07601501122044982</v>
+        <v>0.1606610563061983</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.05291359520805546</v>
+        <v>0.0203331021987388</v>
       </c>
       <c r="G164" t="n">
-        <v>0.05735384336131565</v>
+        <v>0.1614036036238335</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02558906205294335</v>
+        <v>0.02439658460720914</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07765587161688089</v>
+        <v>0.1625268733062545</v>
       </c>
       <c r="L164" t="n">
-        <v>0.06441727821385873</v>
+        <v>0.0612205730080404</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07711741910447339</v>
+        <v>0.1626470137169546</v>
       </c>
       <c r="N164" t="n">
-        <v>0.09972517740155584</v>
+        <v>0.09864757416731429</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07679067460025034</v>
+        <v>0.162300454839935</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.05291359520805547</v>
+        <v>0.01957796200875445</v>
       </c>
       <c r="G165" t="n">
-        <v>0.05735384336131565</v>
+        <v>0.1630339430543773</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02576004356919523</v>
+        <v>0.02461128669687862</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07844027436048576</v>
+        <v>0.1641685588952065</v>
       </c>
       <c r="L165" t="n">
-        <v>0.06394864150547314</v>
+        <v>0.0618202553359235</v>
       </c>
       <c r="M165" t="n">
-        <v>0.0778963829338115</v>
+        <v>0.1642899128454086</v>
       </c>
       <c r="N165" t="n">
-        <v>0.09896175510218475</v>
+        <v>0.09951121252277484</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07756633798005083</v>
+        <v>0.1639398533736717</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.05202380009505235</v>
+        <v>0.0197945339047352</v>
       </c>
       <c r="G166" t="n">
-        <v>0.05735357483285163</v>
+        <v>0.1646642824849211</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02563026594718849</v>
+        <v>0.02480034649604652</v>
       </c>
       <c r="K166" t="n">
-        <v>0.0792246771040906</v>
+        <v>0.1658102444841586</v>
       </c>
       <c r="L166" t="n">
-        <v>0.06337636596156473</v>
+        <v>0.06305747098335887</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07867534676314962</v>
+        <v>0.1659328119738628</v>
       </c>
       <c r="N166" t="n">
-        <v>0.09860433791043627</v>
+        <v>0.1012637156984835</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07834200135985135</v>
+        <v>0.1655792519074085</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.05114393555581809</v>
+        <v>0.01998473411416191</v>
       </c>
       <c r="G167" t="n">
-        <v>0.05735330630438762</v>
+        <v>0.1662946219154648</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02519965568193451</v>
+        <v>0.02505086242355753</v>
       </c>
       <c r="K167" t="n">
-        <v>0.08000907984769547</v>
+        <v>0.1674519300731107</v>
       </c>
       <c r="L167" t="n">
-        <v>0.0637006189939695</v>
+        <v>0.06339876809022701</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07945431059248774</v>
+        <v>0.1675757111023168</v>
       </c>
       <c r="N167" t="n">
-        <v>0.09825196857022317</v>
+        <v>0.1025578957984442</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07911766473965186</v>
+        <v>0.1672186504411452</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.05027446154930705</v>
+        <v>0.01916951196178185</v>
       </c>
       <c r="G168" t="n">
-        <v>0.05735303777592359</v>
+        <v>0.1679249613460086</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02526813926844457</v>
+        <v>0.02527996216634425</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08079348259130033</v>
+        <v>0.1690936156620627</v>
       </c>
       <c r="L168" t="n">
-        <v>0.06332156801452343</v>
+        <v>0.064079489016035</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08023327442182585</v>
+        <v>0.1692186102307709</v>
       </c>
       <c r="N168" t="n">
-        <v>0.09870368982545841</v>
+        <v>0.1033827528641725</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07989332811945236</v>
+        <v>0.1688580489748819</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.04941583803458693</v>
+        <v>0.01934988177771702</v>
       </c>
       <c r="G169" t="n">
-        <v>0.05735276924745958</v>
+        <v>0.1695553007765524</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02493564320172997</v>
+        <v>0.02570337140356904</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08157788533490519</v>
+        <v>0.1707353012510148</v>
       </c>
       <c r="L169" t="n">
-        <v>0.06243938043506259</v>
+        <v>0.06464572589074896</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08101223825116395</v>
+        <v>0.170861509359225</v>
       </c>
       <c r="N169" t="n">
-        <v>0.09795854442005453</v>
+        <v>0.10388481831378</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08066899149925287</v>
+        <v>0.1704974475086186</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.04856852497061168</v>
+        <v>0.01952618423869375</v>
       </c>
       <c r="G170" t="n">
-        <v>0.05735250071899557</v>
+        <v>0.1711856402070962</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02480209397680205</v>
+        <v>0.02582151124541832</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08236228807851004</v>
+        <v>0.1723769868399669</v>
       </c>
       <c r="L170" t="n">
-        <v>0.06215422366742293</v>
+        <v>0.06499854575545899</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08179120208050208</v>
+        <v>0.1725044084876791</v>
       </c>
       <c r="N170" t="n">
-        <v>0.09691557509792459</v>
+        <v>0.1049657932642815</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08144465487905339</v>
+        <v>0.1721368460423553</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.04773298231637321</v>
+        <v>0.02069876002143829</v>
       </c>
       <c r="G171" t="n">
-        <v>0.05735223219053155</v>
+        <v>0.1728159796376399</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02466741808867209</v>
+        <v>0.02613480280207849</v>
       </c>
       <c r="K171" t="n">
-        <v>0.0831466908221149</v>
+        <v>0.1740186724289189</v>
       </c>
       <c r="L171" t="n">
-        <v>0.06146626512344047</v>
+        <v>0.06553901565125506</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08257016590984019</v>
+        <v>0.1741473076161332</v>
       </c>
       <c r="N171" t="n">
-        <v>0.09637382460298122</v>
+        <v>0.1049273788326917</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08222031825885388</v>
+        <v>0.1737762445760921</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.04690967003082802</v>
+        <v>0.01986794980267697</v>
       </c>
       <c r="G172" t="n">
-        <v>0.05735196366206752</v>
+        <v>0.1744463190681837</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02463154203235141</v>
+        <v>0.02604366718373598</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08393109356571976</v>
+        <v>0.175660358017871</v>
       </c>
       <c r="L172" t="n">
-        <v>0.06137567221495124</v>
+        <v>0.06596820261922723</v>
       </c>
       <c r="M172" t="n">
-        <v>0.0833491297391783</v>
+        <v>0.1757902067445873</v>
       </c>
       <c r="N172" t="n">
-        <v>0.09693233567913734</v>
+        <v>0.1057712761360249</v>
       </c>
       <c r="O172" t="n">
-        <v>0.0829959816386544</v>
+        <v>0.1754156431098288</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.04609904807303976</v>
+        <v>0.02103409425913605</v>
       </c>
       <c r="G173" t="n">
-        <v>0.05735169513360351</v>
+        <v>0.1760766584987275</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02459439230285133</v>
+        <v>0.0262485255005772</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08471549630932461</v>
+        <v>0.177302043606823</v>
       </c>
       <c r="L173" t="n">
-        <v>0.06108261235379117</v>
+        <v>0.06698717370046542</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08412809356851643</v>
+        <v>0.1774331058730414</v>
       </c>
       <c r="N173" t="n">
-        <v>0.09549015107030567</v>
+        <v>0.1070991862912962</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08377164501845491</v>
+        <v>0.1770550416435655</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.04530157640196433</v>
+        <v>0.02019753406754185</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0573514266051395</v>
+        <v>0.1777069979292713</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02455589539518314</v>
+        <v>0.0264497988627886</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08549989905292947</v>
+        <v>0.1789437291957751</v>
       </c>
       <c r="L174" t="n">
-        <v>0.06038725295179634</v>
+        <v>0.0675969959360597</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08490705739785454</v>
+        <v>0.1790760050014955</v>
       </c>
       <c r="N174" t="n">
-        <v>0.09524631352039897</v>
+        <v>0.1079128104155199</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08454730839825542</v>
+        <v>0.1786944401773022</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.04451771497659369</v>
+        <v>0.02035860990462064</v>
       </c>
       <c r="G175" t="n">
-        <v>0.05735115807667548</v>
+        <v>0.179337337359815</v>
       </c>
       <c r="J175" t="n">
-        <v>0.0241159778043582</v>
+        <v>0.02674790838055655</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08628430179653433</v>
+        <v>0.1805854147847271</v>
       </c>
       <c r="L175" t="n">
-        <v>0.0604897614208027</v>
+        <v>0.06749873636710005</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08568602122719265</v>
+        <v>0.1807189041299495</v>
       </c>
       <c r="N175" t="n">
-        <v>0.09539986577333021</v>
+        <v>0.1094138496257109</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08532297177805592</v>
+        <v>0.1803338387110389</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.04374792375588667</v>
+        <v>0.02151766244709874</v>
       </c>
       <c r="G176" t="n">
-        <v>0.05735088954821146</v>
+        <v>0.1809676767903588</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02417456602538774</v>
+        <v>0.02694327516406753</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08706870454013918</v>
+        <v>0.1822271003736792</v>
       </c>
       <c r="L176" t="n">
-        <v>0.06019030517264626</v>
+        <v>0.06849346203467646</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08646498505653077</v>
+        <v>0.1823618032584036</v>
       </c>
       <c r="N176" t="n">
-        <v>0.09444985057301197</v>
+        <v>0.1099040050388839</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08609863515785643</v>
+        <v>0.1819732372447756</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.04299266269890224</v>
+        <v>0.02267503237170244</v>
       </c>
       <c r="G177" t="n">
-        <v>0.05735062101974744</v>
+        <v>0.1825980162209026</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02393158655328315</v>
+        <v>0.02713632032350792</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08785310728374404</v>
+        <v>0.1838687859626313</v>
       </c>
       <c r="L177" t="n">
-        <v>0.05948905161916304</v>
+        <v>0.06858223997987897</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08724394888586888</v>
+        <v>0.1840047023868577</v>
       </c>
       <c r="N177" t="n">
-        <v>0.09419531066335718</v>
+        <v>0.1104849777720533</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08687429853765694</v>
+        <v>0.1836126357785123</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.04225239176459863</v>
+        <v>0.02283278450012212</v>
       </c>
       <c r="G178" t="n">
-        <v>0.05735035249128342</v>
+        <v>0.1842283556514464</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02398696588305568</v>
+        <v>0.02732746496906414</v>
       </c>
       <c r="K178" t="n">
-        <v>0.0886375100273489</v>
+        <v>0.1855104715515833</v>
       </c>
       <c r="L178" t="n">
-        <v>0.05868616817218902</v>
+        <v>0.06916613724379758</v>
       </c>
       <c r="M178" t="n">
-        <v>0.088022912715207</v>
+        <v>0.1856476015153118</v>
       </c>
       <c r="N178" t="n">
-        <v>0.09343528878827856</v>
+        <v>0.1109584760842555</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08764996191745744</v>
+        <v>0.185252034312249</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.04152757091196781</v>
+        <v>0.02099966001784337</v>
       </c>
       <c r="G179" t="n">
-        <v>0.05735008396281941</v>
+        <v>0.1858586950819901</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02384063050971669</v>
+        <v>0.02742371255958991</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08942191277095377</v>
+        <v>0.1871521571405354</v>
       </c>
       <c r="L179" t="n">
-        <v>0.05888182224356028</v>
+        <v>0.0699607454922615</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08880187654454512</v>
+        <v>0.1872905006437659</v>
       </c>
       <c r="N179" t="n">
-        <v>0.09326882769168904</v>
+        <v>0.1114597959011835</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08842562529725796</v>
+        <v>0.1868914328459858</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.04081866009997125</v>
+        <v>0.02117191628785345</v>
       </c>
       <c r="G180" t="n">
-        <v>0.05734981543435538</v>
+        <v>0.1874890345125339</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02359250692827744</v>
+        <v>0.02793070788457395</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09020631551455861</v>
+        <v>0.1887938427294875</v>
       </c>
       <c r="L180" t="n">
-        <v>0.05847618124511272</v>
+        <v>0.07058329076381106</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08958084037388322</v>
+        <v>0.18893339977222</v>
       </c>
       <c r="N180" t="n">
-        <v>0.09219497011750127</v>
+        <v>0.112601560843041</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08920128867705845</v>
+        <v>0.1885308313797225</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.04012611928766267</v>
+        <v>0.02134370108485585</v>
       </c>
       <c r="G181" t="n">
-        <v>0.05734954690589137</v>
+        <v>0.1891193739430777</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02344252163374927</v>
+        <v>0.02794132409386707</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09099071825816347</v>
+        <v>0.1904355283184395</v>
       </c>
       <c r="L181" t="n">
-        <v>0.05816941258868238</v>
+        <v>0.07071614144922339</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09035980420322134</v>
+        <v>0.190576298900674</v>
       </c>
       <c r="N181" t="n">
-        <v>0.09251275880962812</v>
+        <v>0.113354548719824</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08997695205685897</v>
+        <v>0.1901702299134592</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03945040843400287</v>
+        <v>0.02250916218355402</v>
       </c>
       <c r="G182" t="n">
-        <v>0.05734927837742736</v>
+        <v>0.1907497133736214</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02329060112114352</v>
+        <v>0.02824832725719051</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09177512100176834</v>
+        <v>0.1920772139073916</v>
       </c>
       <c r="L182" t="n">
-        <v>0.05726168368610529</v>
+        <v>0.07104096766454276</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09113876803255945</v>
+        <v>0.1922191980291281</v>
       </c>
       <c r="N182" t="n">
-        <v>0.09142123651198242</v>
+        <v>0.1140895373415289</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09075261543665948</v>
+        <v>0.1918096284471959</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03879198749798383</v>
+        <v>0.02366244735865144</v>
       </c>
       <c r="G183" t="n">
-        <v>0.05734900984896334</v>
+        <v>0.1923800528041652</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02323667188547143</v>
+        <v>0.02844448344426548</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09255952374537318</v>
+        <v>0.1937188994963437</v>
       </c>
       <c r="L183" t="n">
-        <v>0.05705316194921742</v>
+        <v>0.07193943952581347</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09191773186189757</v>
+        <v>0.1938620971575822</v>
       </c>
       <c r="N183" t="n">
-        <v>0.09071944596847697</v>
+        <v>0.1158773045181521</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09152827881645999</v>
+        <v>0.1934490269809326</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03815131643857005</v>
+        <v>0.02179770438485153</v>
       </c>
       <c r="G184" t="n">
-        <v>0.05734874132049932</v>
+        <v>0.194010392234709</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02288066042174436</v>
+        <v>0.02852255872481327</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09334392648897805</v>
+        <v>0.1953605850852957</v>
       </c>
       <c r="L184" t="n">
-        <v>0.05684401478985479</v>
+        <v>0.07189322714907978</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09269669569123569</v>
+        <v>0.1955049962860363</v>
       </c>
       <c r="N184" t="n">
-        <v>0.09120642992302447</v>
+        <v>0.1160886280596898</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09230394219626049</v>
+        <v>0.1950884255146693</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03752885521480932</v>
+        <v>0.02190908103685781</v>
       </c>
       <c r="G185" t="n">
-        <v>0.0573484727920353</v>
+        <v>0.1956407316652528</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02272249322497362</v>
+        <v>0.02867531916855515</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09412832923258291</v>
+        <v>0.1970022706742478</v>
       </c>
       <c r="L185" t="n">
-        <v>0.05593440961985338</v>
+        <v>0.0724840006503859</v>
       </c>
       <c r="M185" t="n">
-        <v>0.0934756595205738</v>
+        <v>0.1971478954144904</v>
       </c>
       <c r="N185" t="n">
-        <v>0.0906812311195378</v>
+        <v>0.1160942857761383</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09307960557606101</v>
+        <v>0.1967278240484061</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03692506378566533</v>
+        <v>0.02199072508937368</v>
       </c>
       <c r="G186" t="n">
-        <v>0.05734820426357129</v>
+        <v>0.1972710710957965</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02256209679017049</v>
+        <v>0.02899553084521236</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09491273197618776</v>
+        <v>0.1986439562631999</v>
       </c>
       <c r="L186" t="n">
-        <v>0.05592451385104918</v>
+        <v>0.07289343014577612</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09425462334991191</v>
+        <v>0.1987907945429445</v>
       </c>
       <c r="N186" t="n">
-        <v>0.0899428923019297</v>
+        <v>0.1167650554774938</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09385526895586151</v>
+        <v>0.1983672225821428</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03634040211013008</v>
+        <v>0.02405353901733834</v>
       </c>
       <c r="G187" t="n">
-        <v>0.05734793573510727</v>
+        <v>0.1989014105263403</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02229939761234631</v>
+        <v>0.02897980677727648</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09569713471979262</v>
+        <v>0.2002856418521519</v>
       </c>
       <c r="L187" t="n">
-        <v>0.05511449489527828</v>
+        <v>0.07311043848223764</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09503358717925003</v>
+        <v>0.2004336936713986</v>
       </c>
       <c r="N187" t="n">
-        <v>0.08969045621411303</v>
+        <v>0.1178964243268869</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09463093233566203</v>
+        <v>0.2000066211158795</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03577533014717139</v>
+        <v>0.0221149715651746</v>
       </c>
       <c r="G188" t="n">
-        <v>0.05734766720664325</v>
+        <v>0.2005317499568841</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02223432218651238</v>
+        <v>0.02915557952503624</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09648153746339748</v>
+        <v>0.201927327441104</v>
       </c>
       <c r="L188" t="n">
-        <v>0.05480452016437659</v>
+        <v>0.07320239128693445</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09581255100858814</v>
+        <v>0.2020765927998527</v>
       </c>
       <c r="N188" t="n">
-        <v>0.08852296560000061</v>
+        <v>0.1174026528011644</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09540659571546253</v>
+        <v>0.2016460196496162</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03523030785583046</v>
+        <v>0.02417502855660363</v>
       </c>
       <c r="G189" t="n">
-        <v>0.05734739867817923</v>
+        <v>0.2021620893874279</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02216679700768001</v>
+        <v>0.02912967768354631</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09726594020700233</v>
+        <v>0.2035690130300561</v>
       </c>
       <c r="L189" t="n">
-        <v>0.05489475707018018</v>
+        <v>0.0734901078108825</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09659151483792627</v>
+        <v>0.2037194919283067</v>
       </c>
       <c r="N189" t="n">
-        <v>0.08743946320350515</v>
+        <v>0.1182020957643555</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09618225909526304</v>
+        <v>0.2032854181833529</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03470391702919047</v>
+        <v>0.02223368845464445</v>
       </c>
       <c r="G190" t="n">
-        <v>0.05734713014971522</v>
+        <v>0.2037924288179716</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02179674857086052</v>
+        <v>0.02900207463096442</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09805034295060719</v>
+        <v>0.2052106986190081</v>
       </c>
       <c r="L190" t="n">
-        <v>0.053985373024525</v>
+        <v>0.07347352059762852</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09737047866726438</v>
+        <v>0.2053623910567609</v>
       </c>
       <c r="N190" t="n">
-        <v>0.08703899176853952</v>
+        <v>0.1187946456748469</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09695792247506355</v>
+        <v>0.2049248167170897</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03418534863093947</v>
+        <v>0.02429092972231606</v>
       </c>
       <c r="G191" t="n">
-        <v>0.0573468616212512</v>
+        <v>0.2054227682485154</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02192410337106521</v>
+        <v>0.02937274374544824</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09883474569421205</v>
+        <v>0.2068523842079602</v>
       </c>
       <c r="L191" t="n">
-        <v>0.05357653543924706</v>
+        <v>0.07415256219071917</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09814944249660248</v>
+        <v>0.2070052901852149</v>
       </c>
       <c r="N191" t="n">
-        <v>0.08712059403901645</v>
+        <v>0.1181801949910248</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09773358585486407</v>
+        <v>0.2065642152508264</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03367318445416322</v>
+        <v>0.02234673082263745</v>
       </c>
       <c r="G192" t="n">
-        <v>0.05734659309278718</v>
+        <v>0.2070531076790592</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02154878790330536</v>
+        <v>0.02944165840515546</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09961914843781691</v>
+        <v>0.2084940697969123</v>
       </c>
       <c r="L192" t="n">
-        <v>0.05316841172618239</v>
+        <v>0.07382716513370111</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09892840632594062</v>
+        <v>0.208648189313669</v>
       </c>
       <c r="N192" t="n">
-        <v>0.08638331275884875</v>
+        <v>0.119458636171276</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09850924923466456</v>
+        <v>0.2082036137845631</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03316788445789826</v>
+        <v>0.02240107021862764</v>
       </c>
       <c r="G193" t="n">
-        <v>0.05734632456432316</v>
+        <v>0.2086834471096029</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02146558672839027</v>
+        <v>0.02920879198824383</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1004035511814218</v>
+        <v>0.2101357553858643</v>
       </c>
       <c r="L193" t="n">
-        <v>0.052657806286736</v>
+        <v>0.07389726197012111</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09970737015527872</v>
+        <v>0.2102910884421231</v>
       </c>
       <c r="N193" t="n">
-        <v>0.08571424849850651</v>
+        <v>0.1189298616739869</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09928491261446508</v>
+        <v>0.2098430123182998</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03266990860111417</v>
+        <v>0.02345392637330564</v>
       </c>
       <c r="G194" t="n">
-        <v>0.05734605603585915</v>
+        <v>0.2103137865401467</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02136855047909139</v>
+        <v>0.02947411787287101</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1011879539250266</v>
+        <v>0.2117774409748164</v>
       </c>
       <c r="L194" t="n">
-        <v>0.05254083100131587</v>
+        <v>0.07446278524352587</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1004863339846168</v>
+        <v>0.2119339875705772</v>
       </c>
       <c r="N194" t="n">
-        <v>0.08409996217077731</v>
+        <v>0.1192937639575441</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1000605759942656</v>
+        <v>0.2114824108520365</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03217971684280294</v>
+        <v>0.02450527774969043</v>
       </c>
       <c r="G195" t="n">
-        <v>0.05734578750739514</v>
+        <v>0.2119441259706905</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02085859630519772</v>
+        <v>0.02963760943719471</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1019723566686315</v>
+        <v>0.2134191265637685</v>
       </c>
       <c r="L195" t="n">
-        <v>0.05201792446689929</v>
+        <v>0.07452366749746203</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1012652978139549</v>
+        <v>0.2135768866990312</v>
       </c>
       <c r="N195" t="n">
-        <v>0.084042931778813</v>
+        <v>0.119950235480334</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1008362393740661</v>
+        <v>0.2131218093857733</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.0316977691419358</v>
+        <v>0.02355510281080102</v>
       </c>
       <c r="G196" t="n">
-        <v>0.05734551897893111</v>
+        <v>0.2135744654012343</v>
       </c>
       <c r="J196" t="n">
-        <v>0.0208366640341618</v>
+        <v>0.02949924005937263</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1027567594122363</v>
+        <v>0.2150608121527205</v>
       </c>
       <c r="L196" t="n">
-        <v>0.05158953912122155</v>
+        <v>0.07477984127547635</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1020442616432931</v>
+        <v>0.2152197858274854</v>
       </c>
       <c r="N196" t="n">
-        <v>0.08374567502235797</v>
+        <v>0.1192991687007433</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1016119027538666</v>
+        <v>0.21476120791951</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03122452545754664</v>
+        <v>0.02360338001965641</v>
       </c>
       <c r="G197" t="n">
-        <v>0.05734525045046709</v>
+        <v>0.215204804831778</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02070369349343613</v>
+        <v>0.02965898311756247</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1035411621558412</v>
+        <v>0.2167024977416726</v>
       </c>
       <c r="L197" t="n">
-        <v>0.05095612740201791</v>
+        <v>0.07523123912111548</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1028232254726312</v>
+        <v>0.2168626849559394</v>
       </c>
       <c r="N197" t="n">
-        <v>0.08281070960115661</v>
+        <v>0.1207404560771583</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1023875661336671</v>
+        <v>0.2164006064532467</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03076044574860635</v>
+        <v>0.02265008783927562</v>
       </c>
       <c r="G198" t="n">
-        <v>0.05734498192200308</v>
+        <v>0.2168351442623218</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02036062451047327</v>
+        <v>0.02961681198992194</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1043255648994461</v>
+        <v>0.2183441833306246</v>
       </c>
       <c r="L198" t="n">
-        <v>0.05061814174702356</v>
+        <v>0.07537779357792612</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1036021893019693</v>
+        <v>0.2185055840843936</v>
       </c>
       <c r="N198" t="n">
-        <v>0.08194055321495325</v>
+        <v>0.1209739900679657</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1031632295134676</v>
+        <v>0.2180400049869834</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03030598997410693</v>
+        <v>0.02369520473267764</v>
       </c>
       <c r="G199" t="n">
-        <v>0.05734471339353906</v>
+        <v>0.2184654836928656</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02010839691272567</v>
+        <v>0.02957270005460874</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1051099676430509</v>
+        <v>0.2199858689195767</v>
       </c>
       <c r="L199" t="n">
-        <v>0.05047603459397387</v>
+        <v>0.07491943718945498</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1043811531313074</v>
+        <v>0.2201484832128476</v>
       </c>
       <c r="N199" t="n">
-        <v>0.07993772356349227</v>
+        <v>0.1208996631315521</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1039388928932681</v>
+        <v>0.2196794035207201</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02986161809302121</v>
+        <v>0.02473870916288147</v>
       </c>
       <c r="G200" t="n">
-        <v>0.05734444486507504</v>
+        <v>0.2200958231234094</v>
       </c>
       <c r="J200" t="n">
-        <v>0.0197479505276459</v>
+        <v>0.02982662068978055</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1058943703866558</v>
+        <v>0.2216275545085288</v>
       </c>
       <c r="L200" t="n">
-        <v>0.04963025838060406</v>
+        <v>0.07495610249924875</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1051601169606455</v>
+        <v>0.2217913823413017</v>
       </c>
       <c r="N200" t="n">
-        <v>0.07930473834651797</v>
+        <v>0.1202173677263039</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1047145562730686</v>
+        <v>0.2213188020544568</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02942779006437989</v>
+        <v>0.02378057959290611</v>
       </c>
       <c r="G201" t="n">
-        <v>0.05734417633661102</v>
+        <v>0.2217261625539531</v>
       </c>
       <c r="J201" t="n">
-        <v>0.01948022518268647</v>
+        <v>0.02977854727359508</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1066787731302606</v>
+        <v>0.2232692400974809</v>
       </c>
       <c r="L201" t="n">
-        <v>0.04938126554464936</v>
+        <v>0.07518772205085419</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1059390807899836</v>
+        <v>0.2234342814697558</v>
       </c>
       <c r="N201" t="n">
-        <v>0.07804411526377492</v>
+        <v>0.1214269963106075</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1054902196528691</v>
+        <v>0.2229582005881936</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02900496584715542</v>
+        <v>0.02282079448577058</v>
       </c>
       <c r="G202" t="n">
-        <v>0.05734390780814701</v>
+        <v>0.2233565019844969</v>
       </c>
       <c r="J202" t="n">
-        <v>0.01920616070529992</v>
+        <v>0.02992845318421006</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1074631758738655</v>
+        <v>0.2249109256864329</v>
       </c>
       <c r="L202" t="n">
-        <v>0.04872950852384511</v>
+        <v>0.07521422838781788</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1067180446193218</v>
+        <v>0.2250771805982099</v>
       </c>
       <c r="N202" t="n">
-        <v>0.07745837201500733</v>
+        <v>0.1214284413428496</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1062658830326697</v>
+        <v>0.2245975991219303</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02859360540033978</v>
+        <v>0.02485933230449389</v>
       </c>
       <c r="G203" t="n">
-        <v>0.05734363927968299</v>
+        <v>0.2249868414150407</v>
       </c>
       <c r="J203" t="n">
-        <v>0.0188266969229387</v>
+        <v>0.03007631179978315</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1082475786174703</v>
+        <v>0.226552611275385</v>
       </c>
       <c r="L203" t="n">
-        <v>0.04887543975592648</v>
+        <v>0.07553555405368662</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1074970084486599</v>
+        <v>0.226720079726664</v>
       </c>
       <c r="N203" t="n">
-        <v>0.07645002629995967</v>
+        <v>0.1208215952814168</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1070415464124701</v>
+        <v>0.226236997655667</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02819416868290785</v>
+        <v>0.024896171512095</v>
       </c>
       <c r="G204" t="n">
-        <v>0.05734337075121897</v>
+        <v>0.2266171808455844</v>
       </c>
       <c r="J204" t="n">
-        <v>0.01864277366305539</v>
+        <v>0.03012209649847204</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1090319813610752</v>
+        <v>0.228194296864337</v>
       </c>
       <c r="L204" t="n">
-        <v>0.04811951167862882</v>
+        <v>0.07605163159200704</v>
       </c>
       <c r="M204" t="n">
-        <v>0.108275972277998</v>
+        <v>0.2283629788551181</v>
       </c>
       <c r="N204" t="n">
-        <v>0.07592159581837626</v>
+        <v>0.1219063505846954</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1078172097922707</v>
+        <v>0.2278763961894037</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02780711565388638</v>
+        <v>0.02493129057159296</v>
       </c>
       <c r="G205" t="n">
-        <v>0.05734310222275495</v>
+        <v>0.2282475202761282</v>
       </c>
       <c r="J205" t="n">
-        <v>0.01845533075310249</v>
+        <v>0.03006578065843449</v>
       </c>
       <c r="K205" t="n">
-        <v>0.10981638410468</v>
+        <v>0.2298359824532891</v>
       </c>
       <c r="L205" t="n">
-        <v>0.04786217672968737</v>
+        <v>0.07606239354632588</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1090549361073361</v>
+        <v>0.2300058779835721</v>
       </c>
       <c r="N205" t="n">
-        <v>0.07427559827000141</v>
+        <v>0.1217825997110721</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1085928731720712</v>
+        <v>0.2295157947231404</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02743290627224974</v>
+        <v>0.02496466794600674</v>
       </c>
       <c r="G206" t="n">
-        <v>0.05734283369429094</v>
+        <v>0.229877859706672</v>
       </c>
       <c r="J206" t="n">
-        <v>0.01796530802053251</v>
+        <v>0.03020733765782814</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1106007868482849</v>
+        <v>0.2314776680422412</v>
       </c>
       <c r="L206" t="n">
-        <v>0.04720388734683739</v>
+        <v>0.0763677724601898</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1098338999366742</v>
+        <v>0.2316487771120262</v>
       </c>
       <c r="N206" t="n">
-        <v>0.07331455135457959</v>
+        <v>0.1216502351189334</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1093685365518717</v>
+        <v>0.2311551932568772</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02707200049698992</v>
+        <v>0.02499628209835537</v>
       </c>
       <c r="G207" t="n">
-        <v>0.05734256516582693</v>
+        <v>0.2315081991372158</v>
       </c>
       <c r="J207" t="n">
-        <v>0.01767364529279797</v>
+        <v>0.03024674087481073</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1113851895918898</v>
+        <v>0.2331193536311933</v>
       </c>
       <c r="L207" t="n">
-        <v>0.04694509596781413</v>
+        <v>0.07636770087714556</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1106128637660123</v>
+        <v>0.2332916762404803</v>
       </c>
       <c r="N207" t="n">
-        <v>0.07304097277185523</v>
+        <v>0.1220091492666657</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1101441999316722</v>
+        <v>0.2327945917906139</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.0267248582870841</v>
+        <v>0.02302611149165783</v>
       </c>
       <c r="G208" t="n">
-        <v>0.0573422966373629</v>
+        <v>0.2331385385677595</v>
       </c>
       <c r="J208" t="n">
-        <v>0.01738128239735141</v>
+        <v>0.03018396368753994</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1121695923354946</v>
+        <v>0.2347610392201453</v>
       </c>
       <c r="L208" t="n">
-        <v>0.04618625503035287</v>
+        <v>0.07616211134073975</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1113918275953504</v>
+        <v>0.2349345753689344</v>
       </c>
       <c r="N208" t="n">
-        <v>0.07125738022157257</v>
+        <v>0.1217592346126557</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1109198633114727</v>
+        <v>0.2344339903243506</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.0263919396015545</v>
+        <v>0.02505413458893314</v>
       </c>
       <c r="G209" t="n">
-        <v>0.05734202810889889</v>
+        <v>0.2347688779983033</v>
       </c>
       <c r="J209" t="n">
-        <v>0.0173891591616453</v>
+        <v>0.03011897947417348</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1129539950790995</v>
+        <v>0.2364027248090974</v>
       </c>
       <c r="L209" t="n">
-        <v>0.04542781697218884</v>
+        <v>0.07645093639451919</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1121707914246886</v>
+        <v>0.2365774744973885</v>
       </c>
       <c r="N209" t="n">
-        <v>0.07006629140347598</v>
+        <v>0.1228003836152899</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1116955266912732</v>
+        <v>0.2360733888580873</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02607370439937771</v>
+        <v>0.02308032985320028</v>
       </c>
       <c r="G210" t="n">
-        <v>0.05734175958043487</v>
+        <v>0.2363992174288471</v>
       </c>
       <c r="J210" t="n">
-        <v>0.01699821541313221</v>
+        <v>0.03025176161286905</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1137383978227043</v>
+        <v>0.2380444103980494</v>
       </c>
       <c r="L210" t="n">
-        <v>0.04497023423105742</v>
+        <v>0.07643410858203054</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1129497552540267</v>
+        <v>0.2382203736258426</v>
       </c>
       <c r="N210" t="n">
-        <v>0.06937022401730997</v>
+        <v>0.1222324887329547</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1124711900710737</v>
+        <v>0.237712787391824</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02577061263954572</v>
+        <v>0.02310467574747826</v>
       </c>
       <c r="G211" t="n">
-        <v>0.05734149105197086</v>
+        <v>0.2380295568593909</v>
       </c>
       <c r="J211" t="n">
-        <v>0.01670939097926463</v>
+        <v>0.03028228348178433</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1145228005663092</v>
+        <v>0.2396860959870015</v>
       </c>
       <c r="L211" t="n">
-        <v>0.04521395924469374</v>
+        <v>0.07641156044682046</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1137287190833648</v>
+        <v>0.2398632727542967</v>
       </c>
       <c r="N211" t="n">
-        <v>0.06767169576281878</v>
+        <v>0.1232554424240367</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1132468534508742</v>
+        <v>0.2393521859255607</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02548312428103837</v>
+        <v>0.02312715073478612</v>
       </c>
       <c r="G212" t="n">
-        <v>0.05734122252350683</v>
+        <v>0.2396598962899346</v>
       </c>
       <c r="J212" t="n">
-        <v>0.01642362568749509</v>
+        <v>0.03011051845907707</v>
       </c>
       <c r="K212" t="n">
-        <v>0.115307203309914</v>
+        <v>0.2413277815759536</v>
       </c>
       <c r="L212" t="n">
-        <v>0.04405944445083315</v>
+        <v>0.07668322453243567</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1145076829127029</v>
+        <v>0.2415061718827507</v>
       </c>
       <c r="N212" t="n">
-        <v>0.06707322433974688</v>
+        <v>0.1221691371469225</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1140225168306747</v>
+        <v>0.2409915844592975</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02521169928287266</v>
+        <v>0.02514773327814282</v>
       </c>
       <c r="G213" t="n">
-        <v>0.05734095399504282</v>
+        <v>0.2412902357204784</v>
       </c>
       <c r="J213" t="n">
-        <v>0.0159418593652761</v>
+        <v>0.0302364399229049</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1160916060535189</v>
+        <v>0.2429694671649056</v>
       </c>
       <c r="L213" t="n">
-        <v>0.04360714228721083</v>
+        <v>0.0764490333824229</v>
       </c>
       <c r="M213" t="n">
-        <v>0.115286646742041</v>
+        <v>0.2431490710112048</v>
       </c>
       <c r="N213" t="n">
-        <v>0.06607732744783851</v>
+        <v>0.1222734653599986</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1147981802104752</v>
+        <v>0.2426309829930342</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02495679760402773</v>
+        <v>0.02516640184056738</v>
       </c>
       <c r="G214" t="n">
-        <v>0.0573406854665788</v>
+        <v>0.2429205751510222</v>
       </c>
       <c r="J214" t="n">
-        <v>0.01596503184006019</v>
+        <v>0.03046002125142556</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1168760087971238</v>
+        <v>0.2446111527538577</v>
       </c>
       <c r="L214" t="n">
-        <v>0.04355750519156212</v>
+        <v>0.07630891954032876</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1160656105713791</v>
+        <v>0.2447919701396589</v>
       </c>
       <c r="N214" t="n">
-        <v>0.06438652278683821</v>
+        <v>0.1233683195216513</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1155738435902758</v>
+        <v>0.2442703815267709</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02495679760402773</v>
+        <v>0.0231831348850788</v>
       </c>
       <c r="G215" t="n">
-        <v>0.0573406854665788</v>
+        <v>0.2445509145815659</v>
       </c>
       <c r="J215" t="n">
-        <v>0.01549408293929987</v>
+        <v>0.03028123582279675</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1176604115407286</v>
+        <v>0.2462528383428098</v>
       </c>
       <c r="L215" t="n">
-        <v>0.04291098560162229</v>
+        <v>0.07706281554970001</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1168445744007173</v>
+        <v>0.246434869268113</v>
       </c>
       <c r="N215" t="n">
-        <v>0.06410332805649033</v>
+        <v>0.1224535920902675</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1163495069700762</v>
+        <v>0.2459097800605076</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02432662613478903</v>
+        <v>0.02419791087469607</v>
       </c>
       <c r="G216" t="n">
-        <v>0.0572423951120962</v>
+        <v>0.2461812540121097</v>
       </c>
       <c r="J216" t="n">
-        <v>0.01532995249044765</v>
+        <v>0.0303000570151762</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1184448142843335</v>
+        <v>0.2478945239317618</v>
       </c>
       <c r="L216" t="n">
-        <v>0.04286803595512656</v>
+        <v>0.07661065395408337</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1176235382300554</v>
+        <v>0.2480777683965671</v>
       </c>
       <c r="N216" t="n">
-        <v>0.06313026095653906</v>
+        <v>0.1231291755242334</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1171251703498768</v>
+        <v>0.2475491785942443</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02370343901843315</v>
+        <v>0.02321070827243822</v>
       </c>
       <c r="G217" t="n">
-        <v>0.0571441047576136</v>
+        <v>0.2478115934426535</v>
       </c>
       <c r="J217" t="n">
-        <v>0.01507358032095604</v>
+        <v>0.03041645820672155</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1192292170279384</v>
+        <v>0.2495362095207139</v>
       </c>
       <c r="L217" t="n">
-        <v>0.04222910868981022</v>
+        <v>0.07695236729702545</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1184025020593935</v>
+        <v>0.2497206675250212</v>
       </c>
       <c r="N217" t="n">
-        <v>0.06096983918672894</v>
+        <v>0.1236949622819357</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1179008337296773</v>
+        <v>0.2491885771279811</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02308755041175575</v>
+        <v>0.02422150554132424</v>
       </c>
       <c r="G218" t="n">
-        <v>0.057045814403131</v>
+        <v>0.2494419328731973</v>
       </c>
       <c r="J218" t="n">
-        <v>0.01462590625827762</v>
+        <v>0.03043041277559053</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1200136197715432</v>
+        <v>0.251177895109666</v>
       </c>
       <c r="L218" t="n">
-        <v>0.04199465624340853</v>
+        <v>0.07698788812207302</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1191814658887316</v>
+        <v>0.2513635666534753</v>
       </c>
       <c r="N218" t="n">
-        <v>0.0601245804468043</v>
+        <v>0.1233508448217609</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1186764971094778</v>
+        <v>0.2508279756617178</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02247927447155244</v>
+        <v>0.02423028114437313</v>
       </c>
       <c r="G219" t="n">
-        <v>0.0569475240486484</v>
+        <v>0.251072272303741</v>
       </c>
       <c r="J219" t="n">
-        <v>0.01438787012986484</v>
+        <v>0.03054189409994086</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1207980225151481</v>
+        <v>0.252819580698618</v>
       </c>
       <c r="L219" t="n">
-        <v>0.04126513105365673</v>
+        <v>0.07691714897277283</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1199604297180697</v>
+        <v>0.2530064657819294</v>
       </c>
       <c r="N219" t="n">
-        <v>0.06009700243650951</v>
+        <v>0.1229967156020955</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1194521604892783</v>
+        <v>0.2524673741954545</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.0218789253546188</v>
+        <v>0.02523701354460391</v>
       </c>
       <c r="G220" t="n">
-        <v>0.05684923369416581</v>
+        <v>0.2527026117342848</v>
       </c>
       <c r="J220" t="n">
-        <v>0.01416041176317022</v>
+        <v>0.03045087555793019</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1215824252587529</v>
+        <v>0.2544612662875701</v>
       </c>
       <c r="L220" t="n">
-        <v>0.04064098555829018</v>
+        <v>0.07654008239267143</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1207393935474078</v>
+        <v>0.2546493649103834</v>
       </c>
       <c r="N220" t="n">
-        <v>0.05838962285558891</v>
+        <v>0.123632467081326</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1202278238690788</v>
+        <v>0.2541067727291912</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02128681721775054</v>
+        <v>0.02324168120503553</v>
       </c>
       <c r="G221" t="n">
-        <v>0.05675094333968322</v>
+        <v>0.2543329511648286</v>
       </c>
       <c r="J221" t="n">
-        <v>0.01414447098564631</v>
+        <v>0.03045733052771626</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1223668280023578</v>
+        <v>0.2561029518765222</v>
       </c>
       <c r="L221" t="n">
-        <v>0.04052267219504396</v>
+        <v>0.0772566209253156</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1215183573767459</v>
+        <v>0.2562922640388375</v>
       </c>
       <c r="N221" t="n">
-        <v>0.05790495940378698</v>
+        <v>0.1230579917178391</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1210034872488793</v>
+        <v>0.2557461712629279</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02070326421774311</v>
+        <v>0.02324426258868706</v>
       </c>
       <c r="G222" t="n">
-        <v>0.05665265298520062</v>
+        <v>0.2559632905953723</v>
       </c>
       <c r="J222" t="n">
-        <v>0.01394098762474562</v>
+        <v>0.03026123238745677</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1231512307459626</v>
+        <v>0.2577446374654742</v>
       </c>
       <c r="L222" t="n">
-        <v>0.03971064340165353</v>
+        <v>0.07676669711425207</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1222973212060841</v>
+        <v>0.2579351631672916</v>
       </c>
       <c r="N222" t="n">
-        <v>0.05654552978084798</v>
+        <v>0.1228731819700211</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1217791506286798</v>
+        <v>0.2573855697966647</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02012858051139221</v>
+        <v>0.02324227603516743</v>
       </c>
       <c r="G223" t="n">
-        <v>0.05655436263071802</v>
+        <v>0.2575936300259161</v>
       </c>
       <c r="J223" t="n">
-        <v>0.01365090150792067</v>
+        <v>0.0305625545153094</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1239356334895675</v>
+        <v>0.2593863230544263</v>
       </c>
       <c r="L223" t="n">
-        <v>0.03960535161585407</v>
+        <v>0.07667024350302751</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1230762850354222</v>
+        <v>0.2595780622957457</v>
       </c>
       <c r="N223" t="n">
-        <v>0.05561385168651634</v>
+        <v>0.1229775553901197</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1225548140084803</v>
+        <v>0.2590249683304013</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01956308025549343</v>
+        <v>0.0251924158838162</v>
       </c>
       <c r="G224" t="n">
-        <v>0.05645607227623542</v>
+        <v>0.2592239694564599</v>
       </c>
       <c r="J224" t="n">
-        <v>0.01347515246262396</v>
+        <v>0.03042339528464433</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1247200362331724</v>
+        <v>0.2610280086433783</v>
       </c>
       <c r="L224" t="n">
-        <v>0.03950724927538082</v>
+        <v>0.07697696748505597</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1238552488647603</v>
+        <v>0.2612209614241998</v>
       </c>
       <c r="N224" t="n">
-        <v>0.05521244282053644</v>
+        <v>0.1233010677458835</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1233304773882808</v>
+        <v>0.2606643668641381</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.0190070776068424</v>
+        <v>0.0240839304129316</v>
       </c>
       <c r="G225" t="n">
-        <v>0.05635778192175282</v>
+        <v>0.2608543088870037</v>
       </c>
       <c r="J225" t="n">
-        <v>0.01341468031630803</v>
+        <v>0.03020997908442552</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1255044389767772</v>
+        <v>0.2626696942323304</v>
       </c>
       <c r="L225" t="n">
-        <v>0.03851678881796911</v>
+        <v>0.076495199019256</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1246342126940984</v>
+        <v>0.2628638605526539</v>
       </c>
       <c r="N225" t="n">
-        <v>0.05434382088265255</v>
+        <v>0.1225260509015278</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1241061407680814</v>
+        <v>0.2623037653978748</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01846088672223471</v>
+        <v>0.0229235336338186</v>
       </c>
       <c r="G226" t="n">
-        <v>0.05625949156727023</v>
+        <v>0.2624846483175474</v>
       </c>
       <c r="J226" t="n">
-        <v>0.01317042489642538</v>
+        <v>0.03003060188110609</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1262888417203821</v>
+        <v>0.2643113798212825</v>
       </c>
       <c r="L226" t="n">
-        <v>0.03843442268135414</v>
+        <v>0.07624581119407517</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1254131765234365</v>
+        <v>0.264506759681108</v>
       </c>
       <c r="N226" t="n">
-        <v>0.05301050357260922</v>
+        <v>0.1218860302433974</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1248818041478819</v>
+        <v>0.2639431639316115</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01792482175846599</v>
+        <v>0.02471793955778222</v>
       </c>
       <c r="G227" t="n">
-        <v>0.05616120121278762</v>
+        <v>0.2641149877480912</v>
       </c>
       <c r="J227" t="n">
-        <v>0.01294332603042857</v>
+        <v>0.0299935628578531</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1270732444639869</v>
+        <v>0.2659530654102346</v>
       </c>
       <c r="L227" t="n">
-        <v>0.03836060330327123</v>
+        <v>0.07524983311243788</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1261921403527746</v>
+        <v>0.266149658809562</v>
       </c>
       <c r="N227" t="n">
-        <v>0.05261500859015072</v>
+        <v>0.1209145311578366</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1256574675276823</v>
+        <v>0.2655825624653482</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01739919687233184</v>
+        <v>0.02347386219612743</v>
       </c>
       <c r="G228" t="n">
-        <v>0.05606291085830502</v>
+        <v>0.265745327178635</v>
       </c>
       <c r="J228" t="n">
-        <v>0.01313432354577006</v>
+        <v>0.0294071611978336</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1278576472075918</v>
+        <v>0.2675947509991866</v>
       </c>
       <c r="L228" t="n">
-        <v>0.03759578312145562</v>
+        <v>0.07492829387726851</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1269711041821127</v>
+        <v>0.2677925579380162</v>
       </c>
       <c r="N228" t="n">
-        <v>0.05095985363502142</v>
+        <v>0.1200450790311898</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1264331309074829</v>
+        <v>0.2672219609990849</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01688432622062788</v>
+        <v>0.02219801556015921</v>
       </c>
       <c r="G229" t="n">
-        <v>0.05596462050382243</v>
+        <v>0.2673756666091788</v>
       </c>
       <c r="J229" t="n">
-        <v>0.0130443572699024</v>
+        <v>0.02937969608421467</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1286420499511966</v>
+        <v>0.2692364365881387</v>
       </c>
       <c r="L229" t="n">
-        <v>0.03714041457364259</v>
+        <v>0.07370222259149165</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1277500680114509</v>
+        <v>0.2694354570664702</v>
       </c>
       <c r="N229" t="n">
-        <v>0.0508475564069657</v>
+        <v>0.1181111992498016</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1272087942872834</v>
+        <v>0.2688613595328216</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01638052396014971</v>
+        <v>0.0218971136611826</v>
       </c>
       <c r="G230" t="n">
-        <v>0.05586633014933982</v>
+        <v>0.2690060060397225</v>
       </c>
       <c r="J230" t="n">
-        <v>0.01287425118126952</v>
+        <v>0.02881946670016343</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1294264526948015</v>
+        <v>0.2708781221770907</v>
       </c>
       <c r="L230" t="n">
-        <v>0.03719490492094812</v>
+        <v>0.0729926483580316</v>
       </c>
       <c r="M230" t="n">
-        <v>0.128529031840789</v>
+        <v>0.2710783561949243</v>
       </c>
       <c r="N230" t="n">
-        <v>0.0504804299420078</v>
+        <v>0.1174464172000165</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1279844576670839</v>
+        <v>0.2705007580665583</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01588810424769295</v>
+        <v>0.02257787051050254</v>
       </c>
       <c r="G231" t="n">
-        <v>0.05576803979485723</v>
+        <v>0.2706363454702663</v>
       </c>
       <c r="J231" t="n">
-        <v>0.01291286340847449</v>
+        <v>0.02833477222884691</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1302108554384064</v>
+        <v>0.2725198077660428</v>
       </c>
       <c r="L231" t="n">
-        <v>0.03705501641169856</v>
+        <v>0.07202060027981291</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1293079956701271</v>
+        <v>0.2727212553233784</v>
       </c>
       <c r="N231" t="n">
-        <v>0.04973554983985723</v>
+        <v>0.115784258268179</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1287601210468844</v>
+        <v>0.2721401566002951</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01540738124005326</v>
+        <v>0.02324700011942404</v>
       </c>
       <c r="G232" t="n">
-        <v>0.05566974944037464</v>
+        <v>0.2722666849008101</v>
       </c>
       <c r="J232" t="n">
-        <v>0.01265241925726647</v>
+        <v>0.02823391185343221</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1309952581820112</v>
+        <v>0.2741614933549949</v>
       </c>
       <c r="L232" t="n">
-        <v>0.03651778766425109</v>
+        <v>0.07080710745975996</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1300869594994652</v>
+        <v>0.2743641544518325</v>
       </c>
       <c r="N232" t="n">
-        <v>0.04829626143305488</v>
+        <v>0.1137582478406335</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1295357844266849</v>
+        <v>0.2737795551340318</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01493866909402614</v>
+        <v>0.02091121649925209</v>
       </c>
       <c r="G233" t="n">
-        <v>0.05557145908589204</v>
+        <v>0.2738970243313538</v>
       </c>
       <c r="J233" t="n">
-        <v>0.01249297343024743</v>
+        <v>0.02772518475708642</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1317796609256161</v>
+        <v>0.275803178943947</v>
       </c>
       <c r="L233" t="n">
-        <v>0.03578327960214772</v>
+        <v>0.06987319900079722</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1308659233288033</v>
+        <v>0.2760070535802866</v>
       </c>
       <c r="N233" t="n">
-        <v>0.04876288757768293</v>
+        <v>0.1126019113037245</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1303114478064854</v>
+        <v>0.2754189536677685</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01448228196640725</v>
+        <v>0.0215772336612917</v>
       </c>
       <c r="G234" t="n">
-        <v>0.05547316873140944</v>
+        <v>0.2755273637618976</v>
       </c>
       <c r="J234" t="n">
-        <v>0.01273458063001923</v>
+        <v>0.02721689012297659</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1325640636692209</v>
+        <v>0.277444864532899</v>
       </c>
       <c r="L234" t="n">
-        <v>0.03585155314893032</v>
+        <v>0.06873990400584915</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1316448871581414</v>
+        <v>0.2776499527087407</v>
       </c>
       <c r="N234" t="n">
-        <v>0.04713575112982421</v>
+        <v>0.1110487740437966</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1310871111862859</v>
+        <v>0.2770583522015052</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01403853401399222</v>
+        <v>0.02025176561684783</v>
       </c>
       <c r="G235" t="n">
-        <v>0.05537487837692684</v>
+        <v>0.2771577031924414</v>
       </c>
       <c r="J235" t="n">
-        <v>0.01257729555918373</v>
+        <v>0.02691732713426981</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1333484664128258</v>
+        <v>0.2790865501218511</v>
       </c>
       <c r="L235" t="n">
-        <v>0.03562266922814097</v>
+        <v>0.06822825157784015</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1324238509874796</v>
+        <v>0.2792928518371947</v>
       </c>
       <c r="N235" t="n">
-        <v>0.04701517494556129</v>
+        <v>0.1090323614471942</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1318627745660864</v>
+        <v>0.2786977507352419</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01360773939357664</v>
+        <v>0.02094152637722548</v>
       </c>
       <c r="G236" t="n">
-        <v>0.05527658802244424</v>
+        <v>0.2787880426229852</v>
       </c>
       <c r="J236" t="n">
-        <v>0.01262117292034286</v>
+        <v>0.02653479497413316</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1341328691564306</v>
+        <v>0.2807282357108031</v>
       </c>
       <c r="L236" t="n">
-        <v>0.03499668876332157</v>
+        <v>0.06685927081969467</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1332028148168177</v>
+        <v>0.2809357509656488</v>
       </c>
       <c r="N236" t="n">
-        <v>0.04640148188097681</v>
+        <v>0.1068861989002619</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1326384379458869</v>
+        <v>0.2803371492689786</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01319021226195615</v>
+        <v>0.02165322995372967</v>
       </c>
       <c r="G237" t="n">
-        <v>0.05517829766796165</v>
+        <v>0.2804183820535289</v>
       </c>
       <c r="J237" t="n">
-        <v>0.0123662674160985</v>
+        <v>0.02617759282573369</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1349172719000355</v>
+        <v>0.2823699212997552</v>
       </c>
       <c r="L237" t="n">
-        <v>0.03467367267801411</v>
+        <v>0.06585399083433721</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1339817786461558</v>
+        <v>0.2825786500941029</v>
       </c>
       <c r="N237" t="n">
-        <v>0.04629499479215321</v>
+        <v>0.1058438117893441</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1334141013256875</v>
+        <v>0.2819765478027154</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01278626677592632</v>
+        <v>0.0203874765922615</v>
       </c>
       <c r="G238" t="n">
-        <v>0.05508000731347904</v>
+        <v>0.2820487214840727</v>
       </c>
       <c r="J238" t="n">
-        <v>0.01241263374905252</v>
+        <v>0.02565043874171746</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1357016746436404</v>
+        <v>0.2840116068887073</v>
       </c>
       <c r="L238" t="n">
-        <v>0.03475368189576059</v>
+        <v>0.06522520916463048</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1347607424754939</v>
+        <v>0.284221549222557</v>
       </c>
       <c r="N238" t="n">
-        <v>0.04539603653517321</v>
+        <v>0.1044215355977724</v>
       </c>
       <c r="O238" t="n">
-        <v>0.134189764705488</v>
+        <v>0.2836159463364521</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01239621709228279</v>
+        <v>0.01912321400977088</v>
       </c>
       <c r="G239" t="n">
-        <v>0.05498171695899644</v>
+        <v>0.2836790609146165</v>
       </c>
       <c r="J239" t="n">
-        <v>0.01216032662180683</v>
+        <v>0.02532849862611398</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1364860773872452</v>
+        <v>0.2856532924776594</v>
       </c>
       <c r="L239" t="n">
-        <v>0.03383677734010299</v>
+        <v>0.06421071553701962</v>
       </c>
       <c r="M239" t="n">
-        <v>0.135539706304832</v>
+        <v>0.2858644483510111</v>
       </c>
       <c r="N239" t="n">
-        <v>0.04470492996611947</v>
+        <v>0.1034172196036885</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1349654280852884</v>
+        <v>0.2852553448701888</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01201909456090575</v>
+        <v>0.01985794815396048</v>
       </c>
       <c r="G240" t="n">
-        <v>0.05488342660451385</v>
+        <v>0.2853094003451602</v>
       </c>
       <c r="J240" t="n">
-        <v>0.01220940073696332</v>
+        <v>0.0252053303333679</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1372704801308501</v>
+        <v>0.2872949780666114</v>
       </c>
       <c r="L240" t="n">
-        <v>0.03362301993458319</v>
+        <v>0.06329311307925739</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1363186701341701</v>
+        <v>0.2875073474794652</v>
       </c>
       <c r="N240" t="n">
-        <v>0.04442199794107438</v>
+        <v>0.1016079325729791</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1357410914650889</v>
+        <v>0.2868947434039255</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01164751649709835</v>
+        <v>0.0185916631190885</v>
       </c>
       <c r="G241" t="n">
-        <v>0.05478513625003125</v>
+        <v>0.286939739775704</v>
       </c>
       <c r="J241" t="n">
-        <v>0.01205991079712387</v>
+        <v>0.02468091420240655</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1380548828744549</v>
+        <v>0.2889366636555635</v>
       </c>
       <c r="L241" t="n">
-        <v>0.03341247060274319</v>
+        <v>0.06247235197261916</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1370976339635082</v>
+        <v>0.2891502466079193</v>
       </c>
       <c r="N241" t="n">
-        <v>0.0435475633161207</v>
+        <v>0.1006935950827605</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1365167548448895</v>
+        <v>0.2885341419376622</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01128051425074079</v>
+        <v>0.01832434299941323</v>
       </c>
       <c r="G242" t="n">
-        <v>0.05468684589554865</v>
+        <v>0.2885700792062478</v>
       </c>
       <c r="J242" t="n">
-        <v>0.01231191150489037</v>
+        <v>0.02455523057215724</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1388392856180598</v>
+        <v>0.2905783492445155</v>
       </c>
       <c r="L242" t="n">
-        <v>0.03330519026812506</v>
+        <v>0.06214838239838028</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1378765977928464</v>
+        <v>0.2907931457363733</v>
       </c>
       <c r="N242" t="n">
-        <v>0.04298194894734092</v>
+        <v>0.09907412771014923</v>
       </c>
       <c r="O242" t="n">
-        <v>0.13729241822469</v>
+        <v>0.290173540471399</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01091840197862872</v>
+        <v>0.01905597188919285</v>
       </c>
       <c r="G243" t="n">
-        <v>0.05458855554106606</v>
+        <v>0.2902004186367916</v>
       </c>
       <c r="J243" t="n">
-        <v>0.01216545756286471</v>
+        <v>0.02422825978154726</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1396236883616646</v>
+        <v>0.2922200348334676</v>
       </c>
       <c r="L243" t="n">
-        <v>0.03260123985427069</v>
+        <v>0.06142115453781608</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1386555616221845</v>
+        <v>0.2924360448648274</v>
       </c>
       <c r="N243" t="n">
-        <v>0.04192547769081767</v>
+        <v>0.09834945103226189</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1380680816044905</v>
+        <v>0.2918129390051357</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01056149383755766</v>
+        <v>0.01978653388268566</v>
       </c>
       <c r="G244" t="n">
-        <v>0.05449026518658346</v>
+        <v>0.2918307580673353</v>
       </c>
       <c r="J244" t="n">
-        <v>0.01202060367364881</v>
+        <v>0.02399998216950398</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1404080911052695</v>
+        <v>0.2938617204224196</v>
       </c>
       <c r="L244" t="n">
-        <v>0.03230068028472199</v>
+        <v>0.06039061857220188</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1394345254515226</v>
+        <v>0.2940789439932815</v>
       </c>
       <c r="N244" t="n">
-        <v>0.04117847240263361</v>
+        <v>0.09631948562621501</v>
       </c>
       <c r="O244" t="n">
-        <v>0.138843744984291</v>
+        <v>0.2934523375388724</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01021010398432328</v>
+        <v>0.01951601307414984</v>
       </c>
       <c r="G245" t="n">
-        <v>0.05439197483210086</v>
+        <v>0.2934610974978791</v>
       </c>
       <c r="J245" t="n">
-        <v>0.01187740453984451</v>
+        <v>0.02367037807495469</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1411924938488744</v>
+        <v>0.2955034060113717</v>
       </c>
       <c r="L245" t="n">
-        <v>0.03230357248302104</v>
+        <v>0.05965672468281305</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1402134892808607</v>
+        <v>0.2957218431217356</v>
       </c>
       <c r="N245" t="n">
-        <v>0.04164125593887125</v>
+        <v>0.09568415206912489</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1396194083640915</v>
+        <v>0.2950917360726091</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.009864546575721181</v>
+        <v>0.01824439355784368</v>
       </c>
       <c r="G246" t="n">
-        <v>0.05429368447761827</v>
+        <v>0.2950914369284229</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01203591486405371</v>
+        <v>0.02323942783682667</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1419768965924792</v>
+        <v>0.2971450916003238</v>
       </c>
       <c r="L246" t="n">
-        <v>0.03170997737270981</v>
+        <v>0.0589194230509249</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1409924531101988</v>
+        <v>0.2973647422501897</v>
       </c>
       <c r="N246" t="n">
-        <v>0.0405141511556133</v>
+        <v>0.09414337093810826</v>
       </c>
       <c r="O246" t="n">
-        <v>0.140395071743892</v>
+        <v>0.2967311346063458</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.00952513576854698</v>
+        <v>0.01697165942802538</v>
       </c>
       <c r="G247" t="n">
-        <v>0.05419539412313566</v>
+        <v>0.2967217763589667</v>
       </c>
       <c r="J247" t="n">
-        <v>0.01179618934887833</v>
+        <v>0.02300711179404726</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1427612993360841</v>
+        <v>0.2987867771892758</v>
       </c>
       <c r="L247" t="n">
-        <v>0.03171995587733017</v>
+        <v>0.05787866385781282</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1417714169395369</v>
+        <v>0.2990076413786438</v>
       </c>
       <c r="N247" t="n">
-        <v>0.0401974809089421</v>
+        <v>0.09329706281028155</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1411707351236925</v>
+        <v>0.2983705331400826</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.009192185719596284</v>
+        <v>0.01869779477895323</v>
       </c>
       <c r="G248" t="n">
-        <v>0.05409710376865307</v>
+        <v>0.2983521157895104</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01185828269692026</v>
+        <v>0.02237341028554379</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1435457020796889</v>
+        <v>0.3004284627782279</v>
       </c>
       <c r="L248" t="n">
-        <v>0.03123356892042417</v>
+        <v>0.05703439728475207</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1425503807688751</v>
+        <v>0.3006505405070979</v>
       </c>
       <c r="N248" t="n">
-        <v>0.0391915680549404</v>
+        <v>0.09164514826276127</v>
       </c>
       <c r="O248" t="n">
-        <v>0.141946398503493</v>
+        <v>0.3000099316738193</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.008866010585664691</v>
+        <v>0.01842278370488541</v>
       </c>
       <c r="G249" t="n">
-        <v>0.05399881341417047</v>
+        <v>0.2999824552200542</v>
       </c>
       <c r="J249" t="n">
-        <v>0.01202224961078135</v>
+        <v>0.02213830365024354</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1443301048232938</v>
+        <v>0.3020701483671799</v>
       </c>
       <c r="L249" t="n">
-        <v>0.03125087742553381</v>
+        <v>0.05598657351301806</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1433293445982132</v>
+        <v>0.3022934396355519</v>
       </c>
       <c r="N249" t="n">
-        <v>0.03969673544969093</v>
+        <v>0.09058754787266393</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1427220618832935</v>
+        <v>0.301649330207556</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.008546924523547828</v>
+        <v>0.01814661030008019</v>
       </c>
       <c r="G250" t="n">
-        <v>0.05390052305968786</v>
+        <v>0.301612794650598</v>
       </c>
       <c r="J250" t="n">
-        <v>0.0116881447930635</v>
+        <v>0.02190177222707386</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1451145075668986</v>
+        <v>0.303711833956132</v>
       </c>
       <c r="L250" t="n">
-        <v>0.03067194231620096</v>
+        <v>0.05513514272388609</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1441083084275513</v>
+        <v>0.303936338764006</v>
       </c>
       <c r="N250" t="n">
-        <v>0.0380133059492761</v>
+        <v>0.08882418221710603</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1434977252630941</v>
+        <v>0.3032887287412927</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.008235241690041306</v>
+        <v>0.01586925865879581</v>
       </c>
       <c r="G251" t="n">
-        <v>0.05380223270520527</v>
+        <v>0.3032431340811417</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01195602294636864</v>
+        <v>0.02166379635496204</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1458989103105035</v>
+        <v>0.3053535195450841</v>
       </c>
       <c r="L251" t="n">
-        <v>0.03079682451596769</v>
+        <v>0.05418005509863152</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1448872722568894</v>
+        <v>0.3055792378924601</v>
       </c>
       <c r="N251" t="n">
-        <v>0.03874160240977853</v>
+        <v>0.0876549718732042</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1442733886428945</v>
+        <v>0.3049281272750294</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.007931276241940732</v>
+        <v>0.01659071287529051</v>
       </c>
       <c r="G252" t="n">
-        <v>0.05370394235072267</v>
+        <v>0.3048734735116855</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01192593877329862</v>
+        <v>0.02122435637283542</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1466833130541084</v>
+        <v>0.3069952051340362</v>
       </c>
       <c r="L252" t="n">
-        <v>0.03062558494837586</v>
+        <v>0.05392126081852969</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1456662360862275</v>
+        <v>0.3072221370209142</v>
       </c>
       <c r="N252" t="n">
-        <v>0.03708194768728085</v>
+        <v>0.08617983741807478</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1450490520226951</v>
+        <v>0.3065675258087661</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.007635342336041712</v>
+        <v>0.01731095704382253</v>
       </c>
       <c r="G253" t="n">
-        <v>0.05360565199624007</v>
+        <v>0.3065038129422293</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01159794697645533</v>
+        <v>0.02098343261962131</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1474677157977132</v>
+        <v>0.3086368907229882</v>
       </c>
       <c r="L253" t="n">
-        <v>0.02995828453696756</v>
+        <v>0.05305871006485591</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1464451999155656</v>
+        <v>0.3088650361493683</v>
       </c>
       <c r="N253" t="n">
-        <v>0.03723466463786562</v>
+        <v>0.08409869942883441</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1458247154024956</v>
+        <v>0.3082069243425029</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.007347754129139884</v>
+        <v>0.0160299752586501</v>
       </c>
       <c r="G254" t="n">
-        <v>0.05350736164175748</v>
+        <v>0.3081341523727731</v>
       </c>
       <c r="J254" t="n">
-        <v>0.0116721022584407</v>
+        <v>0.02044100543424698</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1482521185413181</v>
+        <v>0.3102785763119403</v>
       </c>
       <c r="L254" t="n">
-        <v>0.02989498420528469</v>
+        <v>0.05209235301888557</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1472241637449037</v>
+        <v>0.3105079352778224</v>
       </c>
       <c r="N254" t="n">
-        <v>0.03670007611761555</v>
+        <v>0.08271147848259947</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1466003787822961</v>
+        <v>0.3098463228762396</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.007068825778030821</v>
+        <v>0.01574775161403148</v>
       </c>
       <c r="G255" t="n">
-        <v>0.05340907128727488</v>
+        <v>0.3097644918033168</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01164845932185656</v>
+        <v>0.0202970551556398</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1490365212849229</v>
+        <v>0.3119202619008923</v>
       </c>
       <c r="L255" t="n">
-        <v>0.02923574487686928</v>
+        <v>0.05102213986189397</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1480031275742419</v>
+        <v>0.3121508344062764</v>
       </c>
       <c r="N255" t="n">
-        <v>0.03627850498261304</v>
+        <v>0.0811180951564866</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1473760421620966</v>
+        <v>0.3114857214099763</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.006798871439510142</v>
+        <v>0.01546427020422488</v>
       </c>
       <c r="G256" t="n">
-        <v>0.05331078093279228</v>
+        <v>0.3113948312338606</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01182707286930485</v>
+        <v>0.01985156212272705</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1498209240285278</v>
+        <v>0.3135619474898445</v>
       </c>
       <c r="L256" t="n">
-        <v>0.0294806274752632</v>
+        <v>0.05014802077515645</v>
       </c>
       <c r="M256" t="n">
-        <v>0.14878209140358</v>
+        <v>0.3137937335347306</v>
       </c>
       <c r="N256" t="n">
-        <v>0.03637027408894083</v>
+        <v>0.08041847002761227</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1481517055418971</v>
+        <v>0.313125119943713</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.006538205270373444</v>
+        <v>0.01417951512348855</v>
       </c>
       <c r="G257" t="n">
-        <v>0.05321249057830969</v>
+        <v>0.3130251706644044</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01160799760338743</v>
+        <v>0.01950450667443607</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1506053267721326</v>
+        <v>0.3152036330787965</v>
       </c>
       <c r="L257" t="n">
-        <v>0.02912969292400852</v>
+        <v>0.04946994593994841</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1495610552329181</v>
+        <v>0.3154366326631846</v>
       </c>
       <c r="N257" t="n">
-        <v>0.0357757062926814</v>
+        <v>0.07951252367309297</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1489273689216976</v>
+        <v>0.3147645184774497</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.006287141427416376</v>
+        <v>0.01389347046608074</v>
       </c>
       <c r="G258" t="n">
-        <v>0.05311420022382709</v>
+        <v>0.3146555100949482</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01179128822670621</v>
+        <v>0.01925586914969415</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1513897295157375</v>
+        <v>0.3168453186677486</v>
       </c>
       <c r="L258" t="n">
-        <v>0.02908300214664711</v>
+        <v>0.04818786553754506</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1503400190622562</v>
+        <v>0.3170795317916387</v>
       </c>
       <c r="N258" t="n">
-        <v>0.0357951244499175</v>
+        <v>0.07710017667004521</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1497030323014981</v>
+        <v>0.3164039170111865</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.006045994067434522</v>
+        <v>0.01460612032625969</v>
       </c>
       <c r="G259" t="n">
-        <v>0.05301590986934449</v>
+        <v>0.3162858495254919</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01167699944186307</v>
+        <v>0.01890562988742862</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1521741322593424</v>
+        <v>0.3184870042567006</v>
       </c>
       <c r="L259" t="n">
-        <v>0.02834061606672109</v>
+        <v>0.04740172974922185</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1511189828915943</v>
+        <v>0.3187224309200928</v>
       </c>
       <c r="N259" t="n">
-        <v>0.03422885141673154</v>
+        <v>0.07638134959558551</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1504786956812986</v>
+        <v>0.3180433155449232</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.005815077347223509</v>
+        <v>0.01331744879828362</v>
       </c>
       <c r="G260" t="n">
-        <v>0.05291761951486189</v>
+        <v>0.3179161889560357</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01166518595145989</v>
+        <v>0.01825376922656681</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1529585350029472</v>
+        <v>0.3201286898456527</v>
       </c>
       <c r="L260" t="n">
-        <v>0.02830259560777229</v>
+        <v>0.04681148875625415</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1518979467209324</v>
+        <v>0.3203653300485469</v>
       </c>
       <c r="N260" t="n">
-        <v>0.03397721004920629</v>
+        <v>0.07435596302683051</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1512543590610991</v>
+        <v>0.3196827140786599</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.005594705423578941</v>
+        <v>0.01302743997641079</v>
       </c>
       <c r="G261" t="n">
-        <v>0.05281932916037929</v>
+        <v>0.3195465283865795</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01175590245809858</v>
+        <v>0.01790026750603599</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1537429377465521</v>
+        <v>0.3217703754346047</v>
       </c>
       <c r="L261" t="n">
-        <v>0.02806900169334273</v>
+        <v>0.04591709273991723</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1526769105502706</v>
+        <v>0.322008229177001</v>
       </c>
       <c r="N261" t="n">
-        <v>0.03354052320342421</v>
+        <v>0.07312393754089652</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1520300224408996</v>
+        <v>0.3213221126123966</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.005385192453296418</v>
+        <v>0.01373607795489944</v>
       </c>
       <c r="G262" t="n">
-        <v>0.05272103880589669</v>
+        <v>0.3211768678171232</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01154920366438102</v>
+        <v>0.01764510506476348</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1545273404901569</v>
+        <v>0.3234120610235569</v>
       </c>
       <c r="L262" t="n">
-        <v>0.02793989524697435</v>
+        <v>0.04461849188148639</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1534558743796086</v>
+        <v>0.3236511283054551</v>
       </c>
       <c r="N262" t="n">
-        <v>0.03411911373546794</v>
+        <v>0.07188519371490015</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1528056858207002</v>
+        <v>0.3229615111461333</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.005186852593171573</v>
+        <v>0.0124433468280078</v>
       </c>
       <c r="G263" t="n">
-        <v>0.0526227484514141</v>
+        <v>0.322807207247667</v>
       </c>
       <c r="J263" t="n">
-        <v>0.0117451442729091</v>
+        <v>0.01748826224167666</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1553117432337618</v>
+        <v>0.3250537466125089</v>
       </c>
       <c r="L263" t="n">
-        <v>0.02751533719220922</v>
+        <v>0.04381563636223698</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1542348382089468</v>
+        <v>0.3252940274339092</v>
       </c>
       <c r="N263" t="n">
-        <v>0.03301330450142009</v>
+        <v>0.06973965212595784</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1535813492005007</v>
+        <v>0.32460090967987</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.01414923068999411</v>
       </c>
       <c r="G264" t="n">
-        <v>0.05252445809693149</v>
+        <v>0.3244375466782108</v>
       </c>
       <c r="J264" t="n">
-        <v>0.0115437789862847</v>
+        <v>0.01682971937570278</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1560961459773667</v>
+        <v>0.326695432201461</v>
       </c>
       <c r="L264" t="n">
-        <v>0.02759538845258924</v>
+        <v>0.04270847636344446</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1550138020382849</v>
+        <v>0.3269369265623632</v>
       </c>
       <c r="N264" t="n">
-        <v>0.03292341835736323</v>
+        <v>0.06878723335118614</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1543570125803012</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1">
-      <c r="F265" t="n">
-        <v>0.004999999999999998</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.05251130020219465</v>
-      </c>
-    </row>
-    <row r="266" ht="15" customHeight="1">
-      <c r="F266" t="n">
-        <v>0.005665769546866588</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.05251156873065867</v>
-      </c>
-    </row>
-    <row r="267" ht="15" customHeight="1">
-      <c r="F267" t="n">
-        <v>0.006327873811434133</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.05251183725912269</v>
-      </c>
-    </row>
-    <row r="268" ht="15" customHeight="1">
-      <c r="F268" t="n">
-        <v>0.006986271547545116</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.05251210578758671</v>
-      </c>
-    </row>
-    <row r="269" ht="15" customHeight="1">
-      <c r="F269" t="n">
-        <v>0.007640921509099508</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.05251237431605073</v>
-      </c>
-    </row>
-    <row r="270" ht="15" customHeight="1">
-      <c r="F270" t="n">
-        <v>0.008291782449940138</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.05251264284451474</v>
-      </c>
-    </row>
-    <row r="271" ht="15" customHeight="1">
-      <c r="F271" t="n">
-        <v>0.008938813123966639</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.05251291137297876</v>
-      </c>
-    </row>
-    <row r="272" ht="15" customHeight="1">
-      <c r="F272" t="n">
-        <v>0.009581972285022181</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.05251317990144277</v>
-      </c>
-    </row>
-    <row r="273" ht="15" customHeight="1">
-      <c r="F273" t="n">
-        <v>0.01022121868700605</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.05251344842990679</v>
-      </c>
-    </row>
-    <row r="274" ht="15" customHeight="1">
-      <c r="F274" t="n">
-        <v>0.01085651108376175</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.05251371695837081</v>
-      </c>
-    </row>
-    <row r="275" ht="15" customHeight="1">
-      <c r="F275" t="n">
-        <v>0.01148780822918825</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.05251398548683483</v>
-      </c>
-    </row>
-    <row r="276" ht="15" customHeight="1">
-      <c r="F276" t="n">
-        <v>0.01211506887712937</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.05251425401529884</v>
-      </c>
-    </row>
-    <row r="277" ht="15" customHeight="1">
-      <c r="F277" t="n">
-        <v>0.01273825178148373</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.05251452254376286</v>
-      </c>
-    </row>
-    <row r="278" ht="15" customHeight="1">
-      <c r="F278" t="n">
-        <v>0.01335731569609552</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.05251479107222688</v>
-      </c>
-    </row>
-    <row r="279" ht="15" customHeight="1">
-      <c r="F279" t="n">
-        <v>0.01397221937486302</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.0525150596006909</v>
-      </c>
-    </row>
-    <row r="280" ht="15" customHeight="1">
-      <c r="F280" t="n">
-        <v>0.01458292157163077</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.05251532812915492</v>
-      </c>
-    </row>
-    <row r="281" ht="15" customHeight="1">
-      <c r="F281" t="n">
-        <v>0.01518938104029664</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.05251559665761894</v>
-      </c>
-    </row>
-    <row r="282" ht="15" customHeight="1">
-      <c r="F282" t="n">
-        <v>0.01579155653470558</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.05251586518608295</v>
-      </c>
-    </row>
-    <row r="283" ht="15" customHeight="1">
-      <c r="F283" t="n">
-        <v>0.01638940680874214</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.05251613371454696</v>
-      </c>
-    </row>
-    <row r="284" ht="15" customHeight="1">
-      <c r="F284" t="n">
-        <v>0.01698289061629049</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.05251640224301098</v>
-      </c>
-    </row>
-    <row r="285" ht="15" customHeight="1">
-      <c r="F285" t="n">
-        <v>0.01757196671119613</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.052516670771475</v>
-      </c>
-    </row>
-    <row r="286" ht="15" customHeight="1">
-      <c r="F286" t="n">
-        <v>0.018156593847356</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.05251693929993902</v>
-      </c>
-    </row>
-    <row r="287" ht="15" customHeight="1">
-      <c r="F287" t="n">
-        <v>0.01873673077861598</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.05251720782840303</v>
-      </c>
-    </row>
-    <row r="288" ht="15" customHeight="1">
-      <c r="F288" t="n">
-        <v>0.01931233625887263</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.05251747635686705</v>
-      </c>
-    </row>
-    <row r="289" ht="15" customHeight="1">
-      <c r="F289" t="n">
-        <v>0.01988336904197221</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.05251774488533106</v>
-      </c>
-    </row>
-    <row r="290" ht="15" customHeight="1">
-      <c r="F290" t="n">
-        <v>0.02044995630350303</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.05251801341379508</v>
-      </c>
-    </row>
-    <row r="291" ht="15" customHeight="1">
-      <c r="F291" t="n">
-        <v>0.02101306732746454</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.0525182819422591</v>
-      </c>
-    </row>
-    <row r="292" ht="15" customHeight="1">
-      <c r="F292" t="n">
-        <v>0.02157282928944469</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.05251855047072312</v>
-      </c>
-    </row>
-    <row r="293" ht="15" customHeight="1">
-      <c r="F293" t="n">
-        <v>0.02212920094329043</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.05251881899918714</v>
-      </c>
-    </row>
-    <row r="294" ht="15" customHeight="1">
-      <c r="F294" t="n">
-        <v>0.0226821410428973</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.05251908752765116</v>
-      </c>
-    </row>
-    <row r="295" ht="15" customHeight="1">
-      <c r="F295" t="n">
-        <v>0.02323160834211253</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.05251935605611517</v>
-      </c>
-    </row>
-    <row r="296" ht="15" customHeight="1">
-      <c r="F296" t="n">
-        <v>0.02377756159483135</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.05251962458457919</v>
-      </c>
-    </row>
-    <row r="297" ht="15" customHeight="1">
-      <c r="F297" t="n">
-        <v>0.02431995955490134</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.0525198931130432</v>
-      </c>
-    </row>
-    <row r="298" ht="15" customHeight="1">
-      <c r="F298" t="n">
-        <v>0.02485876097620569</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.05252016164150722</v>
-      </c>
-    </row>
-    <row r="299" ht="15" customHeight="1">
-      <c r="F299" t="n">
-        <v>0.02539392461262736</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.05252043016997124</v>
-      </c>
-    </row>
-    <row r="300" ht="15" customHeight="1">
-      <c r="F300" t="n">
-        <v>0.02592540921801438</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.05252069869843525</v>
-      </c>
-    </row>
-    <row r="301" ht="15" customHeight="1">
-      <c r="F301" t="n">
-        <v>0.02645317354626113</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.05252096722689927</v>
-      </c>
-    </row>
-    <row r="302" ht="15" customHeight="1">
-      <c r="F302" t="n">
-        <v>0.02697717635121603</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.05252123575536329</v>
-      </c>
-    </row>
-    <row r="303" ht="15" customHeight="1">
-      <c r="F303" t="n">
-        <v>0.02749737638677317</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.05252150428382731</v>
-      </c>
-    </row>
-    <row r="304" ht="15" customHeight="1">
-      <c r="F304" t="n">
-        <v>0.02801373240678121</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.05252177281229133</v>
-      </c>
-    </row>
-    <row r="305" ht="15" customHeight="1">
-      <c r="F305" t="n">
-        <v>0.02852620316513396</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.05252204134075535</v>
-      </c>
-    </row>
-    <row r="306" ht="15" customHeight="1">
-      <c r="F306" t="n">
-        <v>0.02903474741568041</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.05252230986921936</v>
-      </c>
-    </row>
-    <row r="307" ht="15" customHeight="1">
-      <c r="F307" t="n">
-        <v>0.02953932391231402</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.05252257839768338</v>
-      </c>
-    </row>
-    <row r="308" ht="15" customHeight="1">
-      <c r="F308" t="n">
-        <v>0.03003989140888416</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.05252284692614739</v>
-      </c>
-    </row>
-    <row r="309" ht="15" customHeight="1">
-      <c r="F309" t="n">
-        <v>0.03053640865928389</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.05252311545461141</v>
-      </c>
-    </row>
-    <row r="310" ht="15" customHeight="1">
-      <c r="F310" t="n">
-        <v>0.03102883441736295</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.05252338398307543</v>
-      </c>
-    </row>
-    <row r="311" ht="15" customHeight="1">
-      <c r="F311" t="n">
-        <v>0.03151712743701407</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.05252365251153945</v>
-      </c>
-    </row>
-    <row r="312" ht="15" customHeight="1">
-      <c r="F312" t="n">
-        <v>0.0320012464720873</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.05252392104000346</v>
-      </c>
-    </row>
-    <row r="313" ht="15" customHeight="1">
-      <c r="F313" t="n">
-        <v>0.03248115027647507</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.05252418956846748</v>
-      </c>
-    </row>
-    <row r="314" ht="15" customHeight="1">
-      <c r="F314" t="n">
-        <v>0.03295679760402774</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.05252445809693149</v>
-      </c>
-    </row>
-    <row r="315" ht="15" customHeight="1">
-      <c r="F315" t="n">
-        <v>0.03295679760402774</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.05251130020219465</v>
-      </c>
-    </row>
-    <row r="316" ht="15" customHeight="1">
-      <c r="F316" t="n">
-        <v>0.03345552286334028</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.05261012761360529</v>
-      </c>
-    </row>
-    <row r="317" ht="15" customHeight="1">
-      <c r="F317" t="n">
-        <v>0.03394964178989118</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.05270895502501592</v>
-      </c>
-    </row>
-    <row r="318" ht="15" customHeight="1">
-      <c r="F318" t="n">
-        <v>0.03443903098425377</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.05280778243642655</v>
-      </c>
-    </row>
-    <row r="319" ht="15" customHeight="1">
-      <c r="F319" t="n">
-        <v>0.03492356704700146</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.05290660984783719</v>
-      </c>
-    </row>
-    <row r="320" ht="15" customHeight="1">
-      <c r="F320" t="n">
-        <v>0.03540312657870744</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.05300543725924782</v>
-      </c>
-    </row>
-    <row r="321" ht="15" customHeight="1">
-      <c r="F321" t="n">
-        <v>0.03587758617994512</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.05310426467065845</v>
-      </c>
-    </row>
-    <row r="322" ht="15" customHeight="1">
-      <c r="F322" t="n">
-        <v>0.03634682245128786</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.05320309208206909</v>
-      </c>
-    </row>
-    <row r="323" ht="15" customHeight="1">
-      <c r="F323" t="n">
-        <v>0.03681071199330889</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.05330191949347971</v>
-      </c>
-    </row>
-    <row r="324" ht="15" customHeight="1">
-      <c r="F324" t="n">
-        <v>0.03726913140658163</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.05340074690489034</v>
-      </c>
-    </row>
-    <row r="325" ht="15" customHeight="1">
-      <c r="F325" t="n">
-        <v>0.03772195729167943</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.05349957431630098</v>
-      </c>
-    </row>
-    <row r="326" ht="15" customHeight="1">
-      <c r="F326" t="n">
-        <v>0.03816906624917552</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.05359840172771161</v>
-      </c>
-    </row>
-    <row r="327" ht="15" customHeight="1">
-      <c r="F327" t="n">
-        <v>0.0386103348796433</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.05369722913912225</v>
-      </c>
-    </row>
-    <row r="328" ht="15" customHeight="1">
-      <c r="F328" t="n">
-        <v>0.03904563978365605</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.05379605655053288</v>
-      </c>
-    </row>
-    <row r="329" ht="15" customHeight="1">
-      <c r="F329" t="n">
-        <v>0.03947485756178713</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.05389488396194351</v>
-      </c>
-    </row>
-    <row r="330" ht="15" customHeight="1">
-      <c r="F330" t="n">
-        <v>0.0398978648146099</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.05399371137335415</v>
-      </c>
-    </row>
-    <row r="331" ht="15" customHeight="1">
-      <c r="F331" t="n">
-        <v>0.04031453814269763</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.05409253878476478</v>
-      </c>
-    </row>
-    <row r="332" ht="15" customHeight="1">
-      <c r="F332" t="n">
-        <v>0.04072475414662372</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.05419136619617541</v>
-      </c>
-    </row>
-    <row r="333" ht="15" customHeight="1">
-      <c r="F333" t="n">
-        <v>0.04112838942696141</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.05429019360758604</v>
-      </c>
-    </row>
-    <row r="334" ht="15" customHeight="1">
-      <c r="F334" t="n">
-        <v>0.04152532058428406</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.05438902101899667</v>
-      </c>
-    </row>
-    <row r="335" ht="15" customHeight="1">
-      <c r="F335" t="n">
-        <v>0.04191542421916507</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0.05448784843040731</v>
-      </c>
-    </row>
-    <row r="336" ht="15" customHeight="1">
-      <c r="F336" t="n">
-        <v>0.04229857693217766</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.05458667584181794</v>
-      </c>
-    </row>
-    <row r="337" ht="15" customHeight="1">
-      <c r="F337" t="n">
-        <v>0.04267465532389526</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.05468550325322857</v>
-      </c>
-    </row>
-    <row r="338" ht="15" customHeight="1">
-      <c r="F338" t="n">
-        <v>0.04304353599489112</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.0547843306646392</v>
-      </c>
-    </row>
-    <row r="339" ht="15" customHeight="1">
-      <c r="F339" t="n">
-        <v>0.04340509554573861</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0.05488315807604983</v>
-      </c>
-    </row>
-    <row r="340" ht="15" customHeight="1">
-      <c r="F340" t="n">
-        <v>0.04375971445800332</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0.05498198548746047</v>
-      </c>
-    </row>
-    <row r="341" ht="15" customHeight="1">
-      <c r="F341" t="n">
-        <v>0.04411029261821194</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0.0550808128988711</v>
-      </c>
-    </row>
-    <row r="342" ht="15" customHeight="1">
-      <c r="F342" t="n">
-        <v>0.04445721050793007</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0.05517964031028173</v>
-      </c>
-    </row>
-    <row r="343" ht="15" customHeight="1">
-      <c r="F343" t="n">
-        <v>0.04480034472773108</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.05527846772169237</v>
-      </c>
-    </row>
-    <row r="344" ht="15" customHeight="1">
-      <c r="F344" t="n">
-        <v>0.04513957187818823</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.05537729513310299</v>
-      </c>
-    </row>
-    <row r="345" ht="15" customHeight="1">
-      <c r="F345" t="n">
-        <v>0.04547476855987494</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0.05547612254451364</v>
-      </c>
-    </row>
-    <row r="346" ht="15" customHeight="1">
-      <c r="F346" t="n">
-        <v>0.04580581137336441</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.05557494995592426</v>
-      </c>
-    </row>
-    <row r="347" ht="15" customHeight="1">
-      <c r="F347" t="n">
-        <v>0.04613257691923008</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.05567377736733489</v>
-      </c>
-    </row>
-    <row r="348" ht="15" customHeight="1">
-      <c r="F348" t="n">
-        <v>0.04645494179804524</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.05577260477874553</v>
-      </c>
-    </row>
-    <row r="349" ht="15" customHeight="1">
-      <c r="F349" t="n">
-        <v>0.0467727826103832</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.05587143219015616</v>
-      </c>
-    </row>
-    <row r="350" ht="15" customHeight="1">
-      <c r="F350" t="n">
-        <v>0.04708597595681735</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.0559702596015668</v>
-      </c>
-    </row>
-    <row r="351" ht="15" customHeight="1">
-      <c r="F351" t="n">
-        <v>0.04739439843792094</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.05606908701297743</v>
-      </c>
-    </row>
-    <row r="352" ht="15" customHeight="1">
-      <c r="F352" t="n">
-        <v>0.04769792665426736</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.05616791442438805</v>
-      </c>
-    </row>
-    <row r="353" ht="15" customHeight="1">
-      <c r="F353" t="n">
-        <v>0.04799643720642993</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.0562667418357987</v>
-      </c>
-    </row>
-    <row r="354" ht="15" customHeight="1">
-      <c r="F354" t="n">
-        <v>0.04828980669498194</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.05636556924720932</v>
-      </c>
-    </row>
-    <row r="355" ht="15" customHeight="1">
-      <c r="F355" t="n">
-        <v>0.04857791172049679</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.05646439665861996</v>
-      </c>
-    </row>
-    <row r="356" ht="15" customHeight="1">
-      <c r="F356" t="n">
-        <v>0.04886062888354774</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.05656322407003059</v>
-      </c>
-    </row>
-    <row r="357" ht="15" customHeight="1">
-      <c r="F357" t="n">
-        <v>0.04913783478470812</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.05666205148144122</v>
-      </c>
-    </row>
-    <row r="358" ht="15" customHeight="1">
-      <c r="F358" t="n">
-        <v>0.04940940602455134</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0.05676087889285186</v>
-      </c>
-    </row>
-    <row r="359" ht="15" customHeight="1">
-      <c r="F359" t="n">
-        <v>0.04967521920365064</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.05685970630426249</v>
-      </c>
-    </row>
-    <row r="360" ht="15" customHeight="1">
-      <c r="F360" t="n">
-        <v>0.0499351509225794</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0.05695853371567311</v>
-      </c>
-    </row>
-    <row r="361" ht="15" customHeight="1">
-      <c r="F361" t="n">
-        <v>0.05018907778191094</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0.05705736112708375</v>
-      </c>
-    </row>
-    <row r="362" ht="15" customHeight="1">
-      <c r="F362" t="n">
-        <v>0.05043687638221857</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0.05715618853849438</v>
-      </c>
-    </row>
-    <row r="363" ht="15" customHeight="1">
-      <c r="F363" t="n">
-        <v>0.05067842332407566</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0.05725501594990502</v>
-      </c>
-    </row>
-    <row r="364" ht="15" customHeight="1">
-      <c r="F364" t="n">
-        <v>0.05091359520805547</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0.05735384336131565</v>
-      </c>
-    </row>
-    <row r="365" ht="15" customHeight="1">
-      <c r="F365" t="n">
-        <v>0.04627573013870365</v>
-      </c>
-      <c r="G365" t="n">
-        <v>0.05735384336131565</v>
-      </c>
-    </row>
-    <row r="366" ht="15" customHeight="1">
-      <c r="F366" t="n">
-        <v>0.05113002781257139</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0.05896245821848665</v>
-      </c>
-    </row>
-    <row r="367" ht="15" customHeight="1">
-      <c r="F367" t="n">
-        <v>0.0513302541745029</v>
-      </c>
-      <c r="G367" t="n">
-        <v>0.06057107307565763</v>
-      </c>
-    </row>
-    <row r="368" ht="15" customHeight="1">
-      <c r="F368" t="n">
-        <v>0.05151490496521914</v>
-      </c>
-      <c r="G368" t="n">
-        <v>0.06217968793282863</v>
-      </c>
-    </row>
-    <row r="369" ht="15" customHeight="1">
-      <c r="F369" t="n">
-        <v>0.05168461085608922</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0.06378830278999963</v>
-      </c>
-    </row>
-    <row r="370" ht="15" customHeight="1">
-      <c r="F370" t="n">
-        <v>0.05184000251848227</v>
-      </c>
-      <c r="G370" t="n">
-        <v>0.06539691764717062</v>
-      </c>
-    </row>
-    <row r="371" ht="15" customHeight="1">
-      <c r="F371" t="n">
-        <v>0.05198171062376744</v>
-      </c>
-      <c r="G371" t="n">
-        <v>0.0670055325043416</v>
-      </c>
-    </row>
-    <row r="372" ht="15" customHeight="1">
-      <c r="F372" t="n">
-        <v>0.05211036584331386</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0.06861414736151261</v>
-      </c>
-    </row>
-    <row r="373" ht="15" customHeight="1">
-      <c r="F373" t="n">
-        <v>0.05222659884849064</v>
-      </c>
-      <c r="G373" t="n">
-        <v>0.07022276221868361</v>
-      </c>
-    </row>
-    <row r="374" ht="15" customHeight="1">
-      <c r="F374" t="n">
-        <v>0.05233104031066692</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0.07183137707585459</v>
-      </c>
-    </row>
-    <row r="375" ht="15" customHeight="1">
-      <c r="F375" t="n">
-        <v>0.05242432090121182</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0.07343999193302558</v>
-      </c>
-    </row>
-    <row r="376" ht="15" customHeight="1">
-      <c r="F376" t="n">
-        <v>0.05250707129149451</v>
-      </c>
-      <c r="G376" t="n">
-        <v>0.07504860679019658</v>
-      </c>
-    </row>
-    <row r="377" ht="15" customHeight="1">
-      <c r="F377" t="n">
-        <v>0.0525799221528841</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0.07665722164736757</v>
-      </c>
-    </row>
-    <row r="378" ht="15" customHeight="1">
-      <c r="F378" t="n">
-        <v>0.0526435041567497</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0.07826583650453857</v>
-      </c>
-    </row>
-    <row r="379" ht="15" customHeight="1">
-      <c r="F379" t="n">
-        <v>0.05269844797446047</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0.07987445136170956</v>
-      </c>
-    </row>
-    <row r="380" ht="15" customHeight="1">
-      <c r="F380" t="n">
-        <v>0.05274538427738551</v>
-      </c>
-      <c r="G380" t="n">
-        <v>0.08148306621888055</v>
-      </c>
-    </row>
-    <row r="381" ht="15" customHeight="1">
-      <c r="F381" t="n">
-        <v>0.05278494373689399</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.08309168107605154</v>
-      </c>
-    </row>
-    <row r="382" ht="15" customHeight="1">
-      <c r="F382" t="n">
-        <v>0.05281775702435504</v>
-      </c>
-      <c r="G382" t="n">
-        <v>0.08470029593322255</v>
-      </c>
-    </row>
-    <row r="383" ht="15" customHeight="1">
-      <c r="F383" t="n">
-        <v>0.05284445481113775</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0.08630891079039353</v>
-      </c>
-    </row>
-    <row r="384" ht="15" customHeight="1">
-      <c r="F384" t="n">
-        <v>0.05286566776861128</v>
-      </c>
-      <c r="G384" t="n">
-        <v>0.08791752564756453</v>
-      </c>
-    </row>
-    <row r="385" ht="15" customHeight="1">
-      <c r="F385" t="n">
-        <v>0.05288202656814475</v>
-      </c>
-      <c r="G385" t="n">
-        <v>0.08952614050473552</v>
-      </c>
-    </row>
-    <row r="386" ht="15" customHeight="1">
-      <c r="F386" t="n">
-        <v>0.05289416188110729</v>
-      </c>
-      <c r="G386" t="n">
-        <v>0.09113475536190652</v>
-      </c>
-    </row>
-    <row r="387" ht="15" customHeight="1">
-      <c r="F387" t="n">
-        <v>0.05290270437886807</v>
-      </c>
-      <c r="G387" t="n">
-        <v>0.09274337021907751</v>
-      </c>
-    </row>
-    <row r="388" ht="15" customHeight="1">
-      <c r="F388" t="n">
-        <v>0.05290828473279616</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0.09435198507624851</v>
-      </c>
-    </row>
-    <row r="389" ht="15" customHeight="1">
-      <c r="F389" t="n">
-        <v>0.05291153361426074</v>
-      </c>
-      <c r="G389" t="n">
-        <v>0.09596059993341949</v>
-      </c>
-    </row>
-    <row r="390" ht="15" customHeight="1">
-      <c r="F390" t="n">
-        <v>0.0529130816946309</v>
-      </c>
-      <c r="G390" t="n">
-        <v>0.09756921479059048</v>
-      </c>
-    </row>
-    <row r="391" ht="15" customHeight="1">
-      <c r="F391" t="n">
-        <v>0.05291355964527582</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0.09917782964776149</v>
-      </c>
-    </row>
-    <row r="392" ht="15" customHeight="1">
-      <c r="F392" t="n">
-        <v>0.05290939137175425</v>
-      </c>
-      <c r="G392" t="n">
-        <v>0.1007864445049325</v>
-      </c>
-    </row>
-    <row r="393" ht="15" customHeight="1">
-      <c r="F393" t="n">
-        <v>0.05283777046567655</v>
-      </c>
-      <c r="G393" t="n">
-        <v>0.1023950593621035</v>
-      </c>
-    </row>
-    <row r="394" ht="15" customHeight="1">
-      <c r="F394" t="n">
-        <v>0.05268250717616887</v>
-      </c>
-      <c r="G394" t="n">
-        <v>0.1040036742192745</v>
-      </c>
-    </row>
-    <row r="395" ht="15" customHeight="1">
-      <c r="F395" t="n">
-        <v>0.05245010745187408</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0.1056122890764454</v>
-      </c>
-    </row>
-    <row r="396" ht="15" customHeight="1">
-      <c r="F396" t="n">
-        <v>0.0521470772414349</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0.1072209039336165</v>
-      </c>
-    </row>
-    <row r="397" ht="15" customHeight="1">
-      <c r="F397" t="n">
-        <v>0.05177992249349417</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0.1088295187907874</v>
-      </c>
-    </row>
-    <row r="398" ht="15" customHeight="1">
-      <c r="F398" t="n">
-        <v>0.05135514915669469</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0.1104381336479585</v>
-      </c>
-    </row>
-    <row r="399" ht="15" customHeight="1">
-      <c r="F399" t="n">
-        <v>0.05087926317967925</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0.1120467485051294</v>
-      </c>
-    </row>
-    <row r="400" ht="15" customHeight="1">
-      <c r="F400" t="n">
-        <v>0.05035877051109067</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0.1136553633623004</v>
-      </c>
-    </row>
-    <row r="401" ht="15" customHeight="1">
-      <c r="F401" t="n">
-        <v>0.04980017709957173</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0.1152639782194714</v>
-      </c>
-    </row>
-    <row r="402" ht="15" customHeight="1">
-      <c r="F402" t="n">
-        <v>0.04920998889376522</v>
-      </c>
-      <c r="G402" t="n">
-        <v>0.1168725930766424</v>
-      </c>
-    </row>
-    <row r="403" ht="15" customHeight="1">
-      <c r="F403" t="n">
-        <v>0.04859471184231397</v>
-      </c>
-      <c r="G403" t="n">
-        <v>0.1184812079338134</v>
-      </c>
-    </row>
-    <row r="404" ht="15" customHeight="1">
-      <c r="F404" t="n">
-        <v>0.04796085189386073</v>
-      </c>
-      <c r="G404" t="n">
-        <v>0.1200898227909844</v>
-      </c>
-    </row>
-    <row r="405" ht="15" customHeight="1">
-      <c r="F405" t="n">
-        <v>0.04731491499704839</v>
-      </c>
-      <c r="G405" t="n">
-        <v>0.1216984376481554</v>
-      </c>
-    </row>
-    <row r="406" ht="15" customHeight="1">
-      <c r="F406" t="n">
-        <v>0.04666340710051965</v>
-      </c>
-      <c r="G406" t="n">
-        <v>0.1233070525053264</v>
-      </c>
-    </row>
-    <row r="407" ht="15" customHeight="1">
-      <c r="F407" t="n">
-        <v>0.0460128341529174</v>
-      </c>
-      <c r="G407" t="n">
-        <v>0.1249156673624974</v>
-      </c>
-    </row>
-    <row r="408" ht="15" customHeight="1">
-      <c r="F408" t="n">
-        <v>0.04536970210288437</v>
-      </c>
-      <c r="G408" t="n">
-        <v>0.1265242822196684</v>
-      </c>
-    </row>
-    <row r="409" ht="15" customHeight="1">
-      <c r="F409" t="n">
-        <v>0.04474051689906339</v>
-      </c>
-      <c r="G409" t="n">
-        <v>0.1281328970768394</v>
-      </c>
-    </row>
-    <row r="410" ht="15" customHeight="1">
-      <c r="F410" t="n">
-        <v>0.04413178449009723</v>
-      </c>
-      <c r="G410" t="n">
-        <v>0.1297415119340104</v>
-      </c>
-    </row>
-    <row r="411" ht="15" customHeight="1">
-      <c r="F411" t="n">
-        <v>0.04355001082462875</v>
-      </c>
-      <c r="G411" t="n">
-        <v>0.1313501267911814</v>
-      </c>
-    </row>
-    <row r="412" ht="15" customHeight="1">
-      <c r="F412" t="n">
-        <v>0.04300170185130071</v>
-      </c>
-      <c r="G412" t="n">
-        <v>0.1329587416483523</v>
-      </c>
-    </row>
-    <row r="413" ht="15" customHeight="1">
-      <c r="F413" t="n">
-        <v>0.04249336351875592</v>
-      </c>
-      <c r="G413" t="n">
-        <v>0.1345673565055233</v>
-      </c>
-    </row>
-    <row r="414" ht="15" customHeight="1">
-      <c r="F414" t="n">
-        <v>0.04203150177563716</v>
-      </c>
-      <c r="G414" t="n">
-        <v>0.1361759713626944</v>
-      </c>
-    </row>
-    <row r="415" ht="15" customHeight="1">
-      <c r="F415" t="n">
-        <v>0.04162262257058726</v>
-      </c>
-      <c r="G415" t="n">
-        <v>0.1377845862198653</v>
-      </c>
-    </row>
-    <row r="416" ht="15" customHeight="1">
-      <c r="F416" t="n">
-        <v>0.041256360499331</v>
-      </c>
-      <c r="G416" t="n">
-        <v>0.1393932010770363</v>
-      </c>
-    </row>
-    <row r="417" ht="15" customHeight="1">
-      <c r="F417" t="n">
-        <v>0.04088439338395093</v>
-      </c>
-      <c r="G417" t="n">
-        <v>0.1410018159342073</v>
-      </c>
-    </row>
-    <row r="418" ht="15" customHeight="1">
-      <c r="F418" t="n">
-        <v>0.04050494261507274</v>
-      </c>
-      <c r="G418" t="n">
-        <v>0.1426104307913783</v>
-      </c>
-    </row>
-    <row r="419" ht="15" customHeight="1">
-      <c r="F419" t="n">
-        <v>0.04011994803458419</v>
-      </c>
-      <c r="G419" t="n">
-        <v>0.1442190456485493</v>
-      </c>
-    </row>
-    <row r="420" ht="15" customHeight="1">
-      <c r="F420" t="n">
-        <v>0.03973134948437296</v>
-      </c>
-      <c r="G420" t="n">
-        <v>0.1458276605057203</v>
-      </c>
-    </row>
-    <row r="421" ht="15" customHeight="1">
-      <c r="F421" t="n">
-        <v>0.03934108680632686</v>
-      </c>
-      <c r="G421" t="n">
-        <v>0.1474362753628913</v>
-      </c>
-    </row>
-    <row r="422" ht="15" customHeight="1">
-      <c r="F422" t="n">
-        <v>0.03895109984233359</v>
-      </c>
-      <c r="G422" t="n">
-        <v>0.1490448902200623</v>
-      </c>
-    </row>
-    <row r="423" ht="15" customHeight="1">
-      <c r="F423" t="n">
-        <v>0.03856332843428086</v>
-      </c>
-      <c r="G423" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="424" ht="15" customHeight="1">
-      <c r="F424" t="n">
-        <v>0.03817971242405643</v>
-      </c>
-      <c r="G424" t="n">
-        <v>0.1522621199344043</v>
-      </c>
-    </row>
-    <row r="425" ht="15" customHeight="1">
-      <c r="F425" t="n">
-        <v>0.03780219165354803</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0.1538707347915753</v>
-      </c>
-    </row>
-    <row r="426" ht="15" customHeight="1">
-      <c r="F426" t="n">
-        <v>0.03743270596464339</v>
-      </c>
-      <c r="G426" t="n">
-        <v>0.1554793496487463</v>
-      </c>
-    </row>
-    <row r="427" ht="15" customHeight="1">
-      <c r="F427" t="n">
-        <v>0.03707319519923023</v>
-      </c>
-      <c r="G427" t="n">
-        <v>0.1570879645059173</v>
-      </c>
-    </row>
-    <row r="428" ht="15" customHeight="1">
-      <c r="F428" t="n">
-        <v>0.03672559919919631</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0.1586965793630883</v>
-      </c>
-    </row>
-    <row r="429" ht="15" customHeight="1">
-      <c r="F429" t="n">
-        <v>0.03639185780642937</v>
-      </c>
-      <c r="G429" t="n">
-        <v>0.1603051942202592</v>
-      </c>
-    </row>
-    <row r="430" ht="15" customHeight="1">
-      <c r="F430" t="n">
-        <v>0.0360739108628171</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0.1619138090774302</v>
-      </c>
-    </row>
-    <row r="431" ht="15" customHeight="1">
-      <c r="F431" t="n">
-        <v>0.03577369821024726</v>
-      </c>
-      <c r="G431" t="n">
-        <v>0.1635224239346012</v>
-      </c>
-    </row>
-    <row r="432" ht="15" customHeight="1">
-      <c r="F432" t="n">
-        <v>0.03549315969060758</v>
-      </c>
-      <c r="G432" t="n">
-        <v>0.1651310387917722</v>
-      </c>
-    </row>
-    <row r="433" ht="15" customHeight="1">
-      <c r="F433" t="n">
-        <v>0.0352342351457858</v>
-      </c>
-      <c r="G433" t="n">
-        <v>0.1667396536489432</v>
-      </c>
-    </row>
-    <row r="434" ht="15" customHeight="1">
-      <c r="F434" t="n">
-        <v>0.03499886441766965</v>
-      </c>
-      <c r="G434" t="n">
-        <v>0.1683482685061142</v>
-      </c>
-    </row>
-    <row r="435" ht="15" customHeight="1">
-      <c r="F435" t="n">
-        <v>0.03478898734814685</v>
-      </c>
-      <c r="G435" t="n">
-        <v>0.1699568833632852</v>
-      </c>
-    </row>
-    <row r="436" ht="15" customHeight="1">
-      <c r="F436" t="n">
-        <v>0.03460654377910516</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0.1715654982204562</v>
-      </c>
-    </row>
-    <row r="437" ht="15" customHeight="1">
-      <c r="F437" t="n">
-        <v>0.03445347355243229</v>
-      </c>
-      <c r="G437" t="n">
-        <v>0.1731741130776272</v>
-      </c>
-    </row>
-    <row r="438" ht="15" customHeight="1">
-      <c r="F438" t="n">
-        <v>0.03433171651001599</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0.1747827279347982</v>
-      </c>
-    </row>
-    <row r="439" ht="15" customHeight="1">
-      <c r="F439" t="n">
-        <v>0.03424321249374397</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0.1763913427919692</v>
-      </c>
-    </row>
-    <row r="440" ht="15" customHeight="1">
-      <c r="F440" t="n">
-        <v>0.03418990134550398</v>
-      </c>
-      <c r="G440" t="n">
-        <v>0.1779999576491402</v>
-      </c>
-    </row>
-    <row r="441" ht="15" customHeight="1">
-      <c r="F441" t="n">
-        <v>0.03417360494310057</v>
-      </c>
-      <c r="G441" t="n">
-        <v>0.1796085725063112</v>
-      </c>
-    </row>
-    <row r="442" ht="15" customHeight="1">
-      <c r="F442" t="n">
-        <v>0.0341736705508935</v>
-      </c>
-      <c r="G442" t="n">
-        <v>0.1812171873634822</v>
-      </c>
-    </row>
-    <row r="443" ht="15" customHeight="1">
-      <c r="F443" t="n">
-        <v>0.03417407514506758</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0.1828258022206532</v>
-      </c>
-    </row>
-    <row r="444" ht="15" customHeight="1">
-      <c r="F444" t="n">
-        <v>0.03417513323840948</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0.1844344170778242</v>
-      </c>
-    </row>
-    <row r="445" ht="15" customHeight="1">
-      <c r="F445" t="n">
-        <v>0.03417715934370584</v>
-      </c>
-      <c r="G445" t="n">
-        <v>0.1860430319349952</v>
-      </c>
-    </row>
-    <row r="446" ht="15" customHeight="1">
-      <c r="F446" t="n">
-        <v>0.03418046797374331</v>
-      </c>
-      <c r="G446" t="n">
-        <v>0.1876516467921661</v>
-      </c>
-    </row>
-    <row r="447" ht="15" customHeight="1">
-      <c r="F447" t="n">
-        <v>0.03418537364130857</v>
-      </c>
-      <c r="G447" t="n">
-        <v>0.1892602616493371</v>
-      </c>
-    </row>
-    <row r="448" ht="15" customHeight="1">
-      <c r="F448" t="n">
-        <v>0.03419219085918823</v>
-      </c>
-      <c r="G448" t="n">
-        <v>0.1908688765065081</v>
-      </c>
-    </row>
-    <row r="449" ht="15" customHeight="1">
-      <c r="F449" t="n">
-        <v>0.03420123414016897</v>
-      </c>
-      <c r="G449" t="n">
-        <v>0.1924774913636791</v>
-      </c>
-    </row>
-    <row r="450" ht="15" customHeight="1">
-      <c r="F450" t="n">
-        <v>0.03421281799703745</v>
-      </c>
-      <c r="G450" t="n">
-        <v>0.1940861062208501</v>
-      </c>
-    </row>
-    <row r="451" ht="15" customHeight="1">
-      <c r="F451" t="n">
-        <v>0.0342272569425803</v>
-      </c>
-      <c r="G451" t="n">
-        <v>0.1956947210780211</v>
-      </c>
-    </row>
-    <row r="452" ht="15" customHeight="1">
-      <c r="F452" t="n">
-        <v>0.03424486548958419</v>
-      </c>
-      <c r="G452" t="n">
-        <v>0.1973033359351921</v>
-      </c>
-    </row>
-    <row r="453" ht="15" customHeight="1">
-      <c r="F453" t="n">
-        <v>0.03426595815083576</v>
-      </c>
-      <c r="G453" t="n">
-        <v>0.1989119507923631</v>
-      </c>
-    </row>
-    <row r="454" ht="15" customHeight="1">
-      <c r="F454" t="n">
-        <v>0.03429084943912168</v>
-      </c>
-      <c r="G454" t="n">
-        <v>0.2005205656495341</v>
-      </c>
-    </row>
-    <row r="455" ht="15" customHeight="1">
-      <c r="F455" t="n">
-        <v>0.03431985386722858</v>
-      </c>
-      <c r="G455" t="n">
-        <v>0.2021291805067051</v>
-      </c>
-    </row>
-    <row r="456" ht="15" customHeight="1">
-      <c r="F456" t="n">
-        <v>0.03435328594794312</v>
-      </c>
-      <c r="G456" t="n">
-        <v>0.2037377953638761</v>
-      </c>
-    </row>
-    <row r="457" ht="15" customHeight="1">
-      <c r="F457" t="n">
-        <v>0.03439146019405198</v>
-      </c>
-      <c r="G457" t="n">
-        <v>0.2053464102210471</v>
-      </c>
-    </row>
-    <row r="458" ht="15" customHeight="1">
-      <c r="F458" t="n">
-        <v>0.03443469111834177</v>
-      </c>
-      <c r="G458" t="n">
-        <v>0.2069550250782181</v>
-      </c>
-    </row>
-    <row r="459" ht="15" customHeight="1">
-      <c r="F459" t="n">
-        <v>0.03448329323359917</v>
-      </c>
-      <c r="G459" t="n">
-        <v>0.208563639935389</v>
-      </c>
-    </row>
-    <row r="460" ht="15" customHeight="1">
-      <c r="F460" t="n">
-        <v>0.03453758105261082</v>
-      </c>
-      <c r="G460" t="n">
-        <v>0.21017225479256</v>
-      </c>
-    </row>
-    <row r="461" ht="15" customHeight="1">
-      <c r="F461" t="n">
-        <v>0.03459786908816338</v>
-      </c>
-      <c r="G461" t="n">
-        <v>0.2117808696497311</v>
-      </c>
-    </row>
-    <row r="462" ht="15" customHeight="1">
-      <c r="F462" t="n">
-        <v>0.0346644718530435</v>
-      </c>
-      <c r="G462" t="n">
-        <v>0.213389484506902</v>
-      </c>
-    </row>
-    <row r="463" ht="15" customHeight="1">
-      <c r="F463" t="n">
-        <v>0.03473770386003784</v>
-      </c>
-      <c r="G463" t="n">
-        <v>0.214998099364073</v>
-      </c>
-    </row>
-    <row r="464" ht="15" customHeight="1">
-      <c r="F464" t="n">
-        <v>0.03481787962193304</v>
-      </c>
-      <c r="G464" t="n">
-        <v>0.216606714221244</v>
-      </c>
-    </row>
+        <v>0.3262403082136068</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1"/>
+    <row r="266" ht="15" customHeight="1"/>
+    <row r="267" ht="15" customHeight="1"/>
+    <row r="268" ht="15" customHeight="1"/>
+    <row r="269" ht="15" customHeight="1"/>
+    <row r="270" ht="15" customHeight="1"/>
+    <row r="271" ht="15" customHeight="1"/>
+    <row r="272" ht="15" customHeight="1"/>
+    <row r="273" ht="15" customHeight="1"/>
+    <row r="274" ht="15" customHeight="1"/>
+    <row r="275" ht="15" customHeight="1"/>
+    <row r="276" ht="15" customHeight="1"/>
+    <row r="277" ht="15" customHeight="1"/>
+    <row r="278" ht="15" customHeight="1"/>
+    <row r="279" ht="15" customHeight="1"/>
+    <row r="280" ht="15" customHeight="1"/>
+    <row r="281" ht="15" customHeight="1"/>
+    <row r="282" ht="15" customHeight="1"/>
+    <row r="283" ht="15" customHeight="1"/>
+    <row r="284" ht="15" customHeight="1"/>
+    <row r="285" ht="15" customHeight="1"/>
+    <row r="286" ht="15" customHeight="1"/>
+    <row r="287" ht="15" customHeight="1"/>
+    <row r="288" ht="15" customHeight="1"/>
+    <row r="289" ht="15" customHeight="1"/>
+    <row r="290" ht="15" customHeight="1"/>
+    <row r="291" ht="15" customHeight="1"/>
+    <row r="292" ht="15" customHeight="1"/>
+    <row r="293" ht="15" customHeight="1"/>
+    <row r="294" ht="15" customHeight="1"/>
+    <row r="295" ht="15" customHeight="1"/>
+    <row r="296" ht="15" customHeight="1"/>
+    <row r="297" ht="15" customHeight="1"/>
+    <row r="298" ht="15" customHeight="1"/>
+    <row r="299" ht="15" customHeight="1"/>
+    <row r="300" ht="15" customHeight="1"/>
+    <row r="301" ht="15" customHeight="1"/>
+    <row r="302" ht="15" customHeight="1"/>
+    <row r="303" ht="15" customHeight="1"/>
+    <row r="304" ht="15" customHeight="1"/>
+    <row r="305" ht="15" customHeight="1"/>
+    <row r="306" ht="15" customHeight="1"/>
+    <row r="307" ht="15" customHeight="1"/>
+    <row r="308" ht="15" customHeight="1"/>
+    <row r="309" ht="15" customHeight="1"/>
+    <row r="310" ht="15" customHeight="1"/>
+    <row r="311" ht="15" customHeight="1"/>
+    <row r="312" ht="15" customHeight="1"/>
+    <row r="313" ht="15" customHeight="1"/>
+    <row r="314" ht="15" customHeight="1"/>
+    <row r="315" ht="15" customHeight="1"/>
+    <row r="316" ht="15" customHeight="1"/>
+    <row r="317" ht="15" customHeight="1"/>
+    <row r="318" ht="15" customHeight="1"/>
+    <row r="319" ht="15" customHeight="1"/>
+    <row r="320" ht="15" customHeight="1"/>
+    <row r="321" ht="15" customHeight="1"/>
+    <row r="322" ht="15" customHeight="1"/>
+    <row r="323" ht="15" customHeight="1"/>
+    <row r="324" ht="15" customHeight="1"/>
+    <row r="325" ht="15" customHeight="1"/>
+    <row r="326" ht="15" customHeight="1"/>
+    <row r="327" ht="15" customHeight="1"/>
+    <row r="328" ht="15" customHeight="1"/>
+    <row r="329" ht="15" customHeight="1"/>
+    <row r="330" ht="15" customHeight="1"/>
+    <row r="331" ht="15" customHeight="1"/>
+    <row r="332" ht="15" customHeight="1"/>
+    <row r="333" ht="15" customHeight="1"/>
+    <row r="334" ht="15" customHeight="1"/>
+    <row r="335" ht="15" customHeight="1"/>
+    <row r="336" ht="15" customHeight="1"/>
+    <row r="337" ht="15" customHeight="1"/>
+    <row r="338" ht="15" customHeight="1"/>
+    <row r="339" ht="15" customHeight="1"/>
+    <row r="340" ht="15" customHeight="1"/>
+    <row r="341" ht="15" customHeight="1"/>
+    <row r="342" ht="15" customHeight="1"/>
+    <row r="343" ht="15" customHeight="1"/>
+    <row r="344" ht="15" customHeight="1"/>
+    <row r="345" ht="15" customHeight="1"/>
+    <row r="346" ht="15" customHeight="1"/>
+    <row r="347" ht="15" customHeight="1"/>
+    <row r="348" ht="15" customHeight="1"/>
+    <row r="349" ht="15" customHeight="1"/>
+    <row r="350" ht="15" customHeight="1"/>
+    <row r="351" ht="15" customHeight="1"/>
+    <row r="352" ht="15" customHeight="1"/>
+    <row r="353" ht="15" customHeight="1"/>
+    <row r="354" ht="15" customHeight="1"/>
+    <row r="355" ht="15" customHeight="1"/>
+    <row r="356" ht="15" customHeight="1"/>
+    <row r="357" ht="15" customHeight="1"/>
+    <row r="358" ht="15" customHeight="1"/>
+    <row r="359" ht="15" customHeight="1"/>
+    <row r="360" ht="15" customHeight="1"/>
+    <row r="361" ht="15" customHeight="1"/>
+    <row r="362" ht="15" customHeight="1"/>
+    <row r="363" ht="15" customHeight="1"/>
+    <row r="364" ht="15" customHeight="1"/>
+    <row r="365" ht="15" customHeight="1"/>
+    <row r="366" ht="15" customHeight="1"/>
+    <row r="367" ht="15" customHeight="1"/>
+    <row r="368" ht="15" customHeight="1"/>
+    <row r="369" ht="15" customHeight="1"/>
+    <row r="370" ht="15" customHeight="1"/>
+    <row r="371" ht="15" customHeight="1"/>
+    <row r="372" ht="15" customHeight="1"/>
+    <row r="373" ht="15" customHeight="1"/>
+    <row r="374" ht="15" customHeight="1"/>
+    <row r="375" ht="15" customHeight="1"/>
+    <row r="376" ht="15" customHeight="1"/>
+    <row r="377" ht="15" customHeight="1"/>
+    <row r="378" ht="15" customHeight="1"/>
+    <row r="379" ht="15" customHeight="1"/>
+    <row r="380" ht="15" customHeight="1"/>
+    <row r="381" ht="15" customHeight="1"/>
+    <row r="382" ht="15" customHeight="1"/>
+    <row r="383" ht="15" customHeight="1"/>
+    <row r="384" ht="15" customHeight="1"/>
+    <row r="385" ht="15" customHeight="1"/>
+    <row r="386" ht="15" customHeight="1"/>
+    <row r="387" ht="15" customHeight="1"/>
+    <row r="388" ht="15" customHeight="1"/>
+    <row r="389" ht="15" customHeight="1"/>
+    <row r="390" ht="15" customHeight="1"/>
+    <row r="391" ht="15" customHeight="1"/>
+    <row r="392" ht="15" customHeight="1"/>
+    <row r="393" ht="15" customHeight="1"/>
+    <row r="394" ht="15" customHeight="1"/>
+    <row r="395" ht="15" customHeight="1"/>
+    <row r="396" ht="15" customHeight="1"/>
+    <row r="397" ht="15" customHeight="1"/>
+    <row r="398" ht="15" customHeight="1"/>
+    <row r="399" ht="15" customHeight="1"/>
+    <row r="400" ht="15" customHeight="1"/>
+    <row r="401" ht="15" customHeight="1"/>
+    <row r="402" ht="15" customHeight="1"/>
+    <row r="403" ht="15" customHeight="1"/>
+    <row r="404" ht="15" customHeight="1"/>
+    <row r="405" ht="15" customHeight="1"/>
+    <row r="406" ht="15" customHeight="1"/>
+    <row r="407" ht="15" customHeight="1"/>
+    <row r="408" ht="15" customHeight="1"/>
+    <row r="409" ht="15" customHeight="1"/>
+    <row r="410" ht="15" customHeight="1"/>
+    <row r="411" ht="15" customHeight="1"/>
+    <row r="412" ht="15" customHeight="1"/>
+    <row r="413" ht="15" customHeight="1"/>
+    <row r="414" ht="15" customHeight="1"/>
+    <row r="415" ht="15" customHeight="1"/>
+    <row r="416" ht="15" customHeight="1"/>
+    <row r="417" ht="15" customHeight="1"/>
+    <row r="418" ht="15" customHeight="1"/>
+    <row r="419" ht="15" customHeight="1"/>
+    <row r="420" ht="15" customHeight="1"/>
+    <row r="421" ht="15" customHeight="1"/>
+    <row r="422" ht="15" customHeight="1"/>
+    <row r="423" ht="15" customHeight="1"/>
+    <row r="424" ht="15" customHeight="1"/>
+    <row r="425" ht="15" customHeight="1"/>
+    <row r="426" ht="15" customHeight="1"/>
+    <row r="427" ht="15" customHeight="1"/>
+    <row r="428" ht="15" customHeight="1"/>
+    <row r="429" ht="15" customHeight="1"/>
+    <row r="430" ht="15" customHeight="1"/>
+    <row r="431" ht="15" customHeight="1"/>
+    <row r="432" ht="15" customHeight="1"/>
+    <row r="433" ht="15" customHeight="1"/>
+    <row r="434" ht="15" customHeight="1"/>
+    <row r="435" ht="15" customHeight="1"/>
+    <row r="436" ht="15" customHeight="1"/>
+    <row r="437" ht="15" customHeight="1"/>
+    <row r="438" ht="15" customHeight="1"/>
+    <row r="439" ht="15" customHeight="1"/>
+    <row r="440" ht="15" customHeight="1"/>
+    <row r="441" ht="15" customHeight="1"/>
+    <row r="442" ht="15" customHeight="1"/>
+    <row r="443" ht="15" customHeight="1"/>
+    <row r="444" ht="15" customHeight="1"/>
+    <row r="445" ht="15" customHeight="1"/>
+    <row r="446" ht="15" customHeight="1"/>
+    <row r="447" ht="15" customHeight="1"/>
+    <row r="448" ht="15" customHeight="1"/>
+    <row r="449" ht="15" customHeight="1"/>
+    <row r="450" ht="15" customHeight="1"/>
+    <row r="451" ht="15" customHeight="1"/>
+    <row r="452" ht="15" customHeight="1"/>
+    <row r="453" ht="15" customHeight="1"/>
+    <row r="454" ht="15" customHeight="1"/>
+    <row r="455" ht="15" customHeight="1"/>
+    <row r="456" ht="15" customHeight="1"/>
+    <row r="457" ht="15" customHeight="1"/>
+    <row r="458" ht="15" customHeight="1"/>
+    <row r="459" ht="15" customHeight="1"/>
+    <row r="460" ht="15" customHeight="1"/>
+    <row r="461" ht="15" customHeight="1"/>
+    <row r="462" ht="15" customHeight="1"/>
+    <row r="463" ht="15" customHeight="1"/>
+    <row r="464" ht="15" customHeight="1"/>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1163.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1163.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001417822472536523</v>
+        <v>0.001303110284480345</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001630339430543773</v>
+        <v>0.0006013923046561653</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.00340397683701333</v>
+        <v>0.001534570691058092</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001641685588952065</v>
+        <v>0.000845449533283166</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01072598437268635</v>
+        <v>0.005013902386356267</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001642899128454087</v>
+        <v>0.0008405585034240319</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.01913506485442112</v>
+        <v>0.009346528000600929</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001639398533736717</v>
+        <v>0.0008344575461474283</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.006068932534675907</v>
+        <v>0.00256343924640158</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.00319177938698679</v>
+        <v>0.001202784609312331</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.007499999999999993</v>
+        <v>0.003391227340789692</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.00394440789473684</v>
+        <v>0.001690899066566332</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.02249999999999999</v>
+        <v>0.01016074843806911</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.004024906015037593</v>
+        <v>0.001681117006848064</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.03749999999999998</v>
+        <v>0.01761184790252013</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003792699898785423</v>
+        <v>0.001668915092294857</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.008279546162406892</v>
+        <v>0.003752569419533412</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004891018291631319</v>
+        <v>0.001804176913968496</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.008479662650319811</v>
+        <v>0.005218251627427339</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004925056766856195</v>
+        <v>0.002536348599849498</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02517358915404921</v>
+        <v>0.01432013345592487</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.00492869738536226</v>
+        <v>0.002521675510272095</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.04267671751107521</v>
+        <v>0.02544199320337848</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004918195601210152</v>
+        <v>0.002503372638442285</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.01010349898284717</v>
+        <v>0.004842083337645582</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006521357722175092</v>
+        <v>0.002405569218624661</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01039324789202264</v>
+        <v>0.006463925229203575</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006566742355808261</v>
+        <v>0.003381798133132664</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02901511685087504</v>
+        <v>0.01817165274070995</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006571596513816347</v>
+        <v>0.003362234013696128</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.04892821155865396</v>
+        <v>0.03298299740079685</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.00655759413494687</v>
+        <v>0.003337830184589713</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.006068932534675907</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.009638702716803962</v>
+        <v>0.006068932534675907</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.008151697152718865</v>
+        <v>0.00319177938698679</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01236295352977446</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008208427944760326</v>
+        <v>0.00394440789473684</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.03178280926857213</v>
+        <v>0.02249999999999999</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008214495642270433</v>
+        <v>0.004287399885583523</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.0537006775096045</v>
+        <v>0.03749999999999998</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008196992668683588</v>
+        <v>0.00394440789473684</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.01274475832281941</v>
+        <v>0.006650797303311563</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009575338160960368</v>
+        <v>0.003608353827936991</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01363779651267988</v>
+        <v>0.008977456343195321</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009850113533712391</v>
+        <v>0.005072697199698996</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03480864188673372</v>
+        <v>0.02455957942214151</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009857394770724519</v>
+        <v>0.00504335102054419</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.05775845899207177</v>
+        <v>0.04360315272289456</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009836391202420304</v>
+        <v>0.005006745276884571</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01200458201120343</v>
+        <v>0.007488041515901822</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01141237601380641</v>
+        <v>0.004209746132593156</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01542939954576002</v>
+        <v>0.009783310155785645</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01183322368421052</v>
+        <v>0.005918146732982162</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.03900961661272245</v>
+        <v>0.02732628475593843</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01207471804511278</v>
+        <v>0.005883909523968223</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.0625898336796849</v>
+        <v>0.04685886839661824</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01137809969635627</v>
+        <v>0.005841202823031999</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.0150746835516551</v>
+        <v>0.008310157783805019</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01304271544435018</v>
+        <v>0.004811138437249322</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01621904153074927</v>
+        <v>0.01081582195900441</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01313348471161652</v>
+        <v>0.006763596266265328</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04089037137996576</v>
+        <v>0.02934869623203232</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01314319302763269</v>
+        <v>0.006724468027392255</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.06643111115461992</v>
+        <v>0.05108582686429175</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01311518826989374</v>
+        <v>0.006675660369179427</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.0150958599775702</v>
+        <v>0.009103939770573964</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01467305487489396</v>
+        <v>0.005412530741905487</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01755473613900602</v>
+        <v>0.01178703350024199</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01477517030056859</v>
+        <v>0.007609045799548493</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.04362267666257602</v>
+        <v>0.03207840158126718</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01478609215608678</v>
+        <v>0.007565026530816287</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.07175431269145849</v>
+        <v>0.05528847152000971</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01475458680363046</v>
+        <v>0.007510117915326855</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01506445148949923</v>
+        <v>0.009856181139761444</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01630339430543773</v>
+        <v>0.006013923046561653</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01886608360488569</v>
+        <v>0.01250898652688871</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01641685588952065</v>
+        <v>0.008454495332831659</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.04677273941488561</v>
+        <v>0.03376698853448726</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01642899128454087</v>
+        <v>0.008405585034240319</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.07607875927307506</v>
+        <v>0.05777124575786707</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01639398533736718</v>
+        <v>0.008344575461474282</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01797679828799262</v>
+        <v>0.01055367555492024</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.0179337337359815</v>
+        <v>0.006615315351217818</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01974348291441511</v>
+        <v>0.01319372278633493</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01805854147847272</v>
+        <v>0.009299944866114825</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04970519301943344</v>
+        <v>0.03536604482253658</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01807189041299495</v>
+        <v>0.009246143537664351</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.08104872270431152</v>
+        <v>0.0625898336796849</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01803338387110389</v>
+        <v>0.00940494606081581</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01782924057360086</v>
+        <v>0.01118321667960315</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01956407316652528</v>
+        <v>0.007216707655873983</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02097733305362104</v>
+        <v>0.013853284025971</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01970022706742478</v>
+        <v>0.01014539439939799</v>
       </c>
       <c r="L77" t="n">
-        <v>0.05228467085875838</v>
+        <v>0.03752715817625935</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01971478954144904</v>
+        <v>0.01008670204108838</v>
       </c>
       <c r="N77" t="n">
-        <v>0.08540847479001012</v>
+        <v>0.06440686569032622</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01967278240484061</v>
+        <v>0.01001349055376914</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.0186181185468744</v>
+        <v>0.01173159817736299</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02119441259706905</v>
+        <v>0.007818099960530149</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02205803300853026</v>
+        <v>0.01489971199318721</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02134191265637685</v>
+        <v>0.01099084393268116</v>
       </c>
       <c r="L78" t="n">
-        <v>0.05467580631539926</v>
+        <v>0.03900961661272245</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02135768866990313</v>
+        <v>0.0106190365588599</v>
       </c>
       <c r="N78" t="n">
-        <v>0.08980228733501294</v>
+        <v>0.06805113543827285</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02131218093857733</v>
+        <v>0.01084794809991657</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01833977240836371</v>
+        <v>0.01218561371175254</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02282475202761282</v>
+        <v>0.008419492265186313</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02297598176516963</v>
+        <v>0.01542939954576002</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02298359824532891</v>
+        <v>0.01159235150082759</v>
       </c>
       <c r="L79" t="n">
-        <v>0.05794323277189503</v>
+        <v>0.04104015927448376</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02300058779835721</v>
+        <v>0.01176781904793645</v>
       </c>
       <c r="N79" t="n">
-        <v>0.09477443214416198</v>
+        <v>0.07045736890760745</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02295157947231404</v>
+        <v>0.011682405646064</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02099054235861925</v>
+        <v>0.01253205694632458</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02445509145815659</v>
+        <v>0.00902088456984248</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02402157830956585</v>
+        <v>0.01631364253154441</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02462528383428098</v>
+        <v>0.01268174299924749</v>
       </c>
       <c r="L80" t="n">
-        <v>0.05995158361078451</v>
+        <v>0.04333425191320189</v>
       </c>
       <c r="M80" t="n">
-        <v>0.0246434869268113</v>
+        <v>0.01260837755136048</v>
       </c>
       <c r="N80" t="n">
-        <v>0.09846918102229946</v>
+        <v>0.07430840604037581</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02459097800605076</v>
+        <v>0.01251686319221143</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02156676859819149</v>
+        <v>0.01274475832281941</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02608543088870037</v>
+        <v>0.009575338160960368</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02478522162774577</v>
+        <v>0.0172047517779526</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02626696942323304</v>
+        <v>0.01352719253253066</v>
       </c>
       <c r="L81" t="n">
-        <v>0.06276549221460659</v>
+        <v>0.04527363636096782</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02628638605526539</v>
+        <v>0.01344893605478451</v>
       </c>
       <c r="N81" t="n">
-        <v>0.1021308057742673</v>
+        <v>0.07758708677862403</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02623037653978748</v>
+        <v>0.01335132073835885</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02006479132763089</v>
+        <v>0.01292784791736645</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02771577031924414</v>
+        <v>0.01022366917915481</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02575731070573616</v>
+        <v>0.01801444517506048</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02790865501218511</v>
+        <v>0.01437264206581382</v>
       </c>
       <c r="L82" t="n">
-        <v>0.06424959196590008</v>
+        <v>0.04734645881336896</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02792928518371948</v>
+        <v>0.01428949455820854</v>
       </c>
       <c r="N82" t="n">
-        <v>0.1054035782049076</v>
+        <v>0.08147625106439799</v>
       </c>
       <c r="O82" t="n">
-        <v>0.0278697750735242</v>
+        <v>0.01418577828450628</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.0214809507474879</v>
+        <v>0.01309488569924906</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02934610974978791</v>
+        <v>0.01082506148381097</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02622824452956381</v>
+        <v>0.01853794116871349</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02955034060113717</v>
+        <v>0.01521809159909699</v>
       </c>
       <c r="L83" t="n">
-        <v>0.06656851624720397</v>
+        <v>0.04934086546599287</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02957218431217356</v>
+        <v>0.01513005306163257</v>
       </c>
       <c r="N83" t="n">
-        <v>0.1075317701190628</v>
+        <v>0.08445873883974359</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02950917360726091</v>
+        <v>0.01502023583065371</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02081369031746776</v>
+        <v>0.01325924820355989</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03097644918033169</v>
+        <v>0.01142645378846714</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02698842208525551</v>
+        <v>0.01937045820475713</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03119202619008923</v>
+        <v>0.01606354113238015</v>
       </c>
       <c r="L84" t="n">
-        <v>0.06788689844105703</v>
+        <v>0.05194500251442685</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03121508344062765</v>
+        <v>0.0159706115650566</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1103596533215745</v>
+        <v>0.08821739004670692</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03114857214099763</v>
+        <v>0.01585469337680114</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02311501627312432</v>
+        <v>0.01342095097668861</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03260678861087546</v>
+        <v>0.01202784609312331</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02752824235883809</v>
+        <v>0.02030721472903683</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03283371177904131</v>
+        <v>0.01690899066566332</v>
       </c>
       <c r="L85" t="n">
-        <v>0.06916937192999822</v>
+        <v>0.0535470161542585</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03285798256908173</v>
+        <v>0.01681117006848064</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1110466693289134</v>
+        <v>0.09093504462733376</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03278797067473435</v>
+        <v>0.01668915092294856</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02140724337288551</v>
+        <v>0.01358000956502486</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03423712804141923</v>
+        <v>0.01262923839777947</v>
       </c>
       <c r="J86" t="n">
-        <v>0.0275979264036514</v>
+        <v>0.0211434291873981</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03447539736799337</v>
+        <v>0.01775444019894648</v>
       </c>
       <c r="L86" t="n">
-        <v>0.07011178505990404</v>
+        <v>0.05553505258107516</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03450088169753582</v>
+        <v>0.01765172857190467</v>
       </c>
       <c r="N86" t="n">
-        <v>0.11283438005903</v>
+        <v>0.09409454252367006</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03442736920847106</v>
+        <v>0.017523608469096</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.0236884020084812</v>
+        <v>0.01373643951495834</v>
       </c>
       <c r="G87" t="n">
-        <v>0.035867467471963</v>
+        <v>0.01323063070243564</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02795699679148732</v>
+        <v>0.02187432002568637</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03611708295694543</v>
+        <v>0.01859988973222965</v>
       </c>
       <c r="L87" t="n">
-        <v>0.07092414837253211</v>
+        <v>0.05809725799046439</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03614378082598991</v>
+        <v>0.0184922870753287</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1146768012092698</v>
+        <v>0.09707872367776194</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03606676774220778</v>
+        <v>0.01835806601524342</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02295652257164126</v>
+        <v>0.01389025637287868</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03749780690250678</v>
+        <v>0.0138320230070918</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02860304049294471</v>
+        <v>0.02269510568974711</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03775876854589749</v>
+        <v>0.01944533926551282</v>
       </c>
       <c r="L88" t="n">
-        <v>0.07150433461239811</v>
+        <v>0.05972177857801353</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03778667995444399</v>
+        <v>0.01933284557875273</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1161640978426328</v>
+        <v>0.1011704280316552</v>
       </c>
       <c r="O88" t="n">
-        <v>0.0377061662759445</v>
+        <v>0.01919252356139085</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02220963545409556</v>
+        <v>0.01404147568517555</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03912814633305055</v>
+        <v>0.01443341531174797</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02893362287706169</v>
+        <v>0.02350100462542583</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03940045413484956</v>
+        <v>0.02029078879879598</v>
       </c>
       <c r="L89" t="n">
-        <v>0.07264617472598808</v>
+        <v>0.06189676053931015</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03942957908289808</v>
+        <v>0.02017340408217676</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1165864350221186</v>
+        <v>0.1037524955273958</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03934556480968122</v>
+        <v>0.02002698110753828</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02444577104757394</v>
+        <v>0.01419011299823859</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04075848576359433</v>
+        <v>0.01503480761640413</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02904630931287647</v>
+        <v>0.02458723527856792</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04104213972380163</v>
+        <v>0.02113623833207915</v>
       </c>
       <c r="L90" t="n">
-        <v>0.07384349965978818</v>
+        <v>0.06361035006994159</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04107247821135216</v>
+        <v>0.0210139625856008</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1181339778107268</v>
+        <v>0.1059077661070298</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04098496334341793</v>
+        <v>0.02086143865368571</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02266295974380628</v>
+        <v>0.0143361838584575</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04238882519413809</v>
+        <v>0.0156361999210603</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02923866516942721</v>
+        <v>0.02534901609501893</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04268382531275369</v>
+        <v>0.02198168786536232</v>
       </c>
       <c r="L91" t="n">
-        <v>0.07419014036028443</v>
+        <v>0.0658506933654954</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04271537733980626</v>
+        <v>0.02185452108902483</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1190968912714573</v>
+        <v>0.108519079712603</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04262436187715465</v>
+        <v>0.02169589619983314</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02485923193452244</v>
+        <v>0.01447970381222193</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04401916462468187</v>
+        <v>0.01623759222571646</v>
       </c>
       <c r="J92" t="n">
-        <v>0.029808255815752</v>
+        <v>0.02588156552062423</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04432551090170576</v>
+        <v>0.02282713739864548</v>
       </c>
       <c r="L92" t="n">
-        <v>0.07487992777396288</v>
+        <v>0.06760593662155898</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04435827646826034</v>
+        <v>0.02269507959244886</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1204653404673099</v>
+        <v>0.1112692762861615</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04426376041089137</v>
+        <v>0.02253035374598057</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02403261801145228</v>
+        <v>0.01462068840592152</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04564950405522564</v>
+        <v>0.01683898453037263</v>
       </c>
       <c r="J93" t="n">
-        <v>0.03005264662088909</v>
+        <v>0.0266801020012294</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04596719649065782</v>
+        <v>0.02367258693192865</v>
       </c>
       <c r="L93" t="n">
-        <v>0.07540669284730966</v>
+        <v>0.06886422603371978</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04600117559671443</v>
+        <v>0.02353563809587289</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1209294904612842</v>
+        <v>0.114341195769751</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04590315894462808</v>
+        <v>0.02336481129212799</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02418114836632565</v>
+        <v>0.01475915318594594</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04727984348576942</v>
+        <v>0.01744037683502879</v>
       </c>
       <c r="J94" t="n">
-        <v>0.0302694029538766</v>
+        <v>0.02743984398267982</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04760888207960989</v>
+        <v>0.02451803646521181</v>
       </c>
       <c r="L94" t="n">
-        <v>0.07606426652681081</v>
+        <v>0.07091370779756531</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04764407472516851</v>
+        <v>0.02437619659929692</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1219795063163799</v>
+        <v>0.1168176781054178</v>
       </c>
       <c r="O94" t="n">
-        <v>0.0475425574783648</v>
+        <v>0.02419926883827542</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02330285339087242</v>
+        <v>0.01489511369868485</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04891018291631319</v>
+        <v>0.01804176913968496</v>
       </c>
       <c r="J95" t="n">
-        <v>0.0301560901837527</v>
+        <v>0.02805600991082098</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04925056766856195</v>
+        <v>0.02536348599849498</v>
       </c>
       <c r="L95" t="n">
-        <v>0.07674647975895246</v>
+        <v>0.072042528108683</v>
       </c>
       <c r="M95" t="n">
-        <v>0.0492869738536226</v>
+        <v>0.02521675510272095</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1227055530955968</v>
+        <v>0.1183815632352075</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04918195601210152</v>
+        <v>0.02503372638442285</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02339576347682246</v>
+        <v>0.01502858549052791</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05054052234685696</v>
+        <v>0.01864316144434112</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03061027367955553</v>
+        <v>0.02842381823149837</v>
       </c>
       <c r="K96" t="n">
-        <v>0.05089225325751402</v>
+        <v>0.02620893553177814</v>
       </c>
       <c r="L96" t="n">
-        <v>0.07714716349022066</v>
+        <v>0.07323883316266028</v>
       </c>
       <c r="M96" t="n">
-        <v>0.05092987298207668</v>
+        <v>0.02605731360614499</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1240977958619347</v>
+        <v>0.1204156911011663</v>
       </c>
       <c r="O96" t="n">
-        <v>0.05082135454583823</v>
+        <v>0.02586818393057028</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02548951664563881</v>
+        <v>0.0151595841078648</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05217086177740073</v>
+        <v>0.01924455374899729</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03042951881032328</v>
+        <v>0.02893848739055743</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05253393884646609</v>
+        <v>0.02705438506506131</v>
       </c>
       <c r="L97" t="n">
-        <v>0.07726014866710143</v>
+        <v>0.07429076915508465</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05257277211053078</v>
+        <v>0.02689787210956902</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1243463996783931</v>
+        <v>0.1220029016453401</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05246075307957496</v>
+        <v>0.02670264147671771</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02348732039985177</v>
+        <v>0.01528812509708516</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0538012012079445</v>
+        <v>0.01984594605365345</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03081139094509409</v>
+        <v>0.02939523583384365</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05417562443541814</v>
+        <v>0.02789983459834448</v>
       </c>
       <c r="L98" t="n">
-        <v>0.07727926623608097</v>
+        <v>0.07568648228154348</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05421567123898486</v>
+        <v>0.02773843061299305</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1251796673593698</v>
+        <v>0.1230260348097747</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05410015161331167</v>
+        <v>0.02753709902286514</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02448593648926967</v>
+        <v>0.01541422400457866</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05543154063848828</v>
+        <v>0.02044733835830962</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03085879909152003</v>
+        <v>0.02968928200720249</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05581731002437022</v>
+        <v>0.02874528413162765</v>
       </c>
       <c r="L99" t="n">
-        <v>0.07801923322544491</v>
+        <v>0.07611411873762428</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05585857036743895</v>
+        <v>0.02857898911641708</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1239733507136709</v>
+        <v>0.1231679305365161</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05573955014704839</v>
+        <v>0.02837155656901256</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02446676809670421</v>
+        <v>0.01553789637673494</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05706188006903205</v>
+        <v>0.02104873066296578</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03085614501793957</v>
+        <v>0.03011584435647936</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05745899561332227</v>
+        <v>0.0295907336649108</v>
       </c>
       <c r="L100" t="n">
-        <v>0.0779153643274503</v>
+        <v>0.07666182471891453</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05750146949589303</v>
+        <v>0.02941954761984111</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1246569697268947</v>
+        <v>0.1241114287676104</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05737894868078511</v>
+        <v>0.02920601411515999</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02343195831835147</v>
+        <v>0.0156591577599437</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05869221949957583</v>
+        <v>0.02165012296762195</v>
       </c>
       <c r="J101" t="n">
-        <v>0.03083550605258063</v>
+        <v>0.03057014132751981</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05910068120227435</v>
+        <v>0.03043618319819397</v>
       </c>
       <c r="L101" t="n">
-        <v>0.07786928883190691</v>
+        <v>0.07721774642100165</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05914436862434712</v>
+        <v>0.03026010612326515</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1243550318519618</v>
+        <v>0.1251796673593698</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05901834721452183</v>
+        <v>0.03004047166130742</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02338254519457017</v>
+        <v>0.01577802370059456</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0603225589301196</v>
+        <v>0.02225151527227812</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03069549517600903</v>
+        <v>0.03054739136616928</v>
       </c>
       <c r="K102" t="n">
-        <v>0.06074236679122641</v>
+        <v>0.03128163273147714</v>
       </c>
       <c r="L102" t="n">
-        <v>0.07787377211230884</v>
+        <v>0.07801923322544491</v>
       </c>
       <c r="M102" t="n">
-        <v>0.06078726775280121</v>
+        <v>0.03110066462668918</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1237759086727168</v>
+        <v>0.1239796673593698</v>
       </c>
       <c r="O102" t="n">
-        <v>0.06065774574825854</v>
+        <v>0.03087492920745485</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02531956676571903</v>
+        <v>0.01589450974507721</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06195289836066337</v>
+        <v>0.02285290757693428</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03053739550895249</v>
+        <v>0.03085879909152003</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06238405238017847</v>
+        <v>0.03212708226476031</v>
       </c>
       <c r="L103" t="n">
-        <v>0.0775320654377637</v>
+        <v>0.07761923322544489</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06243016688125529</v>
+        <v>0.03194122313011321</v>
       </c>
       <c r="N103" t="n">
-        <v>0.124024783484583</v>
+        <v>0.1242796673593698</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06229714428199527</v>
+        <v>0.03170938675360228</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02324406107215674</v>
+        <v>0.01600863143978129</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06358323779120716</v>
+        <v>0.02345429988159045</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03036249017213878</v>
+        <v>0.03085879909152003</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06402573796913054</v>
+        <v>0.03297253179804347</v>
       </c>
       <c r="L104" t="n">
-        <v>0.0774474200773789</v>
+        <v>0.07791923322544492</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06407306600970938</v>
+        <v>0.03278178163353724</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1236068395829831</v>
+        <v>0.1248796673593698</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06393654281573198</v>
+        <v>0.03254384429974971</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02515706615424203</v>
+        <v>0.01612040433109647</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06521357722175092</v>
+        <v>0.02405569218624661</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03057206228629565</v>
+        <v>0.03075879909152003</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06566742355808261</v>
+        <v>0.03381798133132664</v>
       </c>
       <c r="L105" t="n">
-        <v>0.07662308730026188</v>
+        <v>0.07741923322544492</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06571596513816347</v>
+        <v>0.03362234013696128</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1234272602633402</v>
+        <v>0.1246796673593698</v>
       </c>
       <c r="O105" t="n">
-        <v>0.0655759413494687</v>
+        <v>0.03337830184589713</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02305962005233364</v>
+        <v>0.01622984396541242</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06684391665229469</v>
+        <v>0.02465708449090278</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03046739497215084</v>
+        <v>0.03075879909152003</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06730910914703467</v>
+        <v>0.0346634308646098</v>
       </c>
       <c r="L106" t="n">
-        <v>0.07706231837552022</v>
+        <v>0.07751923322544491</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06735886426661755</v>
+        <v>0.0344628986403853</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1229912288210774</v>
+        <v>0.1248796673593698</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06721533988320541</v>
+        <v>0.03421275939204456</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02395276080679026</v>
+        <v>0.01633696588911879</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06847425608283846</v>
+        <v>0.02525847679555894</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03034977135043214</v>
+        <v>0.03085879909152003</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06895079473598674</v>
+        <v>0.03550888039789297</v>
       </c>
       <c r="L107" t="n">
-        <v>0.07636836457226126</v>
+        <v>0.07791923322544492</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06900176339507165</v>
+        <v>0.03530345714380934</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1229039285516176</v>
+        <v>0.1250796673593698</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06885473841694212</v>
+        <v>0.035047216938192</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.0228375264579706</v>
+        <v>0.01644178564860524</v>
       </c>
       <c r="G108" t="n">
-        <v>0.07010459551338223</v>
+        <v>0.0258598691002151</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03002047454186726</v>
+        <v>0.03055879909152004</v>
       </c>
       <c r="K108" t="n">
-        <v>0.07059248032493881</v>
+        <v>0.03635432993117613</v>
       </c>
       <c r="L108" t="n">
-        <v>0.0759444771595926</v>
+        <v>0.07741923322544492</v>
       </c>
       <c r="M108" t="n">
-        <v>0.07064466252352572</v>
+        <v>0.03614401564723337</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1223705427503839</v>
+        <v>0.1248796673593698</v>
       </c>
       <c r="O108" t="n">
-        <v>0.07049413695067884</v>
+        <v>0.03588167448433942</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.0227149550462334</v>
+        <v>0.01654431879026143</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07173493494392601</v>
+        <v>0.02646126140487127</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02998078766718397</v>
+        <v>0.03055879909152004</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07223416591389087</v>
+        <v>0.0371997794644593</v>
       </c>
       <c r="L109" t="n">
-        <v>0.07609390740662164</v>
+        <v>0.07801923322544491</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07228756165197982</v>
+        <v>0.0369845741506574</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1215962547127991</v>
+        <v>0.1243796673593698</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07213353548441556</v>
+        <v>0.03671613203048685</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02358608461193737</v>
+        <v>0.01664458086047703</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07336527437446978</v>
+        <v>0.02706265370952744</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02963199384711004</v>
+        <v>0.03055879909152004</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07387585150284293</v>
+        <v>0.03804522899774247</v>
       </c>
       <c r="L110" t="n">
-        <v>0.07531990658245588</v>
+        <v>0.07801923322544491</v>
       </c>
       <c r="M110" t="n">
-        <v>0.0739304607804339</v>
+        <v>0.03782513265408143</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1205862477342864</v>
+        <v>0.1250796673593698</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07377293401815228</v>
+        <v>0.03755058957663428</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02445195319544122</v>
+        <v>0.0167425874056417</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07499561380501356</v>
+        <v>0.0276640460141836</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02947537620237321</v>
+        <v>0.03055879909152004</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07551753709179498</v>
+        <v>0.03889067853102563</v>
       </c>
       <c r="L111" t="n">
-        <v>0.07512572595620284</v>
+        <v>0.07801923322544491</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07557335990888799</v>
+        <v>0.03866569115750546</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1199457051102688</v>
+        <v>0.1245796673593698</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07541233255188899</v>
+        <v>0.0383850471227817</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02231359883710365</v>
+        <v>0.01683835397214507</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07662595323555733</v>
+        <v>0.02826543831883977</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02931221785370122</v>
+        <v>0.03055879909152004</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07715922268074706</v>
+        <v>0.0397361280643088</v>
       </c>
       <c r="L112" t="n">
-        <v>0.07441461679696995</v>
+        <v>0.0773192332254449</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07721625903734208</v>
+        <v>0.0395062496609295</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1187798101361691</v>
+        <v>0.1245796673593698</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07705173108562571</v>
+        <v>0.03921950466892913</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02317205957728342</v>
+        <v>0.01693189610637685</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07825629266610111</v>
+        <v>0.02886683062349593</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02934380192182183</v>
+        <v>0.03065879909152003</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07880090826969913</v>
+        <v>0.04058157759759197</v>
       </c>
       <c r="L113" t="n">
-        <v>0.07428983037386469</v>
+        <v>0.07751923322544491</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07885915816579615</v>
+        <v>0.04034680816435352</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1185937461074105</v>
+        <v>0.1244796673593698</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07869112961936243</v>
+        <v>0.04005396221507657</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02402837345633921</v>
+        <v>0.01702322935472667</v>
       </c>
       <c r="G114" t="n">
-        <v>0.07988663209664489</v>
+        <v>0.0294682229281521</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02897141152746281</v>
+        <v>0.03085879909152003</v>
       </c>
       <c r="K114" t="n">
-        <v>0.08044259385865118</v>
+        <v>0.04142702713087513</v>
       </c>
       <c r="L114" t="n">
-        <v>0.07335461795599452</v>
+        <v>0.07801923322544491</v>
       </c>
       <c r="M114" t="n">
-        <v>0.08050205729425025</v>
+        <v>0.04118736666777756</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1179926963194159</v>
+        <v>0.1250796673593698</v>
       </c>
       <c r="O114" t="n">
-        <v>0.08033052815309916</v>
+        <v>0.04088841976122399</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02188357851462974</v>
+        <v>0.0171123692635842</v>
       </c>
       <c r="G115" t="n">
-        <v>0.08151697152718866</v>
+        <v>0.03006961523280826</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02909632979135189</v>
+        <v>0.03085879909152003</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08208427944760326</v>
+        <v>0.04227247666415829</v>
       </c>
       <c r="L115" t="n">
-        <v>0.07341223081246695</v>
+        <v>0.0773192332254449</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08214495642270432</v>
+        <v>0.0420279251712016</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1178818440676084</v>
+        <v>0.1243796673593698</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08196992668683586</v>
+        <v>0.04172287730737142</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02273871279251374</v>
+        <v>0.01719933137933909</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08314731095773242</v>
+        <v>0.03067100753746443</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02871983983421685</v>
+        <v>0.03085879909152003</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08372596503655533</v>
+        <v>0.04311792619744146</v>
       </c>
       <c r="L116" t="n">
-        <v>0.07296592021238946</v>
+        <v>0.07801923322544491</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08378785555115842</v>
+        <v>0.04286848367462563</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1168663726474108</v>
+        <v>0.1247796673593698</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08360932522057259</v>
+        <v>0.04255733485351885</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02159481433034993</v>
+        <v>0.01728413124838101</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08477765038827619</v>
+        <v>0.03127239984212059</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02854322477678541</v>
+        <v>0.03085879909152003</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08536765062550739</v>
+        <v>0.04396337573072463</v>
       </c>
       <c r="L117" t="n">
-        <v>0.0726189374248695</v>
+        <v>0.0778192332254449</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08543075467961252</v>
+        <v>0.04370904217804965</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1155514653542463</v>
+        <v>0.1239796673593698</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08524872375430931</v>
+        <v>0.04339179239966627</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02345135890410352</v>
+        <v>0.01736678441709963</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08640798981881996</v>
+        <v>0.03187379214677676</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02846776773978536</v>
+        <v>0.03055879909152004</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08700933621445946</v>
+        <v>0.04480882526400779</v>
       </c>
       <c r="L118" t="n">
-        <v>0.07207453371901454</v>
+        <v>0.0773192332254449</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08707365380806659</v>
+        <v>0.04454960068147368</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1149423054835378</v>
+        <v>0.1244796673593698</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08688812228804603</v>
+        <v>0.0442262499458137</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02229085075938177</v>
+        <v>0.0174473064318846</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08803832924936374</v>
+        <v>0.03247518445143292</v>
       </c>
       <c r="J119" t="n">
-        <v>0.0282929590844239</v>
+        <v>0.03085879909152003</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08865102180341151</v>
+        <v>0.04565427479729096</v>
       </c>
       <c r="L119" t="n">
-        <v>0.07113387645642114</v>
+        <v>0.07791923322544492</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08871655293652068</v>
+        <v>0.04539015918489772</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1147253673010867</v>
+        <v>0.1250796673593698</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08852752082178274</v>
+        <v>0.04506070749196113</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02111078390901105</v>
+        <v>0.01752571283912557</v>
       </c>
       <c r="G120" t="n">
-        <v>0.08966866867990751</v>
+        <v>0.03307657675608909</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02809743642718997</v>
+        <v>0.03075879909152003</v>
       </c>
       <c r="K120" t="n">
-        <v>0.09029270739236357</v>
+        <v>0.04649972433057412</v>
       </c>
       <c r="L120" t="n">
-        <v>0.07134629488333036</v>
+        <v>0.07771923322544491</v>
       </c>
       <c r="M120" t="n">
-        <v>0.09035945206497477</v>
+        <v>0.04623071768832175</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1138123791460302</v>
+        <v>0.1241796673593698</v>
       </c>
       <c r="O120" t="n">
-        <v>0.09016691935551946</v>
+        <v>0.04589516503810856</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02291454041256244</v>
+        <v>0.01760201918521221</v>
       </c>
       <c r="G121" t="n">
-        <v>0.09129900811045129</v>
+        <v>0.03367796906074525</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02767789543111221</v>
+        <v>0.03075879909152003</v>
       </c>
       <c r="K121" t="n">
-        <v>0.09193439298131564</v>
+        <v>0.0473451738638573</v>
       </c>
       <c r="L121" t="n">
-        <v>0.07039677202227645</v>
+        <v>0.07751923322544491</v>
       </c>
       <c r="M121" t="n">
-        <v>0.09200235119342885</v>
+        <v>0.04707127619174578</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1124056236974946</v>
+        <v>0.1242796673593698</v>
       </c>
       <c r="O121" t="n">
-        <v>0.09180631788925617</v>
+        <v>0.04672962258425599</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02170550232960702</v>
+        <v>0.01767624101653419</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09292934754099506</v>
+        <v>0.03427936136540142</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02773851665689976</v>
+        <v>0.03085879909152003</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09357607857026772</v>
+        <v>0.04819062339714046</v>
       </c>
       <c r="L122" t="n">
-        <v>0.07009590089665285</v>
+        <v>0.07771923322544491</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09364525032188294</v>
+        <v>0.04791183469516982</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1112219887515545</v>
+        <v>0.1244796673593698</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09344571642299289</v>
+        <v>0.04756408013040342</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02248705171971591</v>
+        <v>0.01774839387948116</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09455968697153884</v>
+        <v>0.03488075367005759</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02718348066526174</v>
+        <v>0.03085879909152003</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09521776415921977</v>
+        <v>0.04903607293042362</v>
       </c>
       <c r="L123" t="n">
-        <v>0.06915427452985282</v>
+        <v>0.07791923322544492</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09528814945033702</v>
+        <v>0.04875239319859385</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1106783621042844</v>
+        <v>0.1249796673593698</v>
       </c>
       <c r="O123" t="n">
-        <v>0.0950851149567296</v>
+        <v>0.04839853767655084</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02026257064246015</v>
+        <v>0.0178184933204428</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09619002640208262</v>
+        <v>0.03548214597471375</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02721696801690736</v>
+        <v>0.03065879909152003</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09685944974817184</v>
+        <v>0.04988152246370679</v>
       </c>
       <c r="L124" t="n">
-        <v>0.06828248594526978</v>
+        <v>0.07791923322544492</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09693104857879112</v>
+        <v>0.04959295170201788</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1092916315517588</v>
+        <v>0.1244796673593698</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09672451349046632</v>
+        <v>0.04923299522269827</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02103544115741085</v>
+        <v>0.01788655488580873</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09782036583262638</v>
+        <v>0.03608353827936992</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02694315927254569</v>
+        <v>0.03065879909152003</v>
       </c>
       <c r="K125" t="n">
-        <v>0.0985011353371239</v>
+        <v>0.05072697199698996</v>
       </c>
       <c r="L125" t="n">
-        <v>0.067891128166297</v>
+        <v>0.07761923322544489</v>
       </c>
       <c r="M125" t="n">
-        <v>0.0985739477072452</v>
+        <v>0.05043351020544191</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1086786848900522</v>
+        <v>0.1241796673593698</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09836391202420304</v>
+        <v>0.0500674527688457</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02180904532413909</v>
+        <v>0.01795259412196866</v>
       </c>
       <c r="G126" t="n">
-        <v>0.09945070526317015</v>
+        <v>0.03668493058402608</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02656623499288591</v>
+        <v>0.03055879909152004</v>
       </c>
       <c r="K126" t="n">
-        <v>0.100142820926076</v>
+        <v>0.05157242153027312</v>
       </c>
       <c r="L126" t="n">
-        <v>0.06689079421632788</v>
+        <v>0.07801923322544491</v>
       </c>
       <c r="M126" t="n">
-        <v>0.1002168468356993</v>
+        <v>0.05127406870886594</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1074564099152391</v>
+        <v>0.1248796673593698</v>
       </c>
       <c r="O126" t="n">
-        <v>0.1000033105579398</v>
+        <v>0.05090191031499313</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.01958676520221592</v>
+        <v>0.01801662657531221</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1010810446937139</v>
+        <v>0.03728632288868225</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02619037573863714</v>
+        <v>0.03085879909152003</v>
       </c>
       <c r="K127" t="n">
-        <v>0.101784506515028</v>
+        <v>0.05241787106355628</v>
       </c>
       <c r="L127" t="n">
-        <v>0.06679207711875568</v>
+        <v>0.07741923322544492</v>
       </c>
       <c r="M127" t="n">
-        <v>0.1018597459641534</v>
+        <v>0.05211462721228997</v>
       </c>
       <c r="N127" t="n">
-        <v>0.106241694423394</v>
+        <v>0.1239796673593698</v>
       </c>
       <c r="O127" t="n">
-        <v>0.1016427090916765</v>
+        <v>0.05173636786114056</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02037198285121249</v>
+        <v>0.01807866779222905</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1027113841242577</v>
+        <v>0.03788771519333841</v>
       </c>
       <c r="J128" t="n">
-        <v>0.0258197620705086</v>
+        <v>0.03065879909152003</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1034261921039801</v>
+        <v>0.05326332059683945</v>
       </c>
       <c r="L128" t="n">
-        <v>0.06590556989697383</v>
+        <v>0.0773192332254449</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1035026450926075</v>
+        <v>0.052955185715714</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1050514262105916</v>
+        <v>0.1248796673593698</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1032821076254132</v>
+        <v>0.05257082540728799</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.0211670448995163</v>
+        <v>0.01813873331910886</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1043417235548015</v>
+        <v>0.03848910749799458</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02585857454920931</v>
+        <v>0.03085879909152003</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1050678776929322</v>
+        <v>0.05410877013012262</v>
       </c>
       <c r="L129" t="n">
-        <v>0.06494186557437559</v>
+        <v>0.07761923322544489</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1051455442210616</v>
+        <v>0.05379574421913804</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1041024930729061</v>
+        <v>0.1250796673593698</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1049215061591499</v>
+        <v>0.05340528295343541</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02095029640830723</v>
+        <v>0.01819683870234129</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1059720629853452</v>
+        <v>0.03909049980265075</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02530892091275229</v>
+        <v>0.03055879909152004</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1067095632818842</v>
+        <v>0.05495421966340579</v>
       </c>
       <c r="L130" t="n">
-        <v>0.06410919690376604</v>
+        <v>0.07741923322544492</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1067884433495156</v>
+        <v>0.05463630272256207</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1032897515287983</v>
+        <v>0.1250796673593698</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1065609046928866</v>
+        <v>0.05423974049958284</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02071551506600956</v>
+        <v>0.01825299948831598</v>
       </c>
       <c r="G131" t="n">
-        <v>0.107602402415889</v>
+        <v>0.03969189210730691</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02514293876305394</v>
+        <v>0.03075879909152003</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1083512488708363</v>
+        <v>0.05579966919668895</v>
       </c>
       <c r="L131" t="n">
-        <v>0.06384246478039268</v>
+        <v>0.07761923322544489</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1084313424779697</v>
+        <v>0.05547686122598611</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1014941079557321</v>
+        <v>0.1242796673593698</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1082003032266233</v>
+        <v>0.05507419804573027</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.01846754229189007</v>
+        <v>0.01830723122342263</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1092327418464328</v>
+        <v>0.04029328441196307</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02495526245703146</v>
+        <v>0.03065879909152003</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1099929344597883</v>
+        <v>0.05664511872997212</v>
       </c>
       <c r="L132" t="n">
-        <v>0.06331931322953532</v>
+        <v>0.0773192332254449</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1100742416064238</v>
+        <v>0.05631741972941014</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1002151918683155</v>
+        <v>0.1246796673593698</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1098397017603601</v>
+        <v>0.05590865559187769</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.01921121950521557</v>
+        <v>0.01835954945405088</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1108630812769766</v>
+        <v>0.04089467671661923</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02475187646856464</v>
+        <v>0.03065879909152003</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1116346200487404</v>
+        <v>0.05749056826325529</v>
       </c>
       <c r="L133" t="n">
-        <v>0.06205490616728476</v>
+        <v>0.07751923322544491</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1117171407348779</v>
+        <v>0.05715797823283416</v>
       </c>
       <c r="N133" t="n">
-        <v>0.09967717815157651</v>
+        <v>0.1241796673593698</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1114791002940968</v>
+        <v>0.05674311313802512</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.01995138812525283</v>
+        <v>0.01840996972659038</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1124934207075203</v>
+        <v>0.0414960690212754</v>
       </c>
       <c r="J134" t="n">
-        <v>0.0241387652715333</v>
+        <v>0.03075879909152003</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1132763056376925</v>
+        <v>0.05833601779653844</v>
       </c>
       <c r="L134" t="n">
-        <v>0.06116440750973176</v>
+        <v>0.0773192332254449</v>
       </c>
       <c r="M134" t="n">
-        <v>0.113360039863332</v>
+        <v>0.05799853673625819</v>
       </c>
       <c r="N134" t="n">
-        <v>0.09880424169054319</v>
+        <v>0.1241796673593698</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1131184988278335</v>
+        <v>0.05757757068417255</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.01769288957126863</v>
+        <v>0.01845850758743081</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1141237601380641</v>
+        <v>0.04209746132593157</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02382191333981734</v>
+        <v>0.03085879909152003</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1149179912266445</v>
+        <v>0.05918146732982161</v>
       </c>
       <c r="L135" t="n">
-        <v>0.06036298117296718</v>
+        <v>0.07771923322544491</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1150029389917861</v>
+        <v>0.05883909523968223</v>
       </c>
       <c r="N135" t="n">
-        <v>0.09742055737024347</v>
+        <v>0.1247796673593698</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1147578973615702</v>
+        <v>0.05841202823031998</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.01944056526252976</v>
+        <v>0.01850517858296181</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1157540995686079</v>
+        <v>0.04269885363058773</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02380730514729655</v>
+        <v>0.03065879909152003</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1165596768155966</v>
+        <v>0.06002691686310477</v>
       </c>
       <c r="L136" t="n">
-        <v>0.05956579107308185</v>
+        <v>0.07751923322544491</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1166458381202402</v>
+        <v>0.05967965374310626</v>
       </c>
       <c r="N136" t="n">
-        <v>0.09545030007570521</v>
+        <v>0.1244796673593698</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1163972958953069</v>
+        <v>0.05924648577646742</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.01919925661830301</v>
+        <v>0.01854999825957308</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1173844389991517</v>
+        <v>0.0433002459352439</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02340092516785081</v>
+        <v>0.03085879909152003</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1182013624045487</v>
+        <v>0.06087236639638795</v>
       </c>
       <c r="L137" t="n">
-        <v>0.05948800112616653</v>
+        <v>0.07771923322544491</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1182887372486942</v>
+        <v>0.06052021224653029</v>
       </c>
       <c r="N137" t="n">
-        <v>0.09491764469195657</v>
+        <v>0.1249796673593698</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1180366944290437</v>
+        <v>0.06008094332261484</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.01797380505785516</v>
+        <v>0.01859298216365423</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1190147784296954</v>
+        <v>0.04390163823990006</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02300875787535993</v>
+        <v>0.03085879909152003</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1198430479935007</v>
+        <v>0.06171781592967111</v>
       </c>
       <c r="L138" t="n">
-        <v>0.05834477524831205</v>
+        <v>0.07741923322544492</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1199316363771483</v>
+        <v>0.06136077074995433</v>
       </c>
       <c r="N138" t="n">
-        <v>0.09344676610402536</v>
+        <v>0.1246796673593698</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1196760929627804</v>
+        <v>0.06091540086876227</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.01676905200045301</v>
+        <v>0.01863414584159496</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1206451178602392</v>
+        <v>0.04450303054455623</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02283678774370376</v>
+        <v>0.03065879909152003</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1214847335824528</v>
+        <v>0.06256326546295428</v>
       </c>
       <c r="L139" t="n">
-        <v>0.0577512773556092</v>
+        <v>0.07801923322544491</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1215745355056024</v>
+        <v>0.06220132925337836</v>
       </c>
       <c r="N139" t="n">
-        <v>0.09186183919693969</v>
+        <v>0.1244796673593698</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1213154914965171</v>
+        <v>0.0617498584149097</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.01758983886536333</v>
+        <v>0.01867350483978489</v>
       </c>
       <c r="G140" t="n">
-        <v>0.122275457290783</v>
+        <v>0.0451044228492124</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02269099924676214</v>
+        <v>0.03085879909152003</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1231264191714049</v>
+        <v>0.06340871499623744</v>
       </c>
       <c r="L140" t="n">
-        <v>0.05672267136414882</v>
+        <v>0.07771923322544491</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1232174346340565</v>
+        <v>0.06304188775680238</v>
       </c>
       <c r="N140" t="n">
-        <v>0.09178703885572742</v>
+        <v>0.1245796673593698</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1229548900302538</v>
+        <v>0.06258431596105712</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.01644100707185292</v>
+        <v>0.01871107470461373</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1239057967213267</v>
+        <v>0.04570581515386856</v>
       </c>
       <c r="J141" t="n">
-        <v>0.0222773768584149</v>
+        <v>0.03075879909152003</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1247681047603569</v>
+        <v>0.06425416452952061</v>
       </c>
       <c r="L141" t="n">
-        <v>0.0567741211900217</v>
+        <v>0.07751923322544491</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1248603337625106</v>
+        <v>0.06388244626022642</v>
       </c>
       <c r="N141" t="n">
-        <v>0.09004653996541656</v>
+        <v>0.1246796673593698</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1245942885639905</v>
+        <v>0.06341877350720455</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.01632739803918854</v>
+        <v>0.01874687098247111</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1255361361518705</v>
+        <v>0.04630720745852473</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02230190505254191</v>
+        <v>0.03065879909152003</v>
       </c>
       <c r="K142" t="n">
-        <v>0.126409790349309</v>
+        <v>0.06509961406280378</v>
       </c>
       <c r="L142" t="n">
-        <v>0.05582079074931864</v>
+        <v>0.07801923322544491</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1265032328909647</v>
+        <v>0.06472300476365045</v>
       </c>
       <c r="N142" t="n">
-        <v>0.08986451741103507</v>
+        <v>0.1250796673593698</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1262336870977273</v>
+        <v>0.06425323105335198</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.018253853186637</v>
+        <v>0.01878090921974671</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1271664755824143</v>
+        <v>0.0469085997631809</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02207056830302298</v>
+        <v>0.03075879909152003</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1280514759382611</v>
+        <v>0.06594506359608694</v>
       </c>
       <c r="L143" t="n">
-        <v>0.05557784395813045</v>
+        <v>0.07741923322544492</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1281461320194188</v>
+        <v>0.06556356326707448</v>
       </c>
       <c r="N143" t="n">
-        <v>0.089665146077611</v>
+        <v>0.1240796673593698</v>
       </c>
       <c r="O143" t="n">
-        <v>0.127873085631464</v>
+        <v>0.06508768859949941</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.01722521393346509</v>
+        <v>0.01881320496283015</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1287968150129581</v>
+        <v>0.04750999206783706</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02178935108373796</v>
+        <v>0.03085879909152003</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1296931615272131</v>
+        <v>0.06679051312937011</v>
       </c>
       <c r="L144" t="n">
-        <v>0.05576044473254796</v>
+        <v>0.0778192332254449</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1297890311478729</v>
+        <v>0.06640412177049852</v>
       </c>
       <c r="N144" t="n">
-        <v>0.08937260085017223</v>
+        <v>0.1248796673593698</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1295124841652007</v>
+        <v>0.06592214614564684</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.01822798019381407</v>
+        <v>0.01884377375811114</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1304271544435018</v>
+        <v>0.04811138437249322</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02176406989557955</v>
+        <v>0.03055879909152004</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1313348471161652</v>
+        <v>0.06763596266265327</v>
       </c>
       <c r="L145" t="n">
-        <v>0.05578375698866195</v>
+        <v>0.07801923322544491</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1314319302763269</v>
+        <v>0.06724468027392255</v>
       </c>
       <c r="N145" t="n">
-        <v>0.08860455644412146</v>
+        <v>0.1250796673593698</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1311518826989374</v>
+        <v>0.06675660369179426</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.01823792079082884</v>
+        <v>0.01887263115197931</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1320574938740456</v>
+        <v>0.04871277667714938</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02196918635709318</v>
+        <v>0.03055879909152004</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1329765327051173</v>
+        <v>0.06848141219593644</v>
       </c>
       <c r="L146" t="n">
-        <v>0.05539475888731221</v>
+        <v>0.07801923322544491</v>
       </c>
       <c r="M146" t="n">
-        <v>0.133074829404781</v>
+        <v>0.06808523877734658</v>
       </c>
       <c r="N146" t="n">
-        <v>0.08913109603999825</v>
+        <v>0.1245796673593698</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1327912812326741</v>
+        <v>0.06759106123794169</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.01725450113636651</v>
+        <v>0.01889979269082435</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1336878333045894</v>
+        <v>0.04931416898180555</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02188281210146509</v>
+        <v>0.03075879909152003</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1346182182940693</v>
+        <v>0.0693268617292196</v>
       </c>
       <c r="L147" t="n">
-        <v>0.05562740791694948</v>
+        <v>0.07741923322544492</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1347177285332351</v>
+        <v>0.0689257972807706</v>
       </c>
       <c r="N147" t="n">
-        <v>0.08869176527597872</v>
+        <v>0.1246776355132411</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1344306797664108</v>
+        <v>0.06842551878408912</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.01627736548470293</v>
+        <v>0.01892527392103587</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1353181727351332</v>
+        <v>0.04991556128646172</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02210450739173452</v>
+        <v>0.03065876432475134</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1362599038830214</v>
+        <v>0.07017231126250277</v>
       </c>
       <c r="L148" t="n">
-        <v>0.05518058536937459</v>
+        <v>0.07731737615496848</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1363606276616892</v>
+        <v>0.06976635578419464</v>
       </c>
       <c r="N148" t="n">
-        <v>0.08898478779031715</v>
+        <v>0.1241681429992297</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1360700783001475</v>
+        <v>0.06925997633023655</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.01730615809011394</v>
+        <v>0.01894909038900358</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1369485121656769</v>
+        <v>0.05051695359111788</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02213383249094074</v>
+        <v>0.03065739807232844</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1379015894719735</v>
+        <v>0.07101776079578594</v>
       </c>
       <c r="L149" t="n">
-        <v>0.05525317700555685</v>
+        <v>0.07751067327456942</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1380035267901433</v>
+        <v>0.07060691428761867</v>
       </c>
       <c r="N149" t="n">
-        <v>0.08870838722126778</v>
+        <v>0.1245511623734958</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1377094768338842</v>
+        <v>0.07009443387638399</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.01734052320687541</v>
+        <v>0.01897125764111712</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1385788515962207</v>
+        <v>0.05111834589577405</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02187034766212301</v>
+        <v>0.03085409836135009</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1395432750609255</v>
+        <v>0.0718632103290691</v>
       </c>
       <c r="L150" t="n">
-        <v>0.05584406858646568</v>
+        <v>0.07729926467823922</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1396464259185974</v>
+        <v>0.0714474727910427</v>
       </c>
       <c r="N150" t="n">
-        <v>0.08896078720708489</v>
+        <v>0.1250269896547758</v>
       </c>
       <c r="O150" t="n">
-        <v>0.139348875367621</v>
+        <v>0.07092889142253141</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.01638010508926317</v>
+        <v>0.01899179122376615</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1402091910267645</v>
+        <v>0.05171973820043021</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02201361316832058</v>
+        <v>0.03054894108709411</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1411849606498776</v>
+        <v>0.07270865986235227</v>
       </c>
       <c r="L151" t="n">
-        <v>0.05545214587307046</v>
+        <v>0.07738333893840188</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1412893250470514</v>
+        <v>0.07228803129446675</v>
       </c>
       <c r="N151" t="n">
-        <v>0.08904021138602292</v>
+        <v>0.1242959208618061</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1409882739013577</v>
+        <v>0.07176334896867884</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.01642454799155309</v>
+        <v>0.01901070668334034</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1418395304573083</v>
+        <v>0.05232113050508638</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02216318927257274</v>
+        <v>0.0307420021448383</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1428266462388297</v>
+        <v>0.07355410939563543</v>
       </c>
       <c r="L152" t="n">
-        <v>0.05567629462634052</v>
+        <v>0.07756308462748138</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1429322241755056</v>
+        <v>0.07312858979789078</v>
       </c>
       <c r="N152" t="n">
-        <v>0.09034488339633601</v>
+        <v>0.124858252013323</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1426276724350944</v>
+        <v>0.07259780651482627</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.01847349616802102</v>
+        <v>0.01902801956622935</v>
       </c>
       <c r="G153" t="n">
-        <v>0.143469869887852</v>
+        <v>0.05292252280974254</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02231863623791873</v>
+        <v>0.03073335742986052</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1444683318277817</v>
+        <v>0.0743995589289186</v>
       </c>
       <c r="L153" t="n">
-        <v>0.05621540060724528</v>
+        <v>0.07793869031790171</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1445751233039596</v>
+        <v>0.0739691483013148</v>
       </c>
       <c r="N153" t="n">
-        <v>0.08937302687627852</v>
+        <v>0.1240142791280627</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1442670709688311</v>
+        <v>0.0734322640609737</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.0175265938729428</v>
+        <v>0.01904374541882282</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1451002093183958</v>
+        <v>0.05352391511439871</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02237951432739783</v>
+        <v>0.03072308283743859</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1461100174167338</v>
+        <v>0.07524500846220177</v>
       </c>
       <c r="L154" t="n">
-        <v>0.05636834957675413</v>
+        <v>0.07781034458208688</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1462180224324137</v>
+        <v>0.07480970680473882</v>
       </c>
       <c r="N154" t="n">
-        <v>0.0900228654641046</v>
+        <v>0.1245642982247617</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1459064695025678</v>
+        <v>0.07426672160712113</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.01758348536059429</v>
+        <v>0.01905789978751043</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1467305487489396</v>
+        <v>0.05412530741905487</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02224538380404927</v>
+        <v>0.03061125426285032</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1477517030056859</v>
+        <v>0.07609045799548493</v>
       </c>
       <c r="L155" t="n">
-        <v>0.05643402729583641</v>
+        <v>0.07737823599246091</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1478609215608678</v>
+        <v>0.07565026530816286</v>
       </c>
       <c r="N155" t="n">
-        <v>0.09029262279806871</v>
+        <v>0.1243086053221564</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1475458680363046</v>
+        <v>0.07510117915326855</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.01664381488525133</v>
+        <v>0.01907049821868184</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1483608881794833</v>
+        <v>0.05472669972371104</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02251580493091235</v>
+        <v>0.03069794760137351</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1493933885946379</v>
+        <v>0.0769359075287681</v>
       </c>
       <c r="L156" t="n">
-        <v>0.05691131952546152</v>
+        <v>0.07764255312144772</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1495038206893219</v>
+        <v>0.07649082381158689</v>
       </c>
       <c r="N156" t="n">
-        <v>0.09138052251642503</v>
+        <v>0.1242474964389831</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1491852665700413</v>
+        <v>0.07593563669941598</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.01872910673794018</v>
+        <v>0.01908155625872671</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1499912276100271</v>
+        <v>0.05532809202836721</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02249075203561859</v>
+        <v>0.03058323874828603</v>
       </c>
       <c r="K157" t="n">
-        <v>0.15103507418359</v>
+        <v>0.07778135706205126</v>
       </c>
       <c r="L157" t="n">
-        <v>0.05689916937022896</v>
+        <v>0.0776034845414714</v>
       </c>
       <c r="M157" t="n">
-        <v>0.151146719817776</v>
+        <v>0.07733138231501092</v>
       </c>
       <c r="N157" t="n">
-        <v>0.09119474283694395</v>
+        <v>0.1240812675939781</v>
       </c>
       <c r="O157" t="n">
-        <v>0.150824665103778</v>
+        <v>0.0767700942455634</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.01687128701210414</v>
+        <v>0.0190910894540347</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1516215670405709</v>
+        <v>0.05592948433302337</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02261326142875233</v>
+        <v>0.03046720359886569</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1526767597725421</v>
+        <v>0.07862680659533443</v>
       </c>
       <c r="L158" t="n">
-        <v>0.05679430522461068</v>
+        <v>0.0772612188249559</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1527896189462301</v>
+        <v>0.07817194081843497</v>
       </c>
       <c r="N158" t="n">
-        <v>0.09163485338703253</v>
+        <v>0.1242102148058777</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1524640636375147</v>
+        <v>0.07760455179171083</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.01906035310575718</v>
+        <v>0.01909911335099546</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1532519064711147</v>
+        <v>0.05653087663767954</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02270305071389624</v>
+        <v>0.03064991804839028</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1543184453614941</v>
+        <v>0.07947225612861759</v>
       </c>
       <c r="L159" t="n">
-        <v>0.05716242770770347</v>
+        <v>0.07751594454432517</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1544325180746842</v>
+        <v>0.079012499321859</v>
       </c>
       <c r="N159" t="n">
-        <v>0.0922391972732779</v>
+        <v>0.1238346340934183</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1541034621712514</v>
+        <v>0.07843900933785826</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.01928556591411016</v>
+        <v>0.01910564349599867</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1548822459016584</v>
+        <v>0.0571322689423357</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02314684529354862</v>
+        <v>0.03043145799213763</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1559601309504462</v>
+        <v>0.08031770566190077</v>
       </c>
       <c r="L160" t="n">
-        <v>0.05816990063248473</v>
+        <v>0.0770678502720033</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1560754172031382</v>
+        <v>0.07985305782528303</v>
       </c>
       <c r="N160" t="n">
-        <v>0.09325415042197888</v>
+        <v>0.1235548214753364</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1557428607049881</v>
+        <v>0.07927346688400569</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.01953618633237396</v>
+        <v>0.01911069543543398</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1565125853322022</v>
+        <v>0.05773366124699186</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02343137057020775</v>
+        <v>0.0304118993253856</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1576018165393983</v>
+        <v>0.08116315519518394</v>
       </c>
       <c r="L161" t="n">
-        <v>0.05908308781193175</v>
+        <v>0.07731712458041423</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1577183163315923</v>
+        <v>0.08069361632870704</v>
       </c>
       <c r="N161" t="n">
-        <v>0.09432608875943427</v>
+        <v>0.1241710729703682</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1573822592387249</v>
+        <v>0.08010792443015313</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.01980147525575943</v>
+        <v>0.01911428471569105</v>
       </c>
       <c r="G162" t="n">
-        <v>0.158142924762746</v>
+        <v>0.05833505355164803</v>
       </c>
       <c r="J162" t="n">
-        <v>0.023643351946372</v>
+        <v>0.03069131794341197</v>
       </c>
       <c r="K162" t="n">
-        <v>0.1592435021283503</v>
+        <v>0.08200860472846709</v>
       </c>
       <c r="L162" t="n">
-        <v>0.05976835305902184</v>
+        <v>0.07706395604198193</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1593612154600464</v>
+        <v>0.08153417483213109</v>
       </c>
       <c r="N162" t="n">
-        <v>0.09650138821194282</v>
+        <v>0.1236836845972502</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1590216577724616</v>
+        <v>0.08094238197630055</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.01807069357947741</v>
+        <v>0.01911642688315954</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1597732641932898</v>
+        <v>0.0589364458563042</v>
       </c>
       <c r="J163" t="n">
-        <v>0.0240695148245397</v>
+        <v>0.0303697897414946</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1608851877173024</v>
+        <v>0.08285405426175026</v>
       </c>
       <c r="L163" t="n">
-        <v>0.06029206018673228</v>
+        <v>0.07700853322913045</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1610041145885005</v>
+        <v>0.08237473333555512</v>
       </c>
       <c r="N163" t="n">
-        <v>0.09722642470580323</v>
+        <v>0.1241929523747184</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1606610563061983</v>
+        <v>0.08177683952244798</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.0203331021987388</v>
+        <v>0.01911713748422911</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1614036036238335</v>
+        <v>0.05953783816096037</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02439658460720914</v>
+        <v>0.03054739061491127</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1625268733062545</v>
+        <v>0.08369950379503342</v>
       </c>
       <c r="L164" t="n">
-        <v>0.0612205730080404</v>
+        <v>0.07745104471428377</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1626470137169546</v>
+        <v>0.08321529183897915</v>
       </c>
       <c r="N164" t="n">
-        <v>0.09864757416731429</v>
+        <v>0.1235991723215095</v>
       </c>
       <c r="O164" t="n">
-        <v>0.162300454839935</v>
+        <v>0.08261129706859541</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.01957796200875445</v>
+        <v>0.0191171374842291</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1630339430543773</v>
+        <v>0.05953783816096037</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02461128669687862</v>
+        <v>0.03032419645893984</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1641685588952065</v>
+        <v>0.08454495332831659</v>
       </c>
       <c r="L165" t="n">
-        <v>0.0618202553359235</v>
+        <v>0.07669167906986588</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1642899128454086</v>
+        <v>0.08405585034240319</v>
       </c>
       <c r="N165" t="n">
-        <v>0.09951121252277484</v>
+        <v>0.1240026404563597</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1639398533736717</v>
+        <v>0.08344575461474284</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.0197945339047352</v>
+        <v>0.01867324231166686</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1646642824849211</v>
+        <v>0.05953756963249635</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02480034649604652</v>
+        <v>0.0306002831688581</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1658102444841586</v>
+        <v>0.08539040286159975</v>
       </c>
       <c r="L166" t="n">
-        <v>0.06305747098335887</v>
+        <v>0.07713062486830075</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1659328119738628</v>
+        <v>0.08489640884582722</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1012637156984835</v>
+        <v>0.1235036527980055</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1655792519074085</v>
+        <v>0.08428021216089027</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.01998473411416191</v>
+        <v>0.01823448947749624</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1662946219154648</v>
+        <v>0.05953730110403234</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02505086242355753</v>
+        <v>0.03037572663994391</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1674519300731107</v>
+        <v>0.08623585239488292</v>
       </c>
       <c r="L167" t="n">
-        <v>0.06339876809022701</v>
+        <v>0.07696807068201245</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1675757111023168</v>
+        <v>0.08573696734925125</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1025578957984442</v>
+        <v>0.1236025053651829</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1672186504411452</v>
+        <v>0.0851146697070377</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.01916951196178185</v>
+        <v>0.0178014178389688</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1679249613460086</v>
+        <v>0.05953703257556831</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02527996216634425</v>
+        <v>0.03045060276747506</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1690936156620627</v>
+        <v>0.0870813019281661</v>
       </c>
       <c r="L168" t="n">
-        <v>0.064079489016035</v>
+        <v>0.07680420508342486</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1692186102307709</v>
+        <v>0.08657752585267528</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1033827528641725</v>
+        <v>0.1235994941766287</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1688580489748819</v>
+        <v>0.08594912725318511</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.01934988177771702</v>
+        <v>0.01737456625339249</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1695553007765524</v>
+        <v>0.0595367640471043</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02570337140356904</v>
+        <v>0.0302249874467294</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1707353012510148</v>
+        <v>0.08792675146144927</v>
       </c>
       <c r="L169" t="n">
-        <v>0.06464572589074896</v>
+        <v>0.07693921664496206</v>
       </c>
       <c r="M169" t="n">
-        <v>0.170861509359225</v>
+        <v>0.08741808435609931</v>
       </c>
       <c r="N169" t="n">
-        <v>0.10388481831378</v>
+        <v>0.123594915251079</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1704974475086186</v>
+        <v>0.08678358479933254</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.01952618423869375</v>
+        <v>0.01695447357801859</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1711856402070962</v>
+        <v>0.05953649551864029</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02582151124541832</v>
+        <v>0.03029895657298472</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1723769868399669</v>
+        <v>0.08877220099473243</v>
       </c>
       <c r="L170" t="n">
-        <v>0.06499854575545899</v>
+        <v>0.07707329393904805</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1725044084876791</v>
+        <v>0.08825864285952334</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1049657932642815</v>
+        <v>0.12358906460727</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1721368460423553</v>
+        <v>0.08761804234547997</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02069876002143829</v>
+        <v>0.01654167867011737</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1728159796376399</v>
+        <v>0.05953622699017627</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02613480280207849</v>
+        <v>0.03017258604151887</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1740186724289189</v>
+        <v>0.08961765052801558</v>
       </c>
       <c r="L171" t="n">
-        <v>0.06553901565125506</v>
+        <v>0.0768066255381068</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1741473076161332</v>
+        <v>0.08909920136294737</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1049273788326917</v>
+        <v>0.1231822382639384</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1737762445760921</v>
+        <v>0.0884524998916274</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.01986794980267697</v>
+        <v>0.01613672038694162</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1744463190681837</v>
+        <v>0.05953595846171224</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02604366718373598</v>
+        <v>0.03014595174760966</v>
       </c>
       <c r="K172" t="n">
-        <v>0.175660358017871</v>
+        <v>0.09046310006129875</v>
       </c>
       <c r="L172" t="n">
-        <v>0.06596820261922723</v>
+        <v>0.0763394000145623</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1757902067445873</v>
+        <v>0.08993975986637141</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1057712761360249</v>
+        <v>0.1228747322398203</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1754156431098288</v>
+        <v>0.08928695743777483</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02103409425913605</v>
+        <v>0.01574013758579689</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1760766584987275</v>
+        <v>0.05953568993324822</v>
       </c>
       <c r="J173" t="n">
-        <v>0.0262485255005772</v>
+        <v>0.03041912958653489</v>
       </c>
       <c r="K173" t="n">
-        <v>0.177302043606823</v>
+        <v>0.09130854959458191</v>
       </c>
       <c r="L173" t="n">
-        <v>0.06698717370046542</v>
+        <v>0.07657180594083854</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1774331058730414</v>
+        <v>0.09078031836979544</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1070991862912962</v>
+        <v>0.1222652956253529</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1770550416435655</v>
+        <v>0.09012141498392226</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02019753406754185</v>
+        <v>0.01535246912393559</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1777069979292713</v>
+        <v>0.05953542140478421</v>
       </c>
       <c r="J174" t="n">
-        <v>0.0264497988627886</v>
+        <v>0.03039212459395894</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1789437291957751</v>
+        <v>0.09215399912786508</v>
       </c>
       <c r="L174" t="n">
-        <v>0.0675969959360597</v>
+        <v>0.07640002014921679</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1790760050014955</v>
+        <v>0.09162087687321947</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1079128104155199</v>
+        <v>0.1223340141366809</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1786944401773022</v>
+        <v>0.09095587253006969</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02035860990462064</v>
+        <v>0.01497425385862802</v>
       </c>
       <c r="G175" t="n">
-        <v>0.179337337359815</v>
+        <v>0.0595351528763202</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02674790838055655</v>
+        <v>0.03016056262859086</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1805854147847271</v>
+        <v>0.09299944866114825</v>
       </c>
       <c r="L175" t="n">
-        <v>0.06749873636710005</v>
+        <v>0.07671182141219496</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1807189041299495</v>
+        <v>0.0924614353766435</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1094138496257109</v>
+        <v>0.1220771064031437</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1803338387110389</v>
+        <v>0.09179033007621712</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02151766244709874</v>
+        <v>0.01460603064712861</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1809676767903588</v>
+        <v>0.05953488434785617</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02694327516406753</v>
+        <v>0.03012238155380216</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1822271003736792</v>
+        <v>0.09384489819443143</v>
       </c>
       <c r="L176" t="n">
-        <v>0.06849346203467646</v>
+        <v>0.07650809667725167</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1823618032584036</v>
+        <v>0.09330199388006753</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1099040050388839</v>
+        <v>0.1219976515488093</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1819732372447756</v>
+        <v>0.09262478762236455</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02267503237170244</v>
+        <v>0.01424833834673971</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1825980162209026</v>
+        <v>0.05953461581939216</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02713632032350792</v>
+        <v>0.02997837081616458</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1838687859626313</v>
+        <v>0.09469034772771459</v>
       </c>
       <c r="L177" t="n">
-        <v>0.06858223997987897</v>
+        <v>0.07599080743471831</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1840047023868577</v>
+        <v>0.09414255238349156</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1104849777720533</v>
+        <v>0.1217987286977455</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1836126357785123</v>
+        <v>0.09345924516851198</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02283278450012212</v>
+        <v>0.01390171581471528</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1842283556514464</v>
+        <v>0.05953434729092814</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02732746496906414</v>
+        <v>0.03012931986224991</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1855104715515833</v>
+        <v>0.09553579726099776</v>
       </c>
       <c r="L178" t="n">
-        <v>0.06916613724379758</v>
+        <v>0.07636191517492646</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1856476015153118</v>
+        <v>0.09498311088691559</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1109584760842555</v>
+        <v>0.1212834169740205</v>
       </c>
       <c r="O178" t="n">
-        <v>0.185252034312249</v>
+        <v>0.09429370271465941</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02099966001784337</v>
+        <v>0.01356670190832562</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1858586950819901</v>
+        <v>0.05953407876246413</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02742371255958991</v>
+        <v>0.03017601813862987</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1871521571405354</v>
+        <v>0.09638124679428092</v>
       </c>
       <c r="L179" t="n">
-        <v>0.0699607454922615</v>
+        <v>0.07612338138820751</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1872905006437659</v>
+        <v>0.09582366939033964</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1114597959011835</v>
+        <v>0.121054795501702</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1868914328459858</v>
+        <v>0.09512816026080684</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02117191628785345</v>
+        <v>0.01324383548482719</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1874890345125339</v>
+        <v>0.0595338102340001</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02793070788457395</v>
+        <v>0.02981925509187623</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1887938427294875</v>
+        <v>0.09722669632756407</v>
       </c>
       <c r="L180" t="n">
-        <v>0.07058329076381106</v>
+        <v>0.07587716756489285</v>
       </c>
       <c r="M180" t="n">
-        <v>0.18893339977222</v>
+        <v>0.09666422789376367</v>
       </c>
       <c r="N180" t="n">
-        <v>0.112601560843041</v>
+        <v>0.1213159434048581</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1885308313797225</v>
+        <v>0.09596261780695425</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02134370108485585</v>
+        <v>0.01293365540151836</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1891193739430777</v>
+        <v>0.05953354170553609</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02794132409386707</v>
+        <v>0.02995982016856076</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1904355283184395</v>
+        <v>0.09807214586084724</v>
       </c>
       <c r="L181" t="n">
-        <v>0.07071614144922339</v>
+        <v>0.07582523519531403</v>
       </c>
       <c r="M181" t="n">
-        <v>0.190576298900674</v>
+        <v>0.0975047863971877</v>
       </c>
       <c r="N181" t="n">
-        <v>0.113354548719824</v>
+        <v>0.1207699398075567</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1901702299134592</v>
+        <v>0.09679707535310168</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02250916218355402</v>
+        <v>0.01263670051565506</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1907497133736214</v>
+        <v>0.05953327317707208</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02824832725719051</v>
+        <v>0.02979850281525519</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1920772139073916</v>
+        <v>0.09891759539413041</v>
       </c>
       <c r="L182" t="n">
-        <v>0.07104096766454276</v>
+        <v>0.07516954576980245</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1922191980291281</v>
+        <v>0.09834534490061173</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1140895373415289</v>
+        <v>0.120419863833866</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1918096284471959</v>
+        <v>0.09763153289924911</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02366244735865144</v>
+        <v>0.01235350968450757</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1923800528041652</v>
+        <v>0.05953300464860806</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02844448344426548</v>
+        <v>0.02983609247853131</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1937188994963437</v>
+        <v>0.09976304492741357</v>
       </c>
       <c r="L183" t="n">
-        <v>0.07193943952581347</v>
+        <v>0.07521206077868953</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1938620971575822</v>
+        <v>0.09918590340403576</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1158773045181521</v>
+        <v>0.1199687946078537</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1934490269809326</v>
+        <v>0.09846599044539654</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02179770438485153</v>
+        <v>0.01208462176533474</v>
       </c>
       <c r="G184" t="n">
-        <v>0.194010392234709</v>
+        <v>0.05953273612014404</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02852255872481327</v>
+        <v>0.02957337860496086</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1953605850852957</v>
+        <v>0.1006084944606968</v>
       </c>
       <c r="L184" t="n">
-        <v>0.07189322714907978</v>
+        <v>0.07495474171230682</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1955049962860363</v>
+        <v>0.1000264619074598</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1160886280596898</v>
+        <v>0.1203198112535879</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1950884255146693</v>
+        <v>0.09930044799154397</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02190908103685781</v>
+        <v>0.01183057561543025</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1956407316652528</v>
+        <v>0.05953246759168002</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02867531916855515</v>
+        <v>0.02951115064111559</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1970022706742478</v>
+        <v>0.1014539439939799</v>
       </c>
       <c r="L185" t="n">
-        <v>0.0724840006503859</v>
+        <v>0.07509955006098562</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1971478954144904</v>
+        <v>0.1008670204108838</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1160942857761383</v>
+        <v>0.1195759928951364</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1967278240484061</v>
+        <v>0.1001349055376914</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02199072508937368</v>
+        <v>0.01159191009205235</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1972710710957965</v>
+        <v>0.059532199063216</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02899553084521236</v>
+        <v>0.02975019803356727</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1986439562631999</v>
+        <v>0.1022993935272631</v>
       </c>
       <c r="L186" t="n">
-        <v>0.07289343014577612</v>
+        <v>0.07444844731505748</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1987907945429445</v>
+        <v>0.1017075789143079</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1167650554774938</v>
+        <v>0.1202404186565673</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1983672225821428</v>
+        <v>0.1009693630838388</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02405353901733834</v>
+        <v>0.01136916405247129</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1989014105263403</v>
+        <v>0.05953193053475199</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02897980677727648</v>
+        <v>0.02949131022888764</v>
       </c>
       <c r="K187" t="n">
-        <v>0.2002856418521519</v>
+        <v>0.1031448430605462</v>
       </c>
       <c r="L187" t="n">
-        <v>0.07311043848223764</v>
+        <v>0.07500339496485386</v>
       </c>
       <c r="M187" t="n">
-        <v>0.2004336936713986</v>
+        <v>0.1025481374177319</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1178964243268869</v>
+        <v>0.1194161676619485</v>
       </c>
       <c r="O187" t="n">
-        <v>0.2000066211158795</v>
+        <v>0.1018038206299863</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.0221149715651746</v>
+        <v>0.01116287635394869</v>
       </c>
       <c r="G188" t="n">
-        <v>0.2005317499568841</v>
+        <v>0.05953166200628796</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02915557952503624</v>
+        <v>0.02943527667364849</v>
       </c>
       <c r="K188" t="n">
-        <v>0.201927327441104</v>
+        <v>0.1039902925938294</v>
       </c>
       <c r="L188" t="n">
-        <v>0.07320239128693445</v>
+        <v>0.07416635450070616</v>
       </c>
       <c r="M188" t="n">
-        <v>0.2020765927998527</v>
+        <v>0.1033886959211559</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1174026528011644</v>
+        <v>0.1198063190353481</v>
       </c>
       <c r="O188" t="n">
-        <v>0.2016460196496162</v>
+        <v>0.1026382781761337</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02417502855660363</v>
+        <v>0.0109735858537728</v>
       </c>
       <c r="G189" t="n">
-        <v>0.2021620893874279</v>
+        <v>0.05953139347782395</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02912967768354631</v>
+        <v>0.02928288681442158</v>
       </c>
       <c r="K189" t="n">
-        <v>0.2035690130300561</v>
+        <v>0.1048357421271126</v>
       </c>
       <c r="L189" t="n">
-        <v>0.0734901078108825</v>
+        <v>0.07443928741294581</v>
       </c>
       <c r="M189" t="n">
-        <v>0.2037194919283067</v>
+        <v>0.1042292544245799</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1182020957643555</v>
+        <v>0.1194139519008338</v>
       </c>
       <c r="O189" t="n">
-        <v>0.2032854181833529</v>
+        <v>0.1034727357222811</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02223368845464445</v>
+        <v>0.01079963107535117</v>
       </c>
       <c r="G190" t="n">
-        <v>0.2037924288179716</v>
+        <v>0.05953112494935994</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02900207463096442</v>
+        <v>0.02953493009777861</v>
       </c>
       <c r="K190" t="n">
-        <v>0.2052106986190081</v>
+        <v>0.1056811916603957</v>
       </c>
       <c r="L190" t="n">
-        <v>0.07347352059762852</v>
+        <v>0.07392415519190432</v>
       </c>
       <c r="M190" t="n">
-        <v>0.2053623910567609</v>
+        <v>0.105069812928004</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1187946456748469</v>
+        <v>0.1191421453824739</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2049248167170897</v>
+        <v>0.1043071932684285</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02429092972231606</v>
+        <v>0.01062834887283265</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2054227682485154</v>
+        <v>0.05953085642089592</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02937274374544824</v>
+        <v>0.02939219597029137</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2068523842079602</v>
+        <v>0.1065266411936789</v>
       </c>
       <c r="L191" t="n">
-        <v>0.07415256219071917</v>
+        <v>0.07402291932791311</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2070052901852149</v>
+        <v>0.105910371431428</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1181801949910248</v>
+        <v>0.1188939786043361</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2065642152508264</v>
+        <v>0.105141650814576</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02234673082263745</v>
+        <v>0.01045807776962634</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2070531076790592</v>
+        <v>0.0595305878924319</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02944165840515546</v>
+        <v>0.02925547387853163</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2084940697969123</v>
+        <v>0.1073720907269621</v>
       </c>
       <c r="L192" t="n">
-        <v>0.07382716513370111</v>
+        <v>0.07383754131130363</v>
       </c>
       <c r="M192" t="n">
-        <v>0.208648189313669</v>
+        <v>0.106750929934852</v>
       </c>
       <c r="N192" t="n">
-        <v>0.119458636171276</v>
+        <v>0.1182725306904884</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2082036137845631</v>
+        <v>0.1059761083607234</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02240107021862764</v>
+        <v>0.01028935662301736</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2086834471096029</v>
+        <v>0.05953031936396788</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02920879198824383</v>
+        <v>0.02932555326907116</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2101357553858643</v>
+        <v>0.1082175402602452</v>
       </c>
       <c r="L193" t="n">
-        <v>0.07389726197012111</v>
+        <v>0.07406893888020818</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2102910884421231</v>
+        <v>0.1075914884382761</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1189298616739869</v>
+        <v>0.1188703605098786</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2098430123182998</v>
+        <v>0.1068105659068708</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02345392637330564</v>
+        <v>0.01012272429026851</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2103137865401467</v>
+        <v>0.05953005083550387</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02947411787287101</v>
+        <v>0.0291001354154896</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2117774409748164</v>
+        <v>0.1090629897935284</v>
       </c>
       <c r="L194" t="n">
-        <v>0.07446278524352587</v>
+        <v>0.07430592049279963</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2119339875705772</v>
+        <v>0.1084320469417001</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1192937639575441</v>
+        <v>0.1182716224559363</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2114824108520365</v>
+        <v>0.1076450234530183</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02450527774969043</v>
+        <v>0.009958719628650053</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2119441259706905</v>
+        <v>0.05952978230703985</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02963760943719471</v>
+        <v>0.02927554073993943</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2134191265637685</v>
+        <v>0.1099084393268116</v>
       </c>
       <c r="L195" t="n">
-        <v>0.07452366749746203</v>
+        <v>0.07394489794627579</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2135768866990312</v>
+        <v>0.1092726054451241</v>
       </c>
       <c r="N195" t="n">
-        <v>0.119950235480334</v>
+        <v>0.1184759898589081</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2131218093857733</v>
+        <v>0.1084794809991657</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02355510281080102</v>
+        <v>0.009797881495425334</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2135744654012343</v>
+        <v>0.05952951377857583</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02949924005937263</v>
+        <v>0.02915172963637308</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2150608121527205</v>
+        <v>0.1107538888600947</v>
       </c>
       <c r="L196" t="n">
-        <v>0.07477984127547635</v>
+        <v>0.07378580838685128</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2152197858274854</v>
+        <v>0.1101131639485482</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1192991687007433</v>
+        <v>0.1187833640516732</v>
       </c>
       <c r="O196" t="n">
-        <v>0.21476120791951</v>
+        <v>0.1093139385453131</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02360338001965641</v>
+        <v>0.009640748747878618</v>
       </c>
       <c r="G197" t="n">
-        <v>0.215204804831778</v>
+        <v>0.05952924525011181</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02965898311756247</v>
+        <v>0.02902867680784951</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2167024977416726</v>
+        <v>0.1115993383933779</v>
       </c>
       <c r="L197" t="n">
-        <v>0.07523123912111548</v>
+        <v>0.07412858896074084</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2168626849559394</v>
+        <v>0.1109537224519722</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1207404560771583</v>
+        <v>0.1177936463671113</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2164006064532467</v>
+        <v>0.1101483960914605</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02265008783927562</v>
+        <v>0.00948786024327309</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2168351442623218</v>
+        <v>0.05952897672164779</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02961681198992194</v>
+        <v>0.02910635695742761</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2183441833306246</v>
+        <v>0.1124447879266611</v>
       </c>
       <c r="L198" t="n">
-        <v>0.07537779357792612</v>
+        <v>0.07387317681415911</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2185055840843936</v>
+        <v>0.1117942809553962</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1209739900679657</v>
+        <v>0.1188067381381015</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2180400049869834</v>
+        <v>0.110982853637608</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02369520473267764</v>
+        <v>0.009339754838879</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2184654836928656</v>
+        <v>0.05952870819318378</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02957270005460874</v>
+        <v>0.0292847447881663</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2199858689195767</v>
+        <v>0.1132902374599442</v>
       </c>
       <c r="L199" t="n">
-        <v>0.07491943718945498</v>
+        <v>0.07361950909332068</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2201484832128476</v>
+        <v>0.1126348394588203</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1208996631315521</v>
+        <v>0.1186225406975233</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2196794035207201</v>
+        <v>0.1118173111837554</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02473870916288147</v>
+        <v>0.009196971391960525</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2200958231234094</v>
+        <v>0.05952843966471975</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02982662068978055</v>
+        <v>0.02906381500312449</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2216275545085288</v>
+        <v>0.1141356869932274</v>
       </c>
       <c r="L200" t="n">
-        <v>0.07495610249924875</v>
+        <v>0.07336752294444041</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2217913823413017</v>
+        <v>0.1134753979622443</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1202173677263039</v>
+        <v>0.117940955378256</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2213188020544568</v>
+        <v>0.1126517687299028</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02378057959290611</v>
+        <v>0.009060048759800376</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2217261625539531</v>
+        <v>0.05952817113625574</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02977854727359508</v>
+        <v>0.02894354230536111</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2232692400974809</v>
+        <v>0.1149811365265106</v>
       </c>
       <c r="L201" t="n">
-        <v>0.07518772205085419</v>
+        <v>0.07391715551373282</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2234342814697558</v>
+        <v>0.1143159564656683</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1214269963106075</v>
+        <v>0.1176618835131789</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2229582005881936</v>
+        <v>0.1134862262760502</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02282079448577058</v>
+        <v>0.008929525799662448</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2233565019844969</v>
+        <v>0.05952790260779173</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02992845318421006</v>
+        <v>0.02912390139793508</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2249109256864329</v>
+        <v>0.1158265860597937</v>
       </c>
       <c r="L202" t="n">
-        <v>0.07521422838781788</v>
+        <v>0.07316834394741262</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2250771805982099</v>
+        <v>0.1151565149690923</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1214284413428496</v>
+        <v>0.1178852264351715</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2245975991219303</v>
+        <v>0.1143206838221977</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02485933230449389</v>
+        <v>0.008805941368817023</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2249868414150407</v>
+        <v>0.05952763407932771</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03007631179978315</v>
+        <v>0.0291048669839053</v>
       </c>
       <c r="K203" t="n">
-        <v>0.226552611275385</v>
+        <v>0.1166720355930769</v>
       </c>
       <c r="L203" t="n">
-        <v>0.07553555405368662</v>
+        <v>0.07352102539169447</v>
       </c>
       <c r="M203" t="n">
-        <v>0.226720079726664</v>
+        <v>0.1159970734725164</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1208215952814168</v>
+        <v>0.1180108854771131</v>
       </c>
       <c r="O203" t="n">
-        <v>0.226236997655667</v>
+        <v>0.1151551413683451</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.024896171512095</v>
+        <v>0.008689834324529459</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2266171808455844</v>
+        <v>0.05952736555086369</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03012209649847204</v>
+        <v>0.0289864137663307</v>
       </c>
       <c r="K204" t="n">
-        <v>0.228194296864337</v>
+        <v>0.1175174851263601</v>
       </c>
       <c r="L204" t="n">
-        <v>0.07605163159200704</v>
+        <v>0.07327513699279309</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2283629788551181</v>
+        <v>0.1168376319759404</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1219063505846954</v>
+        <v>0.1177387619718832</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2278763961894037</v>
+        <v>0.1159895989144925</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02493129057159296</v>
+        <v>0.00858174352408015</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2282475202761282</v>
+        <v>0.05952709702239967</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03006578065843449</v>
+        <v>0.02886851644827021</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2298359824532891</v>
+        <v>0.1183629346596432</v>
       </c>
       <c r="L205" t="n">
-        <v>0.07606239354632588</v>
+        <v>0.07333061589692313</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2300058779835721</v>
+        <v>0.1176781904793645</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1217825997110721</v>
+        <v>0.1182687572523609</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2295157947231404</v>
+        <v>0.11682405646064</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02496466794600674</v>
+        <v>0.008482207824734127</v>
       </c>
       <c r="G206" t="n">
-        <v>0.229877859706672</v>
+        <v>0.05952682849393566</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03020733765782814</v>
+        <v>0.0288511497327827</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2314776680422412</v>
+        <v>0.1192083841929264</v>
       </c>
       <c r="L206" t="n">
-        <v>0.0763677724601898</v>
+        <v>0.07318739925029921</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2316487771120262</v>
+        <v>0.1185187489827885</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1216502351189334</v>
+        <v>0.1170007726514257</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2311551932568772</v>
+        <v>0.1176585140067874</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02499628209835537</v>
+        <v>0.008391766083761645</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2315081991372158</v>
+        <v>0.05952655996547165</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03024674087481073</v>
+        <v>0.02913428832292715</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2331193536311933</v>
+        <v>0.1200538337262095</v>
       </c>
       <c r="L207" t="n">
-        <v>0.07636770087714556</v>
+        <v>0.07334542419913609</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2332916762404803</v>
+        <v>0.1193593074862125</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1220091492666657</v>
+        <v>0.1171347095019569</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2327945917906139</v>
+        <v>0.1184929715529348</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02302611149165783</v>
+        <v>0.008310957158429659</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2331385385677595</v>
+        <v>0.05952629143700762</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03018396368753994</v>
+        <v>0.02881790692176245</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2347610392201453</v>
+        <v>0.1208992832594927</v>
       </c>
       <c r="L208" t="n">
-        <v>0.07616211134073975</v>
+        <v>0.07360462788964842</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2349345753689344</v>
+        <v>0.1201998659896366</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1217592346126557</v>
+        <v>0.1169704691368339</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2344339903243506</v>
+        <v>0.1193274290990823</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02505413458893314</v>
+        <v>0.008240319906015488</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2347688779983033</v>
+        <v>0.05952602290854361</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03011897947417348</v>
+        <v>0.02910198023234747</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2364027248090974</v>
+        <v>0.1217447327927759</v>
       </c>
       <c r="L209" t="n">
-        <v>0.07645093639451919</v>
+        <v>0.07286494746805083</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2365774744973885</v>
+        <v>0.1210404244930606</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1228003836152899</v>
+        <v>0.1174079528889362</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2360733888580873</v>
+        <v>0.1201618866452297</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02308032985320028</v>
+        <v>0.008180393183785648</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2363992174288471</v>
+        <v>0.05952575438007959</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03025176161286905</v>
+        <v>0.02878648295774124</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2380444103980494</v>
+        <v>0.1225901823260591</v>
       </c>
       <c r="L210" t="n">
-        <v>0.07643410858203054</v>
+        <v>0.07342632008055799</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2382203736258426</v>
+        <v>0.1218809829964846</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1222324887329547</v>
+        <v>0.1175470620911429</v>
       </c>
       <c r="O210" t="n">
-        <v>0.237712787391824</v>
+        <v>0.1209963441913771</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02310467574747826</v>
+        <v>0.008131715849010401</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2380295568593909</v>
+        <v>0.05952548585161557</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03028228348178433</v>
+        <v>0.02897138980100257</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2396860959870015</v>
+        <v>0.1234356318593422</v>
       </c>
       <c r="L211" t="n">
-        <v>0.07641156044682046</v>
+        <v>0.07348868287338461</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2398632727542967</v>
+        <v>0.1227215414999087</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1232554424240367</v>
+        <v>0.1170876980763335</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2393521859255607</v>
+        <v>0.1218308017375245</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02312715073478612</v>
+        <v>0.008094826758958659</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2396598962899346</v>
+        <v>0.05952521732315155</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03011051845907707</v>
+        <v>0.02875667546519041</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2413277815759536</v>
+        <v>0.1242810813926254</v>
       </c>
       <c r="L212" t="n">
-        <v>0.07668322453243567</v>
+        <v>0.0728519729927454</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2415061718827507</v>
+        <v>0.1235621000033327</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1221691371469225</v>
+        <v>0.1173297621773874</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2409915844592975</v>
+        <v>0.122665259283672</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02514773327814282</v>
+        <v>0.008070264770903911</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2412902357204784</v>
+        <v>0.05952494879468753</v>
       </c>
       <c r="J213" t="n">
-        <v>0.0302364399229049</v>
+        <v>0.0288423146533637</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2429694671649056</v>
+        <v>0.1251265309259086</v>
       </c>
       <c r="L213" t="n">
-        <v>0.0764490333824229</v>
+        <v>0.07281612758485495</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2431490710112048</v>
+        <v>0.1244026585067567</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1222734653599986</v>
+        <v>0.1173731557271839</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2426309829930342</v>
+        <v>0.1234997168298194</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02516640184056738</v>
+        <v>0.008058568742114552</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2429205751510222</v>
+        <v>0.05952468026622352</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03046002125142556</v>
+        <v>0.02902828206858135</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2446111527538577</v>
+        <v>0.1259719804591917</v>
       </c>
       <c r="L214" t="n">
-        <v>0.07630891954032876</v>
+        <v>0.07328108379592796</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2447919701396589</v>
+        <v>0.1252432170101808</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1233683195216513</v>
+        <v>0.1168177800586024</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2442703815267709</v>
+        <v>0.1243341743759668</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.0231831348850788</v>
+        <v>0.008058568742114552</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2445509145815659</v>
+        <v>0.05952468026622352</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03028123582279675</v>
+        <v>0.02881455241390224</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2462528383428098</v>
+        <v>0.1268174299924749</v>
       </c>
       <c r="L215" t="n">
-        <v>0.07706281554970001</v>
+        <v>0.07284677877217913</v>
       </c>
       <c r="M215" t="n">
-        <v>0.246434869268113</v>
+        <v>0.1260837755136048</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1224535920902675</v>
+        <v>0.1176635365045223</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2459097800605076</v>
+        <v>0.1251686319221142</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02419791087469607</v>
+        <v>0.007805828159462257</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2461812540121097</v>
+        <v>0.0594972776800519</v>
       </c>
       <c r="J216" t="n">
-        <v>0.0303000570151762</v>
+        <v>0.02870110039238535</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2478945239317618</v>
+        <v>0.1276628795257581</v>
       </c>
       <c r="L216" t="n">
-        <v>0.07661065395408337</v>
+        <v>0.07281314965982308</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2480777683965671</v>
+        <v>0.1269243340170288</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1231291755242334</v>
+        <v>0.1171103263978229</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2475491785942443</v>
+        <v>0.1260030894682617</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02321070827243822</v>
+        <v>0.007556444233768785</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2478115934426535</v>
+        <v>0.05946987509388028</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03041645820672155</v>
+        <v>0.02868790070708957</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2495362095207139</v>
+        <v>0.1285083290590412</v>
       </c>
       <c r="L217" t="n">
-        <v>0.07695236729702545</v>
+        <v>0.07268013360507455</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2497206675250212</v>
+        <v>0.1277648925204528</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1236949622819357</v>
+        <v>0.1175580510713834</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2491885771279811</v>
+        <v>0.1268375470144091</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02422150554132424</v>
+        <v>0.007311040902762751</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2494419328731973</v>
+        <v>0.05944247250770866</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03043041277559053</v>
+        <v>0.02897492806107378</v>
       </c>
       <c r="K218" t="n">
-        <v>0.251177895109666</v>
+        <v>0.1293537785923244</v>
       </c>
       <c r="L218" t="n">
-        <v>0.07698788812207302</v>
+        <v>0.07324766775414815</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2513635666534753</v>
+        <v>0.1286054510238769</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1233508448217609</v>
+        <v>0.1175066118580834</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2508279756617178</v>
+        <v>0.1276720045605565</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02423028114437313</v>
+        <v>0.007070242104172363</v>
       </c>
       <c r="G219" t="n">
-        <v>0.251072272303741</v>
+        <v>0.05941506992153704</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03054189409994086</v>
+        <v>0.02876215715739694</v>
       </c>
       <c r="K219" t="n">
-        <v>0.252819580698618</v>
+        <v>0.1301992281256076</v>
       </c>
       <c r="L219" t="n">
-        <v>0.07691714897277283</v>
+        <v>0.0725156892532586</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2530064657819294</v>
+        <v>0.1294460095273009</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1229967156020955</v>
+        <v>0.1162559100908023</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2524673741954545</v>
+        <v>0.128506462106704</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02523701354460391</v>
+        <v>0.006834671775726268</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2527026117342848</v>
+        <v>0.05938766733536542</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03045087555793019</v>
+        <v>0.02894956269911797</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2544612662875701</v>
+        <v>0.1310446776588907</v>
       </c>
       <c r="L220" t="n">
-        <v>0.07654008239267143</v>
+        <v>0.07248413524862055</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2546493649103834</v>
+        <v>0.1302865680307249</v>
       </c>
       <c r="N220" t="n">
-        <v>0.123632467081326</v>
+        <v>0.1172058471024193</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2541067727291912</v>
+        <v>0.1293409196528514</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02324168120503553</v>
+        <v>0.006604953855152661</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2543329511648286</v>
+        <v>0.05936026474919379</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03045733052771626</v>
+        <v>0.02863711938929576</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2561029518765222</v>
+        <v>0.1318901271921739</v>
       </c>
       <c r="L221" t="n">
-        <v>0.0772566209253156</v>
+        <v>0.07265294288644872</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2562922640388375</v>
+        <v>0.131127126534149</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1230579917178391</v>
+        <v>0.1168563242258138</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2557461712629279</v>
+        <v>0.1301753771989988</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02324426258868706</v>
+        <v>0.006381712280180168</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2559632905953723</v>
+        <v>0.05933286216302218</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03026123238745677</v>
+        <v>0.02892480193098924</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2577446374654742</v>
+        <v>0.132735576725457</v>
       </c>
       <c r="L222" t="n">
-        <v>0.07676669711425207</v>
+        <v>0.07292204931295765</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2579351631672916</v>
+        <v>0.131967685037573</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1228731819700211</v>
+        <v>0.1163072427938651</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2573855697966647</v>
+        <v>0.1310098347451463</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02324227603516743</v>
+        <v>0.006165570988537108</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2575936300259161</v>
+        <v>0.05930545957685057</v>
       </c>
       <c r="J223" t="n">
-        <v>0.0305625545153094</v>
+        <v>0.02891258502725735</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2593863230544263</v>
+        <v>0.1335810262587402</v>
       </c>
       <c r="L223" t="n">
-        <v>0.07667024350302751</v>
+        <v>0.07299139167436219</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2595780622957457</v>
+        <v>0.132808243540997</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1229775553901197</v>
+        <v>0.1170585041394526</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2590249683304013</v>
+        <v>0.1318442922912937</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.0251924158838162</v>
+        <v>0.005957153917951798</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2592239694564599</v>
+        <v>0.05927805699067894</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03042339528464433</v>
+        <v>0.02890044338115898</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2610280086433783</v>
+        <v>0.1344264757920234</v>
       </c>
       <c r="L224" t="n">
-        <v>0.07697696748505597</v>
+        <v>0.07296090711687686</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2612209614241998</v>
+        <v>0.1336488020444211</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1233010677458835</v>
+        <v>0.1168100095954558</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2606643668641381</v>
+        <v>0.1326787498374411</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.0240839304129316</v>
+        <v>0.005757085006152865</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2608543088870037</v>
+        <v>0.05925065440450732</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03020997908442552</v>
+        <v>0.02868835169575304</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2626696942323304</v>
+        <v>0.1352719253253065</v>
       </c>
       <c r="L225" t="n">
-        <v>0.076495199019256</v>
+        <v>0.0727305327867164</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2628638605526539</v>
+        <v>0.1344893605478451</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1225260509015278</v>
+        <v>0.116061660494754</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2623037653978748</v>
+        <v>0.1335132073835885</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.0229235336338186</v>
+        <v>0.00556598819086853</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2624846483175474</v>
+        <v>0.0592232518183357</v>
       </c>
       <c r="J226" t="n">
-        <v>0.03003060188110609</v>
+        <v>0.02857628467409848</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2643113798212825</v>
+        <v>0.1361173748585897</v>
       </c>
       <c r="L226" t="n">
-        <v>0.07624581119407517</v>
+        <v>0.0730002058300955</v>
       </c>
       <c r="M226" t="n">
-        <v>0.264506759681108</v>
+        <v>0.1353299190512691</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1218860302433974</v>
+        <v>0.1166133581702264</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2639431639316115</v>
+        <v>0.134347664929736</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02471793955778222</v>
+        <v>0.005384487409827388</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2641149877480912</v>
+        <v>0.05919584923216408</v>
       </c>
       <c r="J227" t="n">
-        <v>0.0299935628578531</v>
+        <v>0.02876421701925418</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2659530654102346</v>
+        <v>0.1369628243918729</v>
       </c>
       <c r="L227" t="n">
-        <v>0.07524983311243788</v>
+        <v>0.07236986339322882</v>
       </c>
       <c r="M227" t="n">
-        <v>0.266149658809562</v>
+        <v>0.1361704775546932</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1209145311578366</v>
+        <v>0.1169650039547526</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2655825624653482</v>
+        <v>0.1351821224758834</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02347386219612743</v>
+        <v>0.005213206600757685</v>
       </c>
       <c r="G228" t="n">
-        <v>0.265745327178635</v>
+        <v>0.05916844664599245</v>
       </c>
       <c r="J228" t="n">
-        <v>0.0294071611978336</v>
+        <v>0.0285521234342791</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2675947509991866</v>
+        <v>0.137808273925156</v>
       </c>
       <c r="L228" t="n">
-        <v>0.07492829387726851</v>
+        <v>0.07263944262233105</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2677925579380162</v>
+        <v>0.1370110360581172</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1200450790311898</v>
+        <v>0.1158164991812118</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2672219609990849</v>
+        <v>0.1360165800220308</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02219801556015921</v>
+        <v>0.005052769701388016</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2673756666091788</v>
+        <v>0.05914104405982084</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02937969608421467</v>
+        <v>0.02853997862223212</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2692364365881387</v>
+        <v>0.1386537234584392</v>
       </c>
       <c r="L229" t="n">
-        <v>0.07370222259149165</v>
+        <v>0.07260888066361676</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2694354570664702</v>
+        <v>0.1378515945615412</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1181111992498016</v>
+        <v>0.1166677451824834</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2688613595328216</v>
+        <v>0.1368510375681782</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.0218971136611826</v>
+        <v>0.004903800649446705</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2690060060397225</v>
+        <v>0.05911364147364923</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02881946670016343</v>
+        <v>0.02862775728617215</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2708781221770907</v>
+        <v>0.1394991729917224</v>
       </c>
       <c r="L230" t="n">
-        <v>0.0729926483580316</v>
+        <v>0.07237811466330074</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2710783561949243</v>
+        <v>0.1386921530649652</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1174464172000165</v>
+        <v>0.1165186432914467</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2705007580665583</v>
+        <v>0.1376854951143257</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02257787051050254</v>
+        <v>0.004766923382662117</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2706363454702663</v>
+        <v>0.0590862388874776</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02833477222884691</v>
+        <v>0.02881543412915817</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2725198077660428</v>
+        <v>0.1403446225250055</v>
       </c>
       <c r="L231" t="n">
-        <v>0.07202060027981291</v>
+        <v>0.07234708176759763</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2727212553233784</v>
+        <v>0.1395327115683893</v>
       </c>
       <c r="N231" t="n">
-        <v>0.115784258268179</v>
+        <v>0.1166690948409811</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2721401566002951</v>
+        <v>0.1385199526604731</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02324700011942404</v>
+        <v>0.004642761838762791</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2722666849008101</v>
+        <v>0.05905883630130598</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02823391185343221</v>
+        <v>0.02880298385424905</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2741614933549949</v>
+        <v>0.1411900720582887</v>
       </c>
       <c r="L232" t="n">
-        <v>0.07080710745975996</v>
+        <v>0.07251571912272212</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2743641544518325</v>
+        <v>0.1403732700718133</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1137582478406335</v>
+        <v>0.1159190271615637</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2737795551340318</v>
+        <v>0.1393544102066205</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02091121649925209</v>
+        <v>0.00453193995547703</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2738970243313538</v>
+        <v>0.05903143371513436</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02772518475708642</v>
+        <v>0.02869046887379055</v>
       </c>
       <c r="K233" t="n">
-        <v>0.275803178943947</v>
+        <v>0.1420355215915719</v>
       </c>
       <c r="L233" t="n">
-        <v>0.06987319900079722</v>
+        <v>0.07238429770585428</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2760070535802866</v>
+        <v>0.1412138285752373</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1126019113037245</v>
+        <v>0.1159690769140613</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2754189536677685</v>
+        <v>0.140188867752768</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.0215772336612917</v>
+        <v>0.004435081670533358</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2755273637618976</v>
+        <v>0.05900403112896274</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02721689012297659</v>
+        <v>0.02877805769318037</v>
       </c>
       <c r="K234" t="n">
-        <v>0.277444864532899</v>
+        <v>0.142880971124855</v>
       </c>
       <c r="L234" t="n">
-        <v>0.06873990400584915</v>
+        <v>0.07205314934036502</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2776499527087407</v>
+        <v>0.1420543870786614</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1110487740437966</v>
+        <v>0.1163195604452434</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2770583522015052</v>
+        <v>0.1410233252989154</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02025176561684783</v>
+        <v>0.004352810921660108</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2771577031924414</v>
+        <v>0.05897662854279111</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02691732713426981</v>
+        <v>0.02866575759222356</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2790865501218511</v>
+        <v>0.1437264206581382</v>
       </c>
       <c r="L235" t="n">
-        <v>0.06822825157784015</v>
+        <v>0.07242227952590127</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2792928518371947</v>
+        <v>0.1428949455820854</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1090323614471942</v>
+        <v>0.1160704863175433</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2786977507352419</v>
+        <v>0.1418577828450628</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02094152637722548</v>
+        <v>0.004285751646585782</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2787880426229852</v>
+        <v>0.0589492259566195</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02653479497413316</v>
+        <v>0.02855357076621451</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2807282357108031</v>
+        <v>0.1445718701914214</v>
       </c>
       <c r="L236" t="n">
-        <v>0.06685927081969467</v>
+        <v>0.07249169371697861</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2809357509656488</v>
+        <v>0.1437355040855094</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1068861989002619</v>
+        <v>0.1158218630933947</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2803371492689786</v>
+        <v>0.1426922403912102</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02165322995372967</v>
+        <v>0.004234527783038733</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2804183820535289</v>
+        <v>0.05892182337044788</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02617759282573369</v>
+        <v>0.02854149941044763</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2823699212997552</v>
+        <v>0.1454173197247045</v>
       </c>
       <c r="L237" t="n">
-        <v>0.06585399083433721</v>
+        <v>0.0719613973681128</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2825786500941029</v>
+        <v>0.1445760625889335</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1058438117893441</v>
+        <v>0.1158736993352309</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2819765478027154</v>
+        <v>0.1435266979373577</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.0203874765922615</v>
+        <v>0.004199763268747388</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2820487214840727</v>
+        <v>0.05889442078427626</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02565043874171746</v>
+        <v>0.02862954572021725</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2840116068887073</v>
+        <v>0.1462627692579877</v>
       </c>
       <c r="L238" t="n">
-        <v>0.06522520916463048</v>
+        <v>0.07213139593381948</v>
       </c>
       <c r="M238" t="n">
-        <v>0.284221549222557</v>
+        <v>0.1454166210923575</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1044215355977724</v>
+        <v>0.1164260036054854</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2836159463364521</v>
+        <v>0.1443611554835051</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01912321400977088</v>
+        <v>0.004182082041440188</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2836790609146165</v>
+        <v>0.05886701819810464</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02532849862611398</v>
+        <v>0.02861771189081776</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2856532924776594</v>
+        <v>0.1471082187912709</v>
       </c>
       <c r="L239" t="n">
-        <v>0.06421071553701962</v>
+        <v>0.07190169486861428</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2858644483510111</v>
+        <v>0.1462571795957816</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1034172196036885</v>
+        <v>0.1157787844665918</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2852553448701888</v>
+        <v>0.1451956130296525</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01985794815396048</v>
+        <v>0.004179849612168302</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2853094003451602</v>
+        <v>0.05883961561193302</v>
       </c>
       <c r="J240" t="n">
-        <v>0.0252053303333679</v>
+        <v>0.02850600011754353</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2872949780666114</v>
+        <v>0.147953668324554</v>
       </c>
       <c r="L240" t="n">
-        <v>0.06329311307925739</v>
+        <v>0.07237229962701297</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2875073474794652</v>
+        <v>0.1470977380992056</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1016079325729791</v>
+        <v>0.1158320504809835</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2868947434039255</v>
+        <v>0.1460300705757999</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.0185916631190885</v>
+        <v>0.004180030863954</v>
       </c>
       <c r="G241" t="n">
-        <v>0.286939739775704</v>
+        <v>0.0588122130257614</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02468091420240655</v>
+        <v>0.028594412595689</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2889366636555635</v>
+        <v>0.1487991178578372</v>
       </c>
       <c r="L241" t="n">
-        <v>0.06247235197261916</v>
+        <v>0.07204321566353108</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2891502466079193</v>
+        <v>0.1479382966026296</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1006935950827605</v>
+        <v>0.1157858102110939</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2885341419376622</v>
+        <v>0.1468645281219474</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01832434299941323</v>
+        <v>0.004180714043761621</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2885700792062478</v>
+        <v>0.05878481043958977</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02455523057215724</v>
+        <v>0.02868295152054846</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2905783492445155</v>
+        <v>0.1496445673911204</v>
       </c>
       <c r="L242" t="n">
-        <v>0.06214838239838028</v>
+        <v>0.07221444843268443</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2907931457363733</v>
+        <v>0.1487788551060537</v>
       </c>
       <c r="N242" t="n">
-        <v>0.09907412771014923</v>
+        <v>0.1152400722193567</v>
       </c>
       <c r="O242" t="n">
-        <v>0.290173540471399</v>
+        <v>0.1476989856680948</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01905597188919285</v>
+        <v>0.004182233770272457</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2902004186367916</v>
+        <v>0.05875740785341815</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02422825978154726</v>
+        <v>0.02847161908741633</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2922200348334676</v>
+        <v>0.1504900169244035</v>
       </c>
       <c r="L243" t="n">
-        <v>0.06142115453781608</v>
+        <v>0.07248600338898853</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2924360448648274</v>
+        <v>0.1496194136094776</v>
       </c>
       <c r="N243" t="n">
-        <v>0.09834945103226189</v>
+        <v>0.1158948450682051</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2918129390051357</v>
+        <v>0.1485334432142423</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01978653388268566</v>
+        <v>0.004184924662167806</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2918307580673353</v>
+        <v>0.05873000526724654</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02399998216950398</v>
+        <v>0.028660417491587</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2938617204224196</v>
+        <v>0.1513354664576867</v>
       </c>
       <c r="L244" t="n">
-        <v>0.06039061857220188</v>
+        <v>0.07195788598695921</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2940789439932815</v>
+        <v>0.1504599721129017</v>
       </c>
       <c r="N244" t="n">
-        <v>0.09631948562621501</v>
+        <v>0.1154501373200728</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2934523375388724</v>
+        <v>0.1493679007603897</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01951601307414984</v>
+        <v>0.004189121338128932</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2934610974978791</v>
+        <v>0.05870260268107491</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02367037807495469</v>
+        <v>0.02864934892835483</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2955034060113717</v>
+        <v>0.1521809159909699</v>
       </c>
       <c r="L245" t="n">
-        <v>0.05965672468281305</v>
+        <v>0.07203010168111201</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2957218431217356</v>
+        <v>0.1513005306163257</v>
       </c>
       <c r="N245" t="n">
-        <v>0.09568415206912489</v>
+        <v>0.1162059575373932</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2950917360726091</v>
+        <v>0.1502023583065371</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01824439355784368</v>
+        <v>0.004195158416837125</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2950914369284229</v>
+        <v>0.0586752000949033</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02323942783682667</v>
+        <v>0.0283384155930142</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2971450916003238</v>
+        <v>0.153026365524253</v>
       </c>
       <c r="L246" t="n">
-        <v>0.0589194230509249</v>
+        <v>0.07180265592596277</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2973647422501897</v>
+        <v>0.1521410891197497</v>
       </c>
       <c r="N246" t="n">
-        <v>0.09414337093810826</v>
+        <v>0.1159623142825997</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2967311346063458</v>
+        <v>0.1510368158526846</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01697165942802538</v>
+        <v>0.004203370516973691</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2967217763589667</v>
+        <v>0.05864779750873167</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02300711179404726</v>
+        <v>0.02852761968085948</v>
       </c>
       <c r="K247" t="n">
-        <v>0.2987867771892758</v>
+        <v>0.1538718150575362</v>
       </c>
       <c r="L247" t="n">
-        <v>0.05787866385781282</v>
+        <v>0.07167555417602695</v>
       </c>
       <c r="M247" t="n">
-        <v>0.2990076413786438</v>
+        <v>0.1529816476231738</v>
       </c>
       <c r="N247" t="n">
-        <v>0.09329706281028155</v>
+        <v>0.1151192161181259</v>
       </c>
       <c r="O247" t="n">
-        <v>0.2983705331400826</v>
+        <v>0.151871273398832</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01869779477895323</v>
+        <v>0.004214092257219887</v>
       </c>
       <c r="G248" t="n">
-        <v>0.2983521157895104</v>
+        <v>0.05862039492256006</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02237341028554379</v>
+        <v>0.02851696338718504</v>
       </c>
       <c r="K248" t="n">
-        <v>0.3004284627782279</v>
+        <v>0.1547172645908194</v>
       </c>
       <c r="L248" t="n">
-        <v>0.05703439728475207</v>
+        <v>0.07204880188582038</v>
       </c>
       <c r="M248" t="n">
-        <v>0.3006505405070979</v>
+        <v>0.1538222061265978</v>
       </c>
       <c r="N248" t="n">
-        <v>0.09164514826276127</v>
+        <v>0.1149766716064052</v>
       </c>
       <c r="O248" t="n">
-        <v>0.3000099316738193</v>
+        <v>0.1527057309449794</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01842278370488541</v>
+        <v>0.004227658256257025</v>
       </c>
       <c r="G249" t="n">
-        <v>0.2999824552200542</v>
+        <v>0.05859299233638843</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02213830365024354</v>
+        <v>0.02850644890728532</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3020701483671799</v>
+        <v>0.1555627141241025</v>
       </c>
       <c r="L249" t="n">
-        <v>0.05598657351301806</v>
+        <v>0.07222240450985865</v>
       </c>
       <c r="M249" t="n">
-        <v>0.3022934396355519</v>
+        <v>0.1546627646300218</v>
       </c>
       <c r="N249" t="n">
-        <v>0.09058754787266393</v>
+        <v>0.1155346893098712</v>
       </c>
       <c r="O249" t="n">
-        <v>0.301649330207556</v>
+        <v>0.1535401884911268</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01814661030008019</v>
+        <v>0.004244403132766375</v>
       </c>
       <c r="G250" t="n">
-        <v>0.301612794650598</v>
+        <v>0.05856558975021681</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02190177222707386</v>
+        <v>0.02849607843645463</v>
       </c>
       <c r="K250" t="n">
-        <v>0.303711833956132</v>
+        <v>0.1564081636573857</v>
       </c>
       <c r="L250" t="n">
-        <v>0.05513514272388609</v>
+        <v>0.07199636750265748</v>
       </c>
       <c r="M250" t="n">
-        <v>0.303936338764006</v>
+        <v>0.1555033231334459</v>
       </c>
       <c r="N250" t="n">
-        <v>0.08882418221710603</v>
+        <v>0.1149932777909571</v>
       </c>
       <c r="O250" t="n">
-        <v>0.3032887287412927</v>
+        <v>0.1543746460372742</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01586925865879581</v>
+        <v>0.004264661505429208</v>
       </c>
       <c r="G251" t="n">
-        <v>0.3032431340811417</v>
+        <v>0.0585381871640452</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02166379635496204</v>
+        <v>0.02848585416998736</v>
       </c>
       <c r="K251" t="n">
-        <v>0.3053535195450841</v>
+        <v>0.1572536131906689</v>
       </c>
       <c r="L251" t="n">
-        <v>0.05418005509863152</v>
+        <v>0.0718706963187325</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3055792378924601</v>
+        <v>0.1563438816368699</v>
       </c>
       <c r="N251" t="n">
-        <v>0.0876549718732042</v>
+        <v>0.1159524456120968</v>
       </c>
       <c r="O251" t="n">
-        <v>0.3049281272750294</v>
+        <v>0.1552091035834217</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01659071287529051</v>
+        <v>0.004288767992926858</v>
       </c>
       <c r="G252" t="n">
-        <v>0.3048734735116855</v>
+        <v>0.05851078457787357</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02122435637283542</v>
+        <v>0.0283757783031779</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3069952051340362</v>
+        <v>0.158099062723952</v>
       </c>
       <c r="L252" t="n">
-        <v>0.05392126081852969</v>
+        <v>0.07154539641259938</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3072221370209142</v>
+        <v>0.157184440140294</v>
       </c>
       <c r="N252" t="n">
-        <v>0.08617983741807478</v>
+        <v>0.1156122013357234</v>
       </c>
       <c r="O252" t="n">
-        <v>0.3065675258087661</v>
+        <v>0.1560435611295691</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01731095704382253</v>
+        <v>0.004317057213940566</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3065038129422293</v>
+        <v>0.05848338199170196</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02098343261962131</v>
+        <v>0.02836585303132065</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3086368907229882</v>
+        <v>0.1589445122572352</v>
       </c>
       <c r="L253" t="n">
-        <v>0.05305871006485591</v>
+        <v>0.07222047323877384</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3088650361493683</v>
+        <v>0.158024998643718</v>
       </c>
       <c r="N253" t="n">
-        <v>0.08409869942883441</v>
+        <v>0.1150725535242705</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3082069243425029</v>
+        <v>0.1568780186757165</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.0160299752586501</v>
+        <v>0.004349863787151645</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3081341523727731</v>
+        <v>0.05845597940553033</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02044100543424698</v>
+        <v>0.02855608054970996</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3102785763119403</v>
+        <v>0.1597899617905184</v>
       </c>
       <c r="L254" t="n">
-        <v>0.05209235301888557</v>
+        <v>0.07199593225177148</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3105079352778224</v>
+        <v>0.158865557147142</v>
       </c>
       <c r="N254" t="n">
-        <v>0.08271147848259947</v>
+        <v>0.1146335107401717</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3098463228762396</v>
+        <v>0.157712476221864</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01574775161403148</v>
+        <v>0.004387522331241352</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3097644918033168</v>
+        <v>0.05842857681935872</v>
       </c>
       <c r="J255" t="n">
-        <v>0.0202970551556398</v>
+        <v>0.02854646305364021</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3119202619008923</v>
+        <v>0.1606354113238015</v>
       </c>
       <c r="L255" t="n">
-        <v>0.05102213986189397</v>
+        <v>0.07147177890610806</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3121508344062764</v>
+        <v>0.1597061156505661</v>
       </c>
       <c r="N255" t="n">
-        <v>0.0811180951564866</v>
+        <v>0.1151950815458603</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3114857214099763</v>
+        <v>0.1585469337680114</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01546427020422488</v>
+        <v>0.004430367464891005</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3113948312338606</v>
+        <v>0.05840117423318709</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01985156212272705</v>
+        <v>0.02823700273840579</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3135619474898445</v>
+        <v>0.1614808608570847</v>
       </c>
       <c r="L256" t="n">
-        <v>0.05014802077515645</v>
+        <v>0.07184801865629917</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3137937335347306</v>
+        <v>0.1605466741539901</v>
       </c>
       <c r="N256" t="n">
-        <v>0.08041847002761227</v>
+        <v>0.11575727450377</v>
       </c>
       <c r="O256" t="n">
-        <v>0.313125119943713</v>
+        <v>0.1593813913141588</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01417951512348855</v>
+        <v>0.004478733806781862</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3130251706644044</v>
+        <v>0.05837377164701547</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01950450667443607</v>
+        <v>0.02852770179930106</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3152036330787965</v>
+        <v>0.1623263103903679</v>
       </c>
       <c r="L257" t="n">
-        <v>0.04946994593994841</v>
+        <v>0.07182465695686055</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3154366326631846</v>
+        <v>0.1613872326574141</v>
       </c>
       <c r="N257" t="n">
-        <v>0.07951252367309297</v>
+        <v>0.115720098176334</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3147645184774497</v>
+        <v>0.1602158488603063</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01389347046608074</v>
+        <v>0.004532955975595214</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3146555100949482</v>
+        <v>0.05834636906084386</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01925586914969415</v>
+        <v>0.0285185624316204</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3168453186677486</v>
+        <v>0.163171759923651</v>
       </c>
       <c r="L258" t="n">
-        <v>0.04818786553754506</v>
+        <v>0.07190169926230777</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3170795317916387</v>
+        <v>0.1622277911608381</v>
       </c>
       <c r="N258" t="n">
-        <v>0.07710017667004521</v>
+        <v>0.1152835611259859</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3164039170111865</v>
+        <v>0.1610503064064537</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01460612032625969</v>
+        <v>0.004593368590012387</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3162858495254919</v>
+        <v>0.05831896647467223</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01890562988742862</v>
+        <v>0.0284095868306582</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3184870042567006</v>
+        <v>0.1640172094569342</v>
       </c>
       <c r="L259" t="n">
-        <v>0.04740172974922185</v>
+        <v>0.07167915102715661</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3187224309200928</v>
+        <v>0.1630683496642622</v>
       </c>
       <c r="N259" t="n">
-        <v>0.07638134959558551</v>
+        <v>0.1155476719151592</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3180433155449232</v>
+        <v>0.1618847639526011</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01331744879828362</v>
+        <v>0.004660306268714609</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3179161889560357</v>
+        <v>0.05829156388850062</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01825376922656681</v>
+        <v>0.02850077719170883</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3201286898456527</v>
+        <v>0.1648626589902173</v>
       </c>
       <c r="L260" t="n">
-        <v>0.04681148875625415</v>
+        <v>0.07195701770592272</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3203653300485469</v>
+        <v>0.1639089081676862</v>
       </c>
       <c r="N260" t="n">
-        <v>0.07435596302683051</v>
+        <v>0.1146124391062875</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3196827140786599</v>
+        <v>0.1627192214987485</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01302743997641079</v>
+        <v>0.004734103630383214</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3195465283865795</v>
+        <v>0.05826416130232899</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01790026750603599</v>
+        <v>0.02849213571006666</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3217703754346047</v>
+        <v>0.1657081085235005</v>
       </c>
       <c r="L261" t="n">
-        <v>0.04591709273991723</v>
+        <v>0.07143530475312174</v>
       </c>
       <c r="M261" t="n">
-        <v>0.322008229177001</v>
+        <v>0.1647494666711102</v>
       </c>
       <c r="N261" t="n">
-        <v>0.07312393754089652</v>
+        <v>0.1145778712618041</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3213221126123966</v>
+        <v>0.163553679044896</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01373607795489944</v>
+        <v>0.004815095293699438</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3211768678171232</v>
+        <v>0.05823675871615738</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01764510506476348</v>
+        <v>0.02838366458102611</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3234120610235569</v>
+        <v>0.1665535580567837</v>
       </c>
       <c r="L262" t="n">
-        <v>0.04461849188148639</v>
+        <v>0.07201401762326931</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3236511283054551</v>
+        <v>0.1655900251745343</v>
       </c>
       <c r="N262" t="n">
-        <v>0.07188519371490015</v>
+        <v>0.1151439769441424</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3229615111461333</v>
+        <v>0.1643881365910434</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.0124433468280078</v>
+        <v>0.004903615877344621</v>
       </c>
       <c r="G263" t="n">
-        <v>0.322807207247667</v>
+        <v>0.05820935612998575</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01748826224167666</v>
+        <v>0.0284753659998815</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3250537466125089</v>
+        <v>0.1673990075900668</v>
       </c>
       <c r="L263" t="n">
-        <v>0.04381563636223698</v>
+        <v>0.07129316177088113</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3252940274339092</v>
+        <v>0.1664305836779583</v>
       </c>
       <c r="N263" t="n">
-        <v>0.06973965212595784</v>
+        <v>0.1143107647157362</v>
       </c>
       <c r="O263" t="n">
-        <v>0.32460090967987</v>
+        <v>0.1652225941371908</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01414923068999411</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3244375466782108</v>
+        <v>0.05818195354381413</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01682971937570278</v>
+        <v>0.02836724216192725</v>
       </c>
       <c r="K264" t="n">
-        <v>0.326695432201461</v>
+        <v>0.16824445712335</v>
       </c>
       <c r="L264" t="n">
-        <v>0.04270847636344446</v>
+        <v>0.07187274265047294</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3269369265623632</v>
+        <v>0.1672711421813823</v>
       </c>
       <c r="N264" t="n">
-        <v>0.06878723335118614</v>
+        <v>0.1153782431390187</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3262403082136068</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1660570516833382</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05816879564907729</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005307533779258092</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.0581690641775413</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.005612219653742145</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05816933270600531</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.005913980888335078</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05816960123446934</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.00621274074788046</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05816986976293335</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.006508422497261343</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05817013829139737</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.006800949401347574</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05817040681986139</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.007090244725021511</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05817067534832541</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.007376231733127819</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05817094387678943</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.007658833690549004</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05817121240525344</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.007937973862154925</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05817148093371746</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.008213575512827323</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05817174946218148</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.008485561907412079</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.0581720179906455</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.008753856310791085</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05817228651910951</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.009018381987834202</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05817255504757352</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.009279062203422533</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05817282357603755</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.009535820222403228</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05817309210450156</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.009788579309657576</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05817336063296558</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01003726273005541</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.0581736291614296</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01028179374847712</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05817389768989362</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01052209562977129</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05817416621835764</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01075809163881849</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05817443474682165</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01098970504048855</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05817470327528566</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01121685909966113</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05817497180374969</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01143947708118626</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.0581752403322137</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01165779558505865</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05817550886067772</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01187361788683688</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05817577738914173</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.01208718058651484</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05817604591760576</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.01229840694894378</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05817631444606977</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.01250722023900288</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05817658297453378</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.01271354372156199</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.0581768515029978</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.01291730066149978</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05817712003146183</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.01311841432366834</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05817738855992585</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.01331680797294645</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05817765708838986</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.01351240487420396</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05817792561685387</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.01370512829231904</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.0581781941453179</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.01389490149214474</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05817846267378191</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.01408164773855938</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05817873120224593</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.01426529029643281</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05817899973070994</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.01444575243064264</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05817926825917397</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.01462295740604302</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05817953678763798</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.0147968284875117</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05817980531610199</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.01496728893991855</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05818007384456601</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.0151342620281406</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05818034237303003</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.01529767101703317</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05818061090149405</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.01545743917147342</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05818087942995807</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.01561348975633122</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05818114795842208</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.01576574603648295</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.05818141648688611</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.01591413127678522</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05818168501535012</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.01605856874211456</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05818195354381413</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.01605856874211456</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05816879564907729</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.01617225579788935</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05819673529217694</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.01628368887939682</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.0582246749352766</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.01639265204217666</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05825261457837625</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.01649892934176856</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05828055422147591</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.01660230483371222</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05830849386457557</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.01670256257354733</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05833643350767522</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.01679948661681353</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05836437315077486</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.01689286101905062</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05839231279387452</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.01698246983579823</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05842025243697418</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.01706809712259606</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.05844819208007383</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.01714952693498378</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05847613172317349</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.01722654332850113</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05850407136627314</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.01729893035868776</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.0585320110093728</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.01736647208108338</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05855995065247246</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.01742895255122767</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05858789029557211</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.01748615582466034</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05861582993867177</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.01753786595692107</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05864376958177142</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.01758386700354955</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05867170922487108</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.01762394302008547</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05869964886797072</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.01765787806206854</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05872758851107038</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.01768545618503845</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05875552815417003</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.01770646144453488</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05878346779726969</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.01772067789609753</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05881140744036934</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.01772788959526608</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.058839347083469</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.01772876237079316</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05886728672656866</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.01772837091749599</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.05889522636966831</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.0177273810641272</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05892316601276797</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.01772557686622647</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05895110565586762</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.01772274237933349</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05897904529896728</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.01771866165898797</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05900698494206693</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.0177131187607296</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05903492458516658</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.01770589774009805</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05906286422826623</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.01769678265263303</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05909080387136589</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.01768555755387424</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.05911874351446554</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.01767200649936134</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.0591466831575652</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.01765591354463405</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05917462280066486</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.01763706274523205</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05920256244376451</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.01761523815669504</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.05923050208686417</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.01759022383456271</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05925844172996382</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.01756180383437476</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.05928638137306348</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.01752976221167087</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05931432101616313</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.01749388302199073</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.05934226065926279</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.01745395032087406</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.05937020030236243</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.01740974816386051</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.05939813994546209</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.0173610606064898</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.05942607958856174</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.01730767170430161</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.0594540192316614</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.01724936551283563</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05948195887476106</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.01718592608763157</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05950989851786071</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.01711713748422911</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05953783816096037</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.01711713748422911</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05953783816096037</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.01752464217916656</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.06112018266219797</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.01792424180968678</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.06270252716343556</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.01831575097473877</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06428487166467316</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.01869898427327159</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.06586721616591076</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.01907375630423423</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.06744956066714837</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.0194398816665757</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.06903190516838598</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.01979717495924503</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.07061424966962355</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.02014545078119125</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.07219659417086116</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.02048452373136336</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.07377893867209877</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.02081420840871039</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.07536128317333637</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.02113431941218133</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.07694362767457397</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.02144467134072524</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.07852597217581156</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.0217450787932911</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.08010831667704917</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.02203535636882795</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.08169066117828677</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.02231531866628482</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.08327300567952438</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.02258478028461068</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.08485535018076196</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.0228435558227546</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.08643769468199956</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.02309145987966557</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.08802003918323717</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.0233283070542926</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.08960238368447476</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.02355391194558475</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.09118472818571237</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.023768089152491</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.09276707268694996</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.02397065327396036</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.09434941718818757</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.02416141890894187</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.09593176168942517</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.02434020065638456</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.09751410619066277</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.02450681311523743</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.09909645069190036</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.02466107088444949</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.100678795193138</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.02480278856296977</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1022611396943756</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.02493178074974728</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1038434841956132</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.02504786204373105</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1054258286968508</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.02515084704387011</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1070081731980883</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.02524055034911343</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.108590517699326</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.02531678655841006</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1101728622005636</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.02537937027070904</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1117552067018012</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.02542811608495933</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1133375512030388</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.02546283860010998</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1149198957042764</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.02548951664563881</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.116502240205514</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.02548949879010698</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1180845847067516</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.02548619962813257</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1196669292079892</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.02547748896000693</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1212492737092268</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.02546377778154027</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1228316182104644</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.02544547708854279</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.124413962711702</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.02542299787682469</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1259963072129396</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.02539675114219611</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1275786517141771</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.02536714788046729</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1291609962154148</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.02533459908744844</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1307433407166524</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.02529951575894972</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.13232568521789</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.02526230889078132</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1339080297191276</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.02522338947875348</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1354903742203652</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.02518316851867636</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1370727187216028</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.02514205700636014</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1386550632228404</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.02510018875824255</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.140237407724078</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.02504524737945078</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1418197522253156</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.02497351776589887</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1434020967265532</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.02488927500877398</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1449844412277908</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.02479679419926327</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1465667857290284</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.02470035042855387</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.148149130230266</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.02460421878783295</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.02451267436828766</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1513138192327411</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.02442999226110514</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1528961637339787</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.02436044755747253</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1544785082352164</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.02430831534857701</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.156060852736454</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.02426934033846304</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1576431972376915</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.02423274709495013</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1592255417389292</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.02419830229599555</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1608078862401668</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.02416586895103691</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1623902307414044</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.02413531006951172</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.163972575242642</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.02410648866085757</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1655549197438796</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.02407926773451199</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1671372642451172</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.02405351029991255</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1687196087463547</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.02402907936649681</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1703019532475924</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.02400583794370231</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.17188429774883</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.02398364904096661</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1734666422500676</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.02396237566772731</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1750489867513052</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.0239418808334219</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1766313312525428</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.02392202754748798</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1782136757537804</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.0239026788193631</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.179796020255018</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.0238836976584848</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1813783647562555</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.02386494707429065</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1829607092574932</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.02384629007621822</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1845430537587308</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.02382758967370505</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1861253982599684</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.0238087088761887</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.187707742761206</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.02378951069310671</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1892900872624436</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.02377025937686278</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1908724317636812</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.02375132978318856</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1924547762649188</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.02373273382156622</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1940371207661564</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.02371448338017668</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.195619465267394</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.02369659034720081</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1972018097686316</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.02367906661081952</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1987841542698692</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.02366192405921369</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.2003664987711068</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.02364517458056423</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.2019488432723444</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.023628830063052</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.203531187773582</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.02361290239485789</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2051135322748196</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.02359740346416282</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2066958767760572</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.02358234515914767</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2082782212772948</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.02356773936799332</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2098605657785323</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.02355359797888067</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.21144291027977</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.02353993287999061</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2130252547810075</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.023526755959504</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2146075992822452</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.0235140791056018</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2161899437834828</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
